--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="848" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Gral 08-20" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="38">
   <si>
     <t>Construcción</t>
   </si>
@@ -201,27 +201,6 @@
   </si>
   <si>
     <t>Industria de la construcción</t>
-  </si>
-  <si>
-    <t>2020/Noviembre</t>
-  </si>
-  <si>
-    <t>2020/Diciembre</t>
-  </si>
-  <si>
-    <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
-  </si>
-  <si>
-    <t>Industria eléctrica, captación y suministro de agua potable</t>
-  </si>
-  <si>
-    <t>Industrias de transformación</t>
-  </si>
-  <si>
-    <t>Transportes y comunicaciones</t>
-  </si>
-  <si>
-    <t>División de Actividad</t>
   </si>
   <si>
     <t>Var Dic 2020 respecto a Nov  2020</t>
@@ -1081,10 +1060,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1353,10 +1332,10 @@
       </c>
       <c r="O8" s="94"/>
       <c r="P8" s="88" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="88" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -2015,113 +1994,6 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="Q23" s="36"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26">
-        <v>746512</v>
-      </c>
-      <c r="C26">
-        <v>757997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>121639</v>
-      </c>
-      <c r="C27">
-        <v>119946</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <v>5499933</v>
-      </c>
-      <c r="C28">
-        <v>5438831</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29">
-        <v>1577102</v>
-      </c>
-      <c r="C29">
-        <v>1487563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30">
-        <v>146785</v>
-      </c>
-      <c r="C30">
-        <v>146801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>4080918</v>
-      </c>
-      <c r="C31">
-        <v>4040863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32">
-        <v>1220915</v>
-      </c>
-      <c r="C32">
-        <v>1213211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33">
-        <v>6657748</v>
-      </c>
-      <c r="C33">
-        <v>6568520</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34">
-        <v>20051552</v>
-      </c>
-      <c r="C34">
-        <v>19773732</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6940,7 +6812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Desktop\Respaldo_Susana\Enero2021\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C73C26-A48C-4876-A4ED-D2EC80497E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7143AC6B-4611-4D8C-B080-910CE31BA896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="38">
   <si>
     <t>Construcción</t>
   </si>
@@ -196,16 +196,19 @@
     <t>Comportamiento de trabajadores asegurados  nacional</t>
   </si>
   <si>
-    <t>Por división económica 2008 - 2020</t>
-  </si>
-  <si>
     <t>Industria de la construcción</t>
   </si>
   <si>
     <t>2008-2021</t>
   </si>
   <si>
-    <t>Var Ene 2021 respecto a Dic  2020</t>
+    <t>Var Feb 2021 respecto a Ene 2021</t>
+  </si>
+  <si>
+    <t>Var Feb 2021 respecto a Dic 2020</t>
+  </si>
+  <si>
+    <t>Por división económica 2008 - 2021</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -699,14 +702,9 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -719,6 +717,12 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,7 +742,12 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1091,21 +1100,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE22"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A25" sqref="A25:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.26953125" customWidth="1"/>
-    <col min="2" max="16" width="8.7265625" customWidth="1"/>
-    <col min="17" max="17" width="14.54296875" customWidth="1"/>
-    <col min="18" max="31" width="11.453125" customWidth="1"/>
+    <col min="2" max="18" width="8.7265625" customWidth="1"/>
+    <col min="19" max="19" width="14.54296875" customWidth="1"/>
+    <col min="20" max="33" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -1115,7 +1124,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
@@ -1134,8 +1143,8 @@
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -1149,8 +1158,10 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-    </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+    </row>
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>5</v>
       </c>
@@ -1169,8 +1180,8 @@
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -1184,10 +1195,12 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
-    </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+    </row>
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -1204,8 +1217,8 @@
       <c r="N4" s="52"/>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
@@ -1219,8 +1232,10 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
-    </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+    </row>
+    <row r="5" spans="1:33" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1237,8 +1252,8 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1252,28 +1267,30 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-    </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1281,28 +1298,30 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:33" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1310,9 +1329,11 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="91" t="s">
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="90" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="76">
@@ -1354,18 +1375,22 @@
       <c r="N8" s="86">
         <v>2020</v>
       </c>
-      <c r="O8" s="86">
+      <c r="O8" s="101">
         <v>2021</v>
       </c>
-      <c r="P8" s="88" t="s">
+      <c r="P8" s="101"/>
+      <c r="Q8" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="91"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
       </c>
@@ -1408,12 +1433,16 @@
       <c r="O9" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="P9" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
       <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:31" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:33" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>19</v>
       </c>
@@ -1460,14 +1489,21 @@
         <v>788056</v>
       </c>
       <c r="P10" s="39">
-        <f>O10-N10</f>
-        <v>30059</v>
-      </c>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="1:31" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>799874</v>
+      </c>
+      <c r="Q10" s="39">
+        <f>P10-O10</f>
+        <v>11818</v>
+      </c>
+      <c r="R10" s="39">
+        <f>P10-N10</f>
+        <v>41877</v>
+      </c>
+      <c r="S10" s="77"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+    </row>
+    <row r="11" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>20</v>
       </c>
@@ -1514,14 +1550,21 @@
         <v>122138</v>
       </c>
       <c r="P11" s="39">
-        <f t="shared" ref="P11:P17" si="0">O11-N11</f>
-        <v>2192</v>
-      </c>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-    </row>
-    <row r="12" spans="1:31" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122880</v>
+      </c>
+      <c r="Q11" s="39">
+        <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
+        <v>742</v>
+      </c>
+      <c r="R11" s="39">
+        <f t="shared" ref="R11:R17" si="1">P11-N11</f>
+        <v>2934</v>
+      </c>
+      <c r="S11" s="77"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>21</v>
       </c>
@@ -1568,16 +1611,23 @@
         <v>5498006</v>
       </c>
       <c r="P12" s="39">
-        <f t="shared" si="0"/>
-        <v>59175</v>
-      </c>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-    </row>
-    <row r="13" spans="1:31" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5539351</v>
+      </c>
+      <c r="Q12" s="39">
+        <f t="shared" si="0"/>
+        <v>41345</v>
+      </c>
+      <c r="R12" s="39">
+        <f t="shared" si="1"/>
+        <v>100520</v>
+      </c>
+      <c r="S12" s="77"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+    </row>
+    <row r="13" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="55">
         <v>1099436</v>
@@ -1622,14 +1672,21 @@
         <v>1511546</v>
       </c>
       <c r="P13" s="39">
-        <f t="shared" si="0"/>
-        <v>23983</v>
-      </c>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="14" spans="1:31" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+        <v>1524171</v>
+      </c>
+      <c r="Q13" s="39">
+        <f t="shared" si="0"/>
+        <v>12625</v>
+      </c>
+      <c r="R13" s="39">
+        <f t="shared" si="1"/>
+        <v>36608</v>
+      </c>
+      <c r="S13" s="77"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" spans="1:33" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>22</v>
       </c>
@@ -1676,14 +1733,21 @@
         <v>145059</v>
       </c>
       <c r="P14" s="39">
-        <f t="shared" si="0"/>
-        <v>-1742</v>
-      </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-    </row>
-    <row r="15" spans="1:31" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145218</v>
+      </c>
+      <c r="Q14" s="39">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="R14" s="39">
+        <f t="shared" si="1"/>
+        <v>-1583</v>
+      </c>
+      <c r="S14" s="77"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+    </row>
+    <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>1</v>
       </c>
@@ -1730,14 +1794,21 @@
         <v>4002111</v>
       </c>
       <c r="P15" s="39">
-        <f t="shared" si="0"/>
-        <v>-38752</v>
-      </c>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-    </row>
-    <row r="16" spans="1:31" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4019354</v>
+      </c>
+      <c r="Q15" s="39">
+        <f t="shared" si="0"/>
+        <v>17243</v>
+      </c>
+      <c r="R15" s="39">
+        <f t="shared" si="1"/>
+        <v>-21509</v>
+      </c>
+      <c r="S15" s="77"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>23</v>
       </c>
@@ -1784,14 +1855,21 @@
         <v>1215685</v>
       </c>
       <c r="P16" s="39">
-        <f t="shared" si="0"/>
-        <v>2474</v>
-      </c>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-    </row>
-    <row r="17" spans="1:19" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1217940</v>
+      </c>
+      <c r="Q16" s="39">
+        <f t="shared" si="0"/>
+        <v>2255</v>
+      </c>
+      <c r="R16" s="39">
+        <f t="shared" si="1"/>
+        <v>4729</v>
+      </c>
+      <c r="S16" s="77"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="1:21" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>2</v>
       </c>
@@ -1838,59 +1916,66 @@
         <v>6539050</v>
       </c>
       <c r="P17" s="39">
-        <f t="shared" si="0"/>
-        <v>-29470</v>
-      </c>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-    </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+        <v>6568150</v>
+      </c>
+      <c r="Q17" s="39">
+        <f t="shared" si="0"/>
+        <v>29100</v>
+      </c>
+      <c r="R17" s="39">
+        <f t="shared" si="1"/>
+        <v>-370</v>
+      </c>
+      <c r="S17" s="77"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+    </row>
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="57">
-        <f t="shared" ref="B18:G18" si="1">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:G18" si="2">SUM(B10:B17)</f>
         <v>14178117</v>
       </c>
       <c r="C18" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14006404</v>
       </c>
       <c r="D18" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14738783</v>
       </c>
       <c r="E18" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15350335</v>
       </c>
       <c r="F18" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16062043</v>
       </c>
       <c r="G18" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16525061</v>
       </c>
       <c r="H18" s="57">
-        <f t="shared" ref="H18:L18" si="2">SUM(H10:H17)</f>
+        <f t="shared" ref="H18:L18" si="3">SUM(H10:H17)</f>
         <v>17239587</v>
       </c>
       <c r="I18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17882161</v>
       </c>
       <c r="J18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18616624</v>
       </c>
       <c r="K18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19418455</v>
       </c>
       <c r="L18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20079365</v>
       </c>
       <c r="M18" s="57">
@@ -1907,12 +1992,20 @@
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>47919</v>
-      </c>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19936938</v>
+      </c>
+      <c r="Q18" s="102">
+        <f>SUM(Q10:Q17)</f>
+        <v>115287</v>
+      </c>
+      <c r="R18" s="57">
+        <f>SUM(R10:R17)</f>
+        <v>163206</v>
+      </c>
+      <c r="S18" s="83"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1929,31 +2022,35 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
       <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-    </row>
-    <row r="21" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+    </row>
+    <row r="21" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
@@ -1969,20 +2066,26 @@
       <c r="N21" s="79"/>
       <c r="O21" s="79"/>
       <c r="P21" s="79"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="100"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A20:P20"/>
+  <mergeCells count="7">
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A20:R20"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2032,55 +2135,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2014</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -2098,21 +2201,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -2125,21 +2228,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -2152,26 +2255,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2014</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -2707,21 +2810,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2827,55 +2930,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2015</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -2893,21 +2996,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -2920,21 +3023,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -2947,26 +3050,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2015</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -3502,21 +3605,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -3616,55 +3719,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2016</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -3682,21 +3785,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3709,21 +3812,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3736,26 +3839,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2016</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -4291,21 +4394,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -4405,55 +4508,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2017</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -4471,21 +4574,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4498,21 +4601,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -4525,26 +4628,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2017</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -5080,21 +5183,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -5194,55 +5297,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2018</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -5260,21 +5363,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -5287,21 +5390,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -5314,26 +5417,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2018</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -5872,21 +5975,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -5986,55 +6089,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2019</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -6052,21 +6155,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -6079,21 +6182,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -6106,26 +6209,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2019</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -6664,21 +6767,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -6821,55 +6924,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2020</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -6887,21 +6990,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -6914,21 +7017,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -6941,26 +7044,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2020</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -7499,21 +7602,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -7628,7 +7731,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7657,55 +7760,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2021</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -7723,21 +7826,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7750,21 +7853,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -7777,26 +7880,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2021</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -7841,7 +7944,9 @@
       <c r="B10" s="39">
         <v>788056</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="39">
+        <v>799874</v>
+      </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
@@ -7860,7 +7965,9 @@
       <c r="B11" s="39">
         <v>122138</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="39">
+        <v>122880</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -7879,7 +7986,9 @@
       <c r="B12" s="39">
         <v>5498006</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="39">
+        <v>5539351</v>
+      </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -7898,7 +8007,9 @@
       <c r="B13" s="39">
         <v>1511546</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="39">
+        <v>1524171</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -7917,7 +8028,9 @@
       <c r="B14" s="39">
         <v>145059</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="39">
+        <v>145218</v>
+      </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -7936,7 +8049,9 @@
       <c r="B15" s="39">
         <v>4002111</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="39">
+        <v>4019354</v>
+      </c>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -7955,7 +8070,9 @@
       <c r="B16" s="39">
         <v>1215685</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="39">
+        <v>1217940</v>
+      </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -7974,7 +8091,9 @@
       <c r="B17" s="39">
         <v>6539050</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="39">
+        <v>6568150</v>
+      </c>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
@@ -7996,7 +8115,7 @@
       </c>
       <c r="C18" s="28">
         <f t="shared" ref="C18:M18" si="0">SUM(C10:C17)</f>
-        <v>0</v>
+        <v>19936938</v>
       </c>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
@@ -8049,11 +8168,11 @@
       </c>
       <c r="C19" s="75">
         <f>+(C18-B18)/B18*100</f>
+        <v>0.581621581370795</v>
+      </c>
+      <c r="D19" s="75">
+        <f>+(D18-C18)/C18*100</f>
         <v>-100</v>
-      </c>
-      <c r="D19" s="75" t="e">
-        <f>+(D18-C18)/C18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="E19" s="75" t="e">
         <f>+(E18-D18)/D18*100</f>
@@ -8159,21 +8278,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -8315,55 +8434,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:35" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:35" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:35" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2000</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
@@ -8378,21 +8497,21 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:35" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -8417,21 +8536,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -8456,26 +8575,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="98">
         <v>2000</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
     </row>
     <row r="9" spans="1:35" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -8959,21 +9078,21 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
@@ -9092,21 +9211,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:51" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -9147,21 +9266,21 @@
       <c r="AY2" s="4"/>
     </row>
     <row r="3" spans="1:51" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
@@ -9202,21 +9321,21 @@
       <c r="AY3" s="8"/>
     </row>
     <row r="4" spans="1:51" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2001</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -9298,21 +9417,21 @@
       <c r="AP5" s="2"/>
     </row>
     <row r="6" spans="1:51" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -9337,21 +9456,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:51" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -9376,26 +9495,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:51" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="98">
         <v>2001</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
     </row>
     <row r="9" spans="1:51" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -9940,21 +10059,21 @@
       <c r="AP20" s="2"/>
     </row>
     <row r="21" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
@@ -10073,21 +10192,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -10101,21 +10220,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -10129,21 +10248,21 @@
       <c r="X3" s="8"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2008</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -10183,21 +10302,21 @@
       <c r="X5" s="8"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10218,21 +10337,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10253,26 +10372,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2008</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -10840,21 +10959,21 @@
     </row>
     <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -10985,21 +11104,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -11013,21 +11132,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -11041,21 +11160,21 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2009</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -11095,21 +11214,21 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -11130,21 +11249,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -11165,26 +11284,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2009</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -11752,21 +11871,21 @@
     </row>
     <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -11898,21 +12017,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -11922,21 +12041,21 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -11946,21 +12065,21 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2010</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -11992,21 +12111,21 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12027,21 +12146,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12062,26 +12181,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2010</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -12644,21 +12763,21 @@
     </row>
     <row r="20" spans="1:103" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:103" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:103" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -12787,55 +12906,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2011</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -12853,21 +12972,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12888,21 +13007,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12923,26 +13042,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2011</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -13498,21 +13617,21 @@
     </row>
     <row r="20" spans="1:95" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:95" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:95" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -13643,55 +13762,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2012</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -13709,21 +13828,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -13744,21 +13863,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -13779,26 +13898,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2012</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -14342,21 +14461,21 @@
     </row>
     <row r="20" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:83" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -14499,55 +14618,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:30" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:30" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:30" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="97">
         <v>2013</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:30" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -14565,21 +14684,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:30" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -14599,21 +14718,21 @@
       <c r="AD6" s="11"/>
     </row>
     <row r="7" spans="1:30" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -14633,26 +14752,26 @@
       <c r="AD7" s="11"/>
     </row>
     <row r="8" spans="1:30" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2013</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:30" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -15195,21 +15314,21 @@
     </row>
     <row r="20" spans="1:82" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:82" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
       <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:82" ht="12" customHeight="1" x14ac:dyDescent="0.25">

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7143AC6B-4611-4D8C-B080-910CE31BA896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Gral 08-21" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <sheet name="2020" sheetId="27" r:id="rId16"/>
     <sheet name="2021" sheetId="28" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -202,19 +201,19 @@
     <t>2008-2021</t>
   </si>
   <si>
-    <t>Var Feb 2021 respecto a Ene 2021</t>
+    <t>Por división económica 2008 - 2021</t>
   </si>
   <si>
-    <t>Var Feb 2021 respecto a Dic 2020</t>
+    <t>Var Mar 2021 respecto a Feb 2021</t>
   </si>
   <si>
-    <t>Por división económica 2008 - 2021</t>
+    <t>Var Mar 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -703,6 +702,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,11 +726,8 @@
     <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -742,26 +747,20 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Millares 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal_INDICA18" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal_INDICA8" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal_Trab_Comer_Jal" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 3" xfId="11"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal_INDICA18" xfId="5"/>
+    <cellStyle name="Normal_INDICA8" xfId="6"/>
+    <cellStyle name="Normal_Trab_Comer_Jal" xfId="7"/>
     <cellStyle name="Porcentaje" xfId="10" builtinId="5"/>
-    <cellStyle name="Porcentual 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Porcentual 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Porcentual 2" xfId="8"/>
+    <cellStyle name="Porcentual 3" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -852,23 +851,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -904,23 +886,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1096,25 +1061,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD37"/>
+      <selection activeCell="K25" sqref="K25:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" customWidth="1"/>
-    <col min="2" max="18" width="8.7265625" customWidth="1"/>
-    <col min="19" max="19" width="14.54296875" customWidth="1"/>
-    <col min="20" max="33" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="33" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -1124,7 +1089,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
@@ -1161,7 +1126,7 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1163,7 @@
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>34</v>
       </c>
@@ -1235,7 +1200,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:33" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1270,27 +1235,27 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:33" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1301,27 +1266,27 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:33" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
+    <row r="7" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1332,8 +1297,8 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
+    <row r="8" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="93" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="76">
@@ -1375,22 +1340,22 @@
       <c r="N8" s="86">
         <v>2020</v>
       </c>
-      <c r="O8" s="101">
+      <c r="O8" s="96">
         <v>2021</v>
       </c>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="93" t="s">
+      <c r="P8" s="96"/>
+      <c r="Q8" s="89" t="s">
         <v>36</v>
+      </c>
+      <c r="R8" s="89" t="s">
+        <v>37</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+    <row r="9" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="94"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
       </c>
@@ -1431,18 +1396,18 @@
         <v>17</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+        <v>8</v>
+      </c>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:33" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
         <v>19</v>
       </c>
@@ -1486,24 +1451,24 @@
         <v>757997</v>
       </c>
       <c r="O10" s="39">
-        <v>788056</v>
+        <v>799874</v>
       </c>
       <c r="P10" s="39">
-        <v>799874</v>
+        <v>801591</v>
       </c>
       <c r="Q10" s="39">
         <f>P10-O10</f>
-        <v>11818</v>
+        <v>1717</v>
       </c>
       <c r="R10" s="39">
         <f>P10-N10</f>
-        <v>41877</v>
+        <v>43594</v>
       </c>
       <c r="S10" s="77"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>20</v>
       </c>
@@ -1547,24 +1512,24 @@
         <v>119946</v>
       </c>
       <c r="O11" s="39">
-        <v>122138</v>
+        <v>122880</v>
       </c>
       <c r="P11" s="39">
-        <v>122880</v>
+        <v>122977</v>
       </c>
       <c r="Q11" s="39">
         <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
-        <v>742</v>
+        <v>97</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" ref="R11:R17" si="1">P11-N11</f>
-        <v>2934</v>
+        <v>3031</v>
       </c>
       <c r="S11" s="77"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
         <v>21</v>
       </c>
@@ -1608,24 +1573,24 @@
         <v>5438831</v>
       </c>
       <c r="O12" s="39">
-        <v>5498006</v>
+        <v>5539351</v>
       </c>
       <c r="P12" s="39">
-        <v>5539351</v>
+        <v>5561450</v>
       </c>
       <c r="Q12" s="39">
         <f t="shared" si="0"/>
-        <v>41345</v>
+        <v>22099</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="1"/>
-        <v>100520</v>
+        <v>122619</v>
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="71" t="s">
         <v>33</v>
       </c>
@@ -1669,24 +1634,24 @@
         <v>1487563</v>
       </c>
       <c r="O13" s="39">
-        <v>1511546</v>
+        <v>1524171</v>
       </c>
       <c r="P13" s="39">
-        <v>1524171</v>
+        <v>1527342</v>
       </c>
       <c r="Q13" s="39">
         <f t="shared" si="0"/>
-        <v>12625</v>
+        <v>3171</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="1"/>
-        <v>36608</v>
+        <v>39779</v>
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:33" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
         <v>22</v>
       </c>
@@ -1730,24 +1695,24 @@
         <v>146801</v>
       </c>
       <c r="O14" s="39">
-        <v>145059</v>
+        <v>145218</v>
       </c>
       <c r="P14" s="39">
-        <v>145218</v>
+        <v>145935</v>
       </c>
       <c r="Q14" s="39">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>717</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="1"/>
-        <v>-1583</v>
+        <v>-866</v>
       </c>
       <c r="S14" s="77"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>1</v>
       </c>
@@ -1791,24 +1756,24 @@
         <v>4040863</v>
       </c>
       <c r="O15" s="39">
-        <v>4002111</v>
+        <v>4019354</v>
       </c>
       <c r="P15" s="39">
-        <v>4019354</v>
+        <v>4034946</v>
       </c>
       <c r="Q15" s="39">
         <f t="shared" si="0"/>
-        <v>17243</v>
+        <v>15592</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="1"/>
-        <v>-21509</v>
+        <v>-5917</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>23</v>
       </c>
@@ -1852,24 +1817,24 @@
         <v>1213211</v>
       </c>
       <c r="O16" s="39">
-        <v>1215685</v>
+        <v>1217940</v>
       </c>
       <c r="P16" s="39">
-        <v>1217940</v>
+        <v>1221474</v>
       </c>
       <c r="Q16" s="39">
         <f t="shared" si="0"/>
-        <v>2255</v>
+        <v>3534</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="1"/>
-        <v>4729</v>
+        <v>8263</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:21" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>2</v>
       </c>
@@ -1913,24 +1878,24 @@
         <v>6568520</v>
       </c>
       <c r="O17" s="39">
-        <v>6539050</v>
+        <v>6568150</v>
       </c>
       <c r="P17" s="39">
-        <v>6568150</v>
+        <v>6609994</v>
       </c>
       <c r="Q17" s="39">
         <f t="shared" si="0"/>
-        <v>29100</v>
+        <v>41844</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" si="1"/>
-        <v>-370</v>
+        <v>41474</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="s">
         <v>3</v>
       </c>
@@ -1979,33 +1944,33 @@
         <v>20079365</v>
       </c>
       <c r="M18" s="57">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" ref="M18:R18" si="4">SUM(M10:M17)</f>
         <v>20421442</v>
       </c>
       <c r="N18" s="57">
-        <f>SUM(N10:N17)</f>
+        <f t="shared" si="4"/>
         <v>19773732</v>
       </c>
       <c r="O18" s="57">
-        <f>SUM(O10:O17)</f>
-        <v>19821651</v>
+        <f t="shared" si="4"/>
+        <v>19936938</v>
       </c>
       <c r="P18" s="57">
-        <f>SUM(P10:P17)</f>
-        <v>19936938</v>
-      </c>
-      <c r="Q18" s="102">
-        <f>SUM(Q10:Q17)</f>
-        <v>115287</v>
+        <f t="shared" si="4"/>
+        <v>20025709</v>
+      </c>
+      <c r="Q18" s="88">
+        <f t="shared" si="4"/>
+        <v>88771</v>
       </c>
       <c r="R18" s="57">
-        <f>SUM(R10:R17)</f>
-        <v>163206</v>
+        <f t="shared" si="4"/>
+        <v>251977</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2028,29 +1993,29 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-    </row>
-    <row r="21" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+    </row>
+    <row r="21" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
@@ -2069,7 +2034,7 @@
       <c r="Q21" s="79"/>
       <c r="R21" s="79"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2099,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2109,15 +2074,15 @@
       <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.453125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.453125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.81640625" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -2134,58 +2099,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2014</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2200,22 +2165,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -2227,22 +2192,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -2254,27 +2219,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2014</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -2312,7 +2277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -2353,7 +2318,7 @@
         <v>576888</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -2394,7 +2359,7 @@
         <v>128171</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -2435,7 +2400,7 @@
         <v>4502458</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -2476,7 +2441,7 @@
         <v>1402760</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
         <v>22</v>
       </c>
@@ -2517,7 +2482,7 @@
         <v>147415</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -2558,7 +2523,7 @@
         <v>3543646</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -2599,7 +2564,7 @@
         <v>920137</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -2640,7 +2605,7 @@
         <v>6018112</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -2693,7 +2658,7 @@
         <v>17239587</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -2808,25 +2773,25 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2843,7 +2808,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2858,7 +2823,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -2873,8 +2838,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -2897,22 +2862,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.453125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.453125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.81640625" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -2929,58 +2894,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2015</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2995,22 +2960,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3022,22 +2987,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3049,27 +3014,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2015</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -3107,7 +3072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -3148,7 +3113,7 @@
         <v>613496</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -3189,7 +3154,7 @@
         <v>122314</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -3230,7 +3195,7 @@
         <v>4729479</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -3271,7 +3236,7 @@
         <v>1444096</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
         <v>22</v>
       </c>
@@ -3312,7 +3277,7 @@
         <v>146817</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -3353,7 +3318,7 @@
         <v>3663462</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -3394,7 +3359,7 @@
         <v>970856</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -3435,7 +3400,7 @@
         <v>6191641</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -3488,7 +3453,7 @@
         <v>17882161</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -3603,25 +3568,25 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -3638,7 +3603,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -3653,7 +3618,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -3668,8 +3633,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -3686,22 +3651,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.453125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.453125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.81640625" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -3718,58 +3683,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2016</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3784,22 +3749,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3811,22 +3776,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3838,27 +3803,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2016</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -3896,7 +3861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -3937,7 +3902,7 @@
         <v>655624</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -3978,7 +3943,7 @@
         <v>120835</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -4019,7 +3984,7 @@
         <v>4950913</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -4060,7 +4025,7 @@
         <v>1490951</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
         <v>22</v>
       </c>
@@ -4101,7 +4066,7 @@
         <v>143941</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -4142,7 +4107,7 @@
         <v>3811152</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -4183,7 +4148,7 @@
         <v>1024297</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -4224,7 +4189,7 @@
         <v>6418911</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -4277,7 +4242,7 @@
         <v>18616624</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -4392,25 +4357,25 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -4427,7 +4392,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -4442,7 +4407,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -4457,8 +4422,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -4475,22 +4440,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.453125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.453125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.81640625" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -4507,58 +4472,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2017</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4573,22 +4538,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4600,22 +4565,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -4627,27 +4592,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2017</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -4685,7 +4650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -4726,7 +4691,7 @@
         <v>705240</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -4767,7 +4732,7 @@
         <v>127031</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -4808,7 +4773,7 @@
         <v>5201549</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -4849,7 +4814,7 @@
         <v>1577452</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
         <v>22</v>
       </c>
@@ -4890,7 +4855,7 @@
         <v>144868</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -4931,7 +4896,7 @@
         <v>3924758</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -4972,7 +4937,7 @@
         <v>1092588</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -5013,7 +4978,7 @@
         <v>6644969</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -5066,7 +5031,7 @@
         <v>19418455</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -5181,25 +5146,25 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -5216,7 +5181,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -5231,7 +5196,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -5246,8 +5211,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -5264,22 +5229,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.453125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.453125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.81640625" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -5296,58 +5261,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2018</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -5362,22 +5327,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -5389,22 +5354,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -5416,27 +5381,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2018</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -5474,7 +5439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -5515,7 +5480,7 @@
         <v>736854</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -5556,7 +5521,7 @@
         <v>127936</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -5597,7 +5562,7 @@
         <v>5428597</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -5638,7 +5603,7 @@
         <v>1587298</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
         <v>22</v>
       </c>
@@ -5679,7 +5644,7 @@
         <v>145917</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -5720,7 +5685,7 @@
         <v>4046072</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -5761,7 +5726,7 @@
         <v>1150983</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -5802,7 +5767,7 @@
         <v>6855708</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -5855,7 +5820,7 @@
         <v>20079365</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -5970,28 +5935,28 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6008,7 +5973,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6023,7 +5988,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -6038,8 +6003,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -6056,22 +6021,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.453125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.453125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.81640625" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -6088,58 +6053,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2019</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -6154,22 +6119,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -6181,22 +6146,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -6208,27 +6173,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2019</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -6266,7 +6231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -6307,7 +6272,7 @@
         <v>747527</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -6348,7 +6313,7 @@
         <v>128449</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -6389,7 +6354,7 @@
         <v>5450985</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -6430,7 +6395,7 @@
         <v>1574128</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
         <v>22</v>
       </c>
@@ -6471,7 +6436,7 @@
         <v>146299</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -6512,7 +6477,7 @@
         <v>4143292</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -6553,7 +6518,7 @@
         <v>1215181</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -6594,7 +6559,7 @@
         <v>7015581</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -6647,7 +6612,7 @@
         <v>20421442</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -6762,28 +6727,28 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6800,7 +6765,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6891,22 +6856,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.453125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.453125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.81640625" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -6923,58 +6888,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2020</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -6989,22 +6954,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7016,22 +6981,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -7043,27 +7008,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2020</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -7101,7 +7066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -7142,7 +7107,7 @@
         <v>757997</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -7183,7 +7148,7 @@
         <v>119946</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -7224,7 +7189,7 @@
         <v>5438831</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -7265,7 +7230,7 @@
         <v>1487563</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
         <v>22</v>
       </c>
@@ -7306,7 +7271,7 @@
         <v>146801</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -7347,7 +7312,7 @@
         <v>4040863</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -7388,7 +7353,7 @@
         <v>1213211</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -7429,7 +7394,7 @@
         <v>6568520</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -7482,7 +7447,7 @@
         <v>19773732</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -7597,28 +7562,28 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -7635,7 +7600,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -7727,22 +7692,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4CBE80-BF8D-4F6D-BE7E-479F615956FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="N33" sqref="N33:O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.453125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.453125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.81640625" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -7759,58 +7724,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2021</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -7825,22 +7790,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7852,22 +7817,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -7879,27 +7844,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2021</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -7937,7 +7902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -7947,7 +7912,9 @@
       <c r="C10" s="39">
         <v>799874</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="39">
+        <v>801591</v>
+      </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
@@ -7958,7 +7925,7 @@
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -7968,7 +7935,9 @@
       <c r="C11" s="39">
         <v>122880</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="39">
+        <v>122977</v>
+      </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
@@ -7979,7 +7948,7 @@
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -7989,7 +7958,9 @@
       <c r="C12" s="39">
         <v>5539351</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="39">
+        <v>5561450</v>
+      </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
@@ -8000,7 +7971,7 @@
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -8010,7 +7981,9 @@
       <c r="C13" s="39">
         <v>1524171</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="39">
+        <v>1527342</v>
+      </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -8021,7 +7994,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
         <v>22</v>
       </c>
@@ -8031,7 +8004,9 @@
       <c r="C14" s="39">
         <v>145218</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="39">
+        <v>145935</v>
+      </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
@@ -8042,7 +8017,7 @@
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -8052,7 +8027,9 @@
       <c r="C15" s="39">
         <v>4019354</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="39">
+        <v>4034946</v>
+      </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -8063,7 +8040,7 @@
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -8073,7 +8050,9 @@
       <c r="C16" s="39">
         <v>1217940</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="39">
+        <v>1221474</v>
+      </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -8084,7 +8063,7 @@
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -8094,7 +8073,9 @@
       <c r="C17" s="39">
         <v>6568150</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="39">
+        <v>6609994</v>
+      </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -8105,7 +8086,7 @@
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -8119,7 +8100,7 @@
       </c>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20025709</v>
       </c>
       <c r="E18" s="28">
         <f>SUM(E10:E17)</f>
@@ -8158,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -8172,11 +8153,11 @@
       </c>
       <c r="D19" s="75">
         <f>+(D18-C18)/C18*100</f>
+        <v>0.44525894598257765</v>
+      </c>
+      <c r="E19" s="75">
+        <f>+(E18-D18)/D18*100</f>
         <v>-100</v>
-      </c>
-      <c r="E19" s="75" t="e">
-        <f>+(E18-D18)/D18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="75" t="e">
         <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
@@ -8273,28 +8254,28 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -8311,7 +8292,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -8403,7 +8384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8413,13 +8394,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="13" width="8.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="13" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -8433,58 +8414,58 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:35" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:35" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:35" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:35" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2000</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -8496,22 +8477,22 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:35" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -8535,22 +8516,22 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+    <row r="7" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -8575,26 +8556,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="100">
         <v>2000</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-    </row>
-    <row r="9" spans="1:35" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+    </row>
+    <row r="9" spans="1:35" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -8796,7 +8777,7 @@
         <v>894257</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="29" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="29" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -8960,7 +8941,7 @@
         <v>3604619</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -9013,7 +8994,7 @@
         <v>12437760</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -9063,7 +9044,7 @@
         <v>-2.6589992388190691</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="21"/>
       <c r="D20" s="2"/>
@@ -9077,24 +9058,24 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -9124,15 +9105,15 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -9142,7 +9123,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -9179,7 +9160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9189,14 +9170,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="42" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="42" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:51" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -9210,22 +9191,22 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:51" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:51" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -9265,22 +9246,22 @@
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="1:51" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:51" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
@@ -9320,22 +9301,22 @@
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
     </row>
-    <row r="4" spans="1:51" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+    <row r="4" spans="1:51" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2001</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -9375,7 +9356,7 @@
       <c r="AX4" s="8"/>
       <c r="AY4" s="8"/>
     </row>
-    <row r="5" spans="1:51" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -9416,22 +9397,22 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:51" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -9455,22 +9436,22 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:51" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+    <row r="7" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -9495,26 +9476,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:51" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="100">
         <v>2001</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-    </row>
-    <row r="9" spans="1:51" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+    </row>
+    <row r="9" spans="1:51" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -9716,7 +9697,7 @@
         <v>868267</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="29" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" s="29" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -9880,7 +9861,7 @@
         <v>3685113</v>
       </c>
     </row>
-    <row r="18" spans="1:42" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -9933,7 +9914,7 @@
         <v>12170945</v>
       </c>
     </row>
-    <row r="19" spans="1:42" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -10015,7 +9996,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="21"/>
       <c r="D20" s="2"/>
@@ -10058,24 +10039,24 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -10105,15 +10086,15 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:42" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -10123,7 +10104,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -10160,7 +10141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10170,14 +10151,14 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="13" width="8.453125" customWidth="1"/>
-    <col min="14" max="24" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="24" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -10191,22 +10172,22 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -10219,22 +10200,22 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -10247,22 +10228,22 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2008</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -10275,7 +10256,7 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -10301,22 +10282,22 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10336,22 +10317,22 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10371,27 +10352,27 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2008</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -10429,7 +10410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -10470,7 +10451,7 @@
         <v>458308</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -10511,7 +10492,7 @@
         <v>94703</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -10552,7 +10533,7 @@
         <v>3617921</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -10593,7 +10574,7 @@
         <v>1099436</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="31" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -10634,7 +10615,7 @@
         <v>171728</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -10675,7 +10656,7 @@
         <v>2924150</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -10716,7 +10697,7 @@
         <v>765127</v>
       </c>
     </row>
-    <row r="17" spans="1:107" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:107" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -10757,7 +10738,7 @@
         <v>5046744</v>
       </c>
     </row>
-    <row r="18" spans="1:107" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:107" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -10810,7 +10791,7 @@
         <v>14178117</v>
       </c>
     </row>
-    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -10957,25 +10938,25 @@
       <c r="DB19" s="17"/>
       <c r="DC19" s="17"/>
     </row>
-    <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -11007,7 +10988,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -11022,9 +11003,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -11038,17 +11019,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -11072,7 +11053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11082,14 +11063,14 @@
       <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="13" width="8.453125" customWidth="1"/>
-    <col min="14" max="24" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="24" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -11103,22 +11084,22 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -11131,22 +11112,22 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -11159,22 +11140,22 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2009</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -11187,7 +11168,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -11213,22 +11194,22 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -11248,22 +11229,22 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -11283,27 +11264,27 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2009</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -11341,7 +11322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -11382,7 +11363,7 @@
         <v>464568</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -11423,7 +11404,7 @@
         <v>103655</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -11464,7 +11445,7 @@
         <v>3504394</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -11505,7 +11486,7 @@
         <v>1042576</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -11546,7 +11527,7 @@
         <v>129759</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -11587,7 +11568,7 @@
         <v>2905074</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -11628,7 +11609,7 @@
         <v>747184</v>
       </c>
     </row>
-    <row r="17" spans="1:107" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:107" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -11669,7 +11650,7 @@
         <v>5109194</v>
       </c>
     </row>
-    <row r="18" spans="1:107" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -11722,7 +11703,7 @@
         <v>14006404</v>
       </c>
     </row>
-    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -11869,25 +11850,25 @@
       <c r="DB19" s="17"/>
       <c r="DC19" s="17"/>
     </row>
-    <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -11920,7 +11901,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -11935,9 +11916,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -11951,17 +11932,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -11985,7 +11966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11995,14 +11976,14 @@
       <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="13" width="8.453125" customWidth="1"/>
-    <col min="14" max="20" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="20" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -12016,22 +11997,22 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -12040,22 +12021,22 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -12064,22 +12045,22 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2010</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -12088,7 +12069,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12110,22 +12091,22 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12145,22 +12126,22 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12180,27 +12161,27 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2010</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -12238,7 +12219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -12279,7 +12260,7 @@
         <v>481216</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -12320,7 +12301,7 @@
         <v>104706</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -12361,7 +12342,7 @@
         <v>3778887</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -12402,7 +12383,7 @@
         <v>1128106</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -12443,7 +12424,7 @@
         <v>143946</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -12484,7 +12465,7 @@
         <v>3042080</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -12525,7 +12506,7 @@
         <v>772019</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:103" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -12566,7 +12547,7 @@
         <v>5287823</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:103" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -12619,7 +12600,7 @@
         <v>14738783</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:103" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -12761,25 +12742,25 @@
       <c r="CX19" s="17"/>
       <c r="CY19" s="17"/>
     </row>
-    <row r="20" spans="1:103" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:103" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:103" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:103" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:103" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:103" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -12811,7 +12792,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -12826,9 +12807,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -12842,17 +12823,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -12875,7 +12856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12885,13 +12866,13 @@
       <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="13" width="8.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="13" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -12905,58 +12886,58 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2011</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12971,22 +12952,22 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -13006,22 +12987,22 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -13041,27 +13022,27 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2011</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -13099,7 +13080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -13140,7 +13121,7 @@
         <v>513080</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -13181,7 +13162,7 @@
         <v>117450</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -13222,7 +13203,7 @@
         <v>3937155</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -13263,7 +13244,7 @@
         <v>1183722</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -13304,7 +13285,7 @@
         <v>148490</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -13345,7 +13326,7 @@
         <v>3188378</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -13386,7 +13367,7 @@
         <v>817879</v>
       </c>
     </row>
-    <row r="17" spans="1:95" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:95" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -13427,7 +13408,7 @@
         <v>5444181</v>
       </c>
     </row>
-    <row r="18" spans="1:95" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:95" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -13480,7 +13461,7 @@
         <v>15350335</v>
       </c>
     </row>
-    <row r="19" spans="1:95" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:95" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -13615,25 +13596,25 @@
       <c r="CP19" s="17"/>
       <c r="CQ19" s="17"/>
     </row>
-    <row r="20" spans="1:95" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:95" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:95" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:95" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:95" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:95" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -13665,7 +13646,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -13680,9 +13661,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -13696,17 +13677,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -13729,7 +13710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13739,15 +13720,15 @@
       <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="12" width="8.453125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="12" width="8.42578125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -13761,58 +13742,58 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2012</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -13827,22 +13808,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -13862,22 +13843,22 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -13897,27 +13878,27 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2012</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -13955,7 +13936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -13996,7 +13977,7 @@
         <v>538558</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -14037,7 +14018,7 @@
         <v>132729</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -14078,7 +14059,7 @@
         <v>4134248</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -14119,7 +14100,7 @@
         <v>1241453</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -14160,7 +14141,7 @@
         <v>150911</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -14201,7 +14182,7 @@
         <v>3349750</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -14242,7 +14223,7 @@
         <v>848162</v>
       </c>
     </row>
-    <row r="17" spans="1:83" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:83" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -14283,7 +14264,7 @@
         <v>5666232</v>
       </c>
     </row>
-    <row r="18" spans="1:83" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:83" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -14336,7 +14317,7 @@
         <v>16062043</v>
       </c>
     </row>
-    <row r="19" spans="1:83" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:83" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -14459,25 +14440,25 @@
       <c r="CD19" s="17"/>
       <c r="CE19" s="17"/>
     </row>
-    <row r="20" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:83" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:83" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -14509,7 +14490,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -14524,8 +14505,8 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -14535,7 +14516,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -14549,17 +14530,17 @@
       <c r="L30" s="37"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -14582,7 +14563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14592,15 +14573,15 @@
       <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.453125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.453125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.81640625" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -14617,58 +14598,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:30" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:30" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:30" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:30" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-    </row>
-    <row r="4" spans="1:30" s="62" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:30" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>2013</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:30" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:30" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -14683,22 +14664,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -14717,22 +14698,22 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:30" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -14751,27 +14732,27 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="1:30" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:30" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2013</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:30" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:30" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -14809,7 +14790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -14850,7 +14831,7 @@
         <v>546437</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
@@ -14891,7 +14872,7 @@
         <v>136192</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -14932,7 +14913,7 @@
         <v>4290140</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -14973,7 +14954,7 @@
         <v>1266891</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
         <v>22</v>
       </c>
@@ -15014,7 +14995,7 @@
         <v>149282</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
@@ -15055,7 +15036,7 @@
         <v>3440676</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -15096,7 +15077,7 @@
         <v>873622</v>
       </c>
     </row>
-    <row r="17" spans="1:82" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>2</v>
       </c>
@@ -15137,7 +15118,7 @@
         <v>5821821</v>
       </c>
     </row>
-    <row r="18" spans="1:82" s="63" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -15190,7 +15171,7 @@
         <v>16525061</v>
       </c>
     </row>
-    <row r="19" spans="1:82" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -15312,26 +15293,26 @@
       <c r="CC19" s="65"/>
       <c r="CD19" s="65"/>
     </row>
-    <row r="20" spans="1:82" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:82" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:82" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:82" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
       <c r="N21" s="63"/>
     </row>
-    <row r="22" spans="1:82" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -15348,7 +15329,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:82" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -15363,7 +15344,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -15378,8 +15359,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="67"/>
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
@@ -15391,7 +15372,7 @@
       <c r="L29" s="67"/>
       <c r="M29" s="67"/>
     </row>
-    <row r="30" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
       <c r="D30" s="73"/>
@@ -15405,17 +15386,17 @@
       <c r="L30" s="73"/>
       <c r="M30" s="73"/>
     </row>
-    <row r="31" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,10 +204,10 @@
     <t>Por división económica 2008 - 2021</t>
   </si>
   <si>
-    <t>Var Mar 2021 respecto a Feb 2021</t>
+    <t>Var Abr 2021 respecto a Mar 2021</t>
   </si>
   <si>
-    <t>Var Mar 2021 respecto a Dic 2020</t>
+    <t>Var Abr 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K26"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1396,10 +1396,10 @@
         <v>17</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="90"/>
       <c r="R9" s="90"/>
@@ -1451,18 +1451,18 @@
         <v>757997</v>
       </c>
       <c r="O10" s="39">
-        <v>799874</v>
+        <v>801591</v>
       </c>
       <c r="P10" s="39">
-        <v>801591</v>
+        <v>782916</v>
       </c>
       <c r="Q10" s="39">
         <f>P10-O10</f>
-        <v>1717</v>
+        <v>-18675</v>
       </c>
       <c r="R10" s="39">
         <f>P10-N10</f>
-        <v>43594</v>
+        <v>24919</v>
       </c>
       <c r="S10" s="77"/>
       <c r="T10" s="11"/>
@@ -1512,18 +1512,18 @@
         <v>119946</v>
       </c>
       <c r="O11" s="39">
-        <v>122880</v>
+        <v>122977</v>
       </c>
       <c r="P11" s="39">
-        <v>122977</v>
+        <v>123938</v>
       </c>
       <c r="Q11" s="39">
         <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
-        <v>97</v>
+        <v>961</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" ref="R11:R17" si="1">P11-N11</f>
-        <v>3031</v>
+        <v>3992</v>
       </c>
       <c r="S11" s="77"/>
       <c r="T11" s="11"/>
@@ -1573,18 +1573,18 @@
         <v>5438831</v>
       </c>
       <c r="O12" s="39">
-        <v>5539351</v>
+        <v>5561450</v>
       </c>
       <c r="P12" s="39">
-        <v>5561450</v>
+        <v>5578017</v>
       </c>
       <c r="Q12" s="39">
         <f t="shared" si="0"/>
-        <v>22099</v>
+        <v>16567</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="1"/>
-        <v>122619</v>
+        <v>139186</v>
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="11"/>
@@ -1634,18 +1634,18 @@
         <v>1487563</v>
       </c>
       <c r="O13" s="39">
-        <v>1524171</v>
+        <v>1527342</v>
       </c>
       <c r="P13" s="39">
-        <v>1527342</v>
+        <v>1547649</v>
       </c>
       <c r="Q13" s="39">
         <f t="shared" si="0"/>
-        <v>3171</v>
+        <v>20307</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="1"/>
-        <v>39779</v>
+        <v>60086</v>
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="11"/>
@@ -1695,18 +1695,18 @@
         <v>146801</v>
       </c>
       <c r="O14" s="39">
-        <v>145218</v>
+        <v>145935</v>
       </c>
       <c r="P14" s="39">
-        <v>145935</v>
+        <v>145181</v>
       </c>
       <c r="Q14" s="39">
         <f t="shared" si="0"/>
-        <v>717</v>
+        <v>-754</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="1"/>
-        <v>-866</v>
+        <v>-1620</v>
       </c>
       <c r="S14" s="77"/>
       <c r="T14" s="11"/>
@@ -1756,18 +1756,18 @@
         <v>4040863</v>
       </c>
       <c r="O15" s="39">
-        <v>4019354</v>
+        <v>4034946</v>
       </c>
       <c r="P15" s="39">
-        <v>4034946</v>
+        <v>4047923</v>
       </c>
       <c r="Q15" s="39">
         <f t="shared" si="0"/>
-        <v>15592</v>
+        <v>12977</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="1"/>
-        <v>-5917</v>
+        <v>7060</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="11"/>
@@ -1817,18 +1817,18 @@
         <v>1213211</v>
       </c>
       <c r="O16" s="39">
-        <v>1217940</v>
+        <v>1221474</v>
       </c>
       <c r="P16" s="39">
-        <v>1221474</v>
+        <v>6616681</v>
       </c>
       <c r="Q16" s="39">
         <f t="shared" si="0"/>
-        <v>3534</v>
+        <v>5395207</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="1"/>
-        <v>8263</v>
+        <v>5403470</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
@@ -1878,24 +1878,24 @@
         <v>6568520</v>
       </c>
       <c r="O17" s="39">
-        <v>6568150</v>
+        <v>6609994</v>
       </c>
       <c r="P17" s="39">
-        <v>6609994</v>
+        <v>1228178</v>
       </c>
       <c r="Q17" s="39">
         <f t="shared" si="0"/>
-        <v>41844</v>
+        <v>-5381816</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" si="1"/>
-        <v>41474</v>
+        <v>-5340342</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="s">
         <v>3</v>
       </c>
@@ -1953,19 +1953,19 @@
       </c>
       <c r="O18" s="57">
         <f t="shared" si="4"/>
-        <v>19936938</v>
+        <v>20025709</v>
       </c>
       <c r="P18" s="57">
         <f t="shared" si="4"/>
-        <v>20025709</v>
+        <v>20070483</v>
       </c>
       <c r="Q18" s="88">
         <f t="shared" si="4"/>
-        <v>88771</v>
+        <v>44774</v>
       </c>
       <c r="R18" s="57">
         <f t="shared" si="4"/>
-        <v>251977</v>
+        <v>296751</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="2"/>
@@ -7696,7 +7696,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33:O33"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7915,7 +7915,9 @@
       <c r="D10" s="39">
         <v>801591</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="39">
+        <v>782916</v>
+      </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
@@ -7938,7 +7940,9 @@
       <c r="D11" s="39">
         <v>122977</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="39">
+        <v>123938</v>
+      </c>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -7961,7 +7965,9 @@
       <c r="D12" s="39">
         <v>5561450</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="39">
+        <v>5578017</v>
+      </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
@@ -7984,7 +7990,9 @@
       <c r="D13" s="39">
         <v>1527342</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="39">
+        <v>1547649</v>
+      </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
@@ -8007,7 +8015,9 @@
       <c r="D14" s="39">
         <v>145935</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="39">
+        <v>145181</v>
+      </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
@@ -8030,7 +8040,9 @@
       <c r="D15" s="39">
         <v>4034946</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="39">
+        <v>4047923</v>
+      </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
@@ -8053,7 +8065,9 @@
       <c r="D16" s="39">
         <v>1221474</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="39">
+        <v>6616681</v>
+      </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
@@ -8076,7 +8090,9 @@
       <c r="D17" s="39">
         <v>6609994</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="39">
+        <v>1228178</v>
+      </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
@@ -8104,7 +8120,7 @@
       </c>
       <c r="E18" s="28">
         <f>SUM(E10:E17)</f>
-        <v>0</v>
+        <v>20070483</v>
       </c>
       <c r="F18" s="28">
         <f>SUM(F10:F17)</f>
@@ -8157,11 +8173,11 @@
       </c>
       <c r="E19" s="75">
         <f>+(E18-D18)/D18*100</f>
+        <v>0.2235825957522902</v>
+      </c>
+      <c r="F19" s="75">
+        <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
         <v>-100</v>
-      </c>
-      <c r="F19" s="75" t="e">
-        <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="G19" s="75" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -31,6 +31,7 @@
     <sheet name="2021" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1068,7 +1069,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1396,10 +1397,10 @@
         <v>17</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="90"/>
       <c r="R9" s="90"/>
@@ -1451,18 +1452,18 @@
         <v>757997</v>
       </c>
       <c r="O10" s="39">
-        <v>801591</v>
+        <v>782916</v>
       </c>
       <c r="P10" s="39">
-        <v>782916</v>
+        <v>742607</v>
       </c>
       <c r="Q10" s="39">
         <f>P10-O10</f>
-        <v>-18675</v>
+        <v>-40309</v>
       </c>
       <c r="R10" s="39">
         <f>P10-N10</f>
-        <v>24919</v>
+        <v>-15390</v>
       </c>
       <c r="S10" s="77"/>
       <c r="T10" s="11"/>
@@ -1512,18 +1513,18 @@
         <v>119946</v>
       </c>
       <c r="O11" s="39">
-        <v>122977</v>
+        <v>123938</v>
       </c>
       <c r="P11" s="39">
-        <v>123938</v>
+        <v>125366</v>
       </c>
       <c r="Q11" s="39">
         <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
-        <v>961</v>
+        <v>1428</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" ref="R11:R17" si="1">P11-N11</f>
-        <v>3992</v>
+        <v>5420</v>
       </c>
       <c r="S11" s="77"/>
       <c r="T11" s="11"/>
@@ -1573,18 +1574,18 @@
         <v>5438831</v>
       </c>
       <c r="O12" s="39">
-        <v>5561450</v>
+        <v>5578017</v>
       </c>
       <c r="P12" s="39">
-        <v>5578017</v>
+        <v>5581011</v>
       </c>
       <c r="Q12" s="39">
         <f t="shared" si="0"/>
-        <v>16567</v>
+        <v>2994</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="1"/>
-        <v>139186</v>
+        <v>142180</v>
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="11"/>
@@ -1634,18 +1635,18 @@
         <v>1487563</v>
       </c>
       <c r="O13" s="39">
-        <v>1527342</v>
+        <v>1547649</v>
       </c>
       <c r="P13" s="39">
-        <v>1547649</v>
+        <v>1560734</v>
       </c>
       <c r="Q13" s="39">
         <f t="shared" si="0"/>
-        <v>20307</v>
+        <v>13085</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="1"/>
-        <v>60086</v>
+        <v>73171</v>
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="11"/>
@@ -1695,18 +1696,18 @@
         <v>146801</v>
       </c>
       <c r="O14" s="39">
-        <v>145935</v>
+        <v>145181</v>
       </c>
       <c r="P14" s="39">
-        <v>145181</v>
+        <v>144979</v>
       </c>
       <c r="Q14" s="39">
         <f t="shared" si="0"/>
-        <v>-754</v>
+        <v>-202</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="1"/>
-        <v>-1620</v>
+        <v>-1822</v>
       </c>
       <c r="S14" s="77"/>
       <c r="T14" s="11"/>
@@ -1756,18 +1757,18 @@
         <v>4040863</v>
       </c>
       <c r="O15" s="39">
-        <v>4034946</v>
+        <v>4047923</v>
       </c>
       <c r="P15" s="39">
-        <v>4047923</v>
+        <v>4068728</v>
       </c>
       <c r="Q15" s="39">
         <f t="shared" si="0"/>
-        <v>12977</v>
+        <v>20805</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="1"/>
-        <v>7060</v>
+        <v>27865</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="11"/>
@@ -1817,18 +1818,18 @@
         <v>1213211</v>
       </c>
       <c r="O16" s="39">
-        <v>1221474</v>
+        <v>6616681</v>
       </c>
       <c r="P16" s="39">
-        <v>6616681</v>
+        <v>1233478</v>
       </c>
       <c r="Q16" s="39">
         <f t="shared" si="0"/>
-        <v>5395207</v>
+        <v>-5383203</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="1"/>
-        <v>5403470</v>
+        <v>20267</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
@@ -1878,18 +1879,18 @@
         <v>6568520</v>
       </c>
       <c r="O17" s="39">
-        <v>6609994</v>
+        <v>1228178</v>
       </c>
       <c r="P17" s="39">
-        <v>1228178</v>
+        <v>6652541</v>
       </c>
       <c r="Q17" s="39">
         <f t="shared" si="0"/>
-        <v>-5381816</v>
+        <v>5424363</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" si="1"/>
-        <v>-5340342</v>
+        <v>84021</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
@@ -1953,19 +1954,19 @@
       </c>
       <c r="O18" s="57">
         <f t="shared" si="4"/>
-        <v>20025709</v>
+        <v>20070483</v>
       </c>
       <c r="P18" s="57">
         <f t="shared" si="4"/>
-        <v>20070483</v>
+        <v>20109444</v>
       </c>
       <c r="Q18" s="88">
         <f t="shared" si="4"/>
-        <v>44774</v>
+        <v>38961</v>
       </c>
       <c r="R18" s="57">
         <f t="shared" si="4"/>
-        <v>296751</v>
+        <v>335712</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="2"/>
@@ -7696,7 +7697,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="F10" sqref="F10:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7918,7 +7919,9 @@
       <c r="E10" s="39">
         <v>782916</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39">
+        <v>742607</v>
+      </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
@@ -7943,7 +7946,9 @@
       <c r="E11" s="39">
         <v>123938</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="39">
+        <v>125366</v>
+      </c>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -7968,7 +7973,9 @@
       <c r="E12" s="39">
         <v>5578017</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="39">
+        <v>5581011</v>
+      </c>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
@@ -7993,7 +8000,9 @@
       <c r="E13" s="39">
         <v>1547649</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="39">
+        <v>1560734</v>
+      </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
@@ -8018,7 +8027,9 @@
       <c r="E14" s="39">
         <v>145181</v>
       </c>
-      <c r="F14" s="39"/>
+      <c r="F14" s="39">
+        <v>144979</v>
+      </c>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
@@ -8043,7 +8054,9 @@
       <c r="E15" s="39">
         <v>4047923</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="39">
+        <v>4068728</v>
+      </c>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
@@ -8068,7 +8081,9 @@
       <c r="E16" s="39">
         <v>6616681</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="39">
+        <v>1233478</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
@@ -8093,7 +8108,9 @@
       <c r="E17" s="39">
         <v>1228178</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="39">
+        <v>6652541</v>
+      </c>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
@@ -8124,7 +8141,7 @@
       </c>
       <c r="F18" s="28">
         <f>SUM(F10:F17)</f>
-        <v>0</v>
+        <v>20109444</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" si="0"/>
@@ -8177,11 +8194,11 @@
       </c>
       <c r="F19" s="75">
         <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
+        <v>0.19412088886949058</v>
+      </c>
+      <c r="G19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="G19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="H19" s="75" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -31,7 +31,6 @@
     <sheet name="2021" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -205,10 +204,10 @@
     <t>Por división económica 2008 - 2021</t>
   </si>
   <si>
-    <t>Var Abr 2021 respecto a Mar 2021</t>
+    <t>Var Jun 2021 respecto a May 2021</t>
   </si>
   <si>
-    <t>Var Abr 2021 respecto a Dic 2020</t>
+    <t>Var Jun 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1068,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1397,10 +1396,10 @@
         <v>17</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="90"/>
       <c r="R9" s="90"/>
@@ -1452,323 +1451,320 @@
         <v>757997</v>
       </c>
       <c r="O10" s="39">
-        <v>782916</v>
+        <v>742607</v>
       </c>
       <c r="P10" s="39">
-        <v>742607</v>
+        <v>723404</v>
       </c>
       <c r="Q10" s="39">
         <f>P10-O10</f>
-        <v>-40309</v>
+        <v>-19203</v>
       </c>
       <c r="R10" s="39">
         <f>P10-N10</f>
-        <v>-15390</v>
+        <v>-34593</v>
       </c>
       <c r="S10" s="77"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="55">
-        <v>94703</v>
+        <v>2924150</v>
       </c>
       <c r="C11" s="55">
-        <v>103655</v>
+        <v>2905074</v>
       </c>
       <c r="D11" s="55">
-        <v>104706</v>
+        <v>3042080</v>
       </c>
       <c r="E11" s="55">
-        <v>117450</v>
+        <v>3188378</v>
       </c>
       <c r="F11" s="55">
-        <v>132729</v>
+        <v>3349750</v>
       </c>
       <c r="G11" s="55">
-        <v>136192</v>
+        <v>3440676</v>
       </c>
       <c r="H11" s="55">
-        <v>128171</v>
+        <v>3543646</v>
       </c>
       <c r="I11" s="39">
-        <v>122314</v>
+        <v>3663462</v>
       </c>
       <c r="J11" s="39">
-        <v>120835</v>
+        <v>3811152</v>
       </c>
       <c r="K11" s="39">
-        <v>127031</v>
+        <v>3924758</v>
       </c>
       <c r="L11" s="39">
-        <v>127936</v>
+        <v>4046072</v>
       </c>
       <c r="M11" s="39">
-        <v>128449</v>
+        <v>4143292</v>
       </c>
       <c r="N11" s="39">
-        <v>119946</v>
+        <v>4040863</v>
       </c>
       <c r="O11" s="39">
-        <v>123938</v>
+        <v>4068728</v>
       </c>
       <c r="P11" s="39">
-        <v>125366</v>
+        <v>4092009</v>
       </c>
       <c r="Q11" s="39">
-        <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
-        <v>1428</v>
+        <f>P11-O11</f>
+        <v>23281</v>
       </c>
       <c r="R11" s="39">
-        <f t="shared" ref="R11:R17" si="1">P11-N11</f>
-        <v>5420</v>
+        <f>P11-N11</f>
+        <v>51146</v>
       </c>
       <c r="S11" s="77"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
-        <v>21</v>
+    <row r="12" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="71" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="55">
-        <v>3617921</v>
+        <v>1099436</v>
       </c>
       <c r="C12" s="55">
-        <v>3504394</v>
+        <v>1042576</v>
       </c>
       <c r="D12" s="55">
-        <v>3778887</v>
+        <v>1128106</v>
       </c>
       <c r="E12" s="55">
-        <v>3937155</v>
+        <v>1183722</v>
       </c>
       <c r="F12" s="55">
-        <v>4134248</v>
+        <v>1241453</v>
       </c>
       <c r="G12" s="55">
-        <v>4290140</v>
+        <v>1266891</v>
       </c>
       <c r="H12" s="55">
-        <v>4502458</v>
+        <v>1402760</v>
       </c>
       <c r="I12" s="39">
-        <v>4729479</v>
+        <v>1444096</v>
       </c>
       <c r="J12" s="39">
-        <v>4950913</v>
+        <v>1490951</v>
       </c>
       <c r="K12" s="39">
-        <v>5201549</v>
+        <v>1577452</v>
       </c>
       <c r="L12" s="39">
-        <v>5428597</v>
+        <v>1587298</v>
       </c>
       <c r="M12" s="39">
-        <v>5450985</v>
+        <v>1574128</v>
       </c>
       <c r="N12" s="39">
-        <v>5438831</v>
+        <v>1487563</v>
       </c>
       <c r="O12" s="39">
-        <v>5578017</v>
+        <v>1560734</v>
       </c>
       <c r="P12" s="39">
-        <v>5581011</v>
+        <v>1578850</v>
       </c>
       <c r="Q12" s="39">
-        <f t="shared" si="0"/>
-        <v>2994</v>
+        <f>P12-O12</f>
+        <v>18116</v>
       </c>
       <c r="R12" s="39">
-        <f t="shared" si="1"/>
-        <v>142180</v>
+        <f>P12-N12</f>
+        <v>91287</v>
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
-        <v>33</v>
+    <row r="13" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="55">
-        <v>1099436</v>
+        <v>171728</v>
       </c>
       <c r="C13" s="55">
-        <v>1042576</v>
+        <v>129759</v>
       </c>
       <c r="D13" s="55">
-        <v>1128106</v>
+        <v>143946</v>
       </c>
       <c r="E13" s="55">
-        <v>1183722</v>
+        <v>148490</v>
       </c>
       <c r="F13" s="55">
-        <v>1241453</v>
+        <v>150911</v>
       </c>
       <c r="G13" s="55">
-        <v>1266891</v>
+        <v>149282</v>
       </c>
       <c r="H13" s="55">
-        <v>1402760</v>
+        <v>147415</v>
       </c>
       <c r="I13" s="39">
-        <v>1444096</v>
+        <v>146817</v>
       </c>
       <c r="J13" s="39">
-        <v>1490951</v>
+        <v>143941</v>
       </c>
       <c r="K13" s="39">
-        <v>1577452</v>
+        <v>144868</v>
       </c>
       <c r="L13" s="39">
-        <v>1587298</v>
+        <v>145917</v>
       </c>
       <c r="M13" s="39">
-        <v>1574128</v>
+        <v>146299</v>
       </c>
       <c r="N13" s="39">
-        <v>1487563</v>
+        <v>146801</v>
       </c>
       <c r="O13" s="39">
-        <v>1547649</v>
+        <v>144979</v>
       </c>
       <c r="P13" s="39">
-        <v>1560734</v>
+        <v>144888</v>
       </c>
       <c r="Q13" s="39">
-        <f t="shared" si="0"/>
-        <v>13085</v>
+        <f>P13-O13</f>
+        <v>-91</v>
       </c>
       <c r="R13" s="39">
-        <f t="shared" si="1"/>
-        <v>73171</v>
+        <f>P13-N13</f>
+        <v>-1913</v>
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="55">
-        <v>171728</v>
+        <v>3617921</v>
       </c>
       <c r="C14" s="55">
-        <v>129759</v>
+        <v>3504394</v>
       </c>
       <c r="D14" s="55">
-        <v>143946</v>
+        <v>3778887</v>
       </c>
       <c r="E14" s="55">
-        <v>148490</v>
+        <v>3937155</v>
       </c>
       <c r="F14" s="55">
-        <v>150911</v>
+        <v>4134248</v>
       </c>
       <c r="G14" s="55">
-        <v>149282</v>
+        <v>4290140</v>
       </c>
       <c r="H14" s="55">
-        <v>147415</v>
+        <v>4502458</v>
       </c>
       <c r="I14" s="39">
-        <v>146817</v>
+        <v>4729479</v>
       </c>
       <c r="J14" s="39">
-        <v>143941</v>
+        <v>4950913</v>
       </c>
       <c r="K14" s="39">
-        <v>144868</v>
+        <v>5201549</v>
       </c>
       <c r="L14" s="39">
-        <v>145917</v>
+        <v>5428597</v>
       </c>
       <c r="M14" s="39">
-        <v>146299</v>
+        <v>5450985</v>
       </c>
       <c r="N14" s="39">
-        <v>146801</v>
+        <v>5438831</v>
       </c>
       <c r="O14" s="39">
-        <v>145181</v>
+        <v>5581011</v>
       </c>
       <c r="P14" s="39">
-        <v>144979</v>
+        <v>5616130</v>
       </c>
       <c r="Q14" s="39">
-        <f t="shared" si="0"/>
-        <v>-202</v>
+        <f>P14-O14</f>
+        <v>35119</v>
       </c>
       <c r="R14" s="39">
-        <f t="shared" si="1"/>
-        <v>-1822</v>
-      </c>
-      <c r="S14" s="77"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
+        <f>P14-N14</f>
+        <v>177299</v>
+      </c>
     </row>
     <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="55">
-        <v>2924150</v>
+        <v>94703</v>
       </c>
       <c r="C15" s="55">
-        <v>2905074</v>
+        <v>103655</v>
       </c>
       <c r="D15" s="55">
-        <v>3042080</v>
+        <v>104706</v>
       </c>
       <c r="E15" s="55">
-        <v>3188378</v>
+        <v>117450</v>
       </c>
       <c r="F15" s="55">
-        <v>3349750</v>
+        <v>132729</v>
       </c>
       <c r="G15" s="55">
-        <v>3440676</v>
+        <v>136192</v>
       </c>
       <c r="H15" s="55">
-        <v>3543646</v>
+        <v>128171</v>
       </c>
       <c r="I15" s="39">
-        <v>3663462</v>
+        <v>122314</v>
       </c>
       <c r="J15" s="39">
-        <v>3811152</v>
+        <v>120835</v>
       </c>
       <c r="K15" s="39">
-        <v>3924758</v>
+        <v>127031</v>
       </c>
       <c r="L15" s="39">
-        <v>4046072</v>
+        <v>127936</v>
       </c>
       <c r="M15" s="39">
-        <v>4143292</v>
+        <v>128449</v>
       </c>
       <c r="N15" s="39">
-        <v>4040863</v>
+        <v>119946</v>
       </c>
       <c r="O15" s="39">
-        <v>4047923</v>
+        <v>125366</v>
       </c>
       <c r="P15" s="39">
-        <v>4068728</v>
+        <v>125459</v>
       </c>
       <c r="Q15" s="39">
-        <f t="shared" si="0"/>
-        <v>20805</v>
+        <f>P15-O15</f>
+        <v>93</v>
       </c>
       <c r="R15" s="39">
-        <f t="shared" si="1"/>
-        <v>27865</v>
+        <f>P15-N15</f>
+        <v>5513</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="11"/>
@@ -1776,60 +1772,60 @@
     </row>
     <row r="16" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="55">
-        <v>765127</v>
+        <v>5046744</v>
       </c>
       <c r="C16" s="55">
-        <v>747184</v>
+        <v>5109194</v>
       </c>
       <c r="D16" s="55">
-        <v>772019</v>
+        <v>5287823</v>
       </c>
       <c r="E16" s="55">
-        <v>817879</v>
+        <v>5444181</v>
       </c>
       <c r="F16" s="55">
-        <v>848162</v>
+        <v>5666232</v>
       </c>
       <c r="G16" s="55">
-        <v>873622</v>
+        <v>5821821</v>
       </c>
       <c r="H16" s="55">
-        <v>920137</v>
+        <v>6018112</v>
       </c>
       <c r="I16" s="39">
-        <v>970856</v>
+        <v>6191641</v>
       </c>
       <c r="J16" s="39">
-        <v>1024297</v>
+        <v>6418911</v>
       </c>
       <c r="K16" s="39">
-        <v>1092588</v>
+        <v>6644969</v>
       </c>
       <c r="L16" s="39">
-        <v>1150983</v>
+        <v>6855708</v>
       </c>
       <c r="M16" s="39">
-        <v>1215181</v>
+        <v>7015581</v>
       </c>
       <c r="N16" s="39">
-        <v>1213211</v>
+        <v>6568520</v>
       </c>
       <c r="O16" s="39">
-        <v>6616681</v>
+        <v>6652541</v>
       </c>
       <c r="P16" s="39">
-        <v>1233478</v>
+        <v>4447279</v>
       </c>
       <c r="Q16" s="39">
-        <f t="shared" si="0"/>
-        <v>-5383203</v>
+        <f>P16-O16</f>
+        <v>-2205262</v>
       </c>
       <c r="R16" s="39">
-        <f t="shared" si="1"/>
-        <v>20267</v>
+        <f>P16-N16</f>
+        <v>-2121241</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
@@ -1837,60 +1833,60 @@
     </row>
     <row r="17" spans="1:21" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="55">
-        <v>5046744</v>
+        <v>765127</v>
       </c>
       <c r="C17" s="55">
-        <v>5109194</v>
+        <v>747184</v>
       </c>
       <c r="D17" s="55">
-        <v>5287823</v>
+        <v>772019</v>
       </c>
       <c r="E17" s="55">
-        <v>5444181</v>
+        <v>817879</v>
       </c>
       <c r="F17" s="55">
-        <v>5666232</v>
+        <v>848162</v>
       </c>
       <c r="G17" s="55">
-        <v>5821821</v>
+        <v>873622</v>
       </c>
       <c r="H17" s="55">
-        <v>6018112</v>
+        <v>920137</v>
       </c>
       <c r="I17" s="39">
-        <v>6191641</v>
+        <v>970856</v>
       </c>
       <c r="J17" s="39">
-        <v>6418911</v>
+        <v>1024297</v>
       </c>
       <c r="K17" s="39">
-        <v>6644969</v>
+        <v>1092588</v>
       </c>
       <c r="L17" s="39">
-        <v>6855708</v>
+        <v>1150983</v>
       </c>
       <c r="M17" s="39">
-        <v>7015581</v>
+        <v>1215181</v>
       </c>
       <c r="N17" s="39">
-        <v>6568520</v>
+        <v>1213211</v>
       </c>
       <c r="O17" s="39">
-        <v>1228178</v>
+        <v>1233478</v>
       </c>
       <c r="P17" s="39">
-        <v>6652541</v>
+        <v>3447361</v>
       </c>
       <c r="Q17" s="39">
-        <f t="shared" si="0"/>
-        <v>5424363</v>
+        <f t="shared" ref="Q17" si="0">P17-O17</f>
+        <v>2213883</v>
       </c>
       <c r="R17" s="39">
-        <f t="shared" si="1"/>
-        <v>84021</v>
+        <f t="shared" ref="R17" si="1">P17-N17</f>
+        <v>2234150</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
@@ -1901,72 +1897,72 @@
         <v>3</v>
       </c>
       <c r="B18" s="57">
-        <f t="shared" ref="B18:G18" si="2">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>14178117</v>
       </c>
       <c r="C18" s="57">
-        <f t="shared" si="2"/>
+        <f>SUM(C10:C17)</f>
         <v>14006404</v>
       </c>
       <c r="D18" s="57">
-        <f t="shared" si="2"/>
+        <f>SUM(D10:D17)</f>
         <v>14738783</v>
       </c>
       <c r="E18" s="57">
-        <f t="shared" si="2"/>
+        <f>SUM(E10:E17)</f>
         <v>15350335</v>
       </c>
       <c r="F18" s="57">
-        <f t="shared" si="2"/>
+        <f>SUM(F10:F17)</f>
         <v>16062043</v>
       </c>
       <c r="G18" s="57">
-        <f t="shared" si="2"/>
+        <f>SUM(G10:G17)</f>
         <v>16525061</v>
       </c>
       <c r="H18" s="57">
-        <f t="shared" ref="H18:L18" si="3">SUM(H10:H17)</f>
+        <f>SUM(H10:H17)</f>
         <v>17239587</v>
       </c>
       <c r="I18" s="57">
-        <f t="shared" si="3"/>
+        <f>SUM(I10:I17)</f>
         <v>17882161</v>
       </c>
       <c r="J18" s="57">
-        <f t="shared" si="3"/>
+        <f>SUM(J10:J17)</f>
         <v>18616624</v>
       </c>
       <c r="K18" s="57">
-        <f t="shared" si="3"/>
+        <f>SUM(K10:K17)</f>
         <v>19418455</v>
       </c>
       <c r="L18" s="57">
-        <f t="shared" si="3"/>
+        <f>SUM(L10:L17)</f>
         <v>20079365</v>
       </c>
       <c r="M18" s="57">
-        <f t="shared" ref="M18:R18" si="4">SUM(M10:M17)</f>
+        <f>SUM(M10:M17)</f>
         <v>20421442</v>
       </c>
       <c r="N18" s="57">
-        <f t="shared" si="4"/>
+        <f>SUM(N10:N17)</f>
         <v>19773732</v>
       </c>
       <c r="O18" s="57">
-        <f t="shared" si="4"/>
-        <v>20070483</v>
+        <f>SUM(O10:O17)</f>
+        <v>20109444</v>
       </c>
       <c r="P18" s="57">
-        <f t="shared" si="4"/>
-        <v>20109444</v>
+        <f>SUM(P10:P17)</f>
+        <v>20175380</v>
       </c>
       <c r="Q18" s="88">
-        <f t="shared" si="4"/>
-        <v>38961</v>
+        <f>SUM(Q10:Q17)</f>
+        <v>65936</v>
       </c>
       <c r="R18" s="57">
-        <f t="shared" si="4"/>
-        <v>335712</v>
+        <f>SUM(R10:R17)</f>
+        <v>401648</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="2"/>
@@ -2072,7 +2068,7 @@
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q7"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2319,291 +2315,296 @@
         <v>576888</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>136936</v>
+        <v>3389984</v>
       </c>
       <c r="C11" s="39">
-        <v>135472</v>
+        <v>3399719</v>
       </c>
       <c r="D11" s="39">
-        <v>134974</v>
+        <v>3405329</v>
       </c>
       <c r="E11" s="39">
-        <v>136791</v>
+        <v>3412044</v>
       </c>
       <c r="F11" s="39">
-        <v>135458</v>
+        <v>3428842</v>
       </c>
       <c r="G11" s="39">
-        <v>133938</v>
+        <v>3444550</v>
       </c>
       <c r="H11" s="39">
-        <v>133129</v>
+        <v>3465050</v>
       </c>
       <c r="I11" s="39">
-        <v>133441</v>
+        <v>3465351</v>
       </c>
       <c r="J11" s="39">
-        <v>132588</v>
+        <v>3476561</v>
       </c>
       <c r="K11" s="39">
-        <v>132731</v>
+        <v>3510843</v>
       </c>
       <c r="L11" s="39">
-        <v>131573</v>
+        <v>3567319</v>
       </c>
       <c r="M11" s="39">
-        <v>128171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3543646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1278217</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1301927</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1316922</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1330511</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1355125</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1372940</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1402689</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1419870</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1445412</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1485904</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1490000</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1402760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>146098</v>
+      </c>
+      <c r="C13" s="39">
+        <v>147281</v>
+      </c>
+      <c r="D13" s="39">
+        <v>148263</v>
+      </c>
+      <c r="E13" s="39">
+        <v>149731</v>
+      </c>
+      <c r="F13" s="39">
+        <v>148457</v>
+      </c>
+      <c r="G13" s="39">
+        <v>148264</v>
+      </c>
+      <c r="H13" s="39">
+        <v>149186</v>
+      </c>
+      <c r="I13" s="39">
+        <v>146196</v>
+      </c>
+      <c r="J13" s="39">
+        <v>146094</v>
+      </c>
+      <c r="K13" s="39">
+        <v>145647</v>
+      </c>
+      <c r="L13" s="39">
+        <v>146030</v>
+      </c>
+      <c r="M13" s="39">
+        <v>147415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>4338200</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>4372398</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>4409117</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>4430273</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>4452649</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>4464382</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>4477491</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>4498196</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>4535339</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>4569627</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>4579570</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>4502458</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1278217</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1301927</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1316922</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1330511</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1355125</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1372940</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1402689</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1419870</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1445412</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1485904</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1490000</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1402760</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>146098</v>
-      </c>
-      <c r="C14" s="39">
-        <v>147281</v>
-      </c>
-      <c r="D14" s="39">
-        <v>148263</v>
-      </c>
-      <c r="E14" s="39">
-        <v>149731</v>
-      </c>
-      <c r="F14" s="39">
-        <v>148457</v>
-      </c>
-      <c r="G14" s="39">
-        <v>148264</v>
-      </c>
-      <c r="H14" s="39">
-        <v>149186</v>
-      </c>
-      <c r="I14" s="39">
-        <v>146196</v>
-      </c>
-      <c r="J14" s="39">
-        <v>146094</v>
-      </c>
-      <c r="K14" s="39">
-        <v>145647</v>
-      </c>
-      <c r="L14" s="39">
-        <v>146030</v>
-      </c>
-      <c r="M14" s="39">
-        <v>147415</v>
-      </c>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>3389984</v>
+        <v>136936</v>
       </c>
       <c r="C15" s="39">
-        <v>3399719</v>
+        <v>135472</v>
       </c>
       <c r="D15" s="39">
-        <v>3405329</v>
+        <v>134974</v>
       </c>
       <c r="E15" s="39">
-        <v>3412044</v>
+        <v>136791</v>
       </c>
       <c r="F15" s="39">
-        <v>3428842</v>
+        <v>135458</v>
       </c>
       <c r="G15" s="39">
-        <v>3444550</v>
+        <v>133938</v>
       </c>
       <c r="H15" s="39">
-        <v>3465050</v>
+        <v>133129</v>
       </c>
       <c r="I15" s="39">
-        <v>3465351</v>
+        <v>133441</v>
       </c>
       <c r="J15" s="39">
-        <v>3476561</v>
+        <v>132588</v>
       </c>
       <c r="K15" s="39">
-        <v>3510843</v>
+        <v>132731</v>
       </c>
       <c r="L15" s="39">
-        <v>3567319</v>
+        <v>131573</v>
       </c>
       <c r="M15" s="39">
-        <v>3543646</v>
+        <v>128171</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>875372</v>
+        <v>5816011</v>
       </c>
       <c r="C16" s="39">
-        <v>877158</v>
+        <v>5862301</v>
       </c>
       <c r="D16" s="39">
-        <v>886067</v>
+        <v>5895454</v>
       </c>
       <c r="E16" s="39">
-        <v>896692</v>
+        <v>5915413</v>
       </c>
       <c r="F16" s="39">
-        <v>901023</v>
+        <v>5923351</v>
       </c>
       <c r="G16" s="39">
-        <v>904848</v>
+        <v>5948371</v>
       </c>
       <c r="H16" s="39">
-        <v>911429</v>
+        <v>5929891</v>
       </c>
       <c r="I16" s="39">
-        <v>913704</v>
+        <v>5953081</v>
       </c>
       <c r="J16" s="39">
-        <v>917898</v>
+        <v>6008355</v>
       </c>
       <c r="K16" s="39">
-        <v>922123</v>
+        <v>6052472</v>
       </c>
       <c r="L16" s="39">
-        <v>926178</v>
+        <v>6080407</v>
       </c>
       <c r="M16" s="39">
-        <v>920137</v>
+        <v>6018112</v>
       </c>
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>5816011</v>
+        <v>875372</v>
       </c>
       <c r="C17" s="39">
-        <v>5862301</v>
+        <v>877158</v>
       </c>
       <c r="D17" s="39">
-        <v>5895454</v>
+        <v>886067</v>
       </c>
       <c r="E17" s="39">
-        <v>5915413</v>
+        <v>896692</v>
       </c>
       <c r="F17" s="39">
-        <v>5923351</v>
+        <v>901023</v>
       </c>
       <c r="G17" s="39">
-        <v>5948371</v>
+        <v>904848</v>
       </c>
       <c r="H17" s="39">
-        <v>5929891</v>
+        <v>911429</v>
       </c>
       <c r="I17" s="39">
-        <v>5953081</v>
+        <v>913704</v>
       </c>
       <c r="J17" s="39">
-        <v>6008355</v>
+        <v>917898</v>
       </c>
       <c r="K17" s="39">
-        <v>6052472</v>
+        <v>922123</v>
       </c>
       <c r="L17" s="39">
-        <v>6080407</v>
+        <v>926178</v>
       </c>
       <c r="M17" s="39">
-        <v>6018112</v>
+        <v>920137</v>
       </c>
     </row>
     <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -2611,51 +2612,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>16547040</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:C17)</f>
         <v>16672599</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>16781325</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:E17)</f>
         <v>16837367</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:F17)</f>
         <v>16885220</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" ref="G18:L18" si="1">SUM(G10:G17)</f>
+        <f>SUM(G10:G17)</f>
         <v>16928515</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="1"/>
+        <f>SUM(H10:H17)</f>
         <v>16965972</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="1"/>
+        <f>SUM(I10:I17)</f>
         <v>17023661</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="1"/>
+        <f>SUM(J10:J17)</f>
         <v>17180093</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="1"/>
+        <f>SUM(K10:K17)</f>
         <v>17352227</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="1"/>
+        <f>SUM(L10:L17)</f>
         <v>17475077</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>17239587</v>
       </c>
     </row>
@@ -2668,31 +2669,31 @@
         <v>0.13300404760986964</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:I19" si="2">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:I19" si="0">+(C18-B18)/B18*100</f>
         <v>0.75880036550343755</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.65212388302507607</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.3339545596071824</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.28420714473943581</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.25640767487779254</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.22126571645534177</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.34002767421754554</v>
       </c>
       <c r="J19" s="75">
@@ -2867,7 +2868,7 @@
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q7"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3114,291 +3115,296 @@
         <v>613496</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>128893</v>
+        <v>3496340</v>
       </c>
       <c r="C11" s="39">
-        <v>128713</v>
+        <v>3511640</v>
       </c>
       <c r="D11" s="39">
-        <v>129037</v>
+        <v>3529997</v>
       </c>
       <c r="E11" s="39">
-        <v>129878</v>
+        <v>3539432</v>
       </c>
       <c r="F11" s="39">
-        <v>130201</v>
+        <v>3548260</v>
       </c>
       <c r="G11" s="39">
-        <v>130087</v>
+        <v>3566697</v>
       </c>
       <c r="H11" s="39">
-        <v>129924</v>
+        <v>3582046</v>
       </c>
       <c r="I11" s="39">
-        <v>128710</v>
+        <v>3593187</v>
       </c>
       <c r="J11" s="39">
-        <v>127002</v>
+        <v>3602842</v>
       </c>
       <c r="K11" s="39">
-        <v>126059</v>
+        <v>3647993</v>
       </c>
       <c r="L11" s="39">
-        <v>125863</v>
+        <v>3690167</v>
       </c>
       <c r="M11" s="39">
-        <v>122314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3663462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1426074</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1452944</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1462571</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1483828</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1486598</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1515974</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1536386</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1552802</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1553985</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1571104</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1560770</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1444096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>144495</v>
+      </c>
+      <c r="C13" s="39">
+        <v>144930</v>
+      </c>
+      <c r="D13" s="39">
+        <v>146095</v>
+      </c>
+      <c r="E13" s="39">
+        <v>144982</v>
+      </c>
+      <c r="F13" s="39">
+        <v>145299</v>
+      </c>
+      <c r="G13" s="39">
+        <v>145178</v>
+      </c>
+      <c r="H13" s="39">
+        <v>146742</v>
+      </c>
+      <c r="I13" s="39">
+        <v>145114</v>
+      </c>
+      <c r="J13" s="39">
+        <v>144995</v>
+      </c>
+      <c r="K13" s="39">
+        <v>145472</v>
+      </c>
+      <c r="L13" s="39">
+        <v>146078</v>
+      </c>
+      <c r="M13" s="39">
+        <v>146817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>4560701</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>4602200</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>4636370</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>4666698</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>4684240</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>4706761</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>4729297</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>4735507</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>4767489</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>4808037</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>4818631</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>4729479</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1426074</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1452944</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1462571</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1483828</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1486598</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1515974</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1536386</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1552802</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1553985</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1571104</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1560770</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1444096</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>144495</v>
-      </c>
-      <c r="C14" s="39">
-        <v>144930</v>
-      </c>
-      <c r="D14" s="39">
-        <v>146095</v>
-      </c>
-      <c r="E14" s="39">
-        <v>144982</v>
-      </c>
-      <c r="F14" s="39">
-        <v>145299</v>
-      </c>
-      <c r="G14" s="39">
-        <v>145178</v>
-      </c>
-      <c r="H14" s="39">
-        <v>146742</v>
-      </c>
-      <c r="I14" s="39">
-        <v>145114</v>
-      </c>
-      <c r="J14" s="39">
-        <v>144995</v>
-      </c>
-      <c r="K14" s="39">
-        <v>145472</v>
-      </c>
-      <c r="L14" s="39">
-        <v>146078</v>
-      </c>
-      <c r="M14" s="39">
-        <v>146817</v>
-      </c>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>3496340</v>
+        <v>128893</v>
       </c>
       <c r="C15" s="39">
-        <v>3511640</v>
+        <v>128713</v>
       </c>
       <c r="D15" s="39">
-        <v>3529997</v>
+        <v>129037</v>
       </c>
       <c r="E15" s="39">
-        <v>3539432</v>
+        <v>129878</v>
       </c>
       <c r="F15" s="39">
-        <v>3548260</v>
+        <v>130201</v>
       </c>
       <c r="G15" s="39">
-        <v>3566697</v>
+        <v>130087</v>
       </c>
       <c r="H15" s="39">
-        <v>3582046</v>
+        <v>129924</v>
       </c>
       <c r="I15" s="39">
-        <v>3593187</v>
+        <v>128710</v>
       </c>
       <c r="J15" s="39">
-        <v>3602842</v>
+        <v>127002</v>
       </c>
       <c r="K15" s="39">
-        <v>3647993</v>
+        <v>126059</v>
       </c>
       <c r="L15" s="39">
-        <v>3690167</v>
+        <v>125863</v>
       </c>
       <c r="M15" s="39">
-        <v>3663462</v>
+        <v>122314</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>919087</v>
+        <v>6028799</v>
       </c>
       <c r="C16" s="39">
-        <v>924975</v>
+        <v>6060050</v>
       </c>
       <c r="D16" s="39">
-        <v>931900</v>
+        <v>6097234</v>
       </c>
       <c r="E16" s="39">
-        <v>935993</v>
+        <v>6101074</v>
       </c>
       <c r="F16" s="39">
-        <v>939316</v>
+        <v>6101365</v>
       </c>
       <c r="G16" s="39">
-        <v>945712</v>
+        <v>6130763</v>
       </c>
       <c r="H16" s="39">
-        <v>951053</v>
+        <v>6118867</v>
       </c>
       <c r="I16" s="39">
-        <v>957154</v>
+        <v>6147660</v>
       </c>
       <c r="J16" s="39">
-        <v>958502</v>
+        <v>6200539</v>
       </c>
       <c r="K16" s="39">
-        <v>967208</v>
+        <v>6227194</v>
       </c>
       <c r="L16" s="39">
-        <v>973042</v>
+        <v>6275647</v>
       </c>
       <c r="M16" s="39">
-        <v>970856</v>
+        <v>6191641</v>
       </c>
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>6028799</v>
+        <v>919087</v>
       </c>
       <c r="C17" s="39">
-        <v>6060050</v>
+        <v>924975</v>
       </c>
       <c r="D17" s="39">
-        <v>6097234</v>
+        <v>931900</v>
       </c>
       <c r="E17" s="39">
-        <v>6101074</v>
+        <v>935993</v>
       </c>
       <c r="F17" s="39">
-        <v>6101365</v>
+        <v>939316</v>
       </c>
       <c r="G17" s="39">
-        <v>6130763</v>
+        <v>945712</v>
       </c>
       <c r="H17" s="39">
-        <v>6118867</v>
+        <v>951053</v>
       </c>
       <c r="I17" s="39">
-        <v>6147660</v>
+        <v>957154</v>
       </c>
       <c r="J17" s="39">
-        <v>6200539</v>
+        <v>958502</v>
       </c>
       <c r="K17" s="39">
-        <v>6227194</v>
+        <v>967208</v>
       </c>
       <c r="L17" s="39">
-        <v>6275647</v>
+        <v>973042</v>
       </c>
       <c r="M17" s="39">
-        <v>6191641</v>
+        <v>970856</v>
       </c>
     </row>
     <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -3406,51 +3412,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>17299371</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:C17)</f>
         <v>17433062</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>17538198</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:E17)</f>
         <v>17603315</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:F17)</f>
         <v>17595860</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>17674295</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:H17)</f>
         <v>17718986</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:I17)</f>
         <v>17791345</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:J17)</f>
         <v>17908989</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:K17)</f>
         <v>18055468</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L17)</f>
         <v>18187747</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>17882161</v>
       </c>
     </row>
@@ -3463,31 +3469,31 @@
         <v>0.3467832495059191</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:I19" si="1">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:I19" si="0">+(C18-B18)/B18*100</f>
         <v>0.77280844488507705</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.60308395622065714</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.37128671942237168</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-4.2349977830880153E-2</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.44575826359154935</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.25285874203186037</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.40836986947221471</v>
       </c>
       <c r="J19" s="75">
@@ -3656,7 +3662,7 @@
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3903,291 +3909,296 @@
         <v>655624</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>123175</v>
+        <v>3617230</v>
       </c>
       <c r="C11" s="39">
-        <v>123751</v>
+        <v>3631030</v>
       </c>
       <c r="D11" s="39">
-        <v>122261</v>
+        <v>3643407</v>
       </c>
       <c r="E11" s="39">
-        <v>121918</v>
+        <v>3666757</v>
       </c>
       <c r="F11" s="39">
-        <v>122244</v>
+        <v>3680236</v>
       </c>
       <c r="G11" s="39">
-        <v>122595</v>
+        <v>3703673</v>
       </c>
       <c r="H11" s="39">
-        <v>122686</v>
+        <v>3721658</v>
       </c>
       <c r="I11" s="39">
-        <v>122950</v>
+        <v>3733975</v>
       </c>
       <c r="J11" s="39">
-        <v>123192</v>
+        <v>3750185</v>
       </c>
       <c r="K11" s="39">
-        <v>123581</v>
+        <v>3796551</v>
       </c>
       <c r="L11" s="39">
-        <v>124038</v>
+        <v>3840938</v>
       </c>
       <c r="M11" s="39">
-        <v>120835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3811152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1471021</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1497441</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1490331</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1512027</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1525348</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1542461</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1551055</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1577186</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1579277</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1600502</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1601897</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1490951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>145587</v>
+      </c>
+      <c r="C13" s="39">
+        <v>145881</v>
+      </c>
+      <c r="D13" s="39">
+        <v>147730</v>
+      </c>
+      <c r="E13" s="39">
+        <v>146114</v>
+      </c>
+      <c r="F13" s="39">
+        <v>145334</v>
+      </c>
+      <c r="G13" s="39">
+        <v>145450</v>
+      </c>
+      <c r="H13" s="39">
+        <v>147246</v>
+      </c>
+      <c r="I13" s="39">
+        <v>145001</v>
+      </c>
+      <c r="J13" s="39">
+        <v>144046</v>
+      </c>
+      <c r="K13" s="39">
+        <v>143259</v>
+      </c>
+      <c r="L13" s="39">
+        <v>143377</v>
+      </c>
+      <c r="M13" s="39">
+        <v>143941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>4770826</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>4799626</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>4818150</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>4852410</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>4875040</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>4899584</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>4922830</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>4950079</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>4990006</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>5023873</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>5047170</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>4950913</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1471021</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1497441</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1490331</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1512027</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1525348</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1542461</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1551055</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1577186</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1579277</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1600502</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1601897</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1490951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>145587</v>
-      </c>
-      <c r="C14" s="39">
-        <v>145881</v>
-      </c>
-      <c r="D14" s="39">
-        <v>147730</v>
-      </c>
-      <c r="E14" s="39">
-        <v>146114</v>
-      </c>
-      <c r="F14" s="39">
-        <v>145334</v>
-      </c>
-      <c r="G14" s="39">
-        <v>145450</v>
-      </c>
-      <c r="H14" s="39">
-        <v>147246</v>
-      </c>
-      <c r="I14" s="39">
-        <v>145001</v>
-      </c>
-      <c r="J14" s="39">
-        <v>144046</v>
-      </c>
-      <c r="K14" s="39">
-        <v>143259</v>
-      </c>
-      <c r="L14" s="39">
-        <v>143377</v>
-      </c>
-      <c r="M14" s="39">
-        <v>143941</v>
-      </c>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>3617230</v>
+        <v>123175</v>
       </c>
       <c r="C15" s="39">
-        <v>3631030</v>
+        <v>123751</v>
       </c>
       <c r="D15" s="39">
-        <v>3643407</v>
+        <v>122261</v>
       </c>
       <c r="E15" s="39">
-        <v>3666757</v>
+        <v>121918</v>
       </c>
       <c r="F15" s="39">
-        <v>3680236</v>
+        <v>122244</v>
       </c>
       <c r="G15" s="39">
-        <v>3703673</v>
+        <v>122595</v>
       </c>
       <c r="H15" s="39">
-        <v>3721658</v>
+        <v>122686</v>
       </c>
       <c r="I15" s="39">
-        <v>3733975</v>
+        <v>122950</v>
       </c>
       <c r="J15" s="39">
-        <v>3750185</v>
+        <v>123192</v>
       </c>
       <c r="K15" s="39">
-        <v>3796551</v>
+        <v>123581</v>
       </c>
       <c r="L15" s="39">
-        <v>3840938</v>
+        <v>124038</v>
       </c>
       <c r="M15" s="39">
-        <v>3811152</v>
+        <v>120835</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>979941</v>
+        <v>6204296</v>
       </c>
       <c r="C16" s="39">
-        <v>987906</v>
+        <v>6267932</v>
       </c>
       <c r="D16" s="39">
-        <v>985612</v>
+        <v>6292361</v>
       </c>
       <c r="E16" s="39">
-        <v>988510</v>
+        <v>6302759</v>
       </c>
       <c r="F16" s="39">
-        <v>991549</v>
+        <v>6312348</v>
       </c>
       <c r="G16" s="39">
-        <v>1000314</v>
+        <v>6342350</v>
       </c>
       <c r="H16" s="39">
-        <v>1002202</v>
+        <v>6323789</v>
       </c>
       <c r="I16" s="39">
-        <v>1006515</v>
+        <v>6355642</v>
       </c>
       <c r="J16" s="39">
-        <v>1011299</v>
+        <v>6425495</v>
       </c>
       <c r="K16" s="39">
-        <v>1018564</v>
+        <v>6468715</v>
       </c>
       <c r="L16" s="39">
-        <v>1029329</v>
+        <v>6503056</v>
       </c>
       <c r="M16" s="39">
-        <v>1024297</v>
+        <v>6418911</v>
       </c>
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>6204296</v>
+        <v>979941</v>
       </c>
       <c r="C17" s="39">
-        <v>6267932</v>
+        <v>987906</v>
       </c>
       <c r="D17" s="39">
-        <v>6292361</v>
+        <v>985612</v>
       </c>
       <c r="E17" s="39">
-        <v>6302759</v>
+        <v>988510</v>
       </c>
       <c r="F17" s="39">
-        <v>6312348</v>
+        <v>991549</v>
       </c>
       <c r="G17" s="39">
-        <v>6342350</v>
+        <v>1000314</v>
       </c>
       <c r="H17" s="39">
-        <v>6323789</v>
+        <v>1002202</v>
       </c>
       <c r="I17" s="39">
-        <v>6355642</v>
+        <v>1006515</v>
       </c>
       <c r="J17" s="39">
-        <v>6425495</v>
+        <v>1011299</v>
       </c>
       <c r="K17" s="39">
-        <v>6468715</v>
+        <v>1018564</v>
       </c>
       <c r="L17" s="39">
-        <v>6503056</v>
+        <v>1029329</v>
       </c>
       <c r="M17" s="39">
-        <v>6418911</v>
+        <v>1024297</v>
       </c>
     </row>
     <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4195,51 +4206,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>17953203</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:C17)</f>
         <v>18095494</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>18154906</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:E17)</f>
         <v>18237468</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:F17)</f>
         <v>18257802</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>18326071</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:H17)</f>
         <v>18348131</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:I17)</f>
         <v>18466227</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:J17)</f>
         <v>18617186</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:K17)</f>
         <v>18788509</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L17)</f>
         <v>18935841</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>18616624</v>
       </c>
     </row>
@@ -4252,31 +4263,31 @@
         <v>0.39727860631609346</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:I19" si="1">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:I19" si="0">+(C18-B18)/B18*100</f>
         <v>0.79256609530900979</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.32832483047989736</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.45476412821966689</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.11149574052713895</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.37391686030991023</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.12037495653050782</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.6436404885053415</v>
       </c>
       <c r="J19" s="75">
@@ -4445,7 +4456,7 @@
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q7"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4692,291 +4703,296 @@
         <v>705240</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>122125</v>
+        <v>3771206</v>
       </c>
       <c r="C11" s="39">
-        <v>123534</v>
+        <v>3777989</v>
       </c>
       <c r="D11" s="39">
-        <v>124989</v>
+        <v>3786258</v>
       </c>
       <c r="E11" s="39">
-        <v>126044</v>
+        <v>3786145</v>
       </c>
       <c r="F11" s="39">
-        <v>127043</v>
+        <v>3796278</v>
       </c>
       <c r="G11" s="39">
-        <v>127638</v>
+        <v>3821809</v>
       </c>
       <c r="H11" s="39">
-        <v>128328</v>
+        <v>3848829</v>
       </c>
       <c r="I11" s="39">
-        <v>128441</v>
+        <v>3851464</v>
       </c>
       <c r="J11" s="39">
-        <v>127966</v>
+        <v>3874257</v>
       </c>
       <c r="K11" s="39">
-        <v>128931</v>
+        <v>3916972</v>
       </c>
       <c r="L11" s="39">
-        <v>129449</v>
+        <v>3962269</v>
       </c>
       <c r="M11" s="39">
-        <v>127031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3924758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1520939</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1541263</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1556490</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1552017</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1576679</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1602077</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1620189</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1654358</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1655102</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1684587</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1687261</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1577452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>141887</v>
+      </c>
+      <c r="C13" s="39">
+        <v>142485</v>
+      </c>
+      <c r="D13" s="39">
+        <v>142768</v>
+      </c>
+      <c r="E13" s="39">
+        <v>143081</v>
+      </c>
+      <c r="F13" s="39">
+        <v>142536</v>
+      </c>
+      <c r="G13" s="39">
+        <v>141055</v>
+      </c>
+      <c r="H13" s="39">
+        <v>144690</v>
+      </c>
+      <c r="I13" s="39">
+        <v>144056</v>
+      </c>
+      <c r="J13" s="39">
+        <v>143296</v>
+      </c>
+      <c r="K13" s="39">
+        <v>144519</v>
+      </c>
+      <c r="L13" s="39">
+        <v>144323</v>
+      </c>
+      <c r="M13" s="39">
+        <v>144868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>5007203</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>5055063</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>5106718</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>5124261</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>5152927</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>5189586</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>5208952</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>5228057</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>5252556</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>5287725</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>5302369</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>5201549</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1520939</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1541263</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1556490</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1552017</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1576679</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1602077</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1620189</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1654358</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1655102</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1684587</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1687261</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1577452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>141887</v>
-      </c>
-      <c r="C14" s="39">
-        <v>142485</v>
-      </c>
-      <c r="D14" s="39">
-        <v>142768</v>
-      </c>
-      <c r="E14" s="39">
-        <v>143081</v>
-      </c>
-      <c r="F14" s="39">
-        <v>142536</v>
-      </c>
-      <c r="G14" s="39">
-        <v>141055</v>
-      </c>
-      <c r="H14" s="39">
-        <v>144690</v>
-      </c>
-      <c r="I14" s="39">
-        <v>144056</v>
-      </c>
-      <c r="J14" s="39">
-        <v>143296</v>
-      </c>
-      <c r="K14" s="39">
-        <v>144519</v>
-      </c>
-      <c r="L14" s="39">
-        <v>144323</v>
-      </c>
-      <c r="M14" s="39">
-        <v>144868</v>
-      </c>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>3771206</v>
+        <v>122125</v>
       </c>
       <c r="C15" s="39">
-        <v>3777989</v>
+        <v>123534</v>
       </c>
       <c r="D15" s="39">
-        <v>3786258</v>
+        <v>124989</v>
       </c>
       <c r="E15" s="39">
-        <v>3786145</v>
+        <v>126044</v>
       </c>
       <c r="F15" s="39">
-        <v>3796278</v>
+        <v>127043</v>
       </c>
       <c r="G15" s="39">
-        <v>3821809</v>
+        <v>127638</v>
       </c>
       <c r="H15" s="39">
-        <v>3848829</v>
+        <v>128328</v>
       </c>
       <c r="I15" s="39">
-        <v>3851464</v>
+        <v>128441</v>
       </c>
       <c r="J15" s="39">
-        <v>3874257</v>
+        <v>127966</v>
       </c>
       <c r="K15" s="39">
-        <v>3916972</v>
+        <v>128931</v>
       </c>
       <c r="L15" s="39">
-        <v>3962269</v>
+        <v>129449</v>
       </c>
       <c r="M15" s="39">
-        <v>3924758</v>
+        <v>127031</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>1021191</v>
+        <v>6437433</v>
       </c>
       <c r="C16" s="39">
-        <v>1027103</v>
+        <v>6495366</v>
       </c>
       <c r="D16" s="39">
-        <v>1030716</v>
+        <v>6547924</v>
       </c>
       <c r="E16" s="39">
-        <v>1039187</v>
+        <v>6560931</v>
       </c>
       <c r="F16" s="39">
-        <v>1049799</v>
+        <v>6559255</v>
       </c>
       <c r="G16" s="39">
-        <v>1061192</v>
+        <v>6578014</v>
       </c>
       <c r="H16" s="39">
-        <v>1067206</v>
+        <v>6563809</v>
       </c>
       <c r="I16" s="39">
-        <v>1071516</v>
+        <v>6604479</v>
       </c>
       <c r="J16" s="39">
-        <v>1079384</v>
+        <v>6654871</v>
       </c>
       <c r="K16" s="39">
-        <v>1088740</v>
+        <v>6709402</v>
       </c>
       <c r="L16" s="39">
-        <v>1099473</v>
+        <v>6738678</v>
       </c>
       <c r="M16" s="39">
-        <v>1092588</v>
+        <v>6644969</v>
       </c>
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>6437433</v>
+        <v>1021191</v>
       </c>
       <c r="C17" s="39">
-        <v>6495366</v>
+        <v>1027103</v>
       </c>
       <c r="D17" s="39">
-        <v>6547924</v>
+        <v>1030716</v>
       </c>
       <c r="E17" s="39">
-        <v>6560931</v>
+        <v>1039187</v>
       </c>
       <c r="F17" s="39">
-        <v>6559255</v>
+        <v>1049799</v>
       </c>
       <c r="G17" s="39">
-        <v>6578014</v>
+        <v>1061192</v>
       </c>
       <c r="H17" s="39">
-        <v>6563809</v>
+        <v>1067206</v>
       </c>
       <c r="I17" s="39">
-        <v>6604479</v>
+        <v>1071516</v>
       </c>
       <c r="J17" s="39">
-        <v>6654871</v>
+        <v>1079384</v>
       </c>
       <c r="K17" s="39">
-        <v>6709402</v>
+        <v>1088740</v>
       </c>
       <c r="L17" s="39">
-        <v>6738678</v>
+        <v>1099473</v>
       </c>
       <c r="M17" s="39">
-        <v>6644969</v>
+        <v>1092588</v>
       </c>
     </row>
     <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -4984,15 +5000,15 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>18699916</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:C17)</f>
         <v>18853971</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>18994318</v>
       </c>
       <c r="E18" s="28">
@@ -5004,31 +5020,31 @@
         <v>19047825</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>19134058</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:H17)</f>
         <v>19172222</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:I17)</f>
         <v>19292865</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:J17)</f>
         <v>19428916</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:K17)</f>
         <v>19623674</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L17)</f>
         <v>19755991</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>19418455</v>
       </c>
     </row>
@@ -5041,31 +5057,31 @@
         <v>0.44740657597209893</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:I19" si="1">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:I19" si="0">+(C18-B18)/B18*100</f>
         <v>0.82382723002606006</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.74438960365431761</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14091056072663416</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14059136380404838</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.45271835498278679</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.19945586033030732</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.62925935241100384</v>
       </c>
       <c r="J19" s="75">
@@ -5234,7 +5250,7 @@
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q7"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5481,291 +5497,296 @@
         <v>736854</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>129082</v>
+        <v>3885490</v>
       </c>
       <c r="C11" s="39">
-        <v>131510</v>
+        <v>3902213</v>
       </c>
       <c r="D11" s="39">
-        <v>131546</v>
+        <v>3912131</v>
       </c>
       <c r="E11" s="39">
-        <v>132367</v>
+        <v>3924789</v>
       </c>
       <c r="F11" s="39">
-        <v>133965</v>
+        <v>3938921</v>
       </c>
       <c r="G11" s="39">
-        <v>133698</v>
+        <v>3957111</v>
       </c>
       <c r="H11" s="39">
-        <v>133040</v>
+        <v>3973894</v>
       </c>
       <c r="I11" s="39">
-        <v>131891</v>
+        <v>3983106</v>
       </c>
       <c r="J11" s="39">
-        <v>131031</v>
+        <v>3994244</v>
       </c>
       <c r="K11" s="39">
-        <v>130896</v>
+        <v>4035199</v>
       </c>
       <c r="L11" s="39">
-        <v>130245</v>
+        <v>4086796</v>
       </c>
       <c r="M11" s="39">
-        <v>127936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4046072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1624149</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1648290</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1638633</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1673021</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1685429</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1689103</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1712692</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1735685</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1736242</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1747574</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1713162</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1587298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>143157</v>
+      </c>
+      <c r="C13" s="39">
+        <v>143385</v>
+      </c>
+      <c r="D13" s="39">
+        <v>144890</v>
+      </c>
+      <c r="E13" s="39">
+        <v>144253</v>
+      </c>
+      <c r="F13" s="39">
+        <v>143971</v>
+      </c>
+      <c r="G13" s="39">
+        <v>144441</v>
+      </c>
+      <c r="H13" s="39">
+        <v>145799</v>
+      </c>
+      <c r="I13" s="39">
+        <v>145119</v>
+      </c>
+      <c r="J13" s="39">
+        <v>145103</v>
+      </c>
+      <c r="K13" s="39">
+        <v>144825</v>
+      </c>
+      <c r="L13" s="39">
+        <v>145337</v>
+      </c>
+      <c r="M13" s="39">
+        <v>145917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>5255956</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>5309352</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>5334363</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>5362196</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>5384058</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>5391141</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>5428385</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>5455101</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>5484878</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>5518463</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>5529450</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>5428597</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1624149</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1648290</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1638633</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1673021</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1685429</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1689103</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1712692</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1735685</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1736242</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1747574</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1713162</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1587298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>143157</v>
-      </c>
-      <c r="C14" s="39">
-        <v>143385</v>
-      </c>
-      <c r="D14" s="39">
-        <v>144890</v>
-      </c>
-      <c r="E14" s="39">
-        <v>144253</v>
-      </c>
-      <c r="F14" s="39">
-        <v>143971</v>
-      </c>
-      <c r="G14" s="39">
-        <v>144441</v>
-      </c>
-      <c r="H14" s="39">
-        <v>145799</v>
-      </c>
-      <c r="I14" s="39">
-        <v>145119</v>
-      </c>
-      <c r="J14" s="39">
-        <v>145103</v>
-      </c>
-      <c r="K14" s="39">
-        <v>144825</v>
-      </c>
-      <c r="L14" s="39">
-        <v>145337</v>
-      </c>
-      <c r="M14" s="39">
-        <v>145917</v>
-      </c>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>3885490</v>
+        <v>129082</v>
       </c>
       <c r="C15" s="39">
-        <v>3902213</v>
+        <v>131510</v>
       </c>
       <c r="D15" s="39">
-        <v>3912131</v>
+        <v>131546</v>
       </c>
       <c r="E15" s="39">
-        <v>3924789</v>
+        <v>132367</v>
       </c>
       <c r="F15" s="39">
-        <v>3938921</v>
+        <v>133965</v>
       </c>
       <c r="G15" s="39">
-        <v>3957111</v>
+        <v>133698</v>
       </c>
       <c r="H15" s="39">
-        <v>3973894</v>
+        <v>133040</v>
       </c>
       <c r="I15" s="39">
-        <v>3983106</v>
+        <v>131891</v>
       </c>
       <c r="J15" s="39">
-        <v>3994244</v>
+        <v>131031</v>
       </c>
       <c r="K15" s="39">
-        <v>4035199</v>
+        <v>130896</v>
       </c>
       <c r="L15" s="39">
-        <v>4086796</v>
+        <v>130245</v>
       </c>
       <c r="M15" s="39">
-        <v>4046072</v>
+        <v>127936</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>1098889</v>
+        <v>6663798</v>
       </c>
       <c r="C16" s="39">
-        <v>1103513</v>
+        <v>6721065</v>
       </c>
       <c r="D16" s="39">
-        <v>1110710</v>
+        <v>6753888</v>
       </c>
       <c r="E16" s="39">
-        <v>1118667</v>
+        <v>6794114</v>
       </c>
       <c r="F16" s="39">
-        <v>1122774</v>
+        <v>6794727</v>
       </c>
       <c r="G16" s="39">
-        <v>1125051</v>
+        <v>6801693</v>
       </c>
       <c r="H16" s="39">
-        <v>1130363</v>
+        <v>6786928</v>
       </c>
       <c r="I16" s="39">
-        <v>1138592</v>
+        <v>6827407</v>
       </c>
       <c r="J16" s="39">
-        <v>1140678</v>
+        <v>6880289</v>
       </c>
       <c r="K16" s="39">
-        <v>1154332</v>
+        <v>6932796</v>
       </c>
       <c r="L16" s="39">
-        <v>1158571</v>
+        <v>6974399</v>
       </c>
       <c r="M16" s="39">
-        <v>1150983</v>
+        <v>6855708</v>
       </c>
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>6663798</v>
+        <v>1098889</v>
       </c>
       <c r="C17" s="39">
-        <v>6721065</v>
+        <v>1103513</v>
       </c>
       <c r="D17" s="39">
-        <v>6753888</v>
+        <v>1110710</v>
       </c>
       <c r="E17" s="39">
-        <v>6794114</v>
+        <v>1118667</v>
       </c>
       <c r="F17" s="39">
-        <v>6794727</v>
+        <v>1122774</v>
       </c>
       <c r="G17" s="39">
-        <v>6801693</v>
+        <v>1125051</v>
       </c>
       <c r="H17" s="39">
-        <v>6786928</v>
+        <v>1130363</v>
       </c>
       <c r="I17" s="39">
-        <v>6827407</v>
+        <v>1138592</v>
       </c>
       <c r="J17" s="39">
-        <v>6880289</v>
+        <v>1140678</v>
       </c>
       <c r="K17" s="39">
-        <v>6932796</v>
+        <v>1154332</v>
       </c>
       <c r="L17" s="39">
-        <v>6974399</v>
+        <v>1158571</v>
       </c>
       <c r="M17" s="39">
-        <v>6855708</v>
+        <v>1150983</v>
       </c>
     </row>
     <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -5773,15 +5794,15 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>19532177</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:C17)</f>
         <v>19696488</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>19786997</v>
       </c>
       <c r="E18" s="28">
@@ -5793,31 +5814,31 @@
         <v>19908072</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>19894575</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:H17)</f>
         <v>19949244</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:I17)</f>
         <v>20063433</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:J17)</f>
         <v>20192960</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:K17)</f>
         <v>20356179</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L17)</f>
         <v>20457926</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>20079365</v>
       </c>
     </row>
@@ -5830,27 +5851,27 @@
         <v>0.58563876477299559</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:H19" si="1">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:H19" si="0">+(C18-B18)/B18*100</f>
         <v>0.84123239309166609</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.45951846847011502</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.44023355337851422</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1709058007439429</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-6.7796620385941947E-2</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.27479350526462615</v>
       </c>
       <c r="I19" s="75">
@@ -6026,7 +6047,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6273,291 +6294,296 @@
         <v>747527</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>130002</v>
+        <v>4005587</v>
       </c>
       <c r="C11" s="39">
-        <v>129943</v>
+        <v>4014011</v>
       </c>
       <c r="D11" s="39">
-        <v>129830</v>
+        <v>4018421</v>
       </c>
       <c r="E11" s="39">
-        <v>130429</v>
+        <v>4030885</v>
       </c>
       <c r="F11" s="39">
-        <v>129394</v>
+        <v>4049846</v>
       </c>
       <c r="G11" s="39">
-        <v>129327</v>
+        <v>4064315</v>
       </c>
       <c r="H11" s="39">
-        <v>129721</v>
+        <v>4079968</v>
       </c>
       <c r="I11" s="39">
-        <v>128464</v>
+        <v>4084425</v>
       </c>
       <c r="J11" s="39">
-        <v>129519</v>
+        <v>4101646</v>
       </c>
       <c r="K11" s="39">
-        <v>129529</v>
+        <v>4153393</v>
       </c>
       <c r="L11" s="39">
-        <v>130301</v>
+        <v>4193278</v>
       </c>
       <c r="M11" s="39">
-        <v>128449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4143292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1630994</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1647187</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1637929</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1643034</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1650181</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1654411</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1673959</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1676120</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1685435</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1707133</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1695281</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1574128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>145735</v>
+      </c>
+      <c r="C13" s="39">
+        <v>145945</v>
+      </c>
+      <c r="D13" s="39">
+        <v>145464</v>
+      </c>
+      <c r="E13" s="39">
+        <v>147008</v>
+      </c>
+      <c r="F13" s="39">
+        <v>146200</v>
+      </c>
+      <c r="G13" s="39">
+        <v>145579</v>
+      </c>
+      <c r="H13" s="39">
+        <v>145885</v>
+      </c>
+      <c r="I13" s="39">
+        <v>144912</v>
+      </c>
+      <c r="J13" s="39">
+        <v>144763</v>
+      </c>
+      <c r="K13" s="39">
+        <v>145227</v>
+      </c>
+      <c r="L13" s="39">
+        <v>145755</v>
+      </c>
+      <c r="M13" s="39">
+        <v>146299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>5488283</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>5522200</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>5533431</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>5534061</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>5548723</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>5537901</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>5552566</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>5539490</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>5555828</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>5562697</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>5561550</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>5450985</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1630994</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1647187</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1637929</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1643034</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1650181</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1654411</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1673959</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1676120</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1685435</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1707133</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1695281</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1574128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>145735</v>
-      </c>
-      <c r="C14" s="39">
-        <v>145945</v>
-      </c>
-      <c r="D14" s="39">
-        <v>145464</v>
-      </c>
-      <c r="E14" s="39">
-        <v>147008</v>
-      </c>
-      <c r="F14" s="39">
-        <v>146200</v>
-      </c>
-      <c r="G14" s="39">
-        <v>145579</v>
-      </c>
-      <c r="H14" s="39">
-        <v>145885</v>
-      </c>
-      <c r="I14" s="39">
-        <v>144912</v>
-      </c>
-      <c r="J14" s="39">
-        <v>144763</v>
-      </c>
-      <c r="K14" s="39">
-        <v>145227</v>
-      </c>
-      <c r="L14" s="39">
-        <v>145755</v>
-      </c>
-      <c r="M14" s="39">
-        <v>146299</v>
-      </c>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>4005587</v>
+        <v>130002</v>
       </c>
       <c r="C15" s="39">
-        <v>4014011</v>
+        <v>129943</v>
       </c>
       <c r="D15" s="39">
-        <v>4018421</v>
+        <v>129830</v>
       </c>
       <c r="E15" s="39">
-        <v>4030885</v>
+        <v>130429</v>
       </c>
       <c r="F15" s="39">
-        <v>4049846</v>
+        <v>129394</v>
       </c>
       <c r="G15" s="39">
-        <v>4064315</v>
+        <v>129327</v>
       </c>
       <c r="H15" s="39">
-        <v>4079968</v>
+        <v>129721</v>
       </c>
       <c r="I15" s="39">
-        <v>4084425</v>
+        <v>128464</v>
       </c>
       <c r="J15" s="39">
-        <v>4101646</v>
+        <v>129519</v>
       </c>
       <c r="K15" s="39">
-        <v>4153393</v>
+        <v>129529</v>
       </c>
       <c r="L15" s="39">
-        <v>4193278</v>
+        <v>130301</v>
       </c>
       <c r="M15" s="39">
-        <v>4143292</v>
+        <v>128449</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>1151961</v>
+        <v>6856224</v>
       </c>
       <c r="C16" s="39">
-        <v>1162018</v>
+        <v>6904796</v>
       </c>
       <c r="D16" s="39">
-        <v>1166805</v>
+        <v>6935893</v>
       </c>
       <c r="E16" s="39">
-        <v>1173595</v>
+        <v>6953121</v>
       </c>
       <c r="F16" s="39">
-        <v>1176213</v>
+        <v>6962501</v>
       </c>
       <c r="G16" s="39">
-        <v>1183628</v>
+        <v>6965698</v>
       </c>
       <c r="H16" s="39">
-        <v>1196621</v>
+        <v>6945664</v>
       </c>
       <c r="I16" s="39">
-        <v>1199362</v>
+        <v>6970441</v>
       </c>
       <c r="J16" s="39">
-        <v>1204267</v>
+        <v>7035632</v>
       </c>
       <c r="K16" s="39">
-        <v>1214110</v>
+        <v>7086588</v>
       </c>
       <c r="L16" s="39">
-        <v>1220127</v>
+        <v>7124167</v>
       </c>
       <c r="M16" s="39">
-        <v>1215181</v>
+        <v>7015581</v>
       </c>
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>6856224</v>
+        <v>1151961</v>
       </c>
       <c r="C17" s="39">
-        <v>6904796</v>
+        <v>1162018</v>
       </c>
       <c r="D17" s="39">
-        <v>6935893</v>
+        <v>1166805</v>
       </c>
       <c r="E17" s="39">
-        <v>6953121</v>
+        <v>1173595</v>
       </c>
       <c r="F17" s="39">
-        <v>6962501</v>
+        <v>1176213</v>
       </c>
       <c r="G17" s="39">
-        <v>6965698</v>
+        <v>1183628</v>
       </c>
       <c r="H17" s="39">
-        <v>6945664</v>
+        <v>1196621</v>
       </c>
       <c r="I17" s="39">
-        <v>6970441</v>
+        <v>1199362</v>
       </c>
       <c r="J17" s="39">
-        <v>7035632</v>
+        <v>1204267</v>
       </c>
       <c r="K17" s="39">
-        <v>7086588</v>
+        <v>1214110</v>
       </c>
       <c r="L17" s="39">
-        <v>7124167</v>
+        <v>1220127</v>
       </c>
       <c r="M17" s="39">
-        <v>7015581</v>
+        <v>1215181</v>
       </c>
     </row>
     <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -6569,11 +6595,11 @@
         <v>20174011</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" ref="C18:M18" si="0">SUM(C10:C17)</f>
+        <f>SUM(C10:C17)</f>
         <v>20299993</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>20348508</v>
       </c>
       <c r="E18" s="28">
@@ -6585,31 +6611,31 @@
         <v>20382910</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>20368666</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:H17)</f>
         <v>20385377</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:I17)</f>
         <v>20422008</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:J17)</f>
         <v>20567426</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:K17)</f>
         <v>20727422</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L17)</f>
         <v>20803652</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>20421442</v>
       </c>
     </row>
@@ -6634,35 +6660,35 @@
         <v>0.14949007563601222</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" ref="F19" si="1">+(F18-E18)/E18*100</f>
+        <f t="shared" ref="F19" si="0">+(F18-E18)/E18*100</f>
         <v>1.9544699286669999E-2</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" ref="G19:M19" si="2">+(G18-F18)/F18*100</f>
+        <f t="shared" ref="G19:M19" si="1">+(G18-F18)/F18*100</f>
         <v>-6.9882072775673335E-2</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.2042682618488613E-2</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.17969253156318865</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.71206514070506677</v>
       </c>
       <c r="K19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.77790969078969829</v>
       </c>
       <c r="L19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.36777366717385307</v>
       </c>
       <c r="M19" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.8372255025223456</v>
       </c>
       <c r="N19" s="65"/>
@@ -6861,7 +6887,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7108,291 +7134,296 @@
         <v>757997</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>129174</v>
+        <v>4100540</v>
       </c>
       <c r="C11" s="39">
-        <v>128785</v>
+        <v>4112523</v>
       </c>
       <c r="D11" s="39">
-        <v>126721</v>
+        <v>4111421</v>
       </c>
       <c r="E11" s="39">
-        <v>123287</v>
+        <v>4069110</v>
       </c>
       <c r="F11" s="39">
-        <v>121436</v>
+        <v>4015444</v>
       </c>
       <c r="G11" s="39">
-        <v>3981109</v>
+        <v>120926</v>
       </c>
       <c r="H11" s="39">
-        <v>119968</v>
+        <v>3985214</v>
       </c>
       <c r="I11" s="39">
-        <v>120119</v>
+        <v>3990425</v>
       </c>
       <c r="J11" s="39">
-        <v>120565</v>
+        <v>3994023</v>
       </c>
       <c r="K11" s="39">
-        <v>120874</v>
+        <v>4033976</v>
       </c>
       <c r="L11" s="39">
-        <v>121639</v>
+        <v>4080918</v>
       </c>
       <c r="M11" s="39">
-        <v>119946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4040863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1608317</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1626535</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1593621</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1396466</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1364218</v>
+      </c>
+      <c r="G12" s="39">
+        <v>145669</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1490310</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1523655</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1544173</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1568948</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1577102</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1487563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>145812</v>
+      </c>
+      <c r="C13" s="39">
+        <v>146049</v>
+      </c>
+      <c r="D13" s="39">
+        <v>145903</v>
+      </c>
+      <c r="E13" s="39">
+        <v>146075</v>
+      </c>
+      <c r="F13" s="39">
+        <v>145473</v>
+      </c>
+      <c r="G13" s="39">
+        <v>5271343</v>
+      </c>
+      <c r="H13" s="39">
+        <v>146836</v>
+      </c>
+      <c r="I13" s="39">
+        <v>147321</v>
+      </c>
+      <c r="J13" s="39">
+        <v>146533</v>
+      </c>
+      <c r="K13" s="39">
+        <v>147267</v>
+      </c>
+      <c r="L13" s="39">
+        <v>146785</v>
+      </c>
+      <c r="M13" s="39">
+        <v>146801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>5494752</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>5516374</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>5490693</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>5391007</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>5305454</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>1462271</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>5319710</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>5361228</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>5404971</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>5456549</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>5499933</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>5438831</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1608317</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1626535</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1593621</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1396466</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1364218</v>
-      </c>
-      <c r="G13" s="39">
-        <v>145669</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1490310</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1523655</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1544173</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1568948</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1577102</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1487563</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>145812</v>
-      </c>
-      <c r="C14" s="39">
-        <v>146049</v>
-      </c>
-      <c r="D14" s="39">
-        <v>145903</v>
-      </c>
-      <c r="E14" s="39">
-        <v>146075</v>
-      </c>
-      <c r="F14" s="39">
-        <v>145473</v>
-      </c>
-      <c r="G14" s="39">
-        <v>5271343</v>
-      </c>
-      <c r="H14" s="39">
-        <v>146836</v>
-      </c>
-      <c r="I14" s="39">
-        <v>147321</v>
-      </c>
-      <c r="J14" s="39">
-        <v>146533</v>
-      </c>
-      <c r="K14" s="39">
-        <v>147267</v>
-      </c>
-      <c r="L14" s="39">
-        <v>146785</v>
-      </c>
-      <c r="M14" s="39">
-        <v>146801</v>
-      </c>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>4100540</v>
+        <v>129174</v>
       </c>
       <c r="C15" s="39">
-        <v>4112523</v>
+        <v>128785</v>
       </c>
       <c r="D15" s="39">
-        <v>4111421</v>
+        <v>126721</v>
       </c>
       <c r="E15" s="39">
-        <v>4069110</v>
+        <v>123287</v>
       </c>
       <c r="F15" s="39">
-        <v>4015444</v>
+        <v>121436</v>
       </c>
       <c r="G15" s="39">
-        <v>120926</v>
+        <v>3981109</v>
       </c>
       <c r="H15" s="39">
-        <v>3985214</v>
+        <v>119968</v>
       </c>
       <c r="I15" s="39">
-        <v>3990425</v>
+        <v>120119</v>
       </c>
       <c r="J15" s="39">
-        <v>3994023</v>
+        <v>120565</v>
       </c>
       <c r="K15" s="39">
-        <v>4033976</v>
+        <v>120874</v>
       </c>
       <c r="L15" s="39">
-        <v>4080918</v>
+        <v>121639</v>
       </c>
       <c r="M15" s="39">
-        <v>4040863</v>
+        <v>119946</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>1217337</v>
+        <v>7011614</v>
       </c>
       <c r="C16" s="39">
-        <v>1223755</v>
+        <v>7055688</v>
       </c>
       <c r="D16" s="39">
-        <v>1226995</v>
+        <v>6979981</v>
       </c>
       <c r="E16" s="39">
-        <v>1202788</v>
+        <v>6808519</v>
       </c>
       <c r="F16" s="39">
-        <v>1186977</v>
+        <v>6699369</v>
       </c>
       <c r="G16" s="39">
-        <v>6624236</v>
+        <v>1182594</v>
       </c>
       <c r="H16" s="39">
-        <v>1183455</v>
+        <v>6573168</v>
       </c>
       <c r="I16" s="39">
-        <v>1187467</v>
+        <v>6570671</v>
       </c>
       <c r="J16" s="39">
-        <v>1193903</v>
+        <v>6585119</v>
       </c>
       <c r="K16" s="39">
-        <v>1208882</v>
+        <v>6631782</v>
       </c>
       <c r="L16" s="39">
-        <v>1220915</v>
+        <v>6657748</v>
       </c>
       <c r="M16" s="39">
-        <v>1213211</v>
+        <v>6568520</v>
       </c>
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>7011614</v>
+        <v>1217337</v>
       </c>
       <c r="C17" s="39">
-        <v>7055688</v>
+        <v>1223755</v>
       </c>
       <c r="D17" s="39">
-        <v>6979981</v>
+        <v>1226995</v>
       </c>
       <c r="E17" s="39">
-        <v>6808519</v>
+        <v>1202788</v>
       </c>
       <c r="F17" s="39">
-        <v>6699369</v>
+        <v>1186977</v>
       </c>
       <c r="G17" s="39">
-        <v>1182594</v>
+        <v>6624236</v>
       </c>
       <c r="H17" s="39">
-        <v>6573168</v>
+        <v>1183455</v>
       </c>
       <c r="I17" s="39">
-        <v>6570671</v>
+        <v>1187467</v>
       </c>
       <c r="J17" s="39">
-        <v>6585119</v>
+        <v>1193903</v>
       </c>
       <c r="K17" s="39">
-        <v>6631782</v>
+        <v>1208882</v>
       </c>
       <c r="L17" s="39">
-        <v>6657748</v>
+        <v>1220915</v>
       </c>
       <c r="M17" s="39">
-        <v>6568520</v>
+        <v>1213211</v>
       </c>
     </row>
     <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -7404,11 +7435,11 @@
         <v>20490397</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" ref="C18:M18" si="0">SUM(C10:C17)</f>
+        <f>SUM(C10:C17)</f>
         <v>20613536</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>20482943</v>
       </c>
       <c r="E18" s="28">
@@ -7420,31 +7451,31 @@
         <v>19583170</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>19499859</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:H17)</f>
         <v>19495952</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:I17)</f>
         <v>19588342</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:J17)</f>
         <v>19702192</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:K17)</f>
         <v>19902833</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L17)</f>
         <v>20051552</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>19773732</v>
       </c>
     </row>
@@ -7469,35 +7500,35 @@
         <v>-2.710777450291201</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
+        <f t="shared" ref="F19:M19" si="0">+(F18-E18)/E18*100</f>
         <v>-1.7288802478721073</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.42542142053610321</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.003604231189569E-2</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.47389324717254128</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.58121305008867008</v>
       </c>
       <c r="K19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0183689205749289</v>
       </c>
       <c r="L19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.74722528194855475</v>
       </c>
       <c r="M19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.385528661322575</v>
       </c>
       <c r="N19" s="65"/>
@@ -7697,7 +7728,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F17"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7922,7 +7953,9 @@
       <c r="F10" s="39">
         <v>742607</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39">
+        <v>723404</v>
+      </c>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
@@ -7930,26 +7963,28 @@
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>122138</v>
+        <v>4002111</v>
       </c>
       <c r="C11" s="39">
-        <v>122880</v>
+        <v>4019354</v>
       </c>
       <c r="D11" s="39">
-        <v>122977</v>
+        <v>4034946</v>
       </c>
       <c r="E11" s="39">
-        <v>123938</v>
+        <v>4047923</v>
       </c>
       <c r="F11" s="39">
-        <v>125366</v>
-      </c>
-      <c r="G11" s="39"/>
+        <v>4068728</v>
+      </c>
+      <c r="G11" s="39">
+        <v>4092009</v>
+      </c>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
@@ -7957,26 +7992,28 @@
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B12" s="39">
-        <v>5498006</v>
+        <v>1511546</v>
       </c>
       <c r="C12" s="39">
-        <v>5539351</v>
+        <v>1524171</v>
       </c>
       <c r="D12" s="39">
-        <v>5561450</v>
+        <v>1527342</v>
       </c>
       <c r="E12" s="39">
-        <v>5578017</v>
+        <v>1547649</v>
       </c>
       <c r="F12" s="39">
-        <v>5581011</v>
-      </c>
-      <c r="G12" s="39"/>
+        <v>1560734</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1578850</v>
+      </c>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -7984,26 +8021,28 @@
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="39">
-        <v>1511546</v>
+        <v>145059</v>
       </c>
       <c r="C13" s="39">
-        <v>1524171</v>
+        <v>145218</v>
       </c>
       <c r="D13" s="39">
-        <v>1527342</v>
+        <v>145935</v>
       </c>
       <c r="E13" s="39">
-        <v>1547649</v>
+        <v>145181</v>
       </c>
       <c r="F13" s="39">
-        <v>1560734</v>
-      </c>
-      <c r="G13" s="39"/>
+        <v>144979</v>
+      </c>
+      <c r="G13" s="39">
+        <v>144888</v>
+      </c>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -8011,53 +8050,62 @@
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
-    <row r="14" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
-        <v>22</v>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="39">
-        <v>145059</v>
+        <v>5498006</v>
       </c>
       <c r="C14" s="39">
-        <v>145218</v>
+        <v>5539351</v>
       </c>
       <c r="D14" s="39">
-        <v>145935</v>
+        <v>5561450</v>
       </c>
       <c r="E14" s="39">
-        <v>145181</v>
+        <v>5578017</v>
       </c>
       <c r="F14" s="39">
-        <v>144979</v>
-      </c>
-      <c r="G14" s="39"/>
+        <v>5581011</v>
+      </c>
+      <c r="G14" s="39">
+        <v>5616130</v>
+      </c>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>4002111</v>
+        <v>122138</v>
       </c>
       <c r="C15" s="39">
-        <v>4019354</v>
+        <v>122880</v>
       </c>
       <c r="D15" s="39">
-        <v>4034946</v>
+        <v>122977</v>
       </c>
       <c r="E15" s="39">
-        <v>4047923</v>
+        <v>123938</v>
       </c>
       <c r="F15" s="39">
-        <v>4068728</v>
-      </c>
-      <c r="G15" s="39"/>
+        <v>125366</v>
+      </c>
+      <c r="G15" s="39">
+        <v>125459</v>
+      </c>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
@@ -8067,24 +8115,26 @@
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>1215685</v>
+        <v>6539050</v>
       </c>
       <c r="C16" s="39">
-        <v>1217940</v>
+        <v>6568150</v>
       </c>
       <c r="D16" s="39">
-        <v>1221474</v>
+        <v>6609994</v>
       </c>
       <c r="E16" s="39">
-        <v>6616681</v>
+        <v>1228178</v>
       </c>
       <c r="F16" s="39">
-        <v>1233478</v>
-      </c>
-      <c r="G16" s="39"/>
+        <v>6652541</v>
+      </c>
+      <c r="G16" s="39">
+        <v>4447279</v>
+      </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
@@ -8094,24 +8144,26 @@
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>6539050</v>
+        <v>1215685</v>
       </c>
       <c r="C17" s="39">
-        <v>6568150</v>
+        <v>1217940</v>
       </c>
       <c r="D17" s="39">
-        <v>6609994</v>
+        <v>1221474</v>
       </c>
       <c r="E17" s="39">
-        <v>1228178</v>
+        <v>6616681</v>
       </c>
       <c r="F17" s="39">
-        <v>6652541</v>
-      </c>
-      <c r="G17" s="39"/>
+        <v>1233478</v>
+      </c>
+      <c r="G17" s="39">
+        <v>3447361</v>
+      </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
@@ -8128,11 +8180,11 @@
         <v>19821651</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" ref="C18:M18" si="0">SUM(C10:C17)</f>
+        <f>SUM(C10:C17)</f>
         <v>19936938</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>20025709</v>
       </c>
       <c r="E18" s="28">
@@ -8144,31 +8196,31 @@
         <v>20109444</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
+        <v>20175380</v>
+      </c>
+      <c r="H18" s="28">
+        <f>SUM(H10:H17)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="28">
-        <f t="shared" si="0"/>
+      <c r="I18" s="28">
+        <f>SUM(I10:I17)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="28">
-        <f t="shared" si="0"/>
+      <c r="J18" s="28">
+        <f>SUM(J10:J17)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="28">
-        <f t="shared" si="0"/>
+      <c r="K18" s="28">
+        <f>SUM(K10:K17)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="28">
-        <f t="shared" si="0"/>
+      <c r="L18" s="28">
+        <f>SUM(L10:L17)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>0</v>
       </c>
     </row>
@@ -8193,35 +8245,35 @@
         <v>0.2235825957522902</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
+        <f t="shared" ref="F19:M19" si="0">+(F18-E18)/E18*100</f>
         <v>0.19412088886949058</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0.32788574363368772</v>
+      </c>
+      <c r="H19" s="75">
+        <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="H19" s="75" t="e">
-        <f t="shared" si="1"/>
+      <c r="I19" s="75" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="75" t="e">
-        <f t="shared" si="1"/>
+      <c r="J19" s="75" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="75" t="e">
-        <f t="shared" si="1"/>
+      <c r="K19" s="75" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="75" t="e">
-        <f t="shared" si="1"/>
+      <c r="L19" s="75" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M19" s="75" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="65"/>
@@ -10181,7 +10233,7 @@
   <dimension ref="A1:DC41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10484,291 +10536,296 @@
         <v>458308</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>85173</v>
+        <v>2806352</v>
       </c>
       <c r="C11" s="39">
-        <v>88457</v>
+        <v>2814621</v>
       </c>
       <c r="D11" s="39">
-        <v>90738</v>
+        <v>2814524</v>
       </c>
       <c r="E11" s="39">
-        <v>92099</v>
+        <v>2835041</v>
       </c>
       <c r="F11" s="39">
-        <v>94336</v>
+        <v>2840345</v>
       </c>
       <c r="G11" s="39">
-        <v>94454</v>
+        <v>2845533</v>
       </c>
       <c r="H11" s="39">
-        <v>96478</v>
+        <v>2869117</v>
       </c>
       <c r="I11" s="39">
-        <v>98182</v>
+        <v>2873432</v>
       </c>
       <c r="J11" s="39">
-        <v>98841</v>
+        <v>2887823</v>
       </c>
       <c r="K11" s="39">
-        <v>96695</v>
+        <v>2917150</v>
       </c>
       <c r="L11" s="39">
-        <v>96956</v>
+        <v>2945973</v>
       </c>
       <c r="M11" s="39">
-        <v>94703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2924150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1185385</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1199708</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1189343</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1215606</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1222168</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1229529</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1243795</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1246650</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1240152</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1235521</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1207187</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1099436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="31" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>164090</v>
+      </c>
+      <c r="C13" s="39">
+        <v>164492</v>
+      </c>
+      <c r="D13" s="39">
+        <v>166095</v>
+      </c>
+      <c r="E13" s="39">
+        <v>165753</v>
+      </c>
+      <c r="F13" s="39">
+        <v>165184</v>
+      </c>
+      <c r="G13" s="39">
+        <v>166281</v>
+      </c>
+      <c r="H13" s="39">
+        <v>168907</v>
+      </c>
+      <c r="I13" s="39">
+        <v>168411</v>
+      </c>
+      <c r="J13" s="39">
+        <v>168676</v>
+      </c>
+      <c r="K13" s="39">
+        <v>169194</v>
+      </c>
+      <c r="L13" s="39">
+        <v>169744</v>
+      </c>
+      <c r="M13" s="39">
+        <v>171728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>3915047</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>3917877</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>3910023</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>3910499</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>3884673</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>3872404</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>3859471</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>3838902</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>3832722</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>3810939</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>3743758</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>3617921</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1185385</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1199708</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1189343</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1215606</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1222168</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1229529</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1243795</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1246650</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1240152</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1235521</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1207187</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1099436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" s="31" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>164090</v>
-      </c>
-      <c r="C14" s="39">
-        <v>164492</v>
-      </c>
-      <c r="D14" s="39">
-        <v>166095</v>
-      </c>
-      <c r="E14" s="39">
-        <v>165753</v>
-      </c>
-      <c r="F14" s="39">
-        <v>165184</v>
-      </c>
-      <c r="G14" s="39">
-        <v>166281</v>
-      </c>
-      <c r="H14" s="39">
-        <v>168907</v>
-      </c>
-      <c r="I14" s="39">
-        <v>168411</v>
-      </c>
-      <c r="J14" s="39">
-        <v>168676</v>
-      </c>
-      <c r="K14" s="39">
-        <v>169194</v>
-      </c>
-      <c r="L14" s="39">
-        <v>169744</v>
-      </c>
-      <c r="M14" s="39">
-        <v>171728</v>
-      </c>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
     </row>
     <row r="15" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>2806352</v>
+        <v>85173</v>
       </c>
       <c r="C15" s="39">
-        <v>2814621</v>
+        <v>88457</v>
       </c>
       <c r="D15" s="39">
-        <v>2814524</v>
+        <v>90738</v>
       </c>
       <c r="E15" s="39">
-        <v>2835041</v>
+        <v>92099</v>
       </c>
       <c r="F15" s="39">
-        <v>2840345</v>
+        <v>94336</v>
       </c>
       <c r="G15" s="39">
-        <v>2845533</v>
+        <v>94454</v>
       </c>
       <c r="H15" s="39">
-        <v>2869117</v>
+        <v>96478</v>
       </c>
       <c r="I15" s="39">
-        <v>2873432</v>
+        <v>98182</v>
       </c>
       <c r="J15" s="39">
-        <v>2887823</v>
+        <v>98841</v>
       </c>
       <c r="K15" s="39">
-        <v>2917150</v>
+        <v>96695</v>
       </c>
       <c r="L15" s="39">
-        <v>2945973</v>
+        <v>96956</v>
       </c>
       <c r="M15" s="39">
-        <v>2924150</v>
+        <v>94703</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>764280</v>
+        <v>4900873</v>
       </c>
       <c r="C16" s="39">
-        <v>766986</v>
+        <v>4943370</v>
       </c>
       <c r="D16" s="39">
-        <v>766107</v>
+        <v>4965387</v>
       </c>
       <c r="E16" s="39">
-        <v>769323</v>
+        <v>4993094</v>
       </c>
       <c r="F16" s="39">
-        <v>767635</v>
+        <v>5013004</v>
       </c>
       <c r="G16" s="39">
-        <v>769149</v>
+        <v>5061898</v>
       </c>
       <c r="H16" s="39">
-        <v>771825</v>
+        <v>5058717</v>
       </c>
       <c r="I16" s="39">
-        <v>771582</v>
+        <v>5064764</v>
       </c>
       <c r="J16" s="39">
-        <v>775026</v>
+        <v>5092000</v>
       </c>
       <c r="K16" s="39">
-        <v>775357</v>
+        <v>5121324</v>
       </c>
       <c r="L16" s="39">
-        <v>772662</v>
+        <v>5124318</v>
       </c>
       <c r="M16" s="39">
-        <v>765127</v>
+        <v>5046744</v>
       </c>
     </row>
     <row r="17" spans="1:107" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>4900873</v>
+        <v>764280</v>
       </c>
       <c r="C17" s="39">
-        <v>4943370</v>
+        <v>766986</v>
       </c>
       <c r="D17" s="39">
-        <v>4965387</v>
+        <v>766107</v>
       </c>
       <c r="E17" s="39">
-        <v>4993094</v>
+        <v>769323</v>
       </c>
       <c r="F17" s="39">
-        <v>5013004</v>
+        <v>767635</v>
       </c>
       <c r="G17" s="39">
-        <v>5061898</v>
+        <v>769149</v>
       </c>
       <c r="H17" s="39">
-        <v>5058717</v>
+        <v>771825</v>
       </c>
       <c r="I17" s="39">
-        <v>5064764</v>
+        <v>771582</v>
       </c>
       <c r="J17" s="39">
-        <v>5092000</v>
+        <v>775026</v>
       </c>
       <c r="K17" s="39">
-        <v>5121324</v>
+        <v>775357</v>
       </c>
       <c r="L17" s="39">
-        <v>5124318</v>
+        <v>772662</v>
       </c>
       <c r="M17" s="39">
-        <v>5046744</v>
+        <v>765127</v>
       </c>
     </row>
     <row r="18" spans="1:107" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10776,51 +10833,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>14315318</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:C17)</f>
         <v>14396101</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>14400376</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:E17)</f>
         <v>14480066</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:F17)</f>
         <v>14443848</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>14472908</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:H17)</f>
         <v>14483011</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:I17)</f>
         <v>14460993</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:J17)</f>
         <v>14526347</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:K17)</f>
         <v>14564570</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L17)</f>
         <v>14505253</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>14178117</v>
       </c>
     </row>
@@ -10833,35 +10890,35 @@
         <v>#REF!</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:J19" si="1">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:J19" si="0">+(C18-B18)/B18*100</f>
         <v>0.5643115996445206</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9695540480023028E-2</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.55338832819365269</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.25012316932809558</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.20119292310470174</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.9806289102369745E-2</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.15202639837807208</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.45193300349429671</v>
       </c>
       <c r="K19" s="75">
@@ -11093,7 +11150,7 @@
   <dimension ref="A1:DC41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q7"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11396,291 +11453,296 @@
         <v>464568</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>94487</v>
+        <v>2857125</v>
       </c>
       <c r="C11" s="39">
-        <v>94875</v>
+        <v>2839228</v>
       </c>
       <c r="D11" s="39">
-        <v>95376</v>
+        <v>2838152</v>
       </c>
       <c r="E11" s="39">
-        <v>96653</v>
+        <v>2831393</v>
       </c>
       <c r="F11" s="39">
-        <v>96988</v>
+        <v>2826381</v>
       </c>
       <c r="G11" s="39">
-        <v>98786</v>
+        <v>2829189</v>
       </c>
       <c r="H11" s="39">
-        <v>100248</v>
+        <v>2839400</v>
       </c>
       <c r="I11" s="39">
-        <v>101054</v>
+        <v>2845865</v>
       </c>
       <c r="J11" s="39">
-        <v>102698</v>
+        <v>2851579</v>
       </c>
       <c r="K11" s="39">
-        <v>103611</v>
+        <v>2878708</v>
       </c>
       <c r="L11" s="39">
-        <v>101499</v>
+        <v>2922109</v>
       </c>
       <c r="M11" s="39">
-        <v>103655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2905074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1101006</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1094172</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1101774</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1101299</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1099017</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1113386</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1120292</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1121300</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1109518</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1118586</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1120494</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1042576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>169912</v>
+      </c>
+      <c r="C13" s="39">
+        <v>170565</v>
+      </c>
+      <c r="D13" s="39">
+        <v>171967</v>
+      </c>
+      <c r="E13" s="39">
+        <v>172536</v>
+      </c>
+      <c r="F13" s="39">
+        <v>171530</v>
+      </c>
+      <c r="G13" s="39">
+        <v>171664</v>
+      </c>
+      <c r="H13" s="39">
+        <v>173984</v>
+      </c>
+      <c r="I13" s="39">
+        <v>172366</v>
+      </c>
+      <c r="J13" s="39">
+        <v>170549</v>
+      </c>
+      <c r="K13" s="39">
+        <v>126469</v>
+      </c>
+      <c r="L13" s="39">
+        <v>127046</v>
+      </c>
+      <c r="M13" s="39">
+        <v>129759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>3579386</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>3531897</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>3508683</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>3487226</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>3462541</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>3447116</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>3445867</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>3468473</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>3508027</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>3543068</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>3562188</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>3504394</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1101006</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1094172</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1101774</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1101299</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1099017</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1113386</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1120292</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1121300</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1109518</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1118586</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1120494</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1042576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>169912</v>
-      </c>
-      <c r="C14" s="39">
-        <v>170565</v>
-      </c>
-      <c r="D14" s="39">
-        <v>171967</v>
-      </c>
-      <c r="E14" s="39">
-        <v>172536</v>
-      </c>
-      <c r="F14" s="39">
-        <v>171530</v>
-      </c>
-      <c r="G14" s="39">
-        <v>171664</v>
-      </c>
-      <c r="H14" s="39">
-        <v>173984</v>
-      </c>
-      <c r="I14" s="39">
-        <v>172366</v>
-      </c>
-      <c r="J14" s="39">
-        <v>170549</v>
-      </c>
-      <c r="K14" s="39">
-        <v>126469</v>
-      </c>
-      <c r="L14" s="39">
-        <v>127046</v>
-      </c>
-      <c r="M14" s="39">
-        <v>129759</v>
-      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
     </row>
     <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>2857125</v>
+        <v>94487</v>
       </c>
       <c r="C15" s="39">
-        <v>2839228</v>
+        <v>94875</v>
       </c>
       <c r="D15" s="39">
-        <v>2838152</v>
+        <v>95376</v>
       </c>
       <c r="E15" s="39">
-        <v>2831393</v>
+        <v>96653</v>
       </c>
       <c r="F15" s="39">
-        <v>2826381</v>
+        <v>96988</v>
       </c>
       <c r="G15" s="39">
-        <v>2829189</v>
+        <v>98786</v>
       </c>
       <c r="H15" s="39">
-        <v>2839400</v>
+        <v>100248</v>
       </c>
       <c r="I15" s="39">
-        <v>2845865</v>
+        <v>101054</v>
       </c>
       <c r="J15" s="39">
-        <v>2851579</v>
+        <v>102698</v>
       </c>
       <c r="K15" s="39">
-        <v>2878708</v>
+        <v>103611</v>
       </c>
       <c r="L15" s="39">
-        <v>2922109</v>
+        <v>101499</v>
       </c>
       <c r="M15" s="39">
-        <v>2905074</v>
+        <v>103655</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>755784</v>
+        <v>5032130</v>
       </c>
       <c r="C16" s="39">
-        <v>752478</v>
+        <v>5044652</v>
       </c>
       <c r="D16" s="39">
-        <v>750505</v>
+        <v>5065075</v>
       </c>
       <c r="E16" s="39">
-        <v>748256</v>
+        <v>5064334</v>
       </c>
       <c r="F16" s="39">
-        <v>740910</v>
+        <v>5031391</v>
       </c>
       <c r="G16" s="39">
-        <v>741069</v>
+        <v>5046178</v>
       </c>
       <c r="H16" s="39">
-        <v>741093</v>
+        <v>5039000</v>
       </c>
       <c r="I16" s="39">
-        <v>738685</v>
+        <v>5056544</v>
       </c>
       <c r="J16" s="39">
-        <v>738492</v>
+        <v>5086465</v>
       </c>
       <c r="K16" s="39">
-        <v>742374</v>
+        <v>5129757</v>
       </c>
       <c r="L16" s="39">
-        <v>746967</v>
+        <v>5167056</v>
       </c>
       <c r="M16" s="39">
-        <v>747184</v>
+        <v>5109194</v>
       </c>
     </row>
     <row r="17" spans="1:107" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>5032130</v>
+        <v>755784</v>
       </c>
       <c r="C17" s="39">
-        <v>5044652</v>
+        <v>752478</v>
       </c>
       <c r="D17" s="39">
-        <v>5065075</v>
+        <v>750505</v>
       </c>
       <c r="E17" s="39">
-        <v>5064334</v>
+        <v>748256</v>
       </c>
       <c r="F17" s="39">
-        <v>5031391</v>
+        <v>740910</v>
       </c>
       <c r="G17" s="39">
-        <v>5046178</v>
+        <v>741069</v>
       </c>
       <c r="H17" s="39">
-        <v>5039000</v>
+        <v>741093</v>
       </c>
       <c r="I17" s="39">
-        <v>5056544</v>
+        <v>738685</v>
       </c>
       <c r="J17" s="39">
-        <v>5086465</v>
+        <v>738492</v>
       </c>
       <c r="K17" s="39">
-        <v>5129757</v>
+        <v>742374</v>
       </c>
       <c r="L17" s="39">
-        <v>5167056</v>
+        <v>746967</v>
       </c>
       <c r="M17" s="39">
-        <v>5109194</v>
+        <v>747184</v>
       </c>
     </row>
     <row r="18" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -11688,51 +11750,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>14073102</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:C17)</f>
         <v>14026501</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>14039826</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:E17)</f>
         <v>13979608</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:F17)</f>
         <v>13868132</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>13871175</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:H17)</f>
         <v>13887498</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:I17)</f>
         <v>13918843</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:J17)</f>
         <v>13992494</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:K17)</f>
         <v>14073749</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L17)</f>
         <v>14192197</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>14006404</v>
       </c>
     </row>
@@ -11745,27 +11807,27 @@
         <v>-0.74068368881424806</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:H19" si="1">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:H19" si="0">+(C18-B18)/B18*100</f>
         <v>-0.33113523940919348</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.4998745588796521E-2</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.42890844943519957</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.79741864006487173</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1942392818297372E-2</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.11767568356682112</v>
       </c>
       <c r="I19" s="75">
@@ -12006,7 +12068,7 @@
   <dimension ref="A1:CY41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q7"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12293,291 +12355,296 @@
         <v>481216</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>103135</v>
+        <v>2864804</v>
       </c>
       <c r="C11" s="39">
-        <v>104302</v>
+        <v>2878993</v>
       </c>
       <c r="D11" s="39">
-        <v>103882</v>
+        <v>2894823</v>
       </c>
       <c r="E11" s="39">
-        <v>102343</v>
+        <v>2906258</v>
       </c>
       <c r="F11" s="39">
-        <v>101927</v>
+        <v>2915988</v>
       </c>
       <c r="G11" s="39">
-        <v>102991</v>
+        <v>2936055</v>
       </c>
       <c r="H11" s="39">
-        <v>103309</v>
+        <v>2956306</v>
       </c>
       <c r="I11" s="39">
-        <v>102409</v>
+        <v>2970239</v>
       </c>
       <c r="J11" s="39">
-        <v>103277</v>
+        <v>2971948</v>
       </c>
       <c r="K11" s="39">
-        <v>104305</v>
+        <v>3010120</v>
       </c>
       <c r="L11" s="39">
-        <v>106331</v>
+        <v>3060098</v>
       </c>
       <c r="M11" s="39">
-        <v>104706</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3042080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1062486</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1085310</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1101940</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1127763</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1140605</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1157809</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1156745</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1177606</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1189243</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1206863</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1211026</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1128106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>128243</v>
+      </c>
+      <c r="C13" s="39">
+        <v>129864</v>
+      </c>
+      <c r="D13" s="39">
+        <v>133046</v>
+      </c>
+      <c r="E13" s="39">
+        <v>133921</v>
+      </c>
+      <c r="F13" s="39">
+        <v>135139</v>
+      </c>
+      <c r="G13" s="39">
+        <v>136372</v>
+      </c>
+      <c r="H13" s="39">
+        <v>139239</v>
+      </c>
+      <c r="I13" s="39">
+        <v>139811</v>
+      </c>
+      <c r="J13" s="39">
+        <v>140954</v>
+      </c>
+      <c r="K13" s="39">
+        <v>142270</v>
+      </c>
+      <c r="L13" s="39">
+        <v>142310</v>
+      </c>
+      <c r="M13" s="39">
+        <v>143946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>3556057</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>3599175</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>3637985</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>3680182</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>3707886</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>3731319</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>3758042</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>3781144</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>3806870</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>3833419</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>3847657</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>3778887</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1062486</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1085310</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1101940</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1127763</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1140605</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1157809</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1156745</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1177606</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1189243</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1206863</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1211026</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1128106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>128243</v>
-      </c>
-      <c r="C14" s="39">
-        <v>129864</v>
-      </c>
-      <c r="D14" s="39">
-        <v>133046</v>
-      </c>
-      <c r="E14" s="39">
-        <v>133921</v>
-      </c>
-      <c r="F14" s="39">
-        <v>135139</v>
-      </c>
-      <c r="G14" s="39">
-        <v>136372</v>
-      </c>
-      <c r="H14" s="39">
-        <v>139239</v>
-      </c>
-      <c r="I14" s="39">
-        <v>139811</v>
-      </c>
-      <c r="J14" s="39">
-        <v>140954</v>
-      </c>
-      <c r="K14" s="39">
-        <v>142270</v>
-      </c>
-      <c r="L14" s="39">
-        <v>142310</v>
-      </c>
-      <c r="M14" s="39">
-        <v>143946</v>
-      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
     </row>
     <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>2864804</v>
+        <v>103135</v>
       </c>
       <c r="C15" s="39">
-        <v>2878993</v>
+        <v>104302</v>
       </c>
       <c r="D15" s="39">
-        <v>2894823</v>
+        <v>103882</v>
       </c>
       <c r="E15" s="39">
-        <v>2906258</v>
+        <v>102343</v>
       </c>
       <c r="F15" s="39">
-        <v>2915988</v>
+        <v>101927</v>
       </c>
       <c r="G15" s="39">
-        <v>2936055</v>
+        <v>102991</v>
       </c>
       <c r="H15" s="39">
-        <v>2956306</v>
+        <v>103309</v>
       </c>
       <c r="I15" s="39">
-        <v>2970239</v>
+        <v>102409</v>
       </c>
       <c r="J15" s="39">
-        <v>2971948</v>
+        <v>103277</v>
       </c>
       <c r="K15" s="39">
-        <v>3010120</v>
+        <v>104305</v>
       </c>
       <c r="L15" s="39">
-        <v>3060098</v>
+        <v>106331</v>
       </c>
       <c r="M15" s="39">
-        <v>3042080</v>
+        <v>104706</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>739897</v>
+        <v>5122695</v>
       </c>
       <c r="C16" s="39">
-        <v>740734</v>
+        <v>5164856</v>
       </c>
       <c r="D16" s="39">
-        <v>749107</v>
+        <v>5208279</v>
       </c>
       <c r="E16" s="39">
-        <v>750896</v>
+        <v>5219034</v>
       </c>
       <c r="F16" s="39">
-        <v>752445</v>
+        <v>5231156</v>
       </c>
       <c r="G16" s="39">
-        <v>753949</v>
+        <v>5234494</v>
       </c>
       <c r="H16" s="39">
-        <v>758160</v>
+        <v>5228608</v>
       </c>
       <c r="I16" s="39">
-        <v>759779</v>
+        <v>5241913</v>
       </c>
       <c r="J16" s="39">
-        <v>762320</v>
+        <v>5277797</v>
       </c>
       <c r="K16" s="39">
-        <v>768853</v>
+        <v>5312865</v>
       </c>
       <c r="L16" s="39">
-        <v>775210</v>
+        <v>5345559</v>
       </c>
       <c r="M16" s="39">
-        <v>772019</v>
+        <v>5287823</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>5122695</v>
+        <v>739897</v>
       </c>
       <c r="C17" s="39">
-        <v>5164856</v>
+        <v>740734</v>
       </c>
       <c r="D17" s="39">
-        <v>5208279</v>
+        <v>749107</v>
       </c>
       <c r="E17" s="39">
-        <v>5219034</v>
+        <v>750896</v>
       </c>
       <c r="F17" s="39">
-        <v>5231156</v>
+        <v>752445</v>
       </c>
       <c r="G17" s="39">
-        <v>5234494</v>
+        <v>753949</v>
       </c>
       <c r="H17" s="39">
-        <v>5228608</v>
+        <v>758160</v>
       </c>
       <c r="I17" s="39">
-        <v>5241913</v>
+        <v>759779</v>
       </c>
       <c r="J17" s="39">
-        <v>5277797</v>
+        <v>762320</v>
       </c>
       <c r="K17" s="39">
-        <v>5312865</v>
+        <v>768853</v>
       </c>
       <c r="L17" s="39">
-        <v>5345559</v>
+        <v>775210</v>
       </c>
       <c r="M17" s="39">
-        <v>5287823</v>
+        <v>772019</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -12585,51 +12652,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>14076279</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:C17)</f>
         <v>14204647</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>14341056</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:E17)</f>
         <v>14408942</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:F17)</f>
         <v>14433952</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>14480255</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:H17)</f>
         <v>14518395</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:I17)</f>
         <v>14593979</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:J17)</f>
         <v>14701487</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:K17)</f>
         <v>14829981</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L17)</f>
         <v>14965625</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>14738783</v>
       </c>
     </row>
@@ -12641,47 +12708,47 @@
         <v>0.49887894137567357</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:M19" si="1">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:M19" si="0">+(C18-B18)/B18*100</f>
         <v>0.91194555038302383</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.96031249491803639</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.47336820942613983</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.17357277168580454</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.32079225426272723</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.2633931515708805</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.52060851078924353</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.73665996093320407</v>
       </c>
       <c r="K19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.87402043072241609</v>
       </c>
       <c r="L19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.91466064589024088</v>
       </c>
       <c r="M19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.5157536020045939</v>
       </c>
       <c r="N19" s="17"/>
@@ -12896,7 +12963,7 @@
   <dimension ref="A1:CQ41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q7"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13154,291 +13221,296 @@
         <v>513080</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>105784</v>
+        <v>2997987</v>
       </c>
       <c r="C11" s="39">
-        <v>107476</v>
+        <v>3005870</v>
       </c>
       <c r="D11" s="39">
-        <v>109380</v>
+        <v>3024827</v>
       </c>
       <c r="E11" s="39">
-        <v>108112</v>
+        <v>3042341</v>
       </c>
       <c r="F11" s="39">
-        <v>108967</v>
+        <v>3055544</v>
       </c>
       <c r="G11" s="39">
-        <v>109185</v>
+        <v>3064046</v>
       </c>
       <c r="H11" s="39">
-        <v>110506</v>
+        <v>3086407</v>
       </c>
       <c r="I11" s="39">
-        <v>112435</v>
+        <v>3095919</v>
       </c>
       <c r="J11" s="39">
-        <v>114157</v>
+        <v>3115134</v>
       </c>
       <c r="K11" s="39">
-        <v>116437</v>
+        <v>3155910</v>
       </c>
       <c r="L11" s="39">
-        <v>118491</v>
+        <v>3207600</v>
       </c>
       <c r="M11" s="39">
-        <v>117450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3188378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1143046</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1151671</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1169005</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1163367</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1183372</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1202333</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1205646</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1227939</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1244214</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1261638</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1257508</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1183722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>142264</v>
+      </c>
+      <c r="C13" s="39">
+        <v>143345</v>
+      </c>
+      <c r="D13" s="39">
+        <v>143502</v>
+      </c>
+      <c r="E13" s="39">
+        <v>145641</v>
+      </c>
+      <c r="F13" s="39">
+        <v>143974</v>
+      </c>
+      <c r="G13" s="39">
+        <v>144930</v>
+      </c>
+      <c r="H13" s="39">
+        <v>147075</v>
+      </c>
+      <c r="I13" s="39">
+        <v>145759</v>
+      </c>
+      <c r="J13" s="39">
+        <v>146005</v>
+      </c>
+      <c r="K13" s="39">
+        <v>146142</v>
+      </c>
+      <c r="L13" s="39">
+        <v>146509</v>
+      </c>
+      <c r="M13" s="39">
+        <v>148490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>3828507</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>3869599</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>3905505</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>3918102</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>3925943</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>3935316</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>3947086</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>3955474</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>3978743</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>3995469</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>4006503</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>3937155</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1143046</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1151671</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1169005</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1163367</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1183372</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1202333</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1205646</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1227939</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1244214</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1261638</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1257508</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1183722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>142264</v>
-      </c>
-      <c r="C14" s="39">
-        <v>143345</v>
-      </c>
-      <c r="D14" s="39">
-        <v>143502</v>
-      </c>
-      <c r="E14" s="39">
-        <v>145641</v>
-      </c>
-      <c r="F14" s="39">
-        <v>143974</v>
-      </c>
-      <c r="G14" s="39">
-        <v>144930</v>
-      </c>
-      <c r="H14" s="39">
-        <v>147075</v>
-      </c>
-      <c r="I14" s="39">
-        <v>145759</v>
-      </c>
-      <c r="J14" s="39">
-        <v>146005</v>
-      </c>
-      <c r="K14" s="39">
-        <v>146142</v>
-      </c>
-      <c r="L14" s="39">
-        <v>146509</v>
-      </c>
-      <c r="M14" s="39">
-        <v>148490</v>
-      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
     </row>
     <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>2997987</v>
+        <v>105784</v>
       </c>
       <c r="C15" s="39">
-        <v>3005870</v>
+        <v>107476</v>
       </c>
       <c r="D15" s="39">
-        <v>3024827</v>
+        <v>109380</v>
       </c>
       <c r="E15" s="39">
-        <v>3042341</v>
+        <v>108112</v>
       </c>
       <c r="F15" s="39">
-        <v>3055544</v>
+        <v>108967</v>
       </c>
       <c r="G15" s="39">
-        <v>3064046</v>
+        <v>109185</v>
       </c>
       <c r="H15" s="39">
-        <v>3086407</v>
+        <v>110506</v>
       </c>
       <c r="I15" s="39">
-        <v>3095919</v>
+        <v>112435</v>
       </c>
       <c r="J15" s="39">
-        <v>3115134</v>
+        <v>114157</v>
       </c>
       <c r="K15" s="39">
-        <v>3155910</v>
+        <v>116437</v>
       </c>
       <c r="L15" s="39">
-        <v>3207600</v>
+        <v>118491</v>
       </c>
       <c r="M15" s="39">
-        <v>3188378</v>
+        <v>117450</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>770868</v>
+        <v>5283734</v>
       </c>
       <c r="C16" s="39">
-        <v>772941</v>
+        <v>5324757</v>
       </c>
       <c r="D16" s="39">
-        <v>778320</v>
+        <v>5355694</v>
       </c>
       <c r="E16" s="39">
-        <v>787782</v>
+        <v>5364641</v>
       </c>
       <c r="F16" s="39">
-        <v>790506</v>
+        <v>5374204</v>
       </c>
       <c r="G16" s="39">
-        <v>794218</v>
+        <v>5387731</v>
       </c>
       <c r="H16" s="39">
-        <v>795388</v>
+        <v>5388084</v>
       </c>
       <c r="I16" s="39">
-        <v>803449</v>
+        <v>5402639</v>
       </c>
       <c r="J16" s="39">
-        <v>807884</v>
+        <v>5441499</v>
       </c>
       <c r="K16" s="39">
-        <v>814285</v>
+        <v>5480450</v>
       </c>
       <c r="L16" s="39">
-        <v>817157</v>
+        <v>5503247</v>
       </c>
       <c r="M16" s="39">
-        <v>817879</v>
+        <v>5444181</v>
       </c>
     </row>
     <row r="17" spans="1:95" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>5283734</v>
+        <v>770868</v>
       </c>
       <c r="C17" s="39">
-        <v>5324757</v>
+        <v>772941</v>
       </c>
       <c r="D17" s="39">
-        <v>5355694</v>
+        <v>778320</v>
       </c>
       <c r="E17" s="39">
-        <v>5364641</v>
+        <v>787782</v>
       </c>
       <c r="F17" s="39">
-        <v>5374204</v>
+        <v>790506</v>
       </c>
       <c r="G17" s="39">
-        <v>5387731</v>
+        <v>794218</v>
       </c>
       <c r="H17" s="39">
-        <v>5388084</v>
+        <v>795388</v>
       </c>
       <c r="I17" s="39">
-        <v>5402639</v>
+        <v>803449</v>
       </c>
       <c r="J17" s="39">
-        <v>5441499</v>
+        <v>807884</v>
       </c>
       <c r="K17" s="39">
-        <v>5480450</v>
+        <v>814285</v>
       </c>
       <c r="L17" s="39">
-        <v>5503247</v>
+        <v>817157</v>
       </c>
       <c r="M17" s="39">
-        <v>5444181</v>
+        <v>817879</v>
       </c>
     </row>
     <row r="18" spans="1:95" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -13446,51 +13518,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>14787440</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:C17)</f>
         <v>14893818</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>15003502</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:E17)</f>
         <v>15022588</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:F17)</f>
         <v>15050810</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>15090360</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:H17)</f>
         <v>15131332</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:I17)</f>
         <v>15202180</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:J17)</f>
         <v>15315651</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:K17)</f>
         <v>15445527</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L17)</f>
         <v>15550167</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>15350335</v>
       </c>
     </row>
@@ -13503,43 +13575,43 @@
         <v>0.33012902082892465</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:L19" si="1">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:L19" si="0">+(C18-B18)/B18*100</f>
         <v>0.71938077179011373</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.73643977655695803</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.12721030063514505</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.18786376887923703</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.26277655488309265</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.27151108389726952</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.46822051092395567</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.74641268554904627</v>
       </c>
       <c r="K19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.84799529579251964</v>
       </c>
       <c r="L19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.67747769305637806</v>
       </c>
       <c r="M19" s="75">
@@ -13750,7 +13822,7 @@
   <dimension ref="A1:CE41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q7"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14010,291 +14082,296 @@
         <v>538558</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>121067</v>
+        <v>3145714</v>
       </c>
       <c r="C11" s="39">
-        <v>123087</v>
+        <v>3159308</v>
       </c>
       <c r="D11" s="39">
-        <v>124694</v>
+        <v>3170633</v>
       </c>
       <c r="E11" s="39">
-        <v>126465</v>
+        <v>3179429</v>
       </c>
       <c r="F11" s="39">
-        <v>128048</v>
+        <v>3200195</v>
       </c>
       <c r="G11" s="39">
-        <v>127944</v>
+        <v>3231711</v>
       </c>
       <c r="H11" s="39">
-        <v>129848</v>
+        <v>3253617</v>
       </c>
       <c r="I11" s="39">
-        <v>129370</v>
+        <v>3265928</v>
       </c>
       <c r="J11" s="39">
-        <v>129973</v>
+        <v>3281713</v>
       </c>
       <c r="K11" s="39">
-        <v>132119</v>
+        <v>3328234</v>
       </c>
       <c r="L11" s="39">
-        <v>134352</v>
+        <v>3369096</v>
       </c>
       <c r="M11" s="39">
-        <v>132729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3349750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1193417</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1211093</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1229728</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1238694</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1257826</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1282454</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1303783</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1324147</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1336976</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1353154</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1330055</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1241453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>146082</v>
+      </c>
+      <c r="C13" s="39">
+        <v>146697</v>
+      </c>
+      <c r="D13" s="39">
+        <v>148003</v>
+      </c>
+      <c r="E13" s="39">
+        <v>147951</v>
+      </c>
+      <c r="F13" s="39">
+        <v>148646</v>
+      </c>
+      <c r="G13" s="39">
+        <v>148839</v>
+      </c>
+      <c r="H13" s="39">
+        <v>151396</v>
+      </c>
+      <c r="I13" s="39">
+        <v>149833</v>
+      </c>
+      <c r="J13" s="39">
+        <v>148853</v>
+      </c>
+      <c r="K13" s="39">
+        <v>148727</v>
+      </c>
+      <c r="L13" s="39">
+        <v>149067</v>
+      </c>
+      <c r="M13" s="39">
+        <v>150911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>3988572</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>4035683</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>4072049</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>4090933</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>4111552</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>4125018</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>4147748</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>4155766</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>4175558</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>4198150</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>4208396</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>4134248</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1193417</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1211093</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1229728</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1238694</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1257826</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1282454</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1303783</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1324147</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1336976</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1353154</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1330055</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1241453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>146082</v>
-      </c>
-      <c r="C14" s="39">
-        <v>146697</v>
-      </c>
-      <c r="D14" s="39">
-        <v>148003</v>
-      </c>
-      <c r="E14" s="39">
-        <v>147951</v>
-      </c>
-      <c r="F14" s="39">
-        <v>148646</v>
-      </c>
-      <c r="G14" s="39">
-        <v>148839</v>
-      </c>
-      <c r="H14" s="39">
-        <v>151396</v>
-      </c>
-      <c r="I14" s="39">
-        <v>149833</v>
-      </c>
-      <c r="J14" s="39">
-        <v>148853</v>
-      </c>
-      <c r="K14" s="39">
-        <v>148727</v>
-      </c>
-      <c r="L14" s="39">
-        <v>149067</v>
-      </c>
-      <c r="M14" s="39">
-        <v>150911</v>
-      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
     </row>
     <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>3145714</v>
+        <v>121067</v>
       </c>
       <c r="C15" s="39">
-        <v>3159308</v>
+        <v>123087</v>
       </c>
       <c r="D15" s="39">
-        <v>3170633</v>
+        <v>124694</v>
       </c>
       <c r="E15" s="39">
-        <v>3179429</v>
+        <v>126465</v>
       </c>
       <c r="F15" s="39">
-        <v>3200195</v>
+        <v>128048</v>
       </c>
       <c r="G15" s="39">
-        <v>3231711</v>
+        <v>127944</v>
       </c>
       <c r="H15" s="39">
-        <v>3253617</v>
+        <v>129848</v>
       </c>
       <c r="I15" s="39">
-        <v>3265928</v>
+        <v>129370</v>
       </c>
       <c r="J15" s="39">
-        <v>3281713</v>
+        <v>129973</v>
       </c>
       <c r="K15" s="39">
-        <v>3328234</v>
+        <v>132119</v>
       </c>
       <c r="L15" s="39">
-        <v>3369096</v>
+        <v>134352</v>
       </c>
       <c r="M15" s="39">
-        <v>3349750</v>
+        <v>132729</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>818182</v>
+        <v>5468879</v>
       </c>
       <c r="C16" s="39">
-        <v>823055</v>
+        <v>5511069</v>
       </c>
       <c r="D16" s="39">
-        <v>826056</v>
+        <v>5561555</v>
       </c>
       <c r="E16" s="39">
-        <v>829131</v>
+        <v>5561418</v>
       </c>
       <c r="F16" s="39">
-        <v>831787</v>
+        <v>5567113</v>
       </c>
       <c r="G16" s="39">
-        <v>835854</v>
+        <v>5584400</v>
       </c>
       <c r="H16" s="39">
-        <v>839342</v>
+        <v>5561045</v>
       </c>
       <c r="I16" s="39">
-        <v>842664</v>
+        <v>5582250</v>
       </c>
       <c r="J16" s="39">
-        <v>845461</v>
+        <v>5634620</v>
       </c>
       <c r="K16" s="39">
-        <v>851250</v>
+        <v>5675415</v>
       </c>
       <c r="L16" s="39">
-        <v>855663</v>
+        <v>5721349</v>
       </c>
       <c r="M16" s="39">
-        <v>848162</v>
+        <v>5666232</v>
       </c>
     </row>
     <row r="17" spans="1:83" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>5468879</v>
+        <v>818182</v>
       </c>
       <c r="C17" s="39">
-        <v>5511069</v>
+        <v>823055</v>
       </c>
       <c r="D17" s="39">
-        <v>5561555</v>
+        <v>826056</v>
       </c>
       <c r="E17" s="39">
-        <v>5561418</v>
+        <v>829131</v>
       </c>
       <c r="F17" s="39">
-        <v>5567113</v>
+        <v>831787</v>
       </c>
       <c r="G17" s="39">
-        <v>5584400</v>
+        <v>835854</v>
       </c>
       <c r="H17" s="39">
-        <v>5561045</v>
+        <v>839342</v>
       </c>
       <c r="I17" s="39">
-        <v>5582250</v>
+        <v>842664</v>
       </c>
       <c r="J17" s="39">
-        <v>5634620</v>
+        <v>845461</v>
       </c>
       <c r="K17" s="39">
-        <v>5675415</v>
+        <v>851250</v>
       </c>
       <c r="L17" s="39">
-        <v>5721349</v>
+        <v>855663</v>
       </c>
       <c r="M17" s="39">
-        <v>5666232</v>
+        <v>848162</v>
       </c>
     </row>
     <row r="18" spans="1:83" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -14302,51 +14379,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>15427859</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:C17)</f>
         <v>15563594</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>15695679</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:E17)</f>
         <v>15706159</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:F17)</f>
         <v>15731556</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>15806830</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(H10:H17)</f>
         <v>15849227</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:I17)</f>
         <v>15920256</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(J10:J17)</f>
         <v>16033095</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(K10:K17)</f>
         <v>16182408</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L17)</f>
         <v>16294936</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>16062043</v>
       </c>
     </row>
@@ -14359,35 +14436,35 @@
         <v>0.50503132342062895</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:J19" si="1">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:J19" si="0">+(C18-B18)/B18*100</f>
         <v>0.87980451467698784</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.84867929605462589</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.6769968983183201E-2</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16170089708120236</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.47849049388375819</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.26821949752100832</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.44815434847390345</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.708776291034516</v>
       </c>
       <c r="K19" s="75">
@@ -14603,7 +14680,7 @@
   <dimension ref="A1:CD41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q7"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14864,291 +14941,296 @@
         <v>546437</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" s="39">
-        <v>133221</v>
+        <v>3307338</v>
       </c>
       <c r="C11" s="39">
-        <v>133365</v>
+        <v>3322910</v>
       </c>
       <c r="D11" s="39">
-        <v>134785</v>
+        <v>3328248</v>
       </c>
       <c r="E11" s="39">
-        <v>136532</v>
+        <v>3335292</v>
       </c>
       <c r="F11" s="39">
-        <v>137659</v>
+        <v>3336030</v>
       </c>
       <c r="G11" s="39">
-        <v>136695</v>
+        <v>3345893</v>
       </c>
       <c r="H11" s="39">
-        <v>136157</v>
+        <v>3359185</v>
       </c>
       <c r="I11" s="39">
-        <v>135900</v>
+        <v>3373895</v>
       </c>
       <c r="J11" s="39">
-        <v>136067</v>
+        <v>3384836</v>
       </c>
       <c r="K11" s="39">
-        <v>139113</v>
+        <v>3423522</v>
       </c>
       <c r="L11" s="39">
-        <v>138986</v>
+        <v>3470334</v>
       </c>
       <c r="M11" s="39">
-        <v>136192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3440676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1250895</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1259186</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1243175</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1271130</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1271899</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1283276</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1296815</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1312335</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1320630</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1350070</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1351460</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1266891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>147781</v>
+      </c>
+      <c r="C13" s="39">
+        <v>147737</v>
+      </c>
+      <c r="D13" s="39">
+        <v>150135</v>
+      </c>
+      <c r="E13" s="39">
+        <v>148413</v>
+      </c>
+      <c r="F13" s="39">
+        <v>148623</v>
+      </c>
+      <c r="G13" s="39">
+        <v>148624</v>
+      </c>
+      <c r="H13" s="39">
+        <v>151085</v>
+      </c>
+      <c r="I13" s="39">
+        <v>148819</v>
+      </c>
+      <c r="J13" s="39">
+        <v>148269</v>
+      </c>
+      <c r="K13" s="39">
+        <v>148060</v>
+      </c>
+      <c r="L13" s="39">
+        <v>147915</v>
+      </c>
+      <c r="M13" s="39">
+        <v>149282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B14" s="39">
         <v>4186620</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C14" s="39">
         <v>4219874</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D14" s="39">
         <v>4236959</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E14" s="39">
         <v>4276185</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F14" s="39">
         <v>4293592</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G14" s="39">
         <v>4298183</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H14" s="39">
         <v>4308287</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I14" s="39">
         <v>4309113</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J14" s="39">
         <v>4333084</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="39">
         <v>4362465</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L14" s="39">
         <v>4368680</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M14" s="39">
         <v>4290140</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>1250895</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1259186</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1243175</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1271130</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1271899</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1283276</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1296815</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1312335</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1320630</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1350070</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1351460</v>
-      </c>
-      <c r="M13" s="39">
-        <v>1266891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="39">
-        <v>147781</v>
-      </c>
-      <c r="C14" s="39">
-        <v>147737</v>
-      </c>
-      <c r="D14" s="39">
-        <v>150135</v>
-      </c>
-      <c r="E14" s="39">
-        <v>148413</v>
-      </c>
-      <c r="F14" s="39">
-        <v>148623</v>
-      </c>
-      <c r="G14" s="39">
-        <v>148624</v>
-      </c>
-      <c r="H14" s="39">
-        <v>151085</v>
-      </c>
-      <c r="I14" s="39">
-        <v>148819</v>
-      </c>
-      <c r="J14" s="39">
-        <v>148269</v>
-      </c>
-      <c r="K14" s="39">
-        <v>148060</v>
-      </c>
-      <c r="L14" s="39">
-        <v>147915</v>
-      </c>
-      <c r="M14" s="39">
-        <v>149282</v>
-      </c>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15" s="39">
-        <v>3307338</v>
+        <v>133221</v>
       </c>
       <c r="C15" s="39">
-        <v>3322910</v>
+        <v>133365</v>
       </c>
       <c r="D15" s="39">
-        <v>3328248</v>
+        <v>134785</v>
       </c>
       <c r="E15" s="39">
-        <v>3335292</v>
+        <v>136532</v>
       </c>
       <c r="F15" s="39">
-        <v>3336030</v>
+        <v>137659</v>
       </c>
       <c r="G15" s="39">
-        <v>3345893</v>
+        <v>136695</v>
       </c>
       <c r="H15" s="39">
-        <v>3359185</v>
+        <v>136157</v>
       </c>
       <c r="I15" s="39">
-        <v>3373895</v>
+        <v>135900</v>
       </c>
       <c r="J15" s="39">
-        <v>3384836</v>
+        <v>136067</v>
       </c>
       <c r="K15" s="39">
-        <v>3423522</v>
+        <v>139113</v>
       </c>
       <c r="L15" s="39">
-        <v>3470334</v>
+        <v>138986</v>
       </c>
       <c r="M15" s="39">
-        <v>3440676</v>
+        <v>136192</v>
       </c>
     </row>
     <row r="16" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B16" s="39">
-        <v>848833</v>
+        <v>5681275</v>
       </c>
       <c r="C16" s="39">
-        <v>852392</v>
+        <v>5723422</v>
       </c>
       <c r="D16" s="39">
-        <v>856848</v>
+        <v>5757126</v>
       </c>
       <c r="E16" s="39">
-        <v>861076</v>
+        <v>5763664</v>
       </c>
       <c r="F16" s="39">
-        <v>861217</v>
+        <v>5776600</v>
       </c>
       <c r="G16" s="39">
-        <v>862751</v>
+        <v>5783207</v>
       </c>
       <c r="H16" s="39">
-        <v>868323</v>
+        <v>5765412</v>
       </c>
       <c r="I16" s="39">
-        <v>870062</v>
+        <v>5790432</v>
       </c>
       <c r="J16" s="39">
-        <v>872438</v>
+        <v>5828347</v>
       </c>
       <c r="K16" s="39">
-        <v>871044</v>
+        <v>5857524</v>
       </c>
       <c r="L16" s="39">
-        <v>878546</v>
+        <v>5891735</v>
       </c>
       <c r="M16" s="39">
-        <v>873622</v>
+        <v>5821821</v>
       </c>
     </row>
     <row r="17" spans="1:82" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17" s="39">
-        <v>5681275</v>
+        <v>848833</v>
       </c>
       <c r="C17" s="39">
-        <v>5723422</v>
+        <v>852392</v>
       </c>
       <c r="D17" s="39">
-        <v>5757126</v>
+        <v>856848</v>
       </c>
       <c r="E17" s="39">
-        <v>5763664</v>
+        <v>861076</v>
       </c>
       <c r="F17" s="39">
-        <v>5776600</v>
+        <v>861217</v>
       </c>
       <c r="G17" s="39">
-        <v>5783207</v>
+        <v>862751</v>
       </c>
       <c r="H17" s="39">
-        <v>5765412</v>
+        <v>868323</v>
       </c>
       <c r="I17" s="39">
-        <v>5790432</v>
+        <v>870062</v>
       </c>
       <c r="J17" s="39">
-        <v>5828347</v>
+        <v>872438</v>
       </c>
       <c r="K17" s="39">
-        <v>5857524</v>
+        <v>871044</v>
       </c>
       <c r="L17" s="39">
-        <v>5891735</v>
+        <v>878546</v>
       </c>
       <c r="M17" s="39">
-        <v>5821821</v>
+        <v>873622</v>
       </c>
     </row>
     <row r="18" spans="1:82" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -15156,27 +15238,27 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <f>SUM(B10:B17)</f>
         <v>16106212</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:C17)</f>
         <v>16227085</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:D17)</f>
         <v>16281079</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:E17)</f>
         <v>16347973</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:F17)</f>
         <v>16354902</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:G17)</f>
         <v>16357421</v>
       </c>
       <c r="H18" s="28">
@@ -15200,7 +15282,7 @@
         <v>16772971</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:M17)</f>
         <v>16525061</v>
       </c>
     </row>
@@ -15213,47 +15295,47 @@
         <v>0.27498992500518149</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:M19" si="1">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:M19" si="0">+(C18-B18)/B18*100</f>
         <v>0.75047441322639985</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.33273998379869213</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.41086957443053995</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.2384459529019286E-2</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5402110021814868E-2</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2468443527864203E-2</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.31885262192157149</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.57228476192825972</v>
       </c>
       <c r="K19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.86978222885974155</v>
       </c>
       <c r="L19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.72382803332797674</v>
       </c>
       <c r="M19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.4780327230041714</v>
       </c>
       <c r="N19" s="63"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="P10" sqref="P10:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1457,11 +1457,11 @@
         <v>723404</v>
       </c>
       <c r="Q10" s="39">
-        <f>P10-O10</f>
+        <f t="shared" ref="Q10:Q16" si="0">P10-O10</f>
         <v>-19203</v>
       </c>
       <c r="R10" s="39">
-        <f>P10-N10</f>
+        <f t="shared" ref="R10:R16" si="1">P10-N10</f>
         <v>-34593</v>
       </c>
       <c r="S10" s="77"/>
@@ -1518,11 +1518,11 @@
         <v>4092009</v>
       </c>
       <c r="Q11" s="39">
-        <f>P11-O11</f>
+        <f t="shared" si="0"/>
         <v>23281</v>
       </c>
       <c r="R11" s="39">
-        <f>P11-N11</f>
+        <f t="shared" si="1"/>
         <v>51146</v>
       </c>
       <c r="S11" s="77"/>
@@ -1579,11 +1579,11 @@
         <v>1578850</v>
       </c>
       <c r="Q12" s="39">
-        <f>P12-O12</f>
+        <f t="shared" si="0"/>
         <v>18116</v>
       </c>
       <c r="R12" s="39">
-        <f>P12-N12</f>
+        <f t="shared" si="1"/>
         <v>91287</v>
       </c>
       <c r="S12" s="77"/>
@@ -1640,11 +1640,11 @@
         <v>144888</v>
       </c>
       <c r="Q13" s="39">
-        <f>P13-O13</f>
+        <f t="shared" si="0"/>
         <v>-91</v>
       </c>
       <c r="R13" s="39">
-        <f>P13-N13</f>
+        <f t="shared" si="1"/>
         <v>-1913</v>
       </c>
       <c r="S13" s="77"/>
@@ -1701,11 +1701,11 @@
         <v>5616130</v>
       </c>
       <c r="Q14" s="39">
-        <f>P14-O14</f>
+        <f t="shared" si="0"/>
         <v>35119</v>
       </c>
       <c r="R14" s="39">
-        <f>P14-N14</f>
+        <f t="shared" si="1"/>
         <v>177299</v>
       </c>
     </row>
@@ -1759,11 +1759,11 @@
         <v>125459</v>
       </c>
       <c r="Q15" s="39">
-        <f>P15-O15</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="R15" s="39">
-        <f>P15-N15</f>
+        <f t="shared" si="1"/>
         <v>5513</v>
       </c>
       <c r="S15" s="77"/>
@@ -1817,15 +1817,15 @@
         <v>6652541</v>
       </c>
       <c r="P16" s="39">
-        <v>4447279</v>
+        <v>6656037</v>
       </c>
       <c r="Q16" s="39">
-        <f>P16-O16</f>
-        <v>-2205262</v>
+        <f t="shared" si="0"/>
+        <v>3496</v>
       </c>
       <c r="R16" s="39">
-        <f>P16-N16</f>
-        <v>-2121241</v>
+        <f t="shared" si="1"/>
+        <v>87517</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
@@ -1878,15 +1878,15 @@
         <v>1233478</v>
       </c>
       <c r="P17" s="39">
-        <v>3447361</v>
+        <v>1238603</v>
       </c>
       <c r="Q17" s="39">
-        <f t="shared" ref="Q17" si="0">P17-O17</f>
-        <v>2213883</v>
+        <f t="shared" ref="Q17" si="2">P17-O17</f>
+        <v>5125</v>
       </c>
       <c r="R17" s="39">
-        <f t="shared" ref="R17" si="1">P17-N17</f>
-        <v>2234150</v>
+        <f t="shared" ref="R17" si="3">P17-N17</f>
+        <v>25392</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
@@ -1897,59 +1897,59 @@
         <v>3</v>
       </c>
       <c r="B18" s="57">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:R18" si="4">SUM(B10:B17)</f>
         <v>14178117</v>
       </c>
       <c r="C18" s="57">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="4"/>
         <v>14006404</v>
       </c>
       <c r="D18" s="57">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="4"/>
         <v>14738783</v>
       </c>
       <c r="E18" s="57">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="4"/>
         <v>15350335</v>
       </c>
       <c r="F18" s="57">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="4"/>
         <v>16062043</v>
       </c>
       <c r="G18" s="57">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="4"/>
         <v>16525061</v>
       </c>
       <c r="H18" s="57">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="4"/>
         <v>17239587</v>
       </c>
       <c r="I18" s="57">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="4"/>
         <v>17882161</v>
       </c>
       <c r="J18" s="57">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="4"/>
         <v>18616624</v>
       </c>
       <c r="K18" s="57">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="4"/>
         <v>19418455</v>
       </c>
       <c r="L18" s="57">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="4"/>
         <v>20079365</v>
       </c>
       <c r="M18" s="57">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="4"/>
         <v>20421442</v>
       </c>
       <c r="N18" s="57">
-        <f>SUM(N10:N17)</f>
+        <f t="shared" si="4"/>
         <v>19773732</v>
       </c>
       <c r="O18" s="57">
-        <f>SUM(O10:O17)</f>
+        <f t="shared" si="4"/>
         <v>20109444</v>
       </c>
       <c r="P18" s="57">
@@ -1957,11 +1957,11 @@
         <v>20175380</v>
       </c>
       <c r="Q18" s="88">
-        <f>SUM(Q10:Q17)</f>
+        <f t="shared" si="4"/>
         <v>65936</v>
       </c>
       <c r="R18" s="57">
-        <f>SUM(R10:R17)</f>
+        <f t="shared" si="4"/>
         <v>401648</v>
       </c>
       <c r="S18" s="83"/>
@@ -2612,51 +2612,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>16547040</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>16672599</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>16781325</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>16837367</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>16885220</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>16928515</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>16965972</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>17023661</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>17180093</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>17352227</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>17475077</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>17239587</v>
       </c>
     </row>
@@ -2669,31 +2669,31 @@
         <v>0.13300404760986964</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:I19" si="0">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:I19" si="1">+(C18-B18)/B18*100</f>
         <v>0.75880036550343755</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65212388302507607</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3339545596071824</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28420714473943581</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25640767487779254</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22126571645534177</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34002767421754554</v>
       </c>
       <c r="J19" s="75">
@@ -3412,51 +3412,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>17299371</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>17433062</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>17538198</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>17603315</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>17595860</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>17674295</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>17718986</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>17791345</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>17908989</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>18055468</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>18187747</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>17882161</v>
       </c>
     </row>
@@ -3469,31 +3469,31 @@
         <v>0.3467832495059191</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:I19" si="0">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:I19" si="1">+(C18-B18)/B18*100</f>
         <v>0.77280844488507705</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.60308395622065714</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37128671942237168</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.2349977830880153E-2</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44575826359154935</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25285874203186037</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40836986947221471</v>
       </c>
       <c r="J19" s="75">
@@ -4206,51 +4206,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>17953203</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>18095494</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>18154906</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>18237468</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>18257802</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>18326071</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>18348131</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>18466227</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>18617186</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>18788509</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>18935841</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>18616624</v>
       </c>
     </row>
@@ -4263,31 +4263,31 @@
         <v>0.39727860631609346</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:I19" si="0">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:I19" si="1">+(C18-B18)/B18*100</f>
         <v>0.79256609530900979</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32832483047989736</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45476412821966689</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11149574052713895</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37391686030991023</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12037495653050782</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6436404885053415</v>
       </c>
       <c r="J19" s="75">
@@ -5000,51 +5000,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>18699916</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>18853971</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>18994318</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>19021083</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>19047825</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>19134058</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>19172222</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>19292865</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>19428916</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>19623674</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>19755991</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>19418455</v>
       </c>
     </row>
@@ -5057,31 +5057,31 @@
         <v>0.44740657597209893</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:I19" si="0">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:I19" si="1">+(C18-B18)/B18*100</f>
         <v>0.82382723002606006</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.74438960365431761</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14091056072663416</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14059136380404838</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45271835498278679</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19945586033030732</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62925935241100384</v>
       </c>
       <c r="J19" s="75">
@@ -5794,51 +5794,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>19532177</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>19696488</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>19786997</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>19874106</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>19908072</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>19894575</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>19949244</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>20063433</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>20192960</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>20356179</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>20457926</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>20079365</v>
       </c>
     </row>
@@ -5851,27 +5851,27 @@
         <v>0.58563876477299559</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:H19" si="0">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:H19" si="1">+(C18-B18)/B18*100</f>
         <v>0.84123239309166609</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45951846847011502</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44023355337851422</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1709058007439429</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.7796620385941947E-2</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27479350526462615</v>
       </c>
       <c r="I19" s="75">
@@ -6591,51 +6591,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>20174011</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>20299993</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>20348508</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>20378927</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>20382910</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>20368666</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>20385377</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>20422008</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>20567426</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>20727422</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>20803652</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>20421442</v>
       </c>
     </row>
@@ -6660,35 +6660,35 @@
         <v>0.14949007563601222</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" ref="F19" si="0">+(F18-E18)/E18*100</f>
+        <f t="shared" ref="F19" si="1">+(F18-E18)/E18*100</f>
         <v>1.9544699286669999E-2</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" ref="G19:M19" si="1">+(G18-F18)/F18*100</f>
+        <f t="shared" ref="G19:M19" si="2">+(G18-F18)/F18*100</f>
         <v>-6.9882072775673335E-2</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2042682618488613E-2</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17969253156318865</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.71206514070506677</v>
       </c>
       <c r="K19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77790969078969829</v>
       </c>
       <c r="L19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36777366717385307</v>
       </c>
       <c r="M19" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.8372255025223456</v>
       </c>
       <c r="N19" s="65"/>
@@ -7431,51 +7431,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>20490397</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>20613536</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>20482943</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>19927696</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>19583170</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>19499859</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>19495952</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>19588342</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>19702192</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>19902833</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>20051552</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>19773732</v>
       </c>
     </row>
@@ -7500,35 +7500,35 @@
         <v>-2.710777450291201</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" ref="F19:M19" si="0">+(F18-E18)/E18*100</f>
+        <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
         <v>-1.7288802478721073</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.42542142053610321</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.003604231189569E-2</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47389324717254128</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.58121305008867008</v>
       </c>
       <c r="K19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0183689205749289</v>
       </c>
       <c r="L19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.74722528194855475</v>
       </c>
       <c r="M19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.385528661322575</v>
       </c>
       <c r="N19" s="65"/>
@@ -7728,7 +7728,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8133,7 +8133,7 @@
         <v>6652541</v>
       </c>
       <c r="G16" s="39">
-        <v>4447279</v>
+        <v>6656037</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
@@ -8162,7 +8162,7 @@
         <v>1233478</v>
       </c>
       <c r="G17" s="39">
-        <v>3447361</v>
+        <v>1238603</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
@@ -8176,51 +8176,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>19821651</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>19936938</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>20025709</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>20070483</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>20109444</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>20175380</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8245,35 +8245,35 @@
         <v>0.2235825957522902</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" ref="F19:M19" si="0">+(F18-E18)/E18*100</f>
+        <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
         <v>0.19412088886949058</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32788574363368772</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
       <c r="I19" s="75" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J19" s="75" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="75" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="75" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="75" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="65"/>
@@ -10833,51 +10833,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>14315318</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>14396101</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>14400376</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>14480066</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>14443848</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>14472908</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>14483011</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>14460993</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>14526347</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>14564570</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>14505253</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>14178117</v>
       </c>
     </row>
@@ -10890,35 +10890,35 @@
         <v>#REF!</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:J19" si="0">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:J19" si="1">+(C18-B18)/B18*100</f>
         <v>0.5643115996445206</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9695540480023028E-2</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55338832819365269</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.25012316932809558</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20119292310470174</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9806289102369745E-2</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.15202639837807208</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45193300349429671</v>
       </c>
       <c r="K19" s="75">
@@ -11750,51 +11750,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>14073102</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>14026501</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>14039826</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>13979608</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>13868132</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>13871175</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>13887498</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>13918843</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>13992494</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>14073749</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>14192197</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>14006404</v>
       </c>
     </row>
@@ -11807,27 +11807,27 @@
         <v>-0.74068368881424806</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:H19" si="0">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:H19" si="1">+(C18-B18)/B18*100</f>
         <v>-0.33113523940919348</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4998745588796521E-2</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.42890844943519957</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.79741864006487173</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1942392818297372E-2</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11767568356682112</v>
       </c>
       <c r="I19" s="75">
@@ -12652,51 +12652,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>14076279</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>14204647</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>14341056</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>14408942</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>14433952</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>14480255</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>14518395</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>14593979</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>14701487</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>14829981</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>14965625</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>14738783</v>
       </c>
     </row>
@@ -12708,47 +12708,47 @@
         <v>0.49887894137567357</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:M19" si="0">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:M19" si="1">+(C18-B18)/B18*100</f>
         <v>0.91194555038302383</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96031249491803639</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47336820942613983</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17357277168580454</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32079225426272723</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2633931515708805</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52060851078924353</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73665996093320407</v>
       </c>
       <c r="K19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87402043072241609</v>
       </c>
       <c r="L19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91466064589024088</v>
       </c>
       <c r="M19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5157536020045939</v>
       </c>
       <c r="N19" s="17"/>
@@ -13518,51 +13518,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>14787440</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>14893818</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>15003502</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>15022588</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>15050810</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>15090360</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>15131332</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>15202180</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>15315651</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>15445527</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>15550167</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>15350335</v>
       </c>
     </row>
@@ -13575,43 +13575,43 @@
         <v>0.33012902082892465</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:L19" si="0">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:L19" si="1">+(C18-B18)/B18*100</f>
         <v>0.71938077179011373</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73643977655695803</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12721030063514505</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18786376887923703</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26277655488309265</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27151108389726952</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46822051092395567</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.74641268554904627</v>
       </c>
       <c r="K19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84799529579251964</v>
       </c>
       <c r="L19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67747769305637806</v>
       </c>
       <c r="M19" s="75">
@@ -14379,51 +14379,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>15427859</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>15563594</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>15695679</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>15706159</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>15731556</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>15806830</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>15849227</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>15920256</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>16033095</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>16182408</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>16294936</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>16062043</v>
       </c>
     </row>
@@ -14436,35 +14436,35 @@
         <v>0.50503132342062895</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:J19" si="0">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:J19" si="1">+(C18-B18)/B18*100</f>
         <v>0.87980451467698784</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84867929605462589</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6769968983183201E-2</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16170089708120236</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47849049388375819</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26821949752100832</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44815434847390345</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.708776291034516</v>
       </c>
       <c r="K19" s="75">
@@ -15238,51 +15238,51 @@
         <v>3</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(B10:B17)</f>
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
         <v>16106212</v>
       </c>
       <c r="C18" s="28">
-        <f>SUM(C10:C17)</f>
+        <f t="shared" si="0"/>
         <v>16227085</v>
       </c>
       <c r="D18" s="28">
-        <f>SUM(D10:D17)</f>
+        <f t="shared" si="0"/>
         <v>16281079</v>
       </c>
       <c r="E18" s="28">
-        <f>SUM(E10:E17)</f>
+        <f t="shared" si="0"/>
         <v>16347973</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(F10:F17)</f>
+        <f t="shared" si="0"/>
         <v>16354902</v>
       </c>
       <c r="G18" s="28">
-        <f>SUM(G10:G17)</f>
+        <f t="shared" si="0"/>
         <v>16357421</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(H10:H17)</f>
+        <f t="shared" si="0"/>
         <v>16362732</v>
       </c>
       <c r="I18" s="28">
-        <f>SUM(I10:I17)</f>
+        <f t="shared" si="0"/>
         <v>16414905</v>
       </c>
       <c r="J18" s="28">
-        <f>SUM(J10:J17)</f>
+        <f t="shared" si="0"/>
         <v>16508845</v>
       </c>
       <c r="K18" s="28">
-        <f>SUM(K10:K17)</f>
+        <f t="shared" si="0"/>
         <v>16652436</v>
       </c>
       <c r="L18" s="28">
-        <f>SUM(L10:L17)</f>
+        <f t="shared" si="0"/>
         <v>16772971</v>
       </c>
       <c r="M18" s="28">
-        <f>SUM(M10:M17)</f>
+        <f t="shared" si="0"/>
         <v>16525061</v>
       </c>
     </row>
@@ -15295,47 +15295,47 @@
         <v>0.27498992500518149</v>
       </c>
       <c r="C19" s="75">
-        <f t="shared" ref="C19:M19" si="0">+(C18-B18)/B18*100</f>
+        <f t="shared" ref="C19:M19" si="1">+(C18-B18)/B18*100</f>
         <v>0.75047441322639985</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33273998379869213</v>
       </c>
       <c r="E19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41086957443053995</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2384459529019286E-2</v>
       </c>
       <c r="G19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5402110021814868E-2</v>
       </c>
       <c r="H19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2468443527864203E-2</v>
       </c>
       <c r="I19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31885262192157149</v>
       </c>
       <c r="J19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57228476192825972</v>
       </c>
       <c r="K19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86978222885974155</v>
       </c>
       <c r="L19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72382803332797674</v>
       </c>
       <c r="M19" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.4780327230041714</v>
       </c>
       <c r="N19" s="63"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -204,10 +204,10 @@
     <t>Por división económica 2008 - 2021</t>
   </si>
   <si>
-    <t>Var Jun 2021 respecto a May 2021</t>
+    <t>Var Jun 2021 respecto a Dic 2020</t>
   </si>
   <si>
-    <t>Var Jun 2021 respecto a Dic 2020</t>
+    <t>Var Jul 2021 respecto a Jun 2021</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:P17"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1345,10 +1345,10 @@
       </c>
       <c r="P8" s="96"/>
       <c r="Q8" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="89" t="s">
         <v>36</v>
-      </c>
-      <c r="R8" s="89" t="s">
-        <v>37</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1396,10 +1396,10 @@
         <v>17</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="90"/>
       <c r="R9" s="90"/>
@@ -1451,18 +1451,18 @@
         <v>757997</v>
       </c>
       <c r="O10" s="39">
-        <v>742607</v>
+        <v>723404</v>
       </c>
       <c r="P10" s="39">
-        <v>723404</v>
+        <v>703719</v>
       </c>
       <c r="Q10" s="39">
-        <f t="shared" ref="Q10:Q16" si="0">P10-O10</f>
-        <v>-19203</v>
+        <f>P10-O10</f>
+        <v>-19685</v>
       </c>
       <c r="R10" s="39">
-        <f t="shared" ref="R10:R16" si="1">P10-N10</f>
-        <v>-34593</v>
+        <f t="shared" ref="R10:R16" si="0">P10-N10</f>
+        <v>-54278</v>
       </c>
       <c r="S10" s="77"/>
       <c r="T10" s="11"/>
@@ -1512,18 +1512,18 @@
         <v>4040863</v>
       </c>
       <c r="O11" s="39">
-        <v>4068728</v>
+        <v>4092009</v>
       </c>
       <c r="P11" s="39">
-        <v>4092009</v>
+        <v>4177519</v>
       </c>
       <c r="Q11" s="39">
-        <f t="shared" si="0"/>
-        <v>23281</v>
+        <f t="shared" ref="Q10:Q16" si="1">P11-O11</f>
+        <v>85510</v>
       </c>
       <c r="R11" s="39">
-        <f t="shared" si="1"/>
-        <v>51146</v>
+        <f t="shared" si="0"/>
+        <v>136656</v>
       </c>
       <c r="S11" s="77"/>
       <c r="T11" s="11"/>
@@ -1573,18 +1573,18 @@
         <v>1487563</v>
       </c>
       <c r="O12" s="39">
-        <v>1560734</v>
+        <v>1578850</v>
       </c>
       <c r="P12" s="39">
-        <v>1578850</v>
+        <v>1599145</v>
       </c>
       <c r="Q12" s="39">
-        <f t="shared" si="0"/>
-        <v>18116</v>
+        <f t="shared" si="1"/>
+        <v>20295</v>
       </c>
       <c r="R12" s="39">
-        <f t="shared" si="1"/>
-        <v>91287</v>
+        <f t="shared" si="0"/>
+        <v>111582</v>
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="11"/>
@@ -1634,18 +1634,18 @@
         <v>146801</v>
       </c>
       <c r="O13" s="39">
-        <v>144979</v>
+        <v>144888</v>
       </c>
       <c r="P13" s="39">
-        <v>144888</v>
+        <v>147630</v>
       </c>
       <c r="Q13" s="39">
-        <f t="shared" si="0"/>
-        <v>-91</v>
+        <f t="shared" si="1"/>
+        <v>2742</v>
       </c>
       <c r="R13" s="39">
-        <f t="shared" si="1"/>
-        <v>-1913</v>
+        <f t="shared" si="0"/>
+        <v>829</v>
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="11"/>
@@ -1695,18 +1695,18 @@
         <v>5438831</v>
       </c>
       <c r="O14" s="39">
-        <v>5581011</v>
+        <v>5616130</v>
       </c>
       <c r="P14" s="39">
-        <v>5616130</v>
+        <v>5676394</v>
       </c>
       <c r="Q14" s="39">
-        <f t="shared" si="0"/>
-        <v>35119</v>
+        <f t="shared" si="1"/>
+        <v>60264</v>
       </c>
       <c r="R14" s="39">
-        <f t="shared" si="1"/>
-        <v>177299</v>
+        <f t="shared" si="0"/>
+        <v>237563</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,18 +1753,18 @@
         <v>119946</v>
       </c>
       <c r="O15" s="39">
-        <v>125366</v>
+        <v>125459</v>
       </c>
       <c r="P15" s="39">
-        <v>125459</v>
+        <v>128872</v>
       </c>
       <c r="Q15" s="39">
-        <f t="shared" si="0"/>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>3413</v>
       </c>
       <c r="R15" s="39">
-        <f t="shared" si="1"/>
-        <v>5513</v>
+        <f t="shared" si="0"/>
+        <v>8926</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="11"/>
@@ -1814,18 +1814,18 @@
         <v>6568520</v>
       </c>
       <c r="O16" s="39">
-        <v>6652541</v>
+        <v>6656037</v>
       </c>
       <c r="P16" s="39">
-        <v>6656037</v>
+        <v>6577529</v>
       </c>
       <c r="Q16" s="39">
-        <f t="shared" si="0"/>
-        <v>3496</v>
+        <f t="shared" si="1"/>
+        <v>-78508</v>
       </c>
       <c r="R16" s="39">
-        <f t="shared" si="1"/>
-        <v>87517</v>
+        <f t="shared" si="0"/>
+        <v>9009</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
@@ -1875,18 +1875,18 @@
         <v>1213211</v>
       </c>
       <c r="O17" s="39">
-        <v>1233478</v>
+        <v>1238603</v>
       </c>
       <c r="P17" s="39">
-        <v>1238603</v>
+        <v>1281115</v>
       </c>
       <c r="Q17" s="39">
         <f t="shared" ref="Q17" si="2">P17-O17</f>
-        <v>5125</v>
+        <v>42512</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="3">P17-N17</f>
-        <v>25392</v>
+        <v>67904</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
@@ -1950,19 +1950,19 @@
       </c>
       <c r="O18" s="57">
         <f t="shared" si="4"/>
-        <v>20109444</v>
+        <v>20175380</v>
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>20175380</v>
+        <v>20291923</v>
       </c>
       <c r="Q18" s="88">
-        <f t="shared" si="4"/>
-        <v>65936</v>
+        <f>SUM(Q10:Q17)</f>
+        <v>116543</v>
       </c>
       <c r="R18" s="57">
         <f t="shared" si="4"/>
-        <v>401648</v>
+        <v>518191</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="2"/>
@@ -7727,8 +7727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7956,7 +7956,9 @@
       <c r="G10" s="39">
         <v>723404</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="39">
+        <v>703719</v>
+      </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
@@ -7985,7 +7987,9 @@
       <c r="G11" s="39">
         <v>4092009</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="39">
+        <v>4177519</v>
+      </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -8014,7 +8018,9 @@
       <c r="G12" s="39">
         <v>1578850</v>
       </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="39">
+        <v>1599145</v>
+      </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
@@ -8043,7 +8049,9 @@
       <c r="G13" s="39">
         <v>144888</v>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="39">
+        <v>147630</v>
+      </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
@@ -8072,7 +8080,9 @@
       <c r="G14" s="39">
         <v>5616130</v>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="39">
+        <v>5676394</v>
+      </c>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
@@ -8106,7 +8116,9 @@
       <c r="G15" s="39">
         <v>125459</v>
       </c>
-      <c r="H15" s="39"/>
+      <c r="H15" s="39">
+        <v>128872</v>
+      </c>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
@@ -8135,7 +8147,9 @@
       <c r="G16" s="39">
         <v>6656037</v>
       </c>
-      <c r="H16" s="39"/>
+      <c r="H16" s="39">
+        <v>6577529</v>
+      </c>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
@@ -8164,7 +8178,9 @@
       <c r="G17" s="39">
         <v>1238603</v>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="39">
+        <v>1281115</v>
+      </c>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
@@ -8201,7 +8217,7 @@
       </c>
       <c r="H18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20291923</v>
       </c>
       <c r="I18" s="28">
         <f t="shared" si="0"/>
@@ -8254,11 +8270,11 @@
       </c>
       <c r="H19" s="75">
         <f t="shared" si="1"/>
+        <v>0.57764959073881139</v>
+      </c>
+      <c r="I19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="I19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="J19" s="75" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -204,10 +204,10 @@
     <t>Por división económica 2008 - 2021</t>
   </si>
   <si>
-    <t>Var Ago 2021 respecto a Jul 2021</t>
+    <t>Var Sep 2021 respecto a Ago 2021</t>
   </si>
   <si>
-    <t>Var Ago 2021 respecto a Dic 2020</t>
+    <t>Var Sep 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1396,10 +1396,10 @@
         <v>17</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="90"/>
       <c r="R9" s="90"/>
@@ -1451,18 +1451,18 @@
         <v>757997</v>
       </c>
       <c r="O10" s="39">
-        <v>703719</v>
+        <v>708332</v>
       </c>
       <c r="P10" s="39">
-        <v>708332</v>
+        <v>738211</v>
       </c>
       <c r="Q10" s="39">
         <f>P10-O10</f>
-        <v>4613</v>
+        <v>29879</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">P10-N10</f>
-        <v>-49665</v>
+        <v>-19786</v>
       </c>
       <c r="S10" s="77"/>
       <c r="T10" s="11"/>
@@ -1512,18 +1512,18 @@
         <v>4040863</v>
       </c>
       <c r="O11" s="39">
-        <v>4177519</v>
+        <v>4173626</v>
       </c>
       <c r="P11" s="39">
-        <v>4173626</v>
+        <v>4217284</v>
       </c>
       <c r="Q11" s="39">
         <f t="shared" ref="Q11:Q16" si="1">P11-O11</f>
-        <v>-3893</v>
+        <v>43658</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>132763</v>
+        <v>176421</v>
       </c>
       <c r="S11" s="77"/>
       <c r="T11" s="11"/>
@@ -1573,18 +1573,18 @@
         <v>1487563</v>
       </c>
       <c r="O12" s="39">
-        <v>1599145</v>
+        <v>1629962</v>
       </c>
       <c r="P12" s="39">
-        <v>147854</v>
+        <v>1647341</v>
       </c>
       <c r="Q12" s="39">
         <f t="shared" si="1"/>
-        <v>-1451291</v>
+        <v>17379</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>-1339709</v>
+        <v>159778</v>
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="11"/>
@@ -1634,18 +1634,18 @@
         <v>146801</v>
       </c>
       <c r="O13" s="39">
-        <v>147630</v>
+        <v>147854</v>
       </c>
       <c r="P13" s="39">
-        <v>5735724</v>
+        <v>147901</v>
       </c>
       <c r="Q13" s="39">
         <f t="shared" si="1"/>
-        <v>5588094</v>
+        <v>47</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>5588923</v>
+        <v>1100</v>
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="11"/>
@@ -1695,18 +1695,18 @@
         <v>5438831</v>
       </c>
       <c r="O14" s="39">
-        <v>5676394</v>
+        <v>5735724</v>
       </c>
       <c r="P14" s="39">
-        <v>1629962</v>
+        <v>5768332</v>
       </c>
       <c r="Q14" s="39">
         <f t="shared" si="1"/>
-        <v>-4046432</v>
+        <v>32608</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>-3808869</v>
+        <v>329501</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,18 +1753,18 @@
         <v>119946</v>
       </c>
       <c r="O15" s="39">
-        <v>128872</v>
+        <v>128519</v>
       </c>
       <c r="P15" s="39">
-        <v>128519</v>
+        <v>129689</v>
       </c>
       <c r="Q15" s="39">
         <f t="shared" si="1"/>
-        <v>-353</v>
+        <v>1170</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>8573</v>
+        <v>9743</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="11"/>
@@ -1814,18 +1814,18 @@
         <v>6568520</v>
       </c>
       <c r="O16" s="39">
-        <v>6577529</v>
+        <v>6599013</v>
       </c>
       <c r="P16" s="39">
-        <v>4382425</v>
+        <v>6624100</v>
       </c>
       <c r="Q16" s="39">
         <f t="shared" si="1"/>
-        <v>-2195104</v>
+        <v>25087</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>-2186095</v>
+        <v>55580</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
@@ -1875,18 +1875,18 @@
         <v>1213211</v>
       </c>
       <c r="O17" s="39">
-        <v>1281115</v>
+        <v>1297793</v>
       </c>
       <c r="P17" s="39">
-        <v>3514381</v>
+        <v>1322061</v>
       </c>
       <c r="Q17" s="39">
         <f t="shared" ref="Q17" si="2">P17-O17</f>
-        <v>2233266</v>
+        <v>24268</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="3">P17-N17</f>
-        <v>2301170</v>
+        <v>108850</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
@@ -1950,19 +1950,19 @@
       </c>
       <c r="O18" s="57">
         <f t="shared" si="4"/>
-        <v>20291923</v>
+        <v>20420823</v>
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>20420823</v>
+        <v>20594919</v>
       </c>
       <c r="Q18" s="88">
         <f>SUM(Q10:Q17)</f>
-        <v>128900</v>
+        <v>174096</v>
       </c>
       <c r="R18" s="57">
         <f t="shared" si="4"/>
-        <v>647091</v>
+        <v>821187</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="2"/>
@@ -7728,7 +7728,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7962,7 +7962,9 @@
       <c r="I10" s="39">
         <v>708332</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="39">
+        <v>738211</v>
+      </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -7995,7 +7997,9 @@
       <c r="I11" s="39">
         <v>4173626</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="39">
+        <v>4217284</v>
+      </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
@@ -8026,9 +8030,11 @@
         <v>1599145</v>
       </c>
       <c r="I12" s="39">
-        <v>147854</v>
-      </c>
-      <c r="J12" s="39"/>
+        <v>1629962</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1647341</v>
+      </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
@@ -8059,9 +8065,11 @@
         <v>147630</v>
       </c>
       <c r="I13" s="39">
-        <v>5735724</v>
-      </c>
-      <c r="J13" s="39"/>
+        <v>147854</v>
+      </c>
+      <c r="J13" s="39">
+        <v>147901</v>
+      </c>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
@@ -8092,9 +8100,11 @@
         <v>5676394</v>
       </c>
       <c r="I14" s="39">
-        <v>1629962</v>
-      </c>
-      <c r="J14" s="39"/>
+        <v>5735724</v>
+      </c>
+      <c r="J14" s="39">
+        <v>5768332</v>
+      </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
@@ -8132,7 +8142,9 @@
       <c r="I15" s="39">
         <v>128519</v>
       </c>
-      <c r="J15" s="39"/>
+      <c r="J15" s="39">
+        <v>129689</v>
+      </c>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
@@ -8163,9 +8175,11 @@
         <v>6577529</v>
       </c>
       <c r="I16" s="39">
-        <v>4382425</v>
-      </c>
-      <c r="J16" s="39"/>
+        <v>6599013</v>
+      </c>
+      <c r="J16" s="39">
+        <v>6624100</v>
+      </c>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
@@ -8196,9 +8210,11 @@
         <v>1281115</v>
       </c>
       <c r="I17" s="39">
-        <v>3514381</v>
-      </c>
-      <c r="J17" s="39"/>
+        <v>1297793</v>
+      </c>
+      <c r="J17" s="39">
+        <v>1322061</v>
+      </c>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
@@ -8241,7 +8257,7 @@
       </c>
       <c r="J18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20594919</v>
       </c>
       <c r="K18" s="28">
         <f t="shared" si="0"/>
@@ -8294,11 +8310,11 @@
       </c>
       <c r="J19" s="75">
         <f t="shared" si="1"/>
+        <v>0.85254154546072891</v>
+      </c>
+      <c r="K19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="K19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="L19" s="75" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -204,10 +204,10 @@
     <t>Por división económica 2008 - 2021</t>
   </si>
   <si>
-    <t>Var Sep 2021 respecto a Ago 2021</t>
+    <t>Var Oct 2021 respecto a Sep 2021</t>
   </si>
   <si>
-    <t>Var Sep 2021 respecto a Dic 2020</t>
+    <t>Var Oct 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1396,10 +1396,10 @@
         <v>17</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="90"/>
       <c r="R9" s="90"/>
@@ -1451,18 +1451,18 @@
         <v>757997</v>
       </c>
       <c r="O10" s="39">
-        <v>708332</v>
+        <v>738211</v>
       </c>
       <c r="P10" s="39">
-        <v>738211</v>
+        <v>748583</v>
       </c>
       <c r="Q10" s="39">
         <f>P10-O10</f>
-        <v>29879</v>
+        <v>10372</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">P10-N10</f>
-        <v>-19786</v>
+        <v>-9414</v>
       </c>
       <c r="S10" s="77"/>
       <c r="T10" s="11"/>
@@ -1512,18 +1512,18 @@
         <v>4040863</v>
       </c>
       <c r="O11" s="39">
-        <v>4173626</v>
+        <v>4217284</v>
       </c>
       <c r="P11" s="39">
-        <v>4217284</v>
+        <v>4285977</v>
       </c>
       <c r="Q11" s="39">
         <f t="shared" ref="Q11:Q16" si="1">P11-O11</f>
-        <v>43658</v>
+        <v>68693</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>176421</v>
+        <v>245114</v>
       </c>
       <c r="S11" s="77"/>
       <c r="T11" s="11"/>
@@ -1573,18 +1573,18 @@
         <v>1487563</v>
       </c>
       <c r="O12" s="39">
-        <v>1629962</v>
+        <v>1647341</v>
       </c>
       <c r="P12" s="39">
-        <v>1647341</v>
+        <v>1672056</v>
       </c>
       <c r="Q12" s="39">
         <f t="shared" si="1"/>
-        <v>17379</v>
+        <v>24715</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>159778</v>
+        <v>184493</v>
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="11"/>
@@ -1634,18 +1634,18 @@
         <v>146801</v>
       </c>
       <c r="O13" s="39">
-        <v>147854</v>
+        <v>147901</v>
       </c>
       <c r="P13" s="39">
-        <v>147901</v>
+        <v>148284</v>
       </c>
       <c r="Q13" s="39">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1483</v>
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="11"/>
@@ -1695,18 +1695,18 @@
         <v>5438831</v>
       </c>
       <c r="O14" s="39">
-        <v>5735724</v>
+        <v>5768332</v>
       </c>
       <c r="P14" s="39">
-        <v>5768332</v>
+        <v>5790386</v>
       </c>
       <c r="Q14" s="39">
         <f t="shared" si="1"/>
-        <v>32608</v>
+        <v>22054</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>329501</v>
+        <v>351555</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,18 +1753,18 @@
         <v>119946</v>
       </c>
       <c r="O15" s="39">
-        <v>128519</v>
+        <v>129689</v>
       </c>
       <c r="P15" s="39">
-        <v>129689</v>
+        <v>130778</v>
       </c>
       <c r="Q15" s="39">
         <f t="shared" si="1"/>
-        <v>1170</v>
+        <v>1089</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>9743</v>
+        <v>10832</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="11"/>
@@ -1814,18 +1814,18 @@
         <v>6568520</v>
       </c>
       <c r="O16" s="39">
-        <v>6599013</v>
+        <v>6624100</v>
       </c>
       <c r="P16" s="39">
-        <v>6624100</v>
+        <v>6656797</v>
       </c>
       <c r="Q16" s="39">
         <f t="shared" si="1"/>
-        <v>25087</v>
+        <v>32697</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>55580</v>
+        <v>88277</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
@@ -1875,18 +1875,18 @@
         <v>1213211</v>
       </c>
       <c r="O17" s="39">
-        <v>1297793</v>
+        <v>1322061</v>
       </c>
       <c r="P17" s="39">
-        <v>1322061</v>
+        <v>1334726</v>
       </c>
       <c r="Q17" s="39">
         <f t="shared" ref="Q17" si="2">P17-O17</f>
-        <v>24268</v>
+        <v>12665</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="3">P17-N17</f>
-        <v>108850</v>
+        <v>121515</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
@@ -1950,19 +1950,19 @@
       </c>
       <c r="O18" s="57">
         <f t="shared" si="4"/>
-        <v>20420823</v>
+        <v>20594919</v>
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>20594919</v>
+        <v>20767587</v>
       </c>
       <c r="Q18" s="88">
         <f>SUM(Q10:Q17)</f>
-        <v>174096</v>
+        <v>172668</v>
       </c>
       <c r="R18" s="57">
         <f t="shared" si="4"/>
-        <v>821187</v>
+        <v>993855</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="2"/>
@@ -7728,7 +7728,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7965,7 +7965,9 @@
       <c r="J10" s="39">
         <v>738211</v>
       </c>
-      <c r="K10" s="39"/>
+      <c r="K10" s="39">
+        <v>748583</v>
+      </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
     </row>
@@ -8000,7 +8002,9 @@
       <c r="J11" s="39">
         <v>4217284</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="K11" s="39">
+        <v>4285977</v>
+      </c>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
     </row>
@@ -8035,7 +8039,9 @@
       <c r="J12" s="39">
         <v>1647341</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="39">
+        <v>1672056</v>
+      </c>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
     </row>
@@ -8070,7 +8076,9 @@
       <c r="J13" s="39">
         <v>147901</v>
       </c>
-      <c r="K13" s="39"/>
+      <c r="K13" s="39">
+        <v>148284</v>
+      </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
@@ -8105,7 +8113,9 @@
       <c r="J14" s="39">
         <v>5768332</v>
       </c>
-      <c r="K14" s="39"/>
+      <c r="K14" s="39">
+        <v>5790386</v>
+      </c>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
       <c r="N14" s="63"/>
@@ -8145,7 +8155,9 @@
       <c r="J15" s="39">
         <v>129689</v>
       </c>
-      <c r="K15" s="39"/>
+      <c r="K15" s="39">
+        <v>130778</v>
+      </c>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
     </row>
@@ -8180,7 +8192,9 @@
       <c r="J16" s="39">
         <v>6624100</v>
       </c>
-      <c r="K16" s="39"/>
+      <c r="K16" s="39">
+        <v>6656797</v>
+      </c>
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
     </row>
@@ -8215,7 +8229,9 @@
       <c r="J17" s="39">
         <v>1322061</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="39">
+        <v>1334726</v>
+      </c>
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
     </row>
@@ -8261,7 +8277,7 @@
       </c>
       <c r="K18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20767587</v>
       </c>
       <c r="L18" s="28">
         <f t="shared" si="0"/>
@@ -8314,11 +8330,11 @@
       </c>
       <c r="K19" s="75">
         <f t="shared" si="1"/>
+        <v>0.83840096676272435</v>
+      </c>
+      <c r="L19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="L19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M19" s="75" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -204,10 +204,10 @@
     <t>Por división económica 2008 - 2021</t>
   </si>
   <si>
-    <t>Var Oct 2021 respecto a Sep 2021</t>
+    <t>Var Nov 2021 respecto a Dic 2020</t>
   </si>
   <si>
-    <t>Var Oct 2021 respecto a Dic 2020</t>
+    <t>Var Nov 2021 respecto a Oct 2021</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1345,10 +1345,10 @@
       </c>
       <c r="P8" s="96"/>
       <c r="Q8" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="89" t="s">
         <v>36</v>
-      </c>
-      <c r="R8" s="89" t="s">
-        <v>37</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1396,10 +1396,10 @@
         <v>17</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="90"/>
       <c r="R9" s="90"/>
@@ -1451,18 +1451,18 @@
         <v>757997</v>
       </c>
       <c r="O10" s="39">
-        <v>738211</v>
+        <v>748583</v>
       </c>
       <c r="P10" s="39">
-        <v>748583</v>
+        <v>765050</v>
       </c>
       <c r="Q10" s="39">
         <f>P10-O10</f>
-        <v>10372</v>
+        <v>16467</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">P10-N10</f>
-        <v>-9414</v>
+        <v>7053</v>
       </c>
       <c r="S10" s="77"/>
       <c r="T10" s="11"/>
@@ -1512,18 +1512,18 @@
         <v>4040863</v>
       </c>
       <c r="O11" s="39">
-        <v>4217284</v>
+        <v>4285977</v>
       </c>
       <c r="P11" s="39">
-        <v>4285977</v>
+        <v>4336230</v>
       </c>
       <c r="Q11" s="39">
         <f t="shared" ref="Q11:Q16" si="1">P11-O11</f>
-        <v>68693</v>
+        <v>50253</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>245114</v>
+        <v>295367</v>
       </c>
       <c r="S11" s="77"/>
       <c r="T11" s="11"/>
@@ -1573,18 +1573,18 @@
         <v>1487563</v>
       </c>
       <c r="O12" s="39">
-        <v>1647341</v>
+        <v>1672056</v>
       </c>
       <c r="P12" s="39">
-        <v>1672056</v>
+        <v>1683939</v>
       </c>
       <c r="Q12" s="39">
         <f t="shared" si="1"/>
-        <v>24715</v>
+        <v>11883</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>184493</v>
+        <v>196376</v>
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="11"/>
@@ -1634,18 +1634,18 @@
         <v>146801</v>
       </c>
       <c r="O13" s="39">
-        <v>147901</v>
+        <v>148284</v>
       </c>
       <c r="P13" s="39">
-        <v>148284</v>
+        <v>148686</v>
       </c>
       <c r="Q13" s="39">
         <f t="shared" si="1"/>
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>1483</v>
+        <v>1885</v>
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="11"/>
@@ -1695,18 +1695,18 @@
         <v>5438831</v>
       </c>
       <c r="O14" s="39">
-        <v>5768332</v>
+        <v>5790386</v>
       </c>
       <c r="P14" s="39">
-        <v>5790386</v>
+        <v>5805377</v>
       </c>
       <c r="Q14" s="39">
         <f t="shared" si="1"/>
-        <v>22054</v>
+        <v>14991</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>351555</v>
+        <v>366546</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,18 +1753,18 @@
         <v>119946</v>
       </c>
       <c r="O15" s="39">
-        <v>129689</v>
+        <v>130778</v>
       </c>
       <c r="P15" s="39">
-        <v>130778</v>
+        <v>131547</v>
       </c>
       <c r="Q15" s="39">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>769</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>10832</v>
+        <v>11601</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="11"/>
@@ -1814,18 +1814,18 @@
         <v>6568520</v>
       </c>
       <c r="O16" s="39">
-        <v>6624100</v>
+        <v>6656797</v>
       </c>
       <c r="P16" s="39">
-        <v>6656797</v>
+        <v>6706834</v>
       </c>
       <c r="Q16" s="39">
         <f t="shared" si="1"/>
-        <v>32697</v>
+        <v>50037</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>88277</v>
+        <v>138314</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
@@ -1875,18 +1875,18 @@
         <v>1213211</v>
       </c>
       <c r="O17" s="39">
-        <v>1322061</v>
+        <v>1334726</v>
       </c>
       <c r="P17" s="39">
-        <v>1334726</v>
+        <v>1355387</v>
       </c>
       <c r="Q17" s="39">
         <f t="shared" ref="Q17" si="2">P17-O17</f>
-        <v>12665</v>
+        <v>20661</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="3">P17-N17</f>
-        <v>121515</v>
+        <v>142176</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
@@ -1950,19 +1950,19 @@
       </c>
       <c r="O18" s="57">
         <f t="shared" si="4"/>
-        <v>20594919</v>
+        <v>20767587</v>
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>20767587</v>
+        <v>20933050</v>
       </c>
       <c r="Q18" s="88">
         <f>SUM(Q10:Q17)</f>
-        <v>172668</v>
+        <v>165463</v>
       </c>
       <c r="R18" s="57">
         <f t="shared" si="4"/>
-        <v>993855</v>
+        <v>1159318</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="2"/>
@@ -7728,7 +7728,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7968,7 +7968,9 @@
       <c r="K10" s="39">
         <v>748583</v>
       </c>
-      <c r="L10" s="39"/>
+      <c r="L10" s="39">
+        <v>765050</v>
+      </c>
       <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -8005,7 +8007,9 @@
       <c r="K11" s="39">
         <v>4285977</v>
       </c>
-      <c r="L11" s="39"/>
+      <c r="L11" s="39">
+        <v>4336230</v>
+      </c>
       <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -8042,7 +8046,9 @@
       <c r="K12" s="39">
         <v>1672056</v>
       </c>
-      <c r="L12" s="39"/>
+      <c r="L12" s="39">
+        <v>1683939</v>
+      </c>
       <c r="M12" s="39"/>
     </row>
     <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -8079,7 +8085,9 @@
       <c r="K13" s="39">
         <v>148284</v>
       </c>
-      <c r="L13" s="39"/>
+      <c r="L13" s="39">
+        <v>148686</v>
+      </c>
       <c r="M13" s="39"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -8116,7 +8124,9 @@
       <c r="K14" s="39">
         <v>5790386</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="39">
+        <v>5805377</v>
+      </c>
       <c r="M14" s="39"/>
       <c r="N14" s="63"/>
       <c r="O14" s="63"/>
@@ -8158,7 +8168,9 @@
       <c r="K15" s="39">
         <v>130778</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="39">
+        <v>131547</v>
+      </c>
       <c r="M15" s="39"/>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8195,7 +8207,9 @@
       <c r="K16" s="39">
         <v>6656797</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="39">
+        <v>6706834</v>
+      </c>
       <c r="M16" s="39"/>
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8232,7 +8246,9 @@
       <c r="K17" s="39">
         <v>1334726</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="39">
+        <v>1355387</v>
+      </c>
       <c r="M17" s="39"/>
     </row>
     <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -8281,7 +8297,7 @@
       </c>
       <c r="L18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20933050</v>
       </c>
       <c r="M18" s="28">
         <f t="shared" si="0"/>
@@ -8334,11 +8350,11 @@
       </c>
       <c r="L19" s="75">
         <f t="shared" si="1"/>
+        <v>0.79673676099202095</v>
+      </c>
+      <c r="M19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="M19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="N19" s="65"/>
       <c r="O19" s="65"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -204,10 +204,10 @@
     <t>Por división económica 2008 - 2021</t>
   </si>
   <si>
-    <t>Var Nov 2021 respecto a Dic 2020</t>
+    <t>Var Dic 2021 respecto a Nov2021</t>
   </si>
   <si>
-    <t>Var Nov 2021 respecto a Oct 2021</t>
+    <t>Var Dic 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1345,10 +1345,10 @@
       </c>
       <c r="P8" s="96"/>
       <c r="Q8" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="89" t="s">
         <v>37</v>
-      </c>
-      <c r="R8" s="89" t="s">
-        <v>36</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1396,10 +1396,10 @@
         <v>17</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="90"/>
       <c r="R9" s="90"/>
@@ -1451,18 +1451,18 @@
         <v>757997</v>
       </c>
       <c r="O10" s="39">
-        <v>748583</v>
+        <v>765050</v>
       </c>
       <c r="P10" s="39">
-        <v>765050</v>
+        <v>766413</v>
       </c>
       <c r="Q10" s="39">
         <f>P10-O10</f>
-        <v>16467</v>
+        <v>1363</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">P10-N10</f>
-        <v>7053</v>
+        <v>8416</v>
       </c>
       <c r="S10" s="77"/>
       <c r="T10" s="11"/>
@@ -1512,18 +1512,18 @@
         <v>4040863</v>
       </c>
       <c r="O11" s="39">
-        <v>4285977</v>
+        <v>4336230</v>
       </c>
       <c r="P11" s="39">
-        <v>4336230</v>
+        <v>4290123</v>
       </c>
       <c r="Q11" s="39">
         <f t="shared" ref="Q11:Q16" si="1">P11-O11</f>
-        <v>50253</v>
+        <v>-46107</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>295367</v>
+        <v>249260</v>
       </c>
       <c r="S11" s="77"/>
       <c r="T11" s="11"/>
@@ -1573,18 +1573,18 @@
         <v>1487563</v>
       </c>
       <c r="O12" s="39">
-        <v>1672056</v>
+        <v>1683939</v>
       </c>
       <c r="P12" s="39">
-        <v>1683939</v>
+        <v>1591867</v>
       </c>
       <c r="Q12" s="39">
         <f t="shared" si="1"/>
-        <v>11883</v>
+        <v>-92072</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>196376</v>
+        <v>104304</v>
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="11"/>
@@ -1634,18 +1634,18 @@
         <v>146801</v>
       </c>
       <c r="O13" s="39">
-        <v>148284</v>
+        <v>148686</v>
       </c>
       <c r="P13" s="39">
-        <v>148686</v>
+        <v>148204</v>
       </c>
       <c r="Q13" s="39">
         <f t="shared" si="1"/>
-        <v>402</v>
+        <v>-482</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>1885</v>
+        <v>1403</v>
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="11"/>
@@ -1695,18 +1695,18 @@
         <v>5438831</v>
       </c>
       <c r="O14" s="39">
-        <v>5790386</v>
+        <v>5805377</v>
       </c>
       <c r="P14" s="39">
-        <v>5805377</v>
+        <v>5712820</v>
       </c>
       <c r="Q14" s="39">
         <f t="shared" si="1"/>
-        <v>14991</v>
+        <v>-92557</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>366546</v>
+        <v>273989</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,18 +1753,18 @@
         <v>119946</v>
       </c>
       <c r="O15" s="39">
-        <v>130778</v>
+        <v>131547</v>
       </c>
       <c r="P15" s="39">
-        <v>131547</v>
+        <v>129632</v>
       </c>
       <c r="Q15" s="39">
         <f t="shared" si="1"/>
-        <v>769</v>
+        <v>-1915</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>11601</v>
+        <v>9686</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="11"/>
@@ -1814,18 +1814,18 @@
         <v>6568520</v>
       </c>
       <c r="O16" s="39">
-        <v>6656797</v>
+        <v>6706834</v>
       </c>
       <c r="P16" s="39">
-        <v>6706834</v>
+        <v>6634858</v>
       </c>
       <c r="Q16" s="39">
         <f t="shared" si="1"/>
-        <v>50037</v>
+        <v>-71976</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>138314</v>
+        <v>66338</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
@@ -1875,18 +1875,18 @@
         <v>1213211</v>
       </c>
       <c r="O17" s="39">
-        <v>1334726</v>
+        <v>1355387</v>
       </c>
       <c r="P17" s="39">
-        <v>1355387</v>
+        <v>1346231</v>
       </c>
       <c r="Q17" s="39">
         <f t="shared" ref="Q17" si="2">P17-O17</f>
-        <v>20661</v>
+        <v>-9156</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="3">P17-N17</f>
-        <v>142176</v>
+        <v>133020</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
@@ -1950,19 +1950,19 @@
       </c>
       <c r="O18" s="57">
         <f t="shared" si="4"/>
-        <v>20767587</v>
+        <v>20933050</v>
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>20933050</v>
+        <v>20620148</v>
       </c>
       <c r="Q18" s="88">
         <f>SUM(Q10:Q17)</f>
-        <v>165463</v>
+        <v>-312902</v>
       </c>
       <c r="R18" s="57">
         <f t="shared" si="4"/>
-        <v>1159318</v>
+        <v>846416</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="2"/>
@@ -7728,7 +7728,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7971,7 +7971,9 @@
       <c r="L10" s="39">
         <v>765050</v>
       </c>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39">
+        <v>766413</v>
+      </c>
     </row>
     <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
@@ -8010,7 +8012,9 @@
       <c r="L11" s="39">
         <v>4336230</v>
       </c>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39">
+        <v>4290123</v>
+      </c>
     </row>
     <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
@@ -8049,7 +8053,9 @@
       <c r="L12" s="39">
         <v>1683939</v>
       </c>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39">
+        <v>1591867</v>
+      </c>
     </row>
     <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
@@ -8088,7 +8094,9 @@
       <c r="L13" s="39">
         <v>148686</v>
       </c>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39">
+        <v>148204</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
@@ -8127,7 +8135,9 @@
       <c r="L14" s="39">
         <v>5805377</v>
       </c>
-      <c r="M14" s="39"/>
+      <c r="M14" s="39">
+        <v>5712820</v>
+      </c>
       <c r="N14" s="63"/>
       <c r="O14" s="63"/>
       <c r="P14" s="63"/>
@@ -8171,7 +8181,9 @@
       <c r="L15" s="39">
         <v>131547</v>
       </c>
-      <c r="M15" s="39"/>
+      <c r="M15" s="39">
+        <v>129632</v>
+      </c>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -8210,7 +8222,9 @@
       <c r="L16" s="39">
         <v>6706834</v>
       </c>
-      <c r="M16" s="39"/>
+      <c r="M16" s="39">
+        <v>6634858</v>
+      </c>
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
@@ -8249,7 +8263,9 @@
       <c r="L17" s="39">
         <v>1355387</v>
       </c>
-      <c r="M17" s="39"/>
+      <c r="M17" s="39">
+        <v>1346231</v>
+      </c>
     </row>
     <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
@@ -8301,7 +8317,7 @@
       </c>
       <c r="M18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20620148</v>
       </c>
     </row>
     <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8354,7 +8370,7 @@
       </c>
       <c r="M19" s="75">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>-1.4947750088974134</v>
       </c>
       <c r="N19" s="65"/>
       <c r="O19" s="65"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen Gral 08-21" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen Gral 08-22" sheetId="1" r:id="rId1"/>
     <sheet name="2000" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="2001" sheetId="8" state="hidden" r:id="rId3"/>
     <sheet name="2008" sheetId="15" r:id="rId4"/>
@@ -29,13 +29,14 @@
     <sheet name="2019" sheetId="26" r:id="rId15"/>
     <sheet name="2020" sheetId="27" r:id="rId16"/>
     <sheet name="2021" sheetId="28" r:id="rId17"/>
+    <sheet name="2022" sheetId="29" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="37">
   <si>
     <t>Construcción</t>
   </si>
@@ -198,16 +199,13 @@
     <t>Industria de la construcción</t>
   </si>
   <si>
-    <t>2008-2021</t>
+    <t>Por división económica 2008 - 2022</t>
   </si>
   <si>
-    <t>Por división económica 2008 - 2021</t>
+    <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Dic 2021 respecto a Nov2021</t>
-  </si>
-  <si>
-    <t>Var Dic 2021 respecto a Dic 2020</t>
+    <t>Var Ene 2022 respecto a Dic 2021</t>
   </si>
 </sst>
 </file>
@@ -493,7 +491,7 @@
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -705,6 +703,9 @@
     <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -726,9 +727,6 @@
     <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,6 +744,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1065,21 +1066,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" customWidth="1"/>
-    <col min="20" max="33" width="11.42578125" customWidth="1"/>
+    <col min="2" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="32" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -1089,7 +1090,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1110,7 @@
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
       <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -1124,9 +1125,8 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-    </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:32" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>5</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
+      <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -1161,11 +1161,10 @@
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-    </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -1183,7 +1182,7 @@
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
+      <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
@@ -1198,9 +1197,8 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-    </row>
-    <row r="5" spans="1:33" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1218,7 +1216,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1233,29 +1231,28 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-    </row>
-    <row r="6" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+    </row>
+    <row r="6" spans="1:32" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1264,29 +1261,28 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+    </row>
+    <row r="7" spans="1:32" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1295,10 +1291,9 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-    </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+    </row>
+    <row r="8" spans="1:32" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="94" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="76">
@@ -1340,22 +1335,21 @@
       <c r="N8" s="86">
         <v>2020</v>
       </c>
-      <c r="O8" s="96">
+      <c r="O8" s="89">
         <v>2021</v>
       </c>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="89" t="s">
+      <c r="P8" s="89">
+        <v>2022</v>
+      </c>
+      <c r="Q8" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="89" t="s">
-        <v>37</v>
-      </c>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+    </row>
+    <row r="9" spans="1:32" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="95"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
       </c>
@@ -1396,18 +1390,17 @@
         <v>17</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
+        <v>6</v>
+      </c>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:33" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:32" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
         <v>19</v>
       </c>
@@ -1451,24 +1444,20 @@
         <v>757997</v>
       </c>
       <c r="O10" s="39">
-        <v>765050</v>
+        <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>766413</v>
+        <v>812252</v>
       </c>
       <c r="Q10" s="39">
         <f>P10-O10</f>
-        <v>1363</v>
-      </c>
-      <c r="R10" s="39">
-        <f t="shared" ref="R10:R16" si="0">P10-N10</f>
-        <v>8416</v>
-      </c>
-      <c r="S10" s="77"/>
+        <v>45839</v>
+      </c>
+      <c r="R10" s="77"/>
+      <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-    </row>
-    <row r="11" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>1</v>
       </c>
@@ -1512,24 +1501,20 @@
         <v>4040863</v>
       </c>
       <c r="O11" s="39">
-        <v>4336230</v>
+        <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4290123</v>
+        <v>4252334</v>
       </c>
       <c r="Q11" s="39">
-        <f t="shared" ref="Q11:Q16" si="1">P11-O11</f>
-        <v>-46107</v>
-      </c>
-      <c r="R11" s="39">
-        <f t="shared" si="0"/>
-        <v>249260</v>
-      </c>
-      <c r="S11" s="77"/>
+        <f t="shared" ref="Q11:Q16" si="0">P11-O11</f>
+        <v>-37789</v>
+      </c>
+      <c r="R11" s="77"/>
+      <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-    </row>
-    <row r="12" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71" t="s">
         <v>33</v>
       </c>
@@ -1573,24 +1558,20 @@
         <v>1487563</v>
       </c>
       <c r="O12" s="39">
-        <v>1683939</v>
+        <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1591867</v>
+        <v>1626627</v>
       </c>
       <c r="Q12" s="39">
-        <f t="shared" si="1"/>
-        <v>-92072</v>
-      </c>
-      <c r="R12" s="39">
-        <f t="shared" si="0"/>
-        <v>104304</v>
-      </c>
-      <c r="S12" s="77"/>
+        <f t="shared" si="0"/>
+        <v>34760</v>
+      </c>
+      <c r="R12" s="77"/>
+      <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-    </row>
-    <row r="13" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:32" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
         <v>22</v>
       </c>
@@ -1634,24 +1615,20 @@
         <v>146801</v>
       </c>
       <c r="O13" s="39">
-        <v>148686</v>
+        <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>148204</v>
+        <v>148138</v>
       </c>
       <c r="Q13" s="39">
-        <f t="shared" si="1"/>
-        <v>-482</v>
-      </c>
-      <c r="R13" s="39">
-        <f t="shared" si="0"/>
-        <v>1403</v>
-      </c>
-      <c r="S13" s="77"/>
+        <f t="shared" si="0"/>
+        <v>-66</v>
+      </c>
+      <c r="R13" s="77"/>
+      <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
         <v>21</v>
       </c>
@@ -1695,21 +1672,17 @@
         <v>5438831</v>
       </c>
       <c r="O14" s="39">
-        <v>5805377</v>
+        <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>5712820</v>
+        <v>5782457</v>
       </c>
       <c r="Q14" s="39">
-        <f t="shared" si="1"/>
-        <v>-92557</v>
-      </c>
-      <c r="R14" s="39">
-        <f t="shared" si="0"/>
-        <v>273989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>69637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>20</v>
       </c>
@@ -1753,24 +1726,20 @@
         <v>119946</v>
       </c>
       <c r="O15" s="39">
-        <v>131547</v>
+        <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>129632</v>
+        <v>131009</v>
       </c>
       <c r="Q15" s="39">
-        <f t="shared" si="1"/>
-        <v>-1915</v>
-      </c>
-      <c r="R15" s="39">
-        <f t="shared" si="0"/>
-        <v>9686</v>
-      </c>
-      <c r="S15" s="77"/>
+        <f t="shared" si="0"/>
+        <v>1377</v>
+      </c>
+      <c r="R15" s="77"/>
+      <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-    </row>
-    <row r="16" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:32" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>2</v>
       </c>
@@ -1814,24 +1783,20 @@
         <v>6568520</v>
       </c>
       <c r="O16" s="39">
-        <v>6706834</v>
+        <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6634858</v>
+        <v>6656165</v>
       </c>
       <c r="Q16" s="39">
-        <f t="shared" si="1"/>
-        <v>-71976</v>
-      </c>
-      <c r="R16" s="39">
-        <f t="shared" si="0"/>
-        <v>66338</v>
-      </c>
-      <c r="S16" s="77"/>
+        <f t="shared" si="0"/>
+        <v>21307</v>
+      </c>
+      <c r="R16" s="77"/>
+      <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-    </row>
-    <row r="17" spans="1:21" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:20" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>23</v>
       </c>
@@ -1875,99 +1840,91 @@
         <v>1213211</v>
       </c>
       <c r="O17" s="39">
-        <v>1355387</v>
+        <v>1346231</v>
       </c>
       <c r="P17" s="39">
-        <v>1346231</v>
+        <v>1353437</v>
       </c>
       <c r="Q17" s="39">
-        <f t="shared" ref="Q17" si="2">P17-O17</f>
-        <v>-9156</v>
-      </c>
-      <c r="R17" s="39">
-        <f t="shared" ref="R17" si="3">P17-N17</f>
-        <v>133020</v>
-      </c>
-      <c r="S17" s="77"/>
+        <f t="shared" ref="Q17" si="1">P17-O17</f>
+        <v>7206</v>
+      </c>
+      <c r="R17" s="77"/>
+      <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-    </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="57">
-        <f t="shared" ref="B18:R18" si="4">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:O18" si="2">SUM(B10:B17)</f>
         <v>14178117</v>
       </c>
       <c r="C18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14006404</v>
       </c>
       <c r="D18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14738783</v>
       </c>
       <c r="E18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15350335</v>
       </c>
       <c r="F18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16062043</v>
       </c>
       <c r="G18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16525061</v>
       </c>
       <c r="H18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17239587</v>
       </c>
       <c r="I18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17882161</v>
       </c>
       <c r="J18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18616624</v>
       </c>
       <c r="K18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19418455</v>
       </c>
       <c r="L18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20079365</v>
       </c>
       <c r="M18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20421442</v>
       </c>
       <c r="N18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19773732</v>
       </c>
       <c r="O18" s="57">
-        <f t="shared" si="4"/>
-        <v>20933050</v>
+        <f t="shared" si="2"/>
+        <v>20620148</v>
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>20620148</v>
+        <v>20762419</v>
       </c>
       <c r="Q18" s="88">
         <f>SUM(Q10:Q17)</f>
-        <v>-312902</v>
-      </c>
-      <c r="R18" s="57">
-        <f t="shared" si="4"/>
-        <v>846416</v>
-      </c>
-      <c r="S18" s="83"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142271</v>
+      </c>
+      <c r="R18" s="83"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1985,34 +1942,32 @@
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="92" t="s">
+    </row>
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
-    </row>
-    <row r="21" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+    </row>
+    <row r="21" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
@@ -2029,9 +1984,8 @@
       <c r="O21" s="79"/>
       <c r="P21" s="79"/>
       <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2040,14 +1994,12 @@
       <c r="Q22" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="R8:R9"/>
+  <mergeCells count="5">
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2163,21 +2115,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -2236,7 +2188,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -2777,21 +2729,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -2963,21 +2915,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3036,7 +2988,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -3577,21 +3529,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -3757,21 +3709,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3830,7 +3782,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -4371,21 +4323,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -4551,21 +4503,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4624,7 +4576,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -5165,21 +5117,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -5345,21 +5297,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -5418,7 +5370,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -5962,21 +5914,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -6142,21 +6094,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -6215,7 +6167,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -6759,21 +6711,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -6982,21 +6934,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7055,7 +7007,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -7599,21 +7551,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -7823,21 +7775,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7896,7 +7848,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -8440,21 +8392,686 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+    </row>
+    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+    </row>
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="35"/>
+    </row>
+    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+    </row>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BW35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+    </row>
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="101">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="94"/>
+      <c r="B9" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="39">
+        <v>812252</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="39">
+        <v>4252334</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1626627</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>148138</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="39">
+        <v>5782457</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+    </row>
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="39">
+        <v>131009</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="39">
+        <v>6656165</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1353437</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+    </row>
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="28">
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <v>20762419</v>
+      </c>
+      <c r="C18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="103">
+        <f>(B18/'2021'!M18-1)*100</f>
+        <v>0.68996110018220147</v>
+      </c>
+      <c r="C19" s="75">
+        <f>+(C18-B18)/B18*100</f>
+        <v>-100</v>
+      </c>
+      <c r="D19" s="75" t="e">
+        <f>+(D18-C18)/C18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="75" t="e">
+        <f>+(E18-D18)/D18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="75" t="e">
+        <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="65"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="65"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="65"/>
+      <c r="BO19" s="65"/>
+      <c r="BP19" s="65"/>
+      <c r="BQ19" s="65"/>
+      <c r="BR19" s="65"/>
+      <c r="BS19" s="65"/>
+      <c r="BT19" s="65"/>
+      <c r="BU19" s="65"/>
+      <c r="BV19" s="65"/>
+      <c r="BW19" s="65"/>
+    </row>
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+    </row>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -8756,7 +9373,7 @@
       <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:35" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -9240,21 +9857,21 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
@@ -9676,7 +10293,7 @@
       <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:51" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -10221,21 +10838,21 @@
       <c r="AP20" s="2"/>
     </row>
     <row r="21" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
@@ -10464,21 +11081,21 @@
       <c r="X5" s="8"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10553,7 +11170,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -11126,21 +11743,21 @@
     </row>
     <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -11381,21 +11998,21 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -11470,7 +12087,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -12043,21 +12660,21 @@
     </row>
     <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -12283,21 +12900,21 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12372,7 +12989,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -12940,21 +13557,21 @@
     </row>
     <row r="20" spans="1:103" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:103" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:103" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -13149,21 +13766,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -13238,7 +13855,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -13799,21 +14416,21 @@
     </row>
     <row r="20" spans="1:95" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:95" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:95" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -14010,21 +14627,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -14099,7 +14716,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -14648,21 +15265,21 @@
     </row>
     <row r="20" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:83" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -14871,21 +15488,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -14958,7 +15575,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:30" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -15506,21 +16123,21 @@
     </row>
     <row r="20" spans="1:82" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:82" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
       <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:82" ht="12" customHeight="1" x14ac:dyDescent="0.2">

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="38">
   <si>
     <t>Construcción</t>
   </si>
@@ -205,7 +205,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Ene 2022 respecto a Dic 2021</t>
+    <t>Var feb 2022 respecto a ene 2022</t>
+  </si>
+  <si>
+    <t>Var feb 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -706,6 +709,9 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,8 +751,8 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1066,21 +1072,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
-    <col min="19" max="32" width="11.42578125" customWidth="1"/>
+    <col min="2" max="19" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="21" max="34" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -1090,7 +1096,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:32" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
@@ -1110,8 +1116,8 @@
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
       <c r="Q2" s="51"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -1125,8 +1131,10 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
-    </row>
-    <row r="3" spans="1:32" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+    </row>
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>5</v>
       </c>
@@ -1146,8 +1154,8 @@
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -1161,8 +1169,10 @@
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
-    </row>
-    <row r="4" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+    </row>
+    <row r="4" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>35</v>
       </c>
@@ -1182,8 +1192,8 @@
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -1197,8 +1207,10 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
-    </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+    </row>
+    <row r="5" spans="1:34" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1216,8 +1228,8 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1231,29 +1243,31 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-    </row>
-    <row r="6" spans="1:32" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+    </row>
+    <row r="6" spans="1:34" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1261,29 +1275,31 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:32" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96" t="s">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="1:34" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1291,9 +1307,11 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:32" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="95" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="76">
@@ -1338,18 +1356,22 @@
       <c r="O8" s="89">
         <v>2021</v>
       </c>
-      <c r="P8" s="89">
+      <c r="P8" s="104">
         <v>2022</v>
       </c>
-      <c r="Q8" s="90" t="s">
+      <c r="Q8" s="104"/>
+      <c r="R8" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="S8" s="91" t="s">
+        <v>37</v>
+      </c>
       <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:32" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="96"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
       </c>
@@ -1395,12 +1417,16 @@
       <c r="P9" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="Q9" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
       <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:32" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:34" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
         <v>19</v>
       </c>
@@ -1450,14 +1476,21 @@
         <v>812252</v>
       </c>
       <c r="Q10" s="39">
-        <f>P10-O10</f>
-        <v>45839</v>
-      </c>
-      <c r="R10" s="77"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>825829</v>
+      </c>
+      <c r="R10" s="39">
+        <f>Q10-P10</f>
+        <v>13577</v>
+      </c>
+      <c r="S10" s="39">
+        <f>Q10-O10</f>
+        <v>59416</v>
+      </c>
+      <c r="T10" s="77"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+    </row>
+    <row r="11" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>1</v>
       </c>
@@ -1507,14 +1540,21 @@
         <v>4252334</v>
       </c>
       <c r="Q11" s="39">
-        <f t="shared" ref="Q11:Q16" si="0">P11-O11</f>
-        <v>-37789</v>
-      </c>
-      <c r="R11" s="77"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4259945</v>
+      </c>
+      <c r="R11" s="39">
+        <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
+        <v>7611</v>
+      </c>
+      <c r="S11" s="39">
+        <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
+        <v>-30178</v>
+      </c>
+      <c r="T11" s="77"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+    </row>
+    <row r="12" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71" t="s">
         <v>33</v>
       </c>
@@ -1564,14 +1604,21 @@
         <v>1626627</v>
       </c>
       <c r="Q12" s="39">
-        <f t="shared" si="0"/>
-        <v>34760</v>
-      </c>
-      <c r="R12" s="77"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:32" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1652925</v>
+      </c>
+      <c r="R12" s="39">
+        <f t="shared" si="0"/>
+        <v>26298</v>
+      </c>
+      <c r="S12" s="39">
+        <f t="shared" si="1"/>
+        <v>61058</v>
+      </c>
+      <c r="T12" s="77"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+    </row>
+    <row r="13" spans="1:34" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
         <v>22</v>
       </c>
@@ -1621,14 +1668,21 @@
         <v>148138</v>
       </c>
       <c r="Q13" s="39">
-        <f t="shared" si="0"/>
-        <v>-66</v>
-      </c>
-      <c r="R13" s="77"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+        <v>148246</v>
+      </c>
+      <c r="R13" s="39">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="S13" s="39">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="T13" s="77"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
         <v>21</v>
       </c>
@@ -1678,11 +1732,18 @@
         <v>5782457</v>
       </c>
       <c r="Q14" s="39">
-        <f t="shared" si="0"/>
-        <v>69637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5849362</v>
+      </c>
+      <c r="R14" s="39">
+        <f t="shared" si="0"/>
+        <v>66905</v>
+      </c>
+      <c r="S14" s="39">
+        <f t="shared" si="1"/>
+        <v>136542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>20</v>
       </c>
@@ -1732,14 +1793,21 @@
         <v>131009</v>
       </c>
       <c r="Q15" s="39">
-        <f t="shared" si="0"/>
-        <v>1377</v>
-      </c>
-      <c r="R15" s="77"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:32" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131205</v>
+      </c>
+      <c r="R15" s="39">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="S15" s="39">
+        <f t="shared" si="1"/>
+        <v>1573</v>
+      </c>
+      <c r="T15" s="77"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>2</v>
       </c>
@@ -1789,14 +1857,21 @@
         <v>6656165</v>
       </c>
       <c r="Q16" s="39">
-        <f t="shared" si="0"/>
-        <v>21307</v>
-      </c>
-      <c r="R16" s="77"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6711635</v>
+      </c>
+      <c r="R16" s="39">
+        <f t="shared" si="0"/>
+        <v>55470</v>
+      </c>
+      <c r="S16" s="39">
+        <f t="shared" si="1"/>
+        <v>76777</v>
+      </c>
+      <c r="T16" s="77"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="1:22" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>23</v>
       </c>
@@ -1846,14 +1921,21 @@
         <v>1353437</v>
       </c>
       <c r="Q17" s="39">
-        <f t="shared" ref="Q17" si="1">P17-O17</f>
-        <v>7206</v>
-      </c>
-      <c r="R17" s="77"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1362139</v>
+      </c>
+      <c r="R17" s="39">
+        <f t="shared" si="0"/>
+        <v>8702</v>
+      </c>
+      <c r="S17" s="39">
+        <f t="shared" si="1"/>
+        <v>15908</v>
+      </c>
+      <c r="T17" s="77"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="s">
         <v>3</v>
       </c>
@@ -1917,14 +1999,22 @@
         <f>SUM(P10:P17)</f>
         <v>20762419</v>
       </c>
-      <c r="Q18" s="88">
+      <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>142271</v>
-      </c>
-      <c r="R18" s="83"/>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20941286</v>
+      </c>
+      <c r="R18" s="57">
+        <f>SUM(R10:R17)</f>
+        <v>178867</v>
+      </c>
+      <c r="S18" s="88">
+        <f>SUM(S10:S17)</f>
+        <v>321138</v>
+      </c>
+      <c r="T18" s="83"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1942,32 +2032,36 @@
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
       <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="93" t="s">
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-    </row>
-    <row r="21" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+    </row>
+    <row r="21" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
@@ -1984,22 +2078,28 @@
       <c r="O21" s="79"/>
       <c r="P21" s="79"/>
       <c r="Q21" s="79"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O22" s="87"/>
       <c r="P22" s="87"/>
       <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A20:Q20"/>
+  <mergeCells count="7">
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A20:S20"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A7:S7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2049,55 +2149,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2014</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -2115,21 +2215,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -2142,21 +2242,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -2169,26 +2269,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2014</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -2729,21 +2829,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -2849,55 +2949,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2015</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -2915,21 +3015,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -2942,21 +3042,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -2969,26 +3069,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2015</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -3529,21 +3629,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -3643,55 +3743,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2016</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -3709,21 +3809,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3736,21 +3836,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3763,26 +3863,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2016</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -4323,21 +4423,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -4437,55 +4537,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2017</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -4503,21 +4603,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4530,21 +4630,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -4557,26 +4657,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2017</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -5117,21 +5217,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -5231,55 +5331,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2018</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -5297,21 +5397,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -5324,21 +5424,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -5351,26 +5451,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2018</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -5914,21 +6014,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -6028,55 +6128,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2019</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -6094,21 +6194,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -6121,21 +6221,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -6148,26 +6248,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2019</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -6711,21 +6811,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -6868,55 +6968,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2020</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -6934,21 +7034,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -6961,21 +7061,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -6988,26 +7088,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2020</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -7551,21 +7651,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -7709,55 +7809,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2021</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -7775,21 +7875,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7802,21 +7902,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -7829,26 +7929,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2021</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -8392,21 +8492,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -8521,7 +8621,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8550,55 +8650,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2022</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -8616,21 +8716,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -8643,21 +8743,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -8670,26 +8770,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2022</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -8734,7 +8834,9 @@
       <c r="B10" s="39">
         <v>812252</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="39">
+        <v>825829</v>
+      </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
@@ -8753,7 +8855,9 @@
       <c r="B11" s="39">
         <v>4252334</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="39">
+        <v>4259945</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -8772,7 +8876,9 @@
       <c r="B12" s="39">
         <v>1626627</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="39">
+        <v>1652925</v>
+      </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -8791,7 +8897,9 @@
       <c r="B13" s="39">
         <v>148138</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="39">
+        <v>148246</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -8810,7 +8918,9 @@
       <c r="B14" s="39">
         <v>5782457</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="39">
+        <v>5849362</v>
+      </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -8834,7 +8944,9 @@
       <c r="B15" s="39">
         <v>131009</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="39">
+        <v>131205</v>
+      </c>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -8853,7 +8965,9 @@
       <c r="B16" s="39">
         <v>6656165</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="39">
+        <v>6711635</v>
+      </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -8872,7 +8986,9 @@
       <c r="B17" s="39">
         <v>1353437</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="39">
+        <v>1362139</v>
+      </c>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
@@ -8894,7 +9010,7 @@
       </c>
       <c r="C18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20941286</v>
       </c>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
@@ -8941,17 +9057,17 @@
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="103">
+      <c r="B19" s="90">
         <f>(B18/'2021'!M18-1)*100</f>
         <v>0.68996110018220147</v>
       </c>
       <c r="C19" s="75">
         <f>+(C18-B18)/B18*100</f>
+        <v>0.86149402918802476</v>
+      </c>
+      <c r="D19" s="75">
+        <f>+(D18-C18)/C18*100</f>
         <v>-100</v>
-      </c>
-      <c r="D19" s="75" t="e">
-        <f>+(D18-C18)/C18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="E19" s="75" t="e">
         <f>+(E18-D18)/D18*100</f>
@@ -9057,21 +9173,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -9213,55 +9329,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:35" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:35" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:35" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2000</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
@@ -9276,21 +9392,21 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -9315,21 +9431,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -9354,26 +9470,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2000</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:35" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -9857,21 +9973,21 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
@@ -9990,21 +10106,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:51" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -10045,21 +10161,21 @@
       <c r="AY2" s="4"/>
     </row>
     <row r="3" spans="1:51" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
@@ -10100,21 +10216,21 @@
       <c r="AY3" s="8"/>
     </row>
     <row r="4" spans="1:51" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2001</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -10196,21 +10312,21 @@
       <c r="AP5" s="2"/>
     </row>
     <row r="6" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10235,21 +10351,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10274,26 +10390,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:51" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2001</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:51" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -10838,21 +10954,21 @@
       <c r="AP20" s="2"/>
     </row>
     <row r="21" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
@@ -10971,21 +11087,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -10999,21 +11115,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -11027,21 +11143,21 @@
       <c r="X3" s="8"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2008</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -11081,21 +11197,21 @@
       <c r="X5" s="8"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -11116,21 +11232,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -11151,26 +11267,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2008</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -11743,21 +11859,21 @@
     </row>
     <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -11888,21 +12004,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -11916,21 +12032,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -11944,21 +12060,21 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2009</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -11998,21 +12114,21 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12033,21 +12149,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12068,26 +12184,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2009</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -12660,21 +12776,21 @@
     </row>
     <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -12806,21 +12922,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -12830,21 +12946,21 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -12854,21 +12970,21 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2010</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -12900,21 +13016,21 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12935,21 +13051,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12970,26 +13086,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2010</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -13557,21 +13673,21 @@
     </row>
     <row r="20" spans="1:103" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:103" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:103" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -13700,55 +13816,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2011</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -13766,21 +13882,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -13801,21 +13917,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -13836,26 +13952,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2011</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -14416,21 +14532,21 @@
     </row>
     <row r="20" spans="1:95" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:95" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:95" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -14561,55 +14677,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2012</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -14627,21 +14743,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -14662,21 +14778,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14697,26 +14813,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2012</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -15265,21 +15381,21 @@
     </row>
     <row r="20" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:83" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -15422,55 +15538,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:30" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:30" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:30" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="99">
+      <c r="A4" s="100">
         <v>2013</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:30" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -15488,21 +15604,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -15522,21 +15638,21 @@
       <c r="AD6" s="11"/>
     </row>
     <row r="7" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -15556,26 +15672,26 @@
       <c r="AD7" s="11"/>
     </row>
     <row r="8" spans="1:30" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2013</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:30" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -16123,21 +16239,21 @@
     </row>
     <row r="20" spans="1:82" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:82" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
       <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:82" ht="12" customHeight="1" x14ac:dyDescent="0.2">

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -205,10 +205,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var feb 2022 respecto a ene 2022</t>
+    <t>Var mar 2022 respecto a feb 2022</t>
   </si>
   <si>
-    <t>Var feb 2022 respecto a dic 2021</t>
+    <t>Var mar 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -712,6 +712,9 @@
     <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -749,9 +752,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1247,27 +1247,27 @@
       <c r="AH5" s="2"/>
     </row>
     <row r="6" spans="1:34" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1279,27 +1279,27 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:34" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1311,7 +1311,7 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="96" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="76">
@@ -1356,14 +1356,14 @@
       <c r="O8" s="89">
         <v>2021</v>
       </c>
-      <c r="P8" s="104">
+      <c r="P8" s="91">
         <v>2022</v>
       </c>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="91" t="s">
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="91" t="s">
+      <c r="S8" s="92" t="s">
         <v>37</v>
       </c>
       <c r="T8" s="2"/>
@@ -1371,7 +1371,7 @@
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
       </c>
@@ -1415,13 +1415,13 @@
         <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
+        <v>8</v>
+      </c>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -1473,18 +1473,18 @@
         <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>812252</v>
+        <v>825829</v>
       </c>
       <c r="Q10" s="39">
-        <v>825829</v>
+        <v>814027</v>
       </c>
       <c r="R10" s="39">
         <f>Q10-P10</f>
-        <v>13577</v>
+        <v>-11802</v>
       </c>
       <c r="S10" s="39">
         <f>Q10-O10</f>
-        <v>59416</v>
+        <v>47614</v>
       </c>
       <c r="T10" s="77"/>
       <c r="U10" s="11"/>
@@ -1537,18 +1537,18 @@
         <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4252334</v>
+        <v>4259945</v>
       </c>
       <c r="Q11" s="39">
-        <v>4259945</v>
+        <v>4264392</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>7611</v>
+        <v>4447</v>
       </c>
       <c r="S11" s="39">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>-30178</v>
+        <v>-25731</v>
       </c>
       <c r="T11" s="77"/>
       <c r="U11" s="11"/>
@@ -1601,18 +1601,18 @@
         <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1626627</v>
+        <v>1652925</v>
       </c>
       <c r="Q12" s="39">
-        <v>1652925</v>
+        <v>1649530</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>26298</v>
+        <v>-3395</v>
       </c>
       <c r="S12" s="39">
         <f t="shared" si="1"/>
-        <v>61058</v>
+        <v>57663</v>
       </c>
       <c r="T12" s="77"/>
       <c r="U12" s="11"/>
@@ -1665,18 +1665,18 @@
         <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>148138</v>
+        <v>148246</v>
       </c>
       <c r="Q13" s="39">
-        <v>148246</v>
+        <v>149099</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>853</v>
       </c>
       <c r="S13" s="39">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>895</v>
       </c>
       <c r="T13" s="77"/>
       <c r="U13" s="11"/>
@@ -1729,18 +1729,18 @@
         <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>5782457</v>
+        <v>5849362</v>
       </c>
       <c r="Q14" s="39">
-        <v>5849362</v>
+        <v>5896336</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>66905</v>
+        <v>46974</v>
       </c>
       <c r="S14" s="39">
         <f t="shared" si="1"/>
-        <v>136542</v>
+        <v>183516</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1790,18 +1790,18 @@
         <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>131009</v>
+        <v>131205</v>
       </c>
       <c r="Q15" s="39">
-        <v>131205</v>
+        <v>131729</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>524</v>
       </c>
       <c r="S15" s="39">
         <f t="shared" si="1"/>
-        <v>1573</v>
+        <v>2097</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="11"/>
@@ -1854,18 +1854,18 @@
         <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6656165</v>
+        <v>6711635</v>
       </c>
       <c r="Q16" s="39">
-        <v>6711635</v>
+        <v>6734320</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>55470</v>
+        <v>22685</v>
       </c>
       <c r="S16" s="39">
         <f t="shared" si="1"/>
-        <v>76777</v>
+        <v>99462</v>
       </c>
       <c r="T16" s="77"/>
       <c r="U16" s="11"/>
@@ -1918,18 +1918,18 @@
         <v>1346231</v>
       </c>
       <c r="P17" s="39">
-        <v>1353437</v>
+        <v>1362139</v>
       </c>
       <c r="Q17" s="39">
-        <v>1362139</v>
+        <v>1366419</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" si="0"/>
-        <v>8702</v>
+        <v>4280</v>
       </c>
       <c r="S17" s="39">
         <f t="shared" si="1"/>
-        <v>15908</v>
+        <v>20188</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="11"/>
@@ -1997,19 +1997,19 @@
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>20762419</v>
+        <v>20941286</v>
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>20941286</v>
+        <v>21005852</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>178867</v>
+        <v>64566</v>
       </c>
       <c r="S18" s="88">
         <f>SUM(S10:S17)</f>
-        <v>321138</v>
+        <v>385704</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="2"/>
@@ -2039,27 +2039,27 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
     </row>
     <row r="21" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="79"/>
@@ -2149,55 +2149,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2014</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -2215,21 +2215,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -2242,21 +2242,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -2269,26 +2269,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2014</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -2829,21 +2829,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -2949,55 +2949,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2015</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -3015,21 +3015,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3042,21 +3042,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3069,26 +3069,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2015</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -3629,21 +3629,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -3743,55 +3743,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2016</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -3809,21 +3809,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3836,21 +3836,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3863,26 +3863,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2016</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -4423,21 +4423,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -4537,55 +4537,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2017</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -4603,21 +4603,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4630,21 +4630,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -4657,26 +4657,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2017</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -5217,21 +5217,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -5331,55 +5331,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2018</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -5397,21 +5397,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -5424,21 +5424,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -5451,26 +5451,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2018</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -6014,21 +6014,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -6128,55 +6128,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2019</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -6194,21 +6194,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -6221,21 +6221,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -6248,26 +6248,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2019</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -6811,21 +6811,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -6968,55 +6968,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2020</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -7034,21 +7034,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7061,21 +7061,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -7088,26 +7088,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2020</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -7651,21 +7651,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -7809,55 +7809,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2021</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -7875,21 +7875,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7902,21 +7902,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -7929,26 +7929,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2021</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -8492,21 +8492,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -8621,7 +8621,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8650,55 +8650,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2022</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -8716,21 +8716,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -8743,21 +8743,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -8770,26 +8770,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2022</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -8837,7 +8837,9 @@
       <c r="C10" s="39">
         <v>825829</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="39">
+        <v>814027</v>
+      </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
@@ -8858,7 +8860,9 @@
       <c r="C11" s="39">
         <v>4259945</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="39">
+        <v>4264392</v>
+      </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
@@ -8879,7 +8883,9 @@
       <c r="C12" s="39">
         <v>1652925</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="39">
+        <v>1649530</v>
+      </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
@@ -8900,7 +8906,9 @@
       <c r="C13" s="39">
         <v>148246</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="39">
+        <v>149099</v>
+      </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -8921,7 +8929,9 @@
       <c r="C14" s="39">
         <v>5849362</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="39">
+        <v>5896336</v>
+      </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
@@ -8947,7 +8957,9 @@
       <c r="C15" s="39">
         <v>131205</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="39">
+        <v>131729</v>
+      </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -8968,7 +8980,9 @@
       <c r="C16" s="39">
         <v>6711635</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="39">
+        <v>6734320</v>
+      </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -8989,7 +9003,9 @@
       <c r="C17" s="39">
         <v>1362139</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="39">
+        <v>1366419</v>
+      </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -9014,7 +9030,7 @@
       </c>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21005852</v>
       </c>
       <c r="E18" s="28">
         <f t="shared" si="0"/>
@@ -9067,11 +9083,11 @@
       </c>
       <c r="D19" s="75">
         <f>+(D18-C18)/C18*100</f>
+        <v>0.3083191739036466</v>
+      </c>
+      <c r="E19" s="75">
+        <f>+(E18-D18)/D18*100</f>
         <v>-100</v>
-      </c>
-      <c r="E19" s="75" t="e">
-        <f>+(E18-D18)/D18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="75" t="e">
         <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
@@ -9173,21 +9189,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -9329,55 +9345,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:35" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:35" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:35" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2000</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
@@ -9392,21 +9408,21 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -9431,21 +9447,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -9470,26 +9486,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2000</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:35" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -9973,21 +9989,21 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
@@ -10106,21 +10122,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:51" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -10161,21 +10177,21 @@
       <c r="AY2" s="4"/>
     </row>
     <row r="3" spans="1:51" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
@@ -10216,21 +10232,21 @@
       <c r="AY3" s="8"/>
     </row>
     <row r="4" spans="1:51" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2001</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -10312,21 +10328,21 @@
       <c r="AP5" s="2"/>
     </row>
     <row r="6" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10351,21 +10367,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10390,26 +10406,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:51" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2001</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:51" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -10954,21 +10970,21 @@
       <c r="AP20" s="2"/>
     </row>
     <row r="21" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
@@ -11087,21 +11103,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -11115,21 +11131,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -11143,21 +11159,21 @@
       <c r="X3" s="8"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2008</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -11197,21 +11213,21 @@
       <c r="X5" s="8"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -11232,21 +11248,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -11267,26 +11283,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2008</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -11859,21 +11875,21 @@
     </row>
     <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -12004,21 +12020,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -12032,21 +12048,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -12060,21 +12076,21 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2009</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -12114,21 +12130,21 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12149,21 +12165,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12184,26 +12200,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2009</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -12776,21 +12792,21 @@
     </row>
     <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -12922,21 +12938,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -12946,21 +12962,21 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -12970,21 +12986,21 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2010</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -13016,21 +13032,21 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -13051,21 +13067,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -13086,26 +13102,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2010</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -13673,21 +13689,21 @@
     </row>
     <row r="20" spans="1:103" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:103" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:103" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -13816,55 +13832,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2011</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -13882,21 +13898,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -13917,21 +13933,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -13952,26 +13968,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2011</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -14532,21 +14548,21 @@
     </row>
     <row r="20" spans="1:95" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:95" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:95" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -14677,55 +14693,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2012</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -14743,21 +14759,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -14778,21 +14794,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14813,26 +14829,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2012</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -15381,21 +15397,21 @@
     </row>
     <row r="20" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:83" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -15538,55 +15554,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:30" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:30" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:30" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="101">
         <v>2013</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:30" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -15604,21 +15620,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -15638,21 +15654,21 @@
       <c r="AD6" s="11"/>
     </row>
     <row r="7" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -15672,26 +15688,26 @@
       <c r="AD7" s="11"/>
     </row>
     <row r="8" spans="1:30" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2013</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:30" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -16239,21 +16255,21 @@
     </row>
     <row r="20" spans="1:82" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:82" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
       <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:82" ht="12" customHeight="1" x14ac:dyDescent="0.2">

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Gral 08-22" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="39">
   <si>
     <t>Construcción</t>
   </si>
@@ -205,10 +205,13 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var mar 2022 respecto a feb 2022</t>
+    <t xml:space="preserve">Abr </t>
   </si>
   <si>
-    <t>Var mar 2022 respecto a dic 2021</t>
+    <t>Var abr 2022 respecto a mar 2022</t>
+  </si>
+  <si>
+    <t>Var abr 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -1075,18 +1078,18 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="Q10" sqref="Q10:Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="19" width="8.7109375" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="34" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="19" width="8.75" customWidth="1"/>
+    <col min="20" max="20" width="14.625" customWidth="1"/>
+    <col min="21" max="34" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -1096,7 +1099,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
@@ -1134,7 +1137,7 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1175,7 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
     </row>
-    <row r="4" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="5" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +1213,7 @@
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
     </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1246,7 +1249,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:34" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -1278,7 +1281,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="1:34" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="s">
         <v>34</v>
       </c>
@@ -1310,7 +1313,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>4</v>
       </c>
@@ -1361,16 +1364,16 @@
       </c>
       <c r="Q8" s="91"/>
       <c r="R8" s="92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S8" s="92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="97"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
@@ -1415,10 +1418,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -1426,7 +1429,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:34" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" s="10" customFormat="1" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
         <v>19</v>
       </c>
@@ -1473,24 +1476,24 @@
         <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>825829</v>
+        <v>814027</v>
       </c>
       <c r="Q10" s="39">
-        <v>814027</v>
+        <v>792012</v>
       </c>
       <c r="R10" s="39">
         <f>Q10-P10</f>
-        <v>-11802</v>
+        <v>-22015</v>
       </c>
       <c r="S10" s="39">
         <f>Q10-O10</f>
-        <v>47614</v>
+        <v>25599</v>
       </c>
       <c r="T10" s="77"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" s="10" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>1</v>
       </c>
@@ -1537,24 +1540,24 @@
         <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4259945</v>
+        <v>4264392</v>
       </c>
       <c r="Q11" s="39">
-        <v>4264392</v>
+        <v>4276713</v>
       </c>
       <c r="R11" s="39">
-        <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>4447</v>
+        <f>Q11-P11</f>
+        <v>12321</v>
       </c>
       <c r="S11" s="39">
-        <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>-25731</v>
+        <f>Q11-O11</f>
+        <v>-13410</v>
       </c>
       <c r="T11" s="77"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" s="10" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="71" t="s">
         <v>33</v>
       </c>
@@ -1601,24 +1604,24 @@
         <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1652925</v>
+        <v>1649530</v>
       </c>
       <c r="Q12" s="39">
-        <v>1649530</v>
+        <v>1642251</v>
       </c>
       <c r="R12" s="39">
-        <f t="shared" si="0"/>
-        <v>-3395</v>
+        <f>Q12-P12</f>
+        <v>-7279</v>
       </c>
       <c r="S12" s="39">
-        <f t="shared" si="1"/>
-        <v>57663</v>
+        <f>Q12-O12</f>
+        <v>50384</v>
       </c>
       <c r="T12" s="77"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="13" spans="1:34" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" s="10" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
         <v>22</v>
       </c>
@@ -1665,18 +1668,18 @@
         <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>148246</v>
+        <v>149099</v>
       </c>
       <c r="Q13" s="39">
-        <v>149099</v>
+        <v>149200</v>
       </c>
       <c r="R13" s="39">
-        <f t="shared" si="0"/>
-        <v>853</v>
+        <f>Q13-P13</f>
+        <v>101</v>
       </c>
       <c r="S13" s="39">
-        <f t="shared" si="1"/>
-        <v>895</v>
+        <f>Q13-O13</f>
+        <v>996</v>
       </c>
       <c r="T13" s="77"/>
       <c r="U13" s="11"/>
@@ -1729,18 +1732,18 @@
         <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>5849362</v>
+        <v>5896336</v>
       </c>
       <c r="Q14" s="39">
-        <v>5896336</v>
+        <v>5896735</v>
       </c>
       <c r="R14" s="39">
-        <f t="shared" si="0"/>
-        <v>46974</v>
+        <f>Q14-P14</f>
+        <v>399</v>
       </c>
       <c r="S14" s="39">
-        <f t="shared" si="1"/>
-        <v>183516</v>
+        <f>Q14-O14</f>
+        <v>183915</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1790,18 +1793,18 @@
         <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>131205</v>
+        <v>131729</v>
       </c>
       <c r="Q15" s="39">
-        <v>131729</v>
+        <v>129724</v>
       </c>
       <c r="R15" s="39">
-        <f t="shared" si="0"/>
-        <v>524</v>
+        <f>Q15-P15</f>
+        <v>-2005</v>
       </c>
       <c r="S15" s="39">
-        <f t="shared" si="1"/>
-        <v>2097</v>
+        <f>Q15-O15</f>
+        <v>92</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="11"/>
@@ -1854,18 +1857,18 @@
         <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6711635</v>
+        <v>6734320</v>
       </c>
       <c r="Q16" s="39">
-        <v>6734320</v>
+        <v>6753304</v>
       </c>
       <c r="R16" s="39">
-        <f t="shared" si="0"/>
-        <v>22685</v>
+        <f>Q16-P16</f>
+        <v>18984</v>
       </c>
       <c r="S16" s="39">
-        <f t="shared" si="1"/>
-        <v>99462</v>
+        <f>Q16-O16</f>
+        <v>118446</v>
       </c>
       <c r="T16" s="77"/>
       <c r="U16" s="11"/>
@@ -1918,24 +1921,24 @@
         <v>1346231</v>
       </c>
       <c r="P17" s="39">
-        <v>1362139</v>
+        <v>1366419</v>
       </c>
       <c r="Q17" s="39">
-        <v>1366419</v>
+        <v>1371403</v>
       </c>
       <c r="R17" s="39">
-        <f t="shared" si="0"/>
-        <v>4280</v>
+        <f t="shared" ref="R17" si="0">Q17-P17</f>
+        <v>4984</v>
       </c>
       <c r="S17" s="39">
-        <f t="shared" si="1"/>
-        <v>20188</v>
+        <f t="shared" ref="S17" si="1">Q17-O17</f>
+        <v>25172</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
     </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>3</v>
       </c>
@@ -1997,24 +2000,24 @@
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>20941286</v>
+        <v>21005852</v>
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21005852</v>
+        <v>21011342</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>64566</v>
+        <v>5490</v>
       </c>
       <c r="S18" s="88">
         <f>SUM(S10:S17)</f>
-        <v>385704</v>
+        <v>391194</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:22" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2061,7 +2064,7 @@
       <c r="R20" s="95"/>
       <c r="S20" s="95"/>
     </row>
-    <row r="21" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
@@ -2123,15 +2126,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -2148,7 +2151,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -2165,7 +2168,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2185,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2014</v>
       </c>
@@ -2214,7 +2217,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -2241,7 +2244,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -2268,7 +2271,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -2287,7 +2290,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -2367,7 +2370,7 @@
         <v>576888</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>3543646</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>1402760</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>147415</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>920137</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>17239587</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -2827,7 +2830,7 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>25</v>
@@ -2845,7 +2848,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2923,15 +2926,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -2948,7 +2951,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -2965,7 +2968,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -2982,7 +2985,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2015</v>
       </c>
@@ -3014,7 +3017,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -3041,7 +3044,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -3068,7 +3071,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -3087,7 +3090,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -3167,7 +3170,7 @@
         <v>613496</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -3208,7 +3211,7 @@
         <v>3663462</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>1444096</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>146817</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>970856</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>17882161</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -3627,7 +3630,7 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>25</v>
@@ -3645,7 +3648,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -3717,15 +3720,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -3742,7 +3745,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -3759,7 +3762,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -3776,7 +3779,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2016</v>
       </c>
@@ -3808,7 +3811,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -3835,7 +3838,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -3862,7 +3865,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -3881,7 +3884,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -3961,7 +3964,7 @@
         <v>655624</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>3811152</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>1490951</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>143941</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>1024297</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>18616624</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -4421,7 +4424,7 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>25</v>
@@ -4439,7 +4442,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -4511,15 +4514,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -4536,7 +4539,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -4553,7 +4556,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +4573,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2017</v>
       </c>
@@ -4602,7 +4605,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -4629,7 +4632,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -4656,7 +4659,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -4675,7 +4678,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -4755,7 +4758,7 @@
         <v>705240</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>3924758</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>1577452</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>144868</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>1092588</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -5100,7 +5103,7 @@
         <v>19418455</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -5215,7 +5218,7 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>25</v>
@@ -5233,7 +5236,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -5305,15 +5308,15 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -5330,7 +5333,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -5347,7 +5350,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -5364,7 +5367,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2018</v>
       </c>
@@ -5396,7 +5399,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -5423,7 +5426,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -5450,7 +5453,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -5469,7 +5472,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -5549,7 +5552,7 @@
         <v>736854</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>4046072</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -5631,7 +5634,7 @@
         <v>1587298</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -5672,7 +5675,7 @@
         <v>145917</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -5841,7 +5844,7 @@
         <v>1150983</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>20079365</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -6009,7 +6012,7 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
@@ -6030,7 +6033,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6102,15 +6105,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -6127,7 +6130,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -6144,7 +6147,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -6161,7 +6164,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2019</v>
       </c>
@@ -6193,7 +6196,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -6220,7 +6223,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -6247,7 +6250,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -6266,7 +6269,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -6346,7 +6349,7 @@
         <v>747527</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -6387,7 +6390,7 @@
         <v>4143292</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>1574128</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -6469,7 +6472,7 @@
         <v>146299</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>1215181</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -6691,7 +6694,7 @@
         <v>20421442</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -6806,7 +6809,7 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
@@ -6827,7 +6830,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6942,15 +6945,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -6967,7 +6970,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -6984,7 +6987,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -7001,7 +7004,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2020</v>
       </c>
@@ -7033,7 +7036,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -7060,7 +7063,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -7087,7 +7090,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -7106,7 +7109,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -7186,7 +7189,7 @@
         <v>757997</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>4040863</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>1487563</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>146801</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>1213211</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -7531,7 +7534,7 @@
         <v>19773732</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -7646,7 +7649,7 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
@@ -7667,7 +7670,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -7783,15 +7786,15 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -7808,7 +7811,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -7825,7 +7828,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -7842,7 +7845,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2021</v>
       </c>
@@ -7874,7 +7877,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -7901,7 +7904,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -7928,7 +7931,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -7947,7 +7950,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -8027,7 +8030,7 @@
         <v>766413</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -8068,7 +8071,7 @@
         <v>4290123</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -8109,7 +8112,7 @@
         <v>1591867</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -8150,7 +8153,7 @@
         <v>148204</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -8319,7 +8322,7 @@
         <v>1346231</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -8372,7 +8375,7 @@
         <v>20620148</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -8487,7 +8490,7 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
@@ -8508,7 +8511,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -8621,18 +8624,18 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="E10" sqref="E10:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -8649,7 +8652,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -8666,7 +8669,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -8683,7 +8686,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2022</v>
       </c>
@@ -8715,7 +8718,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -8742,7 +8745,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -8769,7 +8772,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -8788,7 +8791,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -8840,7 +8843,9 @@
       <c r="D10" s="39">
         <v>814027</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="39">
+        <v>792012</v>
+      </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
@@ -8850,7 +8855,7 @@
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -8863,7 +8868,9 @@
       <c r="D11" s="39">
         <v>4264392</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="39">
+        <v>4276713</v>
+      </c>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -8873,7 +8880,7 @@
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -8886,7 +8893,9 @@
       <c r="D12" s="39">
         <v>1649530</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="39">
+        <v>1642251</v>
+      </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
@@ -8896,7 +8905,7 @@
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -8909,7 +8918,9 @@
       <c r="D13" s="39">
         <v>149099</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="39">
+        <v>149200</v>
+      </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
@@ -8919,7 +8930,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -8932,7 +8943,9 @@
       <c r="D14" s="39">
         <v>5896336</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="39">
+        <v>5896735</v>
+      </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
@@ -8960,7 +8973,9 @@
       <c r="D15" s="39">
         <v>131729</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="39">
+        <v>129724</v>
+      </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
@@ -8983,7 +8998,9 @@
       <c r="D16" s="39">
         <v>6734320</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="39">
+        <v>6753304</v>
+      </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
@@ -9006,7 +9023,9 @@
       <c r="D17" s="39">
         <v>1366419</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="39">
+        <v>1371403</v>
+      </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
@@ -9016,7 +9035,7 @@
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -9034,42 +9053,42 @@
       </c>
       <c r="E18" s="28">
         <f t="shared" si="0"/>
+        <v>21011342</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="28">
+      <c r="G18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="28">
+      <c r="H18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="28">
+      <c r="I18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="28">
+      <c r="J18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="28">
+      <c r="K18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="28">
+      <c r="L18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="28">
+      <c r="M18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -9087,11 +9106,11 @@
       </c>
       <c r="E19" s="75">
         <f>+(E18-D18)/D18*100</f>
+        <v>2.6135574029560904E-2</v>
+      </c>
+      <c r="F19" s="75">
+        <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
         <v>-100</v>
-      </c>
-      <c r="F19" s="75" t="e">
-        <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="G19" s="75" t="e">
         <f t="shared" si="1"/>
@@ -9184,7 +9203,7 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
@@ -9205,7 +9224,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -9324,13 +9343,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="13" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="13" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -9344,7 +9363,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:35" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -9361,7 +9380,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -9378,7 +9397,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:35" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2000</v>
       </c>
@@ -9395,7 +9414,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -9407,7 +9426,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
         <v>29</v>
       </c>
@@ -9446,7 +9465,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
@@ -9485,7 +9504,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="6" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -9504,7 +9523,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:35" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="6" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
@@ -9707,7 +9726,7 @@
         <v>894257</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="29" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="29" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -9871,7 +9890,7 @@
         <v>3604619</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="6" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -9924,7 +9943,7 @@
         <v>12437760</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -9974,7 +9993,7 @@
         <v>-2.6589992388190691</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="6.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="21"/>
       <c r="D20" s="2"/>
@@ -10035,7 +10054,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="8.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -10100,14 +10119,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="42" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="13" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="42" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -10121,7 +10140,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:51" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -10176,7 +10195,7 @@
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="1:51" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -10231,7 +10250,7 @@
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
     </row>
-    <row r="4" spans="1:51" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2001</v>
       </c>
@@ -10286,7 +10305,7 @@
       <c r="AX4" s="8"/>
       <c r="AY4" s="8"/>
     </row>
-    <row r="5" spans="1:51" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -10327,7 +10346,7 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
         <v>29</v>
       </c>
@@ -10366,7 +10385,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
@@ -10405,7 +10424,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:51" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" s="6" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -10424,7 +10443,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:51" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" s="6" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
@@ -10627,7 +10646,7 @@
         <v>868267</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="29" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" s="29" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -10791,7 +10810,7 @@
         <v>3685113</v>
       </c>
     </row>
-    <row r="18" spans="1:42" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" s="6" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -10844,7 +10863,7 @@
         <v>12170945</v>
       </c>
     </row>
-    <row r="19" spans="1:42" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" s="1" customFormat="1" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -10926,7 +10945,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="21"/>
       <c r="D20" s="2"/>
@@ -11016,7 +11035,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:42" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" ht="8.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.2">
@@ -11081,14 +11100,14 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="24" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="24" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -11102,7 +11121,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -11130,7 +11149,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -11158,7 +11177,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2008</v>
       </c>
@@ -11212,7 +11231,7 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -11247,7 +11266,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -11282,7 +11301,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="1" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -11301,7 +11320,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="1" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -11340,7 +11359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -11381,7 +11400,7 @@
         <v>458308</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="31" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -11422,7 +11441,7 @@
         <v>2924150</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" s="31" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -11463,7 +11482,7 @@
         <v>1099436</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="31" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="31" customFormat="1" ht="22.45" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -11504,7 +11523,7 @@
         <v>171728</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -11550,7 +11569,7 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -11591,7 +11610,7 @@
         <v>94703</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -11632,7 +11651,7 @@
         <v>5046744</v>
       </c>
     </row>
-    <row r="17" spans="1:107" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:107" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -11673,7 +11692,7 @@
         <v>765127</v>
       </c>
     </row>
-    <row r="18" spans="1:107" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:107" s="1" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -11726,7 +11745,7 @@
         <v>14178117</v>
       </c>
     </row>
-    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -11873,7 +11892,7 @@
       <c r="DB19" s="17"/>
       <c r="DC19" s="17"/>
     </row>
-    <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:107" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>25</v>
@@ -11891,7 +11910,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:107" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -11998,14 +12017,14 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="24" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="24" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -12019,7 +12038,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -12047,7 +12066,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -12075,7 +12094,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2009</v>
       </c>
@@ -12129,7 +12148,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -12164,7 +12183,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -12199,7 +12218,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -12218,7 +12237,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -12257,7 +12276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -12298,7 +12317,7 @@
         <v>464568</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -12339,7 +12358,7 @@
         <v>2905074</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -12380,7 +12399,7 @@
         <v>1042576</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.45" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -12421,7 +12440,7 @@
         <v>129759</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -12467,7 +12486,7 @@
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -12508,7 +12527,7 @@
         <v>103655</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -12549,7 +12568,7 @@
         <v>5109194</v>
       </c>
     </row>
-    <row r="17" spans="1:107" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:107" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -12590,7 +12609,7 @@
         <v>747184</v>
       </c>
     </row>
-    <row r="18" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:107" s="24" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -12643,7 +12662,7 @@
         <v>14006404</v>
       </c>
     </row>
-    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -12790,7 +12809,7 @@
       <c r="DB19" s="17"/>
       <c r="DC19" s="17"/>
     </row>
-    <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:107" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>25</v>
@@ -12808,7 +12827,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:107" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:107" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -12916,14 +12935,14 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="20" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="20" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -12937,7 +12956,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -12961,7 +12980,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -12985,7 +13004,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2010</v>
       </c>
@@ -13031,7 +13050,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -13066,7 +13085,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -13101,7 +13120,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -13120,7 +13139,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -13159,7 +13178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -13200,7 +13219,7 @@
         <v>481216</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -13241,7 +13260,7 @@
         <v>3042080</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -13282,7 +13301,7 @@
         <v>1128106</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.45" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -13323,7 +13342,7 @@
         <v>143946</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -13369,7 +13388,7 @@
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -13410,7 +13429,7 @@
         <v>104706</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -13451,7 +13470,7 @@
         <v>5287823</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:103" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -13492,7 +13511,7 @@
         <v>772019</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:103" s="24" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -13545,7 +13564,7 @@
         <v>14738783</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:103" s="16" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -13687,7 +13706,7 @@
       <c r="CX19" s="17"/>
       <c r="CY19" s="17"/>
     </row>
-    <row r="20" spans="1:103" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:103" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:103" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>25</v>
@@ -13705,7 +13724,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:103" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:103" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -13811,13 +13830,13 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="13" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="13" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -13831,7 +13850,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -13848,7 +13867,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -13865,7 +13884,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2011</v>
       </c>
@@ -13897,7 +13916,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -13932,7 +13951,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -13967,7 +13986,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -13986,7 +14005,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -14025,7 +14044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -14066,7 +14085,7 @@
         <v>513080</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -14107,7 +14126,7 @@
         <v>3188378</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -14148,7 +14167,7 @@
         <v>1183722</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.45" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -14189,7 +14208,7 @@
         <v>148490</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -14235,7 +14254,7 @@
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -14276,7 +14295,7 @@
         <v>117450</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -14317,7 +14336,7 @@
         <v>5444181</v>
       </c>
     </row>
-    <row r="17" spans="1:95" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:95" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -14358,7 +14377,7 @@
         <v>817879</v>
       </c>
     </row>
-    <row r="18" spans="1:95" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:95" s="24" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -14411,7 +14430,7 @@
         <v>15350335</v>
       </c>
     </row>
-    <row r="19" spans="1:95" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:95" s="16" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -14546,7 +14565,7 @@
       <c r="CP19" s="17"/>
       <c r="CQ19" s="17"/>
     </row>
-    <row r="20" spans="1:95" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:95" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:95" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>25</v>
@@ -14564,7 +14583,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:95" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:95" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -14670,15 +14689,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="12" width="8.42578125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="3" width="8.375" customWidth="1"/>
+    <col min="4" max="12" width="8.375" style="33" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -14692,7 +14711,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -14709,7 +14728,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -14726,7 +14745,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2012</v>
       </c>
@@ -14758,7 +14777,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -14793,7 +14812,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -14828,7 +14847,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -14847,7 +14866,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -14886,7 +14905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -14927,7 +14946,7 @@
         <v>538558</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -14968,7 +14987,7 @@
         <v>3349750</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -15009,7 +15028,7 @@
         <v>1241453</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.45" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -15050,7 +15069,7 @@
         <v>150911</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -15096,7 +15115,7 @@
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -15137,7 +15156,7 @@
         <v>132729</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -15178,7 +15197,7 @@
         <v>5666232</v>
       </c>
     </row>
-    <row r="17" spans="1:83" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:83" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -15219,7 +15238,7 @@
         <v>848162</v>
       </c>
     </row>
-    <row r="18" spans="1:83" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:83" s="24" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -15272,7 +15291,7 @@
         <v>16062043</v>
       </c>
     </row>
-    <row r="19" spans="1:83" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:83" s="16" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -15395,7 +15414,7 @@
       <c r="CD19" s="17"/>
       <c r="CE19" s="17"/>
     </row>
-    <row r="20" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:83" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>25</v>
@@ -15413,7 +15432,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:83" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:83" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -15528,15 +15547,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.42578125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="60" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -15553,7 +15572,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:30" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -15570,7 +15589,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:30" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -15587,7 +15606,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:30" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>2013</v>
       </c>
@@ -15619,7 +15638,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -15653,7 +15672,7 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -15687,7 +15706,7 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="1:30" s="63" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -15706,7 +15725,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:30" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -15786,7 +15805,7 @@
         <v>546437</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -15827,7 +15846,7 @@
         <v>3440676</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -15868,7 +15887,7 @@
         <v>1266891</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="63" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -15909,7 +15928,7 @@
         <v>149282</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -16078,7 +16097,7 @@
         <v>873622</v>
       </c>
     </row>
-    <row r="18" spans="1:82" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -16131,7 +16150,7 @@
         <v>16525061</v>
       </c>
     </row>
-    <row r="19" spans="1:82" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:82" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -16253,7 +16272,7 @@
       <c r="CC19" s="65"/>
       <c r="CD19" s="65"/>
     </row>
-    <row r="20" spans="1:82" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:82" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:82" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>25</v>
@@ -16272,7 +16291,7 @@
       <c r="M21" s="95"/>
       <c r="N21" s="63"/>
     </row>
-    <row r="22" spans="1:82" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:82" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -208,10 +208,10 @@
     <t xml:space="preserve">Abr </t>
   </si>
   <si>
-    <t>Var abr 2022 respecto a mar 2022</t>
+    <t>Var may 2022 respecto a abr 2022</t>
   </si>
   <si>
-    <t>Var abr 2022 respecto a dic 2021</t>
+    <t>Var may 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q17"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -1476,18 +1476,18 @@
         <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>814027</v>
+        <v>792012</v>
       </c>
       <c r="Q10" s="39">
-        <v>792012</v>
+        <v>748111</v>
       </c>
       <c r="R10" s="39">
-        <f>Q10-P10</f>
-        <v>-22015</v>
+        <f t="shared" ref="R10:R16" si="0">Q10-P10</f>
+        <v>-43901</v>
       </c>
       <c r="S10" s="39">
-        <f>Q10-O10</f>
-        <v>25599</v>
+        <f t="shared" ref="S10:S16" si="1">Q10-O10</f>
+        <v>-18302</v>
       </c>
       <c r="T10" s="77"/>
       <c r="U10" s="11"/>
@@ -1540,18 +1540,18 @@
         <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4264392</v>
+        <v>4276713</v>
       </c>
       <c r="Q11" s="39">
-        <v>4276713</v>
+        <v>4287419</v>
       </c>
       <c r="R11" s="39">
-        <f>Q11-P11</f>
-        <v>12321</v>
+        <f t="shared" si="0"/>
+        <v>10706</v>
       </c>
       <c r="S11" s="39">
-        <f>Q11-O11</f>
-        <v>-13410</v>
+        <f t="shared" si="1"/>
+        <v>-2704</v>
       </c>
       <c r="T11" s="77"/>
       <c r="U11" s="11"/>
@@ -1604,18 +1604,18 @@
         <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1649530</v>
+        <v>1642251</v>
       </c>
       <c r="Q12" s="39">
-        <v>1642251</v>
+        <v>1646245</v>
       </c>
       <c r="R12" s="39">
-        <f>Q12-P12</f>
-        <v>-7279</v>
+        <f t="shared" si="0"/>
+        <v>3994</v>
       </c>
       <c r="S12" s="39">
-        <f>Q12-O12</f>
-        <v>50384</v>
+        <f t="shared" si="1"/>
+        <v>54378</v>
       </c>
       <c r="T12" s="77"/>
       <c r="U12" s="11"/>
@@ -1668,18 +1668,18 @@
         <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>149099</v>
+        <v>149200</v>
       </c>
       <c r="Q13" s="39">
-        <v>149200</v>
+        <v>148478</v>
       </c>
       <c r="R13" s="39">
-        <f>Q13-P13</f>
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>-722</v>
       </c>
       <c r="S13" s="39">
-        <f>Q13-O13</f>
-        <v>996</v>
+        <f t="shared" si="1"/>
+        <v>274</v>
       </c>
       <c r="T13" s="77"/>
       <c r="U13" s="11"/>
@@ -1732,18 +1732,18 @@
         <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>5896336</v>
+        <v>5896735</v>
       </c>
       <c r="Q14" s="39">
-        <v>5896735</v>
+        <v>5895262</v>
       </c>
       <c r="R14" s="39">
-        <f>Q14-P14</f>
-        <v>399</v>
+        <f t="shared" si="0"/>
+        <v>-1473</v>
       </c>
       <c r="S14" s="39">
-        <f>Q14-O14</f>
-        <v>183915</v>
+        <f t="shared" si="1"/>
+        <v>182442</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1793,18 +1793,18 @@
         <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>131729</v>
+        <v>129724</v>
       </c>
       <c r="Q15" s="39">
-        <v>129724</v>
+        <v>129694</v>
       </c>
       <c r="R15" s="39">
-        <f>Q15-P15</f>
-        <v>-2005</v>
+        <f t="shared" si="0"/>
+        <v>-30</v>
       </c>
       <c r="S15" s="39">
-        <f>Q15-O15</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="11"/>
@@ -1857,18 +1857,18 @@
         <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6734320</v>
+        <v>6753304</v>
       </c>
       <c r="Q16" s="39">
-        <v>6753304</v>
+        <v>6766188</v>
       </c>
       <c r="R16" s="39">
-        <f>Q16-P16</f>
-        <v>18984</v>
+        <f t="shared" si="0"/>
+        <v>12884</v>
       </c>
       <c r="S16" s="39">
-        <f>Q16-O16</f>
-        <v>118446</v>
+        <f t="shared" si="1"/>
+        <v>131330</v>
       </c>
       <c r="T16" s="77"/>
       <c r="U16" s="11"/>
@@ -1921,18 +1921,18 @@
         <v>1346231</v>
       </c>
       <c r="P17" s="39">
-        <v>1366419</v>
+        <v>1371403</v>
       </c>
       <c r="Q17" s="39">
-        <v>1371403</v>
+        <v>1387090</v>
       </c>
       <c r="R17" s="39">
-        <f t="shared" ref="R17" si="0">Q17-P17</f>
-        <v>4984</v>
+        <f t="shared" ref="R17" si="2">Q17-P17</f>
+        <v>15687</v>
       </c>
       <c r="S17" s="39">
-        <f t="shared" ref="S17" si="1">Q17-O17</f>
-        <v>25172</v>
+        <f t="shared" ref="S17" si="3">Q17-O17</f>
+        <v>40859</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="11"/>
@@ -1943,76 +1943,76 @@
         <v>3</v>
       </c>
       <c r="B18" s="57">
-        <f t="shared" ref="B18:O18" si="2">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:O18" si="4">SUM(B10:B17)</f>
         <v>14178117</v>
       </c>
       <c r="C18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14006404</v>
       </c>
       <c r="D18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14738783</v>
       </c>
       <c r="E18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15350335</v>
       </c>
       <c r="F18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16062043</v>
       </c>
       <c r="G18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16525061</v>
       </c>
       <c r="H18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17239587</v>
       </c>
       <c r="I18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17882161</v>
       </c>
       <c r="J18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18616624</v>
       </c>
       <c r="K18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19418455</v>
       </c>
       <c r="L18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20079365</v>
       </c>
       <c r="M18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20421442</v>
       </c>
       <c r="N18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19773732</v>
       </c>
       <c r="O18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20620148</v>
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>21005852</v>
+        <v>21011342</v>
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21011342</v>
+        <v>21008487</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>5490</v>
+        <v>-2855</v>
       </c>
       <c r="S18" s="88">
         <f>SUM(S10:S17)</f>
-        <v>391194</v>
+        <v>388339</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="2"/>
@@ -8624,7 +8624,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E17"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8846,7 +8846,9 @@
       <c r="E10" s="39">
         <v>792012</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39">
+        <v>748111</v>
+      </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
@@ -8871,7 +8873,9 @@
       <c r="E11" s="39">
         <v>4276713</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="39">
+        <v>4287419</v>
+      </c>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -8896,7 +8900,9 @@
       <c r="E12" s="39">
         <v>1642251</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="39">
+        <v>1646245</v>
+      </c>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
@@ -8921,7 +8927,9 @@
       <c r="E13" s="39">
         <v>149200</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="39">
+        <v>148478</v>
+      </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
@@ -8946,7 +8954,9 @@
       <c r="E14" s="39">
         <v>5896735</v>
       </c>
-      <c r="F14" s="39"/>
+      <c r="F14" s="39">
+        <v>5895262</v>
+      </c>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
@@ -8976,7 +8986,9 @@
       <c r="E15" s="39">
         <v>129724</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="39">
+        <v>129694</v>
+      </c>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
@@ -9001,7 +9013,9 @@
       <c r="E16" s="39">
         <v>6753304</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="39">
+        <v>6766188</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
@@ -9026,7 +9040,9 @@
       <c r="E17" s="39">
         <v>1371403</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="39">
+        <v>1387090</v>
+      </c>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
@@ -9057,7 +9073,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21008487</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" si="0"/>
@@ -9110,11 +9126,11 @@
       </c>
       <c r="F19" s="75">
         <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
+        <v>-1.3587899335511269E-2</v>
+      </c>
+      <c r="G19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="G19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="H19" s="75" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="38">
   <si>
     <t>Construcción</t>
   </si>
@@ -205,13 +205,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Abr </t>
+    <t>Var jun 2022 respecto a may 2022</t>
   </si>
   <si>
-    <t>Var may 2022 respecto a abr 2022</t>
-  </si>
-  <si>
-    <t>Var may 2022 respecto a dic 2021</t>
+    <t>Var jun 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1075,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1364,10 +1361,10 @@
       </c>
       <c r="Q8" s="91"/>
       <c r="R8" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="92" t="s">
         <v>37</v>
-      </c>
-      <c r="S8" s="92" t="s">
-        <v>38</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1418,10 +1415,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -1476,18 +1473,18 @@
         <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>792012</v>
+        <v>748111</v>
       </c>
       <c r="Q10" s="39">
-        <v>748111</v>
+        <v>721494</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">Q10-P10</f>
-        <v>-43901</v>
+        <v>-26617</v>
       </c>
       <c r="S10" s="39">
         <f t="shared" ref="S10:S16" si="1">Q10-O10</f>
-        <v>-18302</v>
+        <v>-44919</v>
       </c>
       <c r="T10" s="77"/>
       <c r="U10" s="11"/>
@@ -1540,18 +1537,18 @@
         <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4276713</v>
+        <v>4287419</v>
       </c>
       <c r="Q11" s="39">
-        <v>4287419</v>
+        <v>4307308</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>10706</v>
+        <v>19889</v>
       </c>
       <c r="S11" s="39">
         <f t="shared" si="1"/>
-        <v>-2704</v>
+        <v>17185</v>
       </c>
       <c r="T11" s="77"/>
       <c r="U11" s="11"/>
@@ -1604,18 +1601,18 @@
         <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1642251</v>
+        <v>1646245</v>
       </c>
       <c r="Q12" s="39">
-        <v>1646245</v>
+        <v>1665156</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>3994</v>
+        <v>18911</v>
       </c>
       <c r="S12" s="39">
         <f t="shared" si="1"/>
-        <v>54378</v>
+        <v>73289</v>
       </c>
       <c r="T12" s="77"/>
       <c r="U12" s="11"/>
@@ -1668,18 +1665,18 @@
         <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>149200</v>
+        <v>148478</v>
       </c>
       <c r="Q13" s="39">
-        <v>148478</v>
+        <v>149205</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>-722</v>
+        <v>727</v>
       </c>
       <c r="S13" s="39">
         <f t="shared" si="1"/>
-        <v>274</v>
+        <v>1001</v>
       </c>
       <c r="T13" s="77"/>
       <c r="U13" s="11"/>
@@ -1732,18 +1729,18 @@
         <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>5896735</v>
+        <v>5895262</v>
       </c>
       <c r="Q14" s="39">
-        <v>5895262</v>
+        <v>5902391</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>-1473</v>
+        <v>7129</v>
       </c>
       <c r="S14" s="39">
         <f t="shared" si="1"/>
-        <v>182442</v>
+        <v>189571</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1793,18 +1790,18 @@
         <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>129724</v>
+        <v>129694</v>
       </c>
       <c r="Q15" s="39">
-        <v>129694</v>
+        <v>130064</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>370</v>
       </c>
       <c r="S15" s="39">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>432</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="11"/>
@@ -1857,18 +1854,18 @@
         <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6753304</v>
+        <v>6766188</v>
       </c>
       <c r="Q16" s="39">
-        <v>6766188</v>
+        <v>6798345</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>12884</v>
+        <v>32157</v>
       </c>
       <c r="S16" s="39">
         <f t="shared" si="1"/>
-        <v>131330</v>
+        <v>163487</v>
       </c>
       <c r="T16" s="77"/>
       <c r="U16" s="11"/>
@@ -1921,18 +1918,18 @@
         <v>1346231</v>
       </c>
       <c r="P17" s="39">
-        <v>1371403</v>
+        <v>1387090</v>
       </c>
       <c r="Q17" s="39">
-        <v>1387090</v>
+        <v>1394745</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="2">Q17-P17</f>
-        <v>15687</v>
+        <v>7655</v>
       </c>
       <c r="S17" s="39">
         <f t="shared" ref="S17" si="3">Q17-O17</f>
-        <v>40859</v>
+        <v>48514</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="11"/>
@@ -2000,19 +1997,19 @@
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>21011342</v>
+        <v>21008487</v>
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21008487</v>
+        <v>21068708</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>-2855</v>
+        <v>60221</v>
       </c>
       <c r="S18" s="88">
         <f>SUM(S10:S17)</f>
-        <v>388339</v>
+        <v>448560</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="2"/>
@@ -8624,7 +8621,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="G10" sqref="G10:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8849,7 +8846,9 @@
       <c r="F10" s="39">
         <v>748111</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39">
+        <v>721494</v>
+      </c>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
@@ -8876,7 +8875,9 @@
       <c r="F11" s="39">
         <v>4287419</v>
       </c>
-      <c r="G11" s="39"/>
+      <c r="G11" s="39">
+        <v>4307308</v>
+      </c>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
@@ -8903,7 +8904,9 @@
       <c r="F12" s="39">
         <v>1646245</v>
       </c>
-      <c r="G12" s="39"/>
+      <c r="G12" s="39">
+        <v>1665156</v>
+      </c>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -8930,7 +8933,9 @@
       <c r="F13" s="39">
         <v>148478</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="39">
+        <v>149205</v>
+      </c>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -8957,7 +8962,9 @@
       <c r="F14" s="39">
         <v>5895262</v>
       </c>
-      <c r="G14" s="39"/>
+      <c r="G14" s="39">
+        <v>5902391</v>
+      </c>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
@@ -8989,7 +8996,9 @@
       <c r="F15" s="39">
         <v>129694</v>
       </c>
-      <c r="G15" s="39"/>
+      <c r="G15" s="39">
+        <v>130064</v>
+      </c>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
@@ -9016,7 +9025,9 @@
       <c r="F16" s="39">
         <v>6766188</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39">
+        <v>6798345</v>
+      </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
@@ -9043,7 +9054,9 @@
       <c r="F17" s="39">
         <v>1387090</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="39">
+        <v>1394745</v>
+      </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
@@ -9077,7 +9090,7 @@
       </c>
       <c r="G18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21068708</v>
       </c>
       <c r="H18" s="28">
         <f t="shared" si="0"/>
@@ -9130,11 +9143,11 @@
       </c>
       <c r="G19" s="75">
         <f t="shared" si="1"/>
+        <v>0.28665081878576026</v>
+      </c>
+      <c r="H19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="H19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="I19" s="75" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -205,10 +205,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var jun 2022 respecto a may 2022</t>
+    <t>Var jul 2022 respecto a jun 2022</t>
   </si>
   <si>
-    <t>Var jun 2022 respecto a dic 2021</t>
+    <t>Var jul 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -479,6 +479,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -494,7 +505,7 @@
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -712,6 +723,7 @@
     <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,7 +1087,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1247,27 +1259,27 @@
       <c r="AH5" s="2"/>
     </row>
     <row r="6" spans="1:34" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1279,27 +1291,27 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:34" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1311,7 +1323,7 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="76">
@@ -1356,14 +1368,14 @@
       <c r="O8" s="89">
         <v>2021</v>
       </c>
-      <c r="P8" s="91">
+      <c r="P8" s="92">
         <v>2022</v>
       </c>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="92" t="s">
+      <c r="Q8" s="92"/>
+      <c r="R8" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="92" t="s">
+      <c r="S8" s="93" t="s">
         <v>37</v>
       </c>
       <c r="T8" s="2"/>
@@ -1371,7 +1383,7 @@
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
       </c>
@@ -1415,13 +1427,13 @@
         <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
+        <v>12</v>
+      </c>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -1473,18 +1485,18 @@
         <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>748111</v>
+        <v>721494</v>
       </c>
       <c r="Q10" s="39">
-        <v>721494</v>
+        <v>697672</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">Q10-P10</f>
-        <v>-26617</v>
+        <v>-23822</v>
       </c>
       <c r="S10" s="39">
         <f t="shared" ref="S10:S16" si="1">Q10-O10</f>
-        <v>-44919</v>
+        <v>-68741</v>
       </c>
       <c r="T10" s="77"/>
       <c r="U10" s="11"/>
@@ -1537,18 +1549,18 @@
         <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4287419</v>
+        <v>4307308</v>
       </c>
       <c r="Q11" s="39">
-        <v>4307308</v>
+        <v>4327898</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>19889</v>
+        <v>20590</v>
       </c>
       <c r="S11" s="39">
         <f t="shared" si="1"/>
-        <v>17185</v>
+        <v>37775</v>
       </c>
       <c r="T11" s="77"/>
       <c r="U11" s="11"/>
@@ -1601,18 +1613,18 @@
         <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1646245</v>
+        <v>1665156</v>
       </c>
       <c r="Q12" s="39">
-        <v>1665156</v>
+        <v>1676736</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>18911</v>
+        <v>11580</v>
       </c>
       <c r="S12" s="39">
         <f t="shared" si="1"/>
-        <v>73289</v>
+        <v>84869</v>
       </c>
       <c r="T12" s="77"/>
       <c r="U12" s="11"/>
@@ -1665,18 +1677,18 @@
         <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>148478</v>
+        <v>149205</v>
       </c>
       <c r="Q13" s="39">
-        <v>149205</v>
+        <v>150083</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>727</v>
+        <v>878</v>
       </c>
       <c r="S13" s="39">
         <f t="shared" si="1"/>
-        <v>1001</v>
+        <v>1879</v>
       </c>
       <c r="T13" s="77"/>
       <c r="U13" s="11"/>
@@ -1729,18 +1741,18 @@
         <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>5895262</v>
+        <v>5902391</v>
       </c>
       <c r="Q14" s="39">
-        <v>5902391</v>
+        <v>5920416</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>7129</v>
+        <v>18025</v>
       </c>
       <c r="S14" s="39">
         <f t="shared" si="1"/>
-        <v>189571</v>
+        <v>207596</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1790,18 +1802,18 @@
         <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>129694</v>
+        <v>130064</v>
       </c>
       <c r="Q15" s="39">
-        <v>130064</v>
+        <v>131923</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>1859</v>
       </c>
       <c r="S15" s="39">
         <f t="shared" si="1"/>
-        <v>432</v>
+        <v>2291</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="11"/>
@@ -1854,18 +1866,18 @@
         <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6766188</v>
+        <v>6798345</v>
       </c>
       <c r="Q16" s="39">
-        <v>6798345</v>
+        <v>6774245</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>32157</v>
+        <v>-24100</v>
       </c>
       <c r="S16" s="39">
         <f t="shared" si="1"/>
-        <v>163487</v>
+        <v>139387</v>
       </c>
       <c r="T16" s="77"/>
       <c r="U16" s="11"/>
@@ -1918,18 +1930,18 @@
         <v>1346231</v>
       </c>
       <c r="P17" s="39">
-        <v>1387090</v>
-      </c>
-      <c r="Q17" s="39">
         <v>1394745</v>
+      </c>
+      <c r="Q17" s="91">
+        <v>1400461</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="2">Q17-P17</f>
-        <v>7655</v>
+        <v>5716</v>
       </c>
       <c r="S17" s="39">
         <f t="shared" ref="S17" si="3">Q17-O17</f>
-        <v>48514</v>
+        <v>54230</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="11"/>
@@ -1997,19 +2009,19 @@
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>21008487</v>
+        <v>21068708</v>
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21068708</v>
+        <v>21079434</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>60221</v>
+        <v>10726</v>
       </c>
       <c r="S18" s="88">
         <f>SUM(S10:S17)</f>
-        <v>448560</v>
+        <v>459286</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="2"/>
@@ -2039,27 +2051,27 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
     </row>
     <row r="21" spans="1:22" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="79"/>
@@ -2149,55 +2161,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2014</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -2215,21 +2227,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -2242,21 +2254,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -2269,26 +2281,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2014</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -2829,21 +2841,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -2949,55 +2961,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2015</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -3015,21 +3027,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3042,21 +3054,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3069,26 +3081,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2015</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -3629,21 +3641,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -3743,55 +3755,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2016</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -3809,21 +3821,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3836,21 +3848,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3863,26 +3875,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2016</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -4423,21 +4435,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -4537,55 +4549,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2017</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -4603,21 +4615,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4630,21 +4642,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -4657,26 +4669,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2017</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -5217,21 +5229,21 @@
     </row>
     <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -5331,55 +5343,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2018</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -5397,21 +5409,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -5424,21 +5436,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -5451,26 +5463,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2018</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -6014,21 +6026,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -6128,55 +6140,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2019</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -6194,21 +6206,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -6221,21 +6233,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -6248,26 +6260,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2019</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -6811,21 +6823,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -6968,55 +6980,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2020</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -7034,21 +7046,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7061,21 +7073,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -7088,26 +7100,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2020</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -7651,21 +7663,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -7809,55 +7821,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2021</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -7875,21 +7887,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7902,21 +7914,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -7929,26 +7941,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2021</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -8492,21 +8504,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -8621,7 +8633,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G17"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8650,55 +8662,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2022</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -8716,21 +8728,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -8743,21 +8755,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -8770,26 +8782,26 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2022</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -8849,7 +8861,9 @@
       <c r="G10" s="39">
         <v>721494</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="39">
+        <v>697672</v>
+      </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
@@ -8878,7 +8892,9 @@
       <c r="G11" s="39">
         <v>4307308</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="39">
+        <v>4327898</v>
+      </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -8907,7 +8923,9 @@
       <c r="G12" s="39">
         <v>1665156</v>
       </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="39">
+        <v>1676736</v>
+      </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
@@ -8936,7 +8954,9 @@
       <c r="G13" s="39">
         <v>149205</v>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="39">
+        <v>150083</v>
+      </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
@@ -8965,7 +8985,9 @@
       <c r="G14" s="39">
         <v>5902391</v>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="39">
+        <v>5920416</v>
+      </c>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
@@ -8999,7 +9021,9 @@
       <c r="G15" s="39">
         <v>130064</v>
       </c>
-      <c r="H15" s="39"/>
+      <c r="H15" s="39">
+        <v>131923</v>
+      </c>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
@@ -9028,7 +9052,9 @@
       <c r="G16" s="39">
         <v>6798345</v>
       </c>
-      <c r="H16" s="39"/>
+      <c r="H16" s="39">
+        <v>6774245</v>
+      </c>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
@@ -9057,7 +9083,9 @@
       <c r="G17" s="39">
         <v>1394745</v>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="39">
+        <v>1400461</v>
+      </c>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
@@ -9094,7 +9122,7 @@
       </c>
       <c r="H18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21079434</v>
       </c>
       <c r="I18" s="28">
         <f t="shared" si="0"/>
@@ -9147,11 +9175,11 @@
       </c>
       <c r="H19" s="75">
         <f t="shared" si="1"/>
+        <v>5.0909623883913534E-2</v>
+      </c>
+      <c r="I19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="I19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="J19" s="75" t="e">
         <f t="shared" si="1"/>
@@ -9237,21 +9265,21 @@
       <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -9393,55 +9421,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:35" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:35" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:35" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2000</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
@@ -9456,21 +9484,21 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:35" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -9495,21 +9523,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -9534,26 +9562,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" s="6" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2000</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:35" s="6" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -10037,21 +10065,21 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
@@ -10170,21 +10198,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:51" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -10225,21 +10253,21 @@
       <c r="AY2" s="4"/>
     </row>
     <row r="3" spans="1:51" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
@@ -10280,21 +10308,21 @@
       <c r="AY3" s="8"/>
     </row>
     <row r="4" spans="1:51" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2001</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -10376,21 +10404,21 @@
       <c r="AP5" s="2"/>
     </row>
     <row r="6" spans="1:51" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10415,21 +10443,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:51" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10454,26 +10482,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:51" s="6" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="103">
         <v>2001</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:51" s="6" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -11018,21 +11046,21 @@
       <c r="AP20" s="2"/>
     </row>
     <row r="21" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
@@ -11151,21 +11179,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -11179,21 +11207,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -11207,21 +11235,21 @@
       <c r="X3" s="8"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2008</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -11261,21 +11289,21 @@
       <c r="X5" s="8"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -11296,21 +11324,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -11331,26 +11359,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="1" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2008</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -11923,21 +11951,21 @@
     </row>
     <row r="20" spans="1:107" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:107" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -12068,21 +12096,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -12096,21 +12124,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -12124,21 +12152,21 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2009</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -12178,21 +12206,21 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12213,21 +12241,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12248,26 +12276,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2009</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -12840,21 +12868,21 @@
     </row>
     <row r="20" spans="1:107" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:107" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -12986,21 +13014,21 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -13010,21 +13038,21 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -13034,21 +13062,21 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2010</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -13080,21 +13108,21 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -13115,21 +13143,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -13150,26 +13178,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2010</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -13737,21 +13765,21 @@
     </row>
     <row r="20" spans="1:103" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:103" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:103" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -13880,55 +13908,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2011</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -13946,21 +13974,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -13981,21 +14009,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14016,26 +14044,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2011</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -14596,21 +14624,21 @@
     </row>
     <row r="20" spans="1:95" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:95" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:95" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -14741,55 +14769,55 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2012</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -14807,21 +14835,21 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -14842,21 +14870,21 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14877,26 +14905,26 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2012</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -15445,21 +15473,21 @@
     </row>
     <row r="20" spans="1:83" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:83" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -15602,55 +15630,55 @@
       <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:30" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:30" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:30" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="102">
         <v>2013</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:30" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -15668,21 +15696,21 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:30" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -15702,21 +15730,21 @@
       <c r="AD6" s="11"/>
     </row>
     <row r="7" spans="1:30" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -15736,26 +15764,26 @@
       <c r="AD7" s="11"/>
     </row>
     <row r="8" spans="1:30" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="104">
         <v>2013</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:30" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -16303,21 +16331,21 @@
     </row>
     <row r="20" spans="1:82" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:82" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
       <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:82" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -205,10 +205,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var jul 2022 respecto a jun 2022</t>
+    <t>Var ago 2022 respecto a jul 2022</t>
   </si>
   <si>
-    <t>Var jul 2022 respecto a dic 2021</t>
+    <t>Var ago 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1427,10 +1427,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R9" s="94"/>
       <c r="S9" s="94"/>
@@ -1485,18 +1485,18 @@
         <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>721494</v>
+        <v>697672</v>
       </c>
       <c r="Q10" s="39">
-        <v>697672</v>
+        <v>708326</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">Q10-P10</f>
-        <v>-23822</v>
+        <v>10654</v>
       </c>
       <c r="S10" s="39">
         <f t="shared" ref="S10:S16" si="1">Q10-O10</f>
-        <v>-68741</v>
+        <v>-58087</v>
       </c>
       <c r="T10" s="77"/>
       <c r="U10" s="11"/>
@@ -1549,18 +1549,18 @@
         <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4307308</v>
+        <v>4327898</v>
       </c>
       <c r="Q11" s="39">
-        <v>4327898</v>
+        <v>4346608</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>20590</v>
+        <v>18710</v>
       </c>
       <c r="S11" s="39">
         <f t="shared" si="1"/>
-        <v>37775</v>
+        <v>56485</v>
       </c>
       <c r="T11" s="77"/>
       <c r="U11" s="11"/>
@@ -1613,18 +1613,18 @@
         <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1665156</v>
+        <v>1676736</v>
       </c>
       <c r="Q12" s="39">
-        <v>1676736</v>
+        <v>1716459</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>11580</v>
+        <v>39723</v>
       </c>
       <c r="S12" s="39">
         <f t="shared" si="1"/>
-        <v>84869</v>
+        <v>124592</v>
       </c>
       <c r="T12" s="77"/>
       <c r="U12" s="11"/>
@@ -1677,18 +1677,18 @@
         <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>149205</v>
+        <v>150083</v>
       </c>
       <c r="Q13" s="39">
-        <v>150083</v>
+        <v>150210</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>878</v>
+        <v>127</v>
       </c>
       <c r="S13" s="39">
         <f t="shared" si="1"/>
-        <v>1879</v>
+        <v>2006</v>
       </c>
       <c r="T13" s="77"/>
       <c r="U13" s="11"/>
@@ -1741,18 +1741,18 @@
         <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>5902391</v>
+        <v>5920416</v>
       </c>
       <c r="Q14" s="39">
-        <v>5920416</v>
+        <v>5951944</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>18025</v>
+        <v>31528</v>
       </c>
       <c r="S14" s="39">
         <f t="shared" si="1"/>
-        <v>207596</v>
+        <v>239124</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1802,18 +1802,18 @@
         <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>130064</v>
+        <v>131923</v>
       </c>
       <c r="Q15" s="39">
-        <v>131923</v>
+        <v>132657</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>1859</v>
+        <v>734</v>
       </c>
       <c r="S15" s="39">
         <f t="shared" si="1"/>
-        <v>2291</v>
+        <v>3025</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="11"/>
@@ -1866,18 +1866,18 @@
         <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6798345</v>
+        <v>6774245</v>
       </c>
       <c r="Q16" s="39">
-        <v>6774245</v>
+        <v>6821004</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>-24100</v>
+        <v>46759</v>
       </c>
       <c r="S16" s="39">
         <f t="shared" si="1"/>
-        <v>139387</v>
+        <v>186146</v>
       </c>
       <c r="T16" s="77"/>
       <c r="U16" s="11"/>
@@ -1930,18 +1930,18 @@
         <v>1346231</v>
       </c>
       <c r="P17" s="39">
-        <v>1394745</v>
+        <v>1400461</v>
       </c>
       <c r="Q17" s="91">
-        <v>1400461</v>
+        <v>1409658</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="2">Q17-P17</f>
-        <v>5716</v>
+        <v>9197</v>
       </c>
       <c r="S17" s="39">
         <f t="shared" ref="S17" si="3">Q17-O17</f>
-        <v>54230</v>
+        <v>63427</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="11"/>
@@ -2009,19 +2009,19 @@
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>21068708</v>
+        <v>21079434</v>
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21079434</v>
+        <v>21236866</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>10726</v>
+        <v>157432</v>
       </c>
       <c r="S18" s="88">
         <f>SUM(S10:S17)</f>
-        <v>459286</v>
+        <v>616718</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="2"/>
@@ -8633,7 +8633,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="I10" sqref="I10:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8864,7 +8864,9 @@
       <c r="H10" s="39">
         <v>697672</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="39">
+        <v>708326</v>
+      </c>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
@@ -8895,7 +8897,9 @@
       <c r="H11" s="39">
         <v>4327898</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="I11" s="39">
+        <v>4346608</v>
+      </c>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
@@ -8926,7 +8930,9 @@
       <c r="H12" s="39">
         <v>1676736</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="I12" s="39">
+        <v>1716459</v>
+      </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
@@ -8957,7 +8963,9 @@
       <c r="H13" s="39">
         <v>150083</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="39">
+        <v>150210</v>
+      </c>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
@@ -8988,7 +8996,9 @@
       <c r="H14" s="39">
         <v>5920416</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="39">
+        <v>5951944</v>
+      </c>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
@@ -9024,7 +9034,9 @@
       <c r="H15" s="39">
         <v>131923</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="39">
+        <v>132657</v>
+      </c>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
@@ -9055,7 +9067,9 @@
       <c r="H16" s="39">
         <v>6774245</v>
       </c>
-      <c r="I16" s="39"/>
+      <c r="I16" s="39">
+        <v>6821004</v>
+      </c>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
@@ -9086,7 +9100,9 @@
       <c r="H17" s="39">
         <v>1400461</v>
       </c>
-      <c r="I17" s="39"/>
+      <c r="I17" s="39">
+        <v>1409658</v>
+      </c>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
@@ -9126,7 +9142,7 @@
       </c>
       <c r="I18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21236866</v>
       </c>
       <c r="J18" s="28">
         <f t="shared" si="0"/>
@@ -9179,11 +9195,11 @@
       </c>
       <c r="I19" s="75">
         <f t="shared" si="1"/>
+        <v>0.74685117256943434</v>
+      </c>
+      <c r="J19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="J19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="K19" s="75" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -205,10 +205,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var ago 2022 respecto a jul 2022</t>
+    <t>Var sep 2022 respecto a ago 2022</t>
   </si>
   <si>
-    <t>Var ago 2022 respecto a dic 2021</t>
+    <t>Var sep 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="Q10" sqref="Q10:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1427,10 +1427,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R9" s="94"/>
       <c r="S9" s="94"/>
@@ -1485,18 +1485,18 @@
         <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>697672</v>
+        <v>708326</v>
       </c>
       <c r="Q10" s="39">
-        <v>708326</v>
+        <v>734451</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">Q10-P10</f>
-        <v>10654</v>
+        <v>26125</v>
       </c>
       <c r="S10" s="39">
         <f t="shared" ref="S10:S16" si="1">Q10-O10</f>
-        <v>-58087</v>
+        <v>-31962</v>
       </c>
       <c r="T10" s="77"/>
       <c r="U10" s="11"/>
@@ -1549,18 +1549,18 @@
         <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4327898</v>
+        <v>4346608</v>
       </c>
       <c r="Q11" s="39">
-        <v>4346608</v>
+        <v>4377824</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>18710</v>
+        <v>31216</v>
       </c>
       <c r="S11" s="39">
         <f t="shared" si="1"/>
-        <v>56485</v>
+        <v>87701</v>
       </c>
       <c r="T11" s="77"/>
       <c r="U11" s="11"/>
@@ -1613,18 +1613,18 @@
         <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1676736</v>
+        <v>1716459</v>
       </c>
       <c r="Q12" s="39">
-        <v>1716459</v>
+        <v>1730075</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>39723</v>
+        <v>13616</v>
       </c>
       <c r="S12" s="39">
         <f t="shared" si="1"/>
-        <v>124592</v>
+        <v>138208</v>
       </c>
       <c r="T12" s="77"/>
       <c r="U12" s="11"/>
@@ -1677,18 +1677,18 @@
         <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>150083</v>
+        <v>150210</v>
       </c>
       <c r="Q13" s="39">
-        <v>150210</v>
+        <v>151035</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>825</v>
       </c>
       <c r="S13" s="39">
         <f t="shared" si="1"/>
-        <v>2006</v>
+        <v>2831</v>
       </c>
       <c r="T13" s="77"/>
       <c r="U13" s="11"/>
@@ -1741,18 +1741,18 @@
         <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>5920416</v>
+        <v>5951944</v>
       </c>
       <c r="Q14" s="39">
-        <v>5951944</v>
+        <v>5981443</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>31528</v>
+        <v>29499</v>
       </c>
       <c r="S14" s="39">
         <f t="shared" si="1"/>
-        <v>239124</v>
+        <v>268623</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1802,18 +1802,18 @@
         <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>131923</v>
+        <v>132657</v>
       </c>
       <c r="Q15" s="39">
-        <v>132657</v>
+        <v>132989</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>734</v>
+        <v>332</v>
       </c>
       <c r="S15" s="39">
         <f t="shared" si="1"/>
-        <v>3025</v>
+        <v>3357</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="11"/>
@@ -1866,18 +1866,18 @@
         <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6774245</v>
+        <v>6821004</v>
       </c>
       <c r="Q16" s="39">
-        <v>6821004</v>
+        <v>6880453</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>46759</v>
+        <v>59449</v>
       </c>
       <c r="S16" s="39">
         <f t="shared" si="1"/>
-        <v>186146</v>
+        <v>245595</v>
       </c>
       <c r="T16" s="77"/>
       <c r="U16" s="11"/>
@@ -1930,18 +1930,18 @@
         <v>1346231</v>
       </c>
       <c r="P17" s="39">
-        <v>1400461</v>
+        <v>1409658</v>
       </c>
       <c r="Q17" s="91">
-        <v>1409658</v>
+        <v>1421088</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="2">Q17-P17</f>
-        <v>9197</v>
+        <v>11430</v>
       </c>
       <c r="S17" s="39">
         <f t="shared" ref="S17" si="3">Q17-O17</f>
-        <v>63427</v>
+        <v>74857</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="11"/>
@@ -2009,19 +2009,19 @@
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>21079434</v>
+        <v>21236866</v>
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21236866</v>
+        <v>21409358</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>157432</v>
+        <v>172492</v>
       </c>
       <c r="S18" s="88">
         <f>SUM(S10:S17)</f>
-        <v>616718</v>
+        <v>789210</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="2"/>
@@ -8633,7 +8633,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8867,7 +8867,9 @@
       <c r="I10" s="39">
         <v>708326</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="39">
+        <v>734451</v>
+      </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -8900,7 +8902,9 @@
       <c r="I11" s="39">
         <v>4346608</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="39">
+        <v>4377824</v>
+      </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
@@ -8933,7 +8937,9 @@
       <c r="I12" s="39">
         <v>1716459</v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="39">
+        <v>1730075</v>
+      </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
@@ -8966,7 +8972,9 @@
       <c r="I13" s="39">
         <v>150210</v>
       </c>
-      <c r="J13" s="39"/>
+      <c r="J13" s="39">
+        <v>151035</v>
+      </c>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
@@ -8999,7 +9007,9 @@
       <c r="I14" s="39">
         <v>5951944</v>
       </c>
-      <c r="J14" s="39"/>
+      <c r="J14" s="39">
+        <v>5981443</v>
+      </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
@@ -9037,7 +9047,9 @@
       <c r="I15" s="39">
         <v>132657</v>
       </c>
-      <c r="J15" s="39"/>
+      <c r="J15" s="39">
+        <v>132989</v>
+      </c>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
@@ -9070,7 +9082,9 @@
       <c r="I16" s="39">
         <v>6821004</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="J16" s="39">
+        <v>6880453</v>
+      </c>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
@@ -9103,7 +9117,9 @@
       <c r="I17" s="39">
         <v>1409658</v>
       </c>
-      <c r="J17" s="39"/>
+      <c r="J17" s="39">
+        <v>1421088</v>
+      </c>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
@@ -9146,7 +9162,7 @@
       </c>
       <c r="J18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21409358</v>
       </c>
       <c r="K18" s="28">
         <f t="shared" si="0"/>
@@ -9199,11 +9215,11 @@
       </c>
       <c r="J19" s="75">
         <f t="shared" si="1"/>
+        <v>0.81222907372490838</v>
+      </c>
+      <c r="K19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="K19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="L19" s="75" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -205,10 +205,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var sep 2022 respecto a ago 2022</t>
+    <t>Var oct 2022 respecto a sep 2022</t>
   </si>
   <si>
-    <t>Var sep 2022 respecto a dic 2021</t>
+    <t>Var oct 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q17"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1427,10 +1427,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R9" s="94"/>
       <c r="S9" s="94"/>
@@ -1485,18 +1485,18 @@
         <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>708326</v>
+        <v>734451</v>
       </c>
       <c r="Q10" s="39">
-        <v>734451</v>
+        <v>748072</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">Q10-P10</f>
-        <v>26125</v>
+        <v>13621</v>
       </c>
       <c r="S10" s="39">
         <f t="shared" ref="S10:S16" si="1">Q10-O10</f>
-        <v>-31962</v>
+        <v>-18341</v>
       </c>
       <c r="T10" s="77"/>
       <c r="U10" s="11"/>
@@ -1549,18 +1549,18 @@
         <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4346608</v>
+        <v>4377824</v>
       </c>
       <c r="Q11" s="39">
-        <v>4377824</v>
+        <v>4439613</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>31216</v>
+        <v>61789</v>
       </c>
       <c r="S11" s="39">
         <f t="shared" si="1"/>
-        <v>87701</v>
+        <v>149490</v>
       </c>
       <c r="T11" s="77"/>
       <c r="U11" s="11"/>
@@ -1613,18 +1613,18 @@
         <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1716459</v>
+        <v>1730075</v>
       </c>
       <c r="Q12" s="39">
-        <v>1730075</v>
+        <v>1771269</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>13616</v>
+        <v>41194</v>
       </c>
       <c r="S12" s="39">
         <f t="shared" si="1"/>
-        <v>138208</v>
+        <v>179402</v>
       </c>
       <c r="T12" s="77"/>
       <c r="U12" s="11"/>
@@ -1677,18 +1677,18 @@
         <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>150210</v>
+        <v>151035</v>
       </c>
       <c r="Q13" s="39">
-        <v>151035</v>
+        <v>152048</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>825</v>
+        <v>1013</v>
       </c>
       <c r="S13" s="39">
         <f t="shared" si="1"/>
-        <v>2831</v>
+        <v>3844</v>
       </c>
       <c r="T13" s="77"/>
       <c r="U13" s="11"/>
@@ -1741,18 +1741,18 @@
         <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>5951944</v>
+        <v>5981443</v>
       </c>
       <c r="Q14" s="39">
-        <v>5981443</v>
+        <v>6006644</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>29499</v>
+        <v>25201</v>
       </c>
       <c r="S14" s="39">
         <f t="shared" si="1"/>
-        <v>268623</v>
+        <v>293824</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1802,18 +1802,18 @@
         <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>132657</v>
+        <v>132989</v>
       </c>
       <c r="Q15" s="39">
-        <v>132989</v>
+        <v>133409</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>420</v>
       </c>
       <c r="S15" s="39">
         <f t="shared" si="1"/>
-        <v>3357</v>
+        <v>3777</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="11"/>
@@ -1866,18 +1866,18 @@
         <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6821004</v>
+        <v>6880453</v>
       </c>
       <c r="Q16" s="39">
-        <v>6880453</v>
+        <v>6927628</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>59449</v>
+        <v>47175</v>
       </c>
       <c r="S16" s="39">
         <f t="shared" si="1"/>
-        <v>245595</v>
+        <v>292770</v>
       </c>
       <c r="T16" s="77"/>
       <c r="U16" s="11"/>
@@ -1929,19 +1929,19 @@
       <c r="O17" s="39">
         <v>1346231</v>
       </c>
-      <c r="P17" s="39">
-        <v>1409658</v>
+      <c r="P17" s="91">
+        <v>1421088</v>
       </c>
       <c r="Q17" s="91">
-        <v>1421088</v>
+        <v>1438643</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="2">Q17-P17</f>
-        <v>11430</v>
+        <v>17555</v>
       </c>
       <c r="S17" s="39">
         <f t="shared" ref="S17" si="3">Q17-O17</f>
-        <v>74857</v>
+        <v>92412</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="11"/>
@@ -2009,19 +2009,19 @@
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>21236866</v>
+        <v>21409358</v>
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21409358</v>
+        <v>21617326</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>172492</v>
+        <v>207968</v>
       </c>
       <c r="S18" s="88">
         <f>SUM(S10:S17)</f>
-        <v>789210</v>
+        <v>997178</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="2"/>
@@ -8633,7 +8633,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8870,7 +8870,9 @@
       <c r="J10" s="39">
         <v>734451</v>
       </c>
-      <c r="K10" s="39"/>
+      <c r="K10" s="39">
+        <v>748072</v>
+      </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
     </row>
@@ -8905,7 +8907,9 @@
       <c r="J11" s="39">
         <v>4377824</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="K11" s="39">
+        <v>4439613</v>
+      </c>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
     </row>
@@ -8940,7 +8944,9 @@
       <c r="J12" s="39">
         <v>1730075</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="39">
+        <v>1771269</v>
+      </c>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
     </row>
@@ -8975,7 +8981,9 @@
       <c r="J13" s="39">
         <v>151035</v>
       </c>
-      <c r="K13" s="39"/>
+      <c r="K13" s="39">
+        <v>152048</v>
+      </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
@@ -9010,7 +9018,9 @@
       <c r="J14" s="39">
         <v>5981443</v>
       </c>
-      <c r="K14" s="39"/>
+      <c r="K14" s="39">
+        <v>6006644</v>
+      </c>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
       <c r="N14" s="63"/>
@@ -9050,7 +9060,9 @@
       <c r="J15" s="39">
         <v>132989</v>
       </c>
-      <c r="K15" s="39"/>
+      <c r="K15" s="39">
+        <v>133409</v>
+      </c>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
     </row>
@@ -9085,7 +9097,9 @@
       <c r="J16" s="39">
         <v>6880453</v>
       </c>
-      <c r="K16" s="39"/>
+      <c r="K16" s="39">
+        <v>6927628</v>
+      </c>
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
     </row>
@@ -9120,7 +9134,9 @@
       <c r="J17" s="39">
         <v>1421088</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="39">
+        <v>1438643</v>
+      </c>
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
     </row>
@@ -9166,7 +9182,7 @@
       </c>
       <c r="K18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21617326</v>
       </c>
       <c r="L18" s="28">
         <f t="shared" si="0"/>
@@ -9219,11 +9235,11 @@
       </c>
       <c r="K19" s="75">
         <f t="shared" si="1"/>
+        <v>0.97138830599217407</v>
+      </c>
+      <c r="L19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="L19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M19" s="75" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -205,10 +205,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var oct 2022 respecto a sep 2022</t>
+    <t>Var nov 2022 respecto a oct 2022</t>
   </si>
   <si>
-    <t>Var oct 2022 respecto a dic 2021</t>
+    <t>Var nov 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1427,10 +1427,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R9" s="94"/>
       <c r="S9" s="94"/>
@@ -1485,18 +1485,18 @@
         <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>734451</v>
+        <v>748072</v>
       </c>
       <c r="Q10" s="39">
-        <v>748072</v>
+        <v>761733</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">Q10-P10</f>
-        <v>13621</v>
+        <v>13661</v>
       </c>
       <c r="S10" s="39">
         <f t="shared" ref="S10:S16" si="1">Q10-O10</f>
-        <v>-18341</v>
+        <v>-4680</v>
       </c>
       <c r="T10" s="77"/>
       <c r="U10" s="11"/>
@@ -1549,18 +1549,18 @@
         <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4377824</v>
+        <v>4439613</v>
       </c>
       <c r="Q11" s="39">
-        <v>4439613</v>
+        <v>4483849</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>61789</v>
+        <v>44236</v>
       </c>
       <c r="S11" s="39">
         <f t="shared" si="1"/>
-        <v>149490</v>
+        <v>193726</v>
       </c>
       <c r="T11" s="77"/>
       <c r="U11" s="11"/>
@@ -1613,18 +1613,18 @@
         <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1730075</v>
+        <v>1771269</v>
       </c>
       <c r="Q12" s="39">
-        <v>1771269</v>
+        <v>1772896</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>41194</v>
+        <v>1627</v>
       </c>
       <c r="S12" s="39">
         <f t="shared" si="1"/>
-        <v>179402</v>
+        <v>181029</v>
       </c>
       <c r="T12" s="77"/>
       <c r="U12" s="11"/>
@@ -1677,18 +1677,18 @@
         <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>151035</v>
+        <v>152048</v>
       </c>
       <c r="Q13" s="39">
-        <v>152048</v>
+        <v>151155</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>1013</v>
+        <v>-893</v>
       </c>
       <c r="S13" s="39">
         <f t="shared" si="1"/>
-        <v>3844</v>
+        <v>2951</v>
       </c>
       <c r="T13" s="77"/>
       <c r="U13" s="11"/>
@@ -1741,18 +1741,18 @@
         <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>5981443</v>
+        <v>6006644</v>
       </c>
       <c r="Q14" s="39">
-        <v>6006644</v>
+        <v>6005352</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>25201</v>
+        <v>-1292</v>
       </c>
       <c r="S14" s="39">
         <f t="shared" si="1"/>
-        <v>293824</v>
+        <v>292532</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1802,18 +1802,18 @@
         <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>132989</v>
+        <v>133409</v>
       </c>
       <c r="Q15" s="39">
-        <v>133409</v>
+        <v>133361</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>-48</v>
       </c>
       <c r="S15" s="39">
         <f t="shared" si="1"/>
-        <v>3777</v>
+        <v>3729</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="11"/>
@@ -1866,18 +1866,18 @@
         <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6880453</v>
+        <v>6927628</v>
       </c>
       <c r="Q16" s="39">
-        <v>6927628</v>
+        <v>6960841</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>47175</v>
+        <v>33213</v>
       </c>
       <c r="S16" s="39">
         <f t="shared" si="1"/>
-        <v>292770</v>
+        <v>325983</v>
       </c>
       <c r="T16" s="77"/>
       <c r="U16" s="11"/>
@@ -1930,18 +1930,18 @@
         <v>1346231</v>
       </c>
       <c r="P17" s="91">
-        <v>1421088</v>
+        <v>1438643</v>
       </c>
       <c r="Q17" s="91">
-        <v>1438643</v>
+        <v>1449414</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="2">Q17-P17</f>
-        <v>17555</v>
+        <v>10771</v>
       </c>
       <c r="S17" s="39">
         <f t="shared" ref="S17" si="3">Q17-O17</f>
-        <v>92412</v>
+        <v>103183</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="11"/>
@@ -2009,19 +2009,19 @@
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>21409358</v>
+        <v>21617326</v>
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21617326</v>
+        <v>21718601</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>207968</v>
+        <v>101275</v>
       </c>
       <c r="S18" s="88">
         <f>SUM(S10:S17)</f>
-        <v>997178</v>
+        <v>1098453</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="2"/>
@@ -8633,7 +8633,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8873,7 +8873,9 @@
       <c r="K10" s="39">
         <v>748072</v>
       </c>
-      <c r="L10" s="39"/>
+      <c r="L10" s="39">
+        <v>761733</v>
+      </c>
       <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
@@ -8910,7 +8912,9 @@
       <c r="K11" s="39">
         <v>4439613</v>
       </c>
-      <c r="L11" s="39"/>
+      <c r="L11" s="39">
+        <v>4483849</v>
+      </c>
       <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
@@ -8947,7 +8951,9 @@
       <c r="K12" s="39">
         <v>1771269</v>
       </c>
-      <c r="L12" s="39"/>
+      <c r="L12" s="39">
+        <v>1772896</v>
+      </c>
       <c r="M12" s="39"/>
     </row>
     <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
@@ -8984,7 +8990,9 @@
       <c r="K13" s="39">
         <v>152048</v>
       </c>
-      <c r="L13" s="39"/>
+      <c r="L13" s="39">
+        <v>151155</v>
+      </c>
       <c r="M13" s="39"/>
     </row>
     <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
@@ -9021,7 +9029,9 @@
       <c r="K14" s="39">
         <v>6006644</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="39">
+        <v>6005352</v>
+      </c>
       <c r="M14" s="39"/>
       <c r="N14" s="63"/>
       <c r="O14" s="63"/>
@@ -9063,7 +9073,9 @@
       <c r="K15" s="39">
         <v>133409</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="39">
+        <v>133361</v>
+      </c>
       <c r="M15" s="39"/>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9100,7 +9112,9 @@
       <c r="K16" s="39">
         <v>6927628</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="39">
+        <v>6960841</v>
+      </c>
       <c r="M16" s="39"/>
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9137,7 +9151,9 @@
       <c r="K17" s="39">
         <v>1438643</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="39">
+        <v>1449414</v>
+      </c>
       <c r="M17" s="39"/>
     </row>
     <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
@@ -9186,7 +9202,7 @@
       </c>
       <c r="L18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21718601</v>
       </c>
       <c r="M18" s="28">
         <f t="shared" si="0"/>
@@ -9239,11 +9255,11 @@
       </c>
       <c r="L19" s="75">
         <f t="shared" si="1"/>
+        <v>0.46848995106980384</v>
+      </c>
+      <c r="M19" s="75">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="M19" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="N19" s="65"/>
       <c r="O19" s="65"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -205,10 +205,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var nov 2022 respecto a oct 2022</t>
+    <t>Var dic 2022 respecto a nov 2022</t>
   </si>
   <si>
-    <t>Var nov 2022 respecto a dic 2021</t>
+    <t>Var dic 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1427,10 +1427,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R9" s="94"/>
       <c r="S9" s="94"/>
@@ -1485,18 +1485,18 @@
         <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>748072</v>
+        <v>761733</v>
       </c>
       <c r="Q10" s="39">
-        <v>761733</v>
+        <v>759035</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">Q10-P10</f>
-        <v>13661</v>
+        <v>-2698</v>
       </c>
       <c r="S10" s="39">
         <f t="shared" ref="S10:S16" si="1">Q10-O10</f>
-        <v>-4680</v>
+        <v>-7378</v>
       </c>
       <c r="T10" s="77"/>
       <c r="U10" s="11"/>
@@ -1549,18 +1549,18 @@
         <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4439613</v>
+        <v>4483849</v>
       </c>
       <c r="Q11" s="39">
-        <v>4483849</v>
+        <v>4445136</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>44236</v>
+        <v>-38713</v>
       </c>
       <c r="S11" s="39">
         <f t="shared" si="1"/>
-        <v>193726</v>
+        <v>155013</v>
       </c>
       <c r="T11" s="77"/>
       <c r="U11" s="11"/>
@@ -1613,18 +1613,18 @@
         <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1771269</v>
+        <v>1772896</v>
       </c>
       <c r="Q12" s="39">
-        <v>1772896</v>
+        <v>1680166</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>1627</v>
+        <v>-92730</v>
       </c>
       <c r="S12" s="39">
         <f t="shared" si="1"/>
-        <v>181029</v>
+        <v>88299</v>
       </c>
       <c r="T12" s="77"/>
       <c r="U12" s="11"/>
@@ -1677,18 +1677,18 @@
         <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>152048</v>
+        <v>151155</v>
       </c>
       <c r="Q13" s="39">
-        <v>151155</v>
+        <v>151051</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>-893</v>
+        <v>-104</v>
       </c>
       <c r="S13" s="39">
         <f t="shared" si="1"/>
-        <v>2951</v>
+        <v>2847</v>
       </c>
       <c r="T13" s="77"/>
       <c r="U13" s="11"/>
@@ -1741,18 +1741,18 @@
         <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>6006644</v>
+        <v>6005352</v>
       </c>
       <c r="Q14" s="39">
-        <v>6005352</v>
+        <v>5897021</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>-1292</v>
+        <v>-108331</v>
       </c>
       <c r="S14" s="39">
         <f t="shared" si="1"/>
-        <v>292532</v>
+        <v>184201</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1802,18 +1802,18 @@
         <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>133409</v>
+        <v>133361</v>
       </c>
       <c r="Q15" s="39">
-        <v>133361</v>
+        <v>131177</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>-48</v>
+        <v>-2184</v>
       </c>
       <c r="S15" s="39">
         <f t="shared" si="1"/>
-        <v>3729</v>
+        <v>1545</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="11"/>
@@ -1866,18 +1866,18 @@
         <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6927628</v>
+        <v>6960841</v>
       </c>
       <c r="Q16" s="39">
-        <v>6960841</v>
+        <v>6876545</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>33213</v>
+        <v>-84296</v>
       </c>
       <c r="S16" s="39">
         <f t="shared" si="1"/>
-        <v>325983</v>
+        <v>241687</v>
       </c>
       <c r="T16" s="77"/>
       <c r="U16" s="11"/>
@@ -1930,18 +1930,18 @@
         <v>1346231</v>
       </c>
       <c r="P17" s="91">
-        <v>1438643</v>
+        <v>1449414</v>
       </c>
       <c r="Q17" s="91">
-        <v>1449414</v>
+        <v>1432765</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="2">Q17-P17</f>
-        <v>10771</v>
+        <v>-16649</v>
       </c>
       <c r="S17" s="39">
         <f t="shared" ref="S17" si="3">Q17-O17</f>
-        <v>103183</v>
+        <v>86534</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="11"/>
@@ -2009,19 +2009,19 @@
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>21617326</v>
+        <v>21718601</v>
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21718601</v>
+        <v>21372896</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>101275</v>
+        <v>-345705</v>
       </c>
       <c r="S18" s="88">
         <f>SUM(S10:S17)</f>
-        <v>1098453</v>
+        <v>752748</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="2"/>
@@ -8633,7 +8633,7 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8876,7 +8876,9 @@
       <c r="L10" s="39">
         <v>761733</v>
       </c>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39">
+        <v>759035</v>
+      </c>
     </row>
     <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
@@ -8915,7 +8917,9 @@
       <c r="L11" s="39">
         <v>4483849</v>
       </c>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39">
+        <v>4445136</v>
+      </c>
     </row>
     <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
@@ -8954,7 +8958,9 @@
       <c r="L12" s="39">
         <v>1772896</v>
       </c>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39">
+        <v>1680166</v>
+      </c>
     </row>
     <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
@@ -8993,7 +8999,9 @@
       <c r="L13" s="39">
         <v>151155</v>
       </c>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39">
+        <v>151051</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
@@ -9032,7 +9040,9 @@
       <c r="L14" s="39">
         <v>6005352</v>
       </c>
-      <c r="M14" s="39"/>
+      <c r="M14" s="39">
+        <v>5897021</v>
+      </c>
       <c r="N14" s="63"/>
       <c r="O14" s="63"/>
       <c r="P14" s="63"/>
@@ -9076,7 +9086,9 @@
       <c r="L15" s="39">
         <v>133361</v>
       </c>
-      <c r="M15" s="39"/>
+      <c r="M15" s="39">
+        <v>131177</v>
+      </c>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -9115,7 +9127,9 @@
       <c r="L16" s="39">
         <v>6960841</v>
       </c>
-      <c r="M16" s="39"/>
+      <c r="M16" s="39">
+        <v>6876545</v>
+      </c>
     </row>
     <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
@@ -9154,7 +9168,9 @@
       <c r="L17" s="39">
         <v>1449414</v>
       </c>
-      <c r="M17" s="39"/>
+      <c r="M17" s="39">
+        <v>1432765</v>
+      </c>
     </row>
     <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
@@ -9206,7 +9222,7 @@
       </c>
       <c r="M18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21372896</v>
       </c>
     </row>
     <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -9259,7 +9275,7 @@
       </c>
       <c r="M19" s="75">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>-1.5917461718643846</v>
       </c>
       <c r="N19" s="65"/>
       <c r="O19" s="65"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Respaldo_Susy\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Gral 08-22" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="2020" sheetId="27" r:id="rId16"/>
     <sheet name="2021" sheetId="28" r:id="rId17"/>
     <sheet name="2022" sheetId="29" r:id="rId18"/>
+    <sheet name="2023" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="37">
   <si>
     <t>Construcción</t>
   </si>
@@ -199,16 +200,13 @@
     <t>Industria de la construcción</t>
   </si>
   <si>
-    <t>Por división económica 2008 - 2022</t>
+    <t>2008-2023</t>
   </si>
   <si>
-    <t>2008-2022</t>
+    <t>Var ene 2023 respecto a dic 2022</t>
   </si>
   <si>
-    <t>Var dic 2022 respecto a nov 2022</t>
-  </si>
-  <si>
-    <t>Var dic 2022 respecto a dic 2021</t>
+    <t>Por división económica 2008 - 2023</t>
   </si>
 </sst>
 </file>
@@ -505,7 +503,7 @@
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -714,9 +712,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,21 +1079,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="19" width="8.75" customWidth="1"/>
-    <col min="20" max="20" width="14.625" customWidth="1"/>
-    <col min="21" max="34" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="20" max="33" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +1103,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
@@ -1129,7 +1124,7 @@
       <c r="P2" s="51"/>
       <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -1144,9 +1139,8 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-    </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +1161,7 @@
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -1182,11 +1176,10 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-    </row>
-    <row r="4" spans="1:34" s="5" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -1205,7 +1198,7 @@
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -1220,9 +1213,8 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-    </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:33" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1241,7 +1233,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1256,30 +1248,29 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-    </row>
-    <row r="6" spans="1:34" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+    </row>
+    <row r="6" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1288,30 +1279,29 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-    </row>
-    <row r="7" spans="1:34" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
+    </row>
+    <row r="7" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1320,10 +1310,9 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-    </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+    </row>
+    <row r="8" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="76">
@@ -1365,25 +1354,24 @@
       <c r="N8" s="86">
         <v>2020</v>
       </c>
-      <c r="O8" s="89">
+      <c r="O8" s="88">
         <v>2021</v>
       </c>
-      <c r="P8" s="92">
+      <c r="P8" s="91">
         <v>2022</v>
       </c>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="93" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q8" s="91">
+        <v>2023</v>
+      </c>
+      <c r="R8" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+    </row>
+    <row r="9" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
       </c>
@@ -1427,18 +1415,17 @@
         <v>17</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
+        <v>6</v>
+      </c>
+      <c r="R9" s="93"/>
+      <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:34" s="10" customFormat="1" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:33" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>19</v>
       </c>
@@ -1485,24 +1472,20 @@
         <v>766413</v>
       </c>
       <c r="P10" s="39">
-        <v>761733</v>
+        <v>759035</v>
       </c>
       <c r="Q10" s="39">
-        <v>759035</v>
+        <v>799308</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">Q10-P10</f>
-        <v>-2698</v>
-      </c>
-      <c r="S10" s="39">
-        <f t="shared" ref="S10:S16" si="1">Q10-O10</f>
-        <v>-7378</v>
-      </c>
-      <c r="T10" s="77"/>
+        <v>40273</v>
+      </c>
+      <c r="S10" s="77"/>
+      <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-    </row>
-    <row r="11" spans="1:34" s="10" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>1</v>
       </c>
@@ -1549,24 +1532,20 @@
         <v>4290123</v>
       </c>
       <c r="P11" s="39">
-        <v>4483849</v>
+        <v>4445136</v>
       </c>
       <c r="Q11" s="39">
-        <v>4445136</v>
+        <v>4402904</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>-38713</v>
-      </c>
-      <c r="S11" s="39">
-        <f t="shared" si="1"/>
-        <v>155013</v>
-      </c>
-      <c r="T11" s="77"/>
+        <v>-42232</v>
+      </c>
+      <c r="S11" s="77"/>
+      <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-    </row>
-    <row r="12" spans="1:34" s="10" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="71" t="s">
         <v>33</v>
       </c>
@@ -1613,24 +1592,20 @@
         <v>1591867</v>
       </c>
       <c r="P12" s="39">
-        <v>1772896</v>
+        <v>1680166</v>
       </c>
       <c r="Q12" s="39">
-        <v>1680166</v>
+        <v>1719840</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>-92730</v>
-      </c>
-      <c r="S12" s="39">
-        <f t="shared" si="1"/>
-        <v>88299</v>
-      </c>
-      <c r="T12" s="77"/>
+        <v>39674</v>
+      </c>
+      <c r="S12" s="77"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-    </row>
-    <row r="13" spans="1:34" s="10" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>22</v>
       </c>
@@ -1677,24 +1652,20 @@
         <v>148204</v>
       </c>
       <c r="P13" s="39">
-        <v>151155</v>
+        <v>151051</v>
       </c>
       <c r="Q13" s="39">
-        <v>151051</v>
+        <v>150555</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>-104</v>
-      </c>
-      <c r="S13" s="39">
-        <f t="shared" si="1"/>
-        <v>2847</v>
-      </c>
-      <c r="T13" s="77"/>
+        <v>-496</v>
+      </c>
+      <c r="S13" s="77"/>
+      <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>21</v>
       </c>
@@ -1741,21 +1712,17 @@
         <v>5712820</v>
       </c>
       <c r="P14" s="39">
-        <v>6005352</v>
+        <v>5897021</v>
       </c>
       <c r="Q14" s="39">
-        <v>5897021</v>
+        <v>5959166</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>-108331</v>
-      </c>
-      <c r="S14" s="39">
-        <f t="shared" si="1"/>
-        <v>184201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>20</v>
       </c>
@@ -1802,24 +1769,20 @@
         <v>129632</v>
       </c>
       <c r="P15" s="39">
-        <v>133361</v>
+        <v>131177</v>
       </c>
       <c r="Q15" s="39">
-        <v>131177</v>
+        <v>131369</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>-2184</v>
-      </c>
-      <c r="S15" s="39">
-        <f t="shared" si="1"/>
-        <v>1545</v>
-      </c>
-      <c r="T15" s="77"/>
+        <v>192</v>
+      </c>
+      <c r="S15" s="77"/>
+      <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="16" spans="1:34" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>2</v>
       </c>
@@ -1866,24 +1829,20 @@
         <v>6634858</v>
       </c>
       <c r="P16" s="39">
-        <v>6960841</v>
+        <v>6876545</v>
       </c>
       <c r="Q16" s="39">
-        <v>6876545</v>
+        <v>6889733</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>-84296</v>
-      </c>
-      <c r="S16" s="39">
-        <f t="shared" si="1"/>
-        <v>241687</v>
-      </c>
-      <c r="T16" s="77"/>
+        <v>13188</v>
+      </c>
+      <c r="S16" s="77"/>
+      <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17" spans="1:22" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:21" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>23</v>
       </c>
@@ -1929,104 +1888,96 @@
       <c r="O17" s="39">
         <v>1346231</v>
       </c>
-      <c r="P17" s="91">
-        <v>1449414</v>
-      </c>
-      <c r="Q17" s="91">
+      <c r="P17" s="90">
         <v>1432765</v>
       </c>
+      <c r="Q17" s="90">
+        <v>1431720</v>
+      </c>
       <c r="R17" s="39">
-        <f t="shared" ref="R17" si="2">Q17-P17</f>
-        <v>-16649</v>
-      </c>
-      <c r="S17" s="39">
-        <f t="shared" ref="S17" si="3">Q17-O17</f>
-        <v>86534</v>
-      </c>
-      <c r="T17" s="77"/>
+        <f t="shared" ref="R17" si="1">Q17-P17</f>
+        <v>-1045</v>
+      </c>
+      <c r="S17" s="77"/>
+      <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-    </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" ht="21.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="57">
-        <f t="shared" ref="B18:O18" si="4">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:O18" si="2">SUM(B10:B17)</f>
         <v>14178117</v>
       </c>
       <c r="C18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14006404</v>
       </c>
       <c r="D18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14738783</v>
       </c>
       <c r="E18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15350335</v>
       </c>
       <c r="F18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16062043</v>
       </c>
       <c r="G18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16525061</v>
       </c>
       <c r="H18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17239587</v>
       </c>
       <c r="I18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17882161</v>
       </c>
       <c r="J18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18616624</v>
       </c>
       <c r="K18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19418455</v>
       </c>
       <c r="L18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20079365</v>
       </c>
       <c r="M18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20421442</v>
       </c>
       <c r="N18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19773732</v>
       </c>
       <c r="O18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20620148</v>
       </c>
       <c r="P18" s="57">
         <f>SUM(P10:P17)</f>
-        <v>21718601</v>
+        <v>21372896</v>
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21372896</v>
+        <v>21484595</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>-345705</v>
-      </c>
-      <c r="S18" s="88">
-        <f>SUM(S10:S17)</f>
-        <v>752748</v>
-      </c>
-      <c r="T18" s="83"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111699</v>
+      </c>
+      <c r="S18" s="83"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2045,35 +1996,33 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="96" t="s">
+    </row>
+    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-    </row>
-    <row r="21" spans="1:22" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+    </row>
+    <row r="21" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
@@ -2091,9 +2040,8 @@
       <c r="P21" s="79"/>
       <c r="Q21" s="79"/>
       <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2101,17 +2049,14 @@
       <c r="P22" s="87"/>
       <c r="Q22" s="87"/>
       <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="P8:Q8"/>
+  <mergeCells count="5">
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A20:S20"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A20:R20"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="A7:R7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2135,15 +2080,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -2160,58 +2105,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
         <v>2014</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2226,22 +2171,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -2253,22 +2198,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -2280,27 +2225,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2014</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -2338,7 +2283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -2379,7 +2324,7 @@
         <v>576888</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -2420,7 +2365,7 @@
         <v>3543646</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -2461,7 +2406,7 @@
         <v>1402760</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -2502,7 +2447,7 @@
         <v>147415</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -2548,7 +2493,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -2589,7 +2534,7 @@
         <v>128171</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2575,7 @@
         <v>6018112</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -2671,7 +2616,7 @@
         <v>920137</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -2724,7 +2669,7 @@
         <v>17239587</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -2839,25 +2784,25 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2874,7 +2819,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2889,7 +2834,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -2904,8 +2849,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -2935,15 +2880,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -2960,58 +2905,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
         <v>2015</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3026,22 +2971,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3053,22 +2998,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3080,27 +3025,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2015</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -3138,7 +3083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -3179,7 +3124,7 @@
         <v>613496</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -3220,7 +3165,7 @@
         <v>3663462</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -3261,7 +3206,7 @@
         <v>1444096</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -3302,7 +3247,7 @@
         <v>146817</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -3348,7 +3293,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -3389,7 +3334,7 @@
         <v>122314</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -3430,7 +3375,7 @@
         <v>6191641</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -3471,7 +3416,7 @@
         <v>970856</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -3524,7 +3469,7 @@
         <v>17882161</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -3639,25 +3584,25 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -3674,7 +3619,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -3689,7 +3634,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -3704,8 +3649,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -3729,15 +3674,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -3754,58 +3699,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
         <v>2016</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3820,22 +3765,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3847,22 +3792,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3874,27 +3819,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2016</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -3932,7 +3877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -3973,7 +3918,7 @@
         <v>655624</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -4014,7 +3959,7 @@
         <v>3811152</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -4055,7 +4000,7 @@
         <v>1490951</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -4096,7 +4041,7 @@
         <v>143941</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -4142,7 +4087,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -4183,7 +4128,7 @@
         <v>120835</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -4224,7 +4169,7 @@
         <v>6418911</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -4265,7 +4210,7 @@
         <v>1024297</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -4318,7 +4263,7 @@
         <v>18616624</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -4433,25 +4378,25 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -4468,7 +4413,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -4483,7 +4428,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -4498,8 +4443,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -4523,15 +4468,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -4548,58 +4493,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
         <v>2017</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4614,22 +4559,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4641,22 +4586,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -4668,27 +4613,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2017</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -4726,7 +4671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -4767,7 +4712,7 @@
         <v>705240</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -4808,7 +4753,7 @@
         <v>3924758</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -4849,7 +4794,7 @@
         <v>1577452</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -4890,7 +4835,7 @@
         <v>144868</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -4936,7 +4881,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -4977,7 +4922,7 @@
         <v>127031</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -5018,7 +4963,7 @@
         <v>6644969</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -5059,7 +5004,7 @@
         <v>1092588</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -5112,7 +5057,7 @@
         <v>19418455</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -5227,25 +5172,25 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -5262,7 +5207,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -5277,7 +5222,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -5292,8 +5237,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -5317,15 +5262,15 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -5342,58 +5287,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
         <v>2018</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -5408,22 +5353,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -5435,22 +5380,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -5462,27 +5407,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2018</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -5520,7 +5465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -5561,7 +5506,7 @@
         <v>736854</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -5602,7 +5547,7 @@
         <v>4046072</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -5643,7 +5588,7 @@
         <v>1587298</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -5684,7 +5629,7 @@
         <v>145917</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -5730,7 +5675,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -5771,7 +5716,7 @@
         <v>127936</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -5812,7 +5757,7 @@
         <v>6855708</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -5853,7 +5798,7 @@
         <v>1150983</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -5906,7 +5851,7 @@
         <v>20079365</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -6021,28 +5966,28 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6059,7 +6004,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6074,7 +6019,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -6089,8 +6034,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -6114,15 +6059,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -6139,58 +6084,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
         <v>2019</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -6205,22 +6150,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -6232,22 +6177,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -6259,27 +6204,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2019</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -6317,7 +6262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -6358,7 +6303,7 @@
         <v>747527</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -6399,7 +6344,7 @@
         <v>4143292</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -6440,7 +6385,7 @@
         <v>1574128</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -6481,7 +6426,7 @@
         <v>146299</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -6527,7 +6472,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -6568,7 +6513,7 @@
         <v>128449</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -6609,7 +6554,7 @@
         <v>7015581</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -6650,7 +6595,7 @@
         <v>1215181</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -6703,7 +6648,7 @@
         <v>20421442</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -6818,28 +6763,28 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6856,7 +6801,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6954,15 +6899,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -6979,58 +6924,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
         <v>2020</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -7045,22 +6990,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7072,22 +7017,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -7099,27 +7044,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2020</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -7157,7 +7102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -7198,7 +7143,7 @@
         <v>757997</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -7239,7 +7184,7 @@
         <v>4040863</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -7280,7 +7225,7 @@
         <v>1487563</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -7321,7 +7266,7 @@
         <v>146801</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -7367,7 +7312,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -7408,7 +7353,7 @@
         <v>119946</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -7449,7 +7394,7 @@
         <v>6568520</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -7490,7 +7435,7 @@
         <v>1213211</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -7543,7 +7488,7 @@
         <v>19773732</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -7658,28 +7603,28 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -7696,7 +7641,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -7795,15 +7740,15 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -7820,58 +7765,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
         <v>2021</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -7886,22 +7831,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7913,22 +7858,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -7940,27 +7885,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2021</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -7998,7 +7943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -8039,7 +7984,7 @@
         <v>766413</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -8080,7 +8025,7 @@
         <v>4290123</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -8121,7 +8066,7 @@
         <v>1591867</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -8162,7 +8107,7 @@
         <v>148204</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -8208,7 +8153,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -8249,7 +8194,7 @@
         <v>129632</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -8290,7 +8235,7 @@
         <v>6634858</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -8331,7 +8276,7 @@
         <v>1346231</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -8384,7 +8329,7 @@
         <v>20620148</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -8499,28 +8444,28 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -8537,7 +8482,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -8636,15 +8581,15 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -8661,58 +8606,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
         <v>2022</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-    </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -8727,22 +8672,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -8754,22 +8699,22 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -8781,27 +8726,27 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2022</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -8839,7 +8784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -8880,7 +8825,7 @@
         <v>759035</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -8921,7 +8866,7 @@
         <v>4445136</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -8962,7 +8907,7 @@
         <v>1680166</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -9003,7 +8948,7 @@
         <v>151051</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -9049,7 +8994,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -9090,7 +9035,7 @@
         <v>131177</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -9131,7 +9076,7 @@
         <v>6876545</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -9172,7 +9117,7 @@
         <v>1432765</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -9225,11 +9170,11 @@
         <v>21372896</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B19" s="89">
         <f>(B18/'2021'!M18-1)*100</f>
         <v>0.68996110018220147</v>
       </c>
@@ -9340,28 +9285,28 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:75" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -9378,7 +9323,672 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="35"/>
+    </row>
+    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+    </row>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BW35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+    </row>
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+    </row>
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="103">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
+      <c r="B9" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="39">
+        <v>799308</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="39">
+        <v>4402904</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1719840</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="39">
+        <v>150555</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="39">
+        <v>5959166</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+    </row>
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="39">
+        <v>131369</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="39">
+        <v>6889733</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1431720</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+    </row>
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="28">
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <v>21484595</v>
+      </c>
+      <c r="C18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="89">
+        <f>(B18/'2022'!M18-1)*100</f>
+        <v>0.52261986396229254</v>
+      </c>
+      <c r="C19" s="75">
+        <f>+(C18-B18)/B18*100</f>
+        <v>-100</v>
+      </c>
+      <c r="D19" s="75" t="e">
+        <f>+(D18-C18)/C18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="75" t="e">
+        <f>+(E18-D18)/D18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="75" t="e">
+        <f t="shared" ref="F19:M19" si="1">+(F18-E18)/E18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="65"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="65"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="65"/>
+      <c r="BO19" s="65"/>
+      <c r="BP19" s="65"/>
+      <c r="BQ19" s="65"/>
+      <c r="BR19" s="65"/>
+      <c r="BS19" s="65"/>
+      <c r="BT19" s="65"/>
+      <c r="BU19" s="65"/>
+      <c r="BV19" s="65"/>
+      <c r="BW19" s="65"/>
+    </row>
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+    </row>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+    </row>
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -9480,13 +10090,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="13" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="13" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -9500,56 +10110,56 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:35" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:35" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:35" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:35" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A4" s="101">
         <v>2000</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
@@ -9563,22 +10173,22 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:35" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -9602,22 +10212,22 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -9641,27 +10251,27 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" s="6" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:35" s="6" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="102">
         <v>2000</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-    </row>
-    <row r="9" spans="1:35" s="6" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:35" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A9" s="96"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -9863,7 +10473,7 @@
         <v>894257</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="29" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="29" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -10027,7 +10637,7 @@
         <v>3604619</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -10080,7 +10690,7 @@
         <v>12437760</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -10130,7 +10740,7 @@
         <v>-2.6589992388190691</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="6.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="21"/>
       <c r="D20" s="2"/>
@@ -10144,24 +10754,24 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -10191,15 +10801,15 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:13" ht="8.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="8.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -10209,7 +10819,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -10256,14 +10866,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="13" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="42" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="42" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -10277,22 +10887,22 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:51" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:51" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -10332,22 +10942,22 @@
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="1:51" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:51" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
@@ -10387,22 +10997,22 @@
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
     </row>
-    <row r="4" spans="1:51" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+    <row r="4" spans="1:51" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A4" s="101">
         <v>2001</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -10483,22 +11093,22 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:51" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10522,22 +11132,22 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:51" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10561,27 +11171,27 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:51" s="6" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:51" s="6" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="102">
         <v>2001</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-    </row>
-    <row r="9" spans="1:51" s="6" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:51" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A9" s="96"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
@@ -10783,7 +11393,7 @@
         <v>868267</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="29" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" s="29" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -10947,7 +11557,7 @@
         <v>3685113</v>
       </c>
     </row>
-    <row r="18" spans="1:42" s="6" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -11000,7 +11610,7 @@
         <v>12170945</v>
       </c>
     </row>
-    <row r="19" spans="1:42" s="1" customFormat="1" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -11125,24 +11735,24 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="21" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -11172,15 +11782,15 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:42" ht="8.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" ht="8.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -11190,7 +11800,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -11237,14 +11847,14 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="24" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="24" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -11258,22 +11868,22 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -11286,22 +11896,22 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -11314,22 +11924,22 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A4" s="101">
         <v>2008</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -11368,22 +11978,22 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -11403,22 +12013,22 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -11438,27 +12048,27 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:31" s="1" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2008</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -11537,7 +12147,7 @@
         <v>458308</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="31" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -11578,7 +12188,7 @@
         <v>2924150</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="31" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -11619,7 +12229,7 @@
         <v>1099436</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="31" customFormat="1" ht="22.45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="31" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -11660,7 +12270,7 @@
         <v>171728</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -11829,7 +12439,7 @@
         <v>765127</v>
       </c>
     </row>
-    <row r="18" spans="1:107" s="1" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:107" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -11882,7 +12492,7 @@
         <v>14178117</v>
       </c>
     </row>
-    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -12029,25 +12639,25 @@
       <c r="DB19" s="17"/>
       <c r="DC19" s="17"/>
     </row>
-    <row r="20" spans="1:107" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:107" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:107" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -12079,7 +12689,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -12094,9 +12704,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -12110,17 +12720,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -12154,14 +12764,14 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="24" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="24" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -12175,22 +12785,22 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -12203,22 +12813,22 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -12231,22 +12841,22 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A4" s="101">
         <v>2009</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -12285,22 +12895,22 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12320,22 +12930,22 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12355,27 +12965,27 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2009</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -12454,7 +13064,7 @@
         <v>464568</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -12495,7 +13105,7 @@
         <v>2905074</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -12536,7 +13146,7 @@
         <v>1042576</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -12577,7 +13187,7 @@
         <v>129759</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -12746,7 +13356,7 @@
         <v>747184</v>
       </c>
     </row>
-    <row r="18" spans="1:107" s="24" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -12799,7 +13409,7 @@
         <v>14006404</v>
       </c>
     </row>
-    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -12946,25 +13556,25 @@
       <c r="DB19" s="17"/>
       <c r="DC19" s="17"/>
     </row>
-    <row r="20" spans="1:107" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:107" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:107" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -12997,7 +13607,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -13012,9 +13622,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -13028,17 +13638,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -13072,14 +13682,14 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="20" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="20" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -13093,22 +13703,22 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -13117,22 +13727,22 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -13141,22 +13751,22 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A4" s="101">
         <v>2010</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -13187,22 +13797,22 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -13222,22 +13832,22 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -13257,27 +13867,27 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2010</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -13356,7 +13966,7 @@
         <v>481216</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -13397,7 +14007,7 @@
         <v>3042080</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -13438,7 +14048,7 @@
         <v>1128106</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -13479,7 +14089,7 @@
         <v>143946</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -13648,7 +14258,7 @@
         <v>772019</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="24" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -13701,7 +14311,7 @@
         <v>14738783</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="16" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -13843,25 +14453,25 @@
       <c r="CX19" s="17"/>
       <c r="CY19" s="17"/>
     </row>
-    <row r="20" spans="1:103" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:103" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="20" spans="1:103" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:103" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:103" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:103" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -13893,7 +14503,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -13908,9 +14518,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -13924,17 +14534,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -13967,13 +14577,13 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="13" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="13" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -13987,56 +14597,56 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A4" s="101">
         <v>2011</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -14053,22 +14663,22 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -14088,22 +14698,22 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14123,27 +14733,27 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2011</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -14222,7 +14832,7 @@
         <v>513080</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -14263,7 +14873,7 @@
         <v>3188378</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -14304,7 +14914,7 @@
         <v>1183722</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -14345,7 +14955,7 @@
         <v>148490</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -14514,7 +15124,7 @@
         <v>817879</v>
       </c>
     </row>
-    <row r="18" spans="1:95" s="24" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -14567,7 +15177,7 @@
         <v>15350335</v>
       </c>
     </row>
-    <row r="19" spans="1:95" s="16" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:95" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -14702,25 +15312,25 @@
       <c r="CP19" s="17"/>
       <c r="CQ19" s="17"/>
     </row>
-    <row r="20" spans="1:95" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:95" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="20" spans="1:95" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:95" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:95" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:95" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -14752,7 +15362,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -14767,9 +15377,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -14783,17 +15393,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -14826,15 +15436,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="3" width="8.375" customWidth="1"/>
-    <col min="4" max="12" width="8.375" style="33" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="12" width="8.33203125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -14848,56 +15458,56 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A4" s="101">
         <v>2012</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -14914,22 +15524,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -14949,22 +15559,22 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14984,27 +15594,27 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2012</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -15083,7 +15693,7 @@
         <v>538558</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -15124,7 +15734,7 @@
         <v>3349750</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -15165,7 +15775,7 @@
         <v>1241453</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -15206,7 +15816,7 @@
         <v>150911</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -15375,7 +15985,7 @@
         <v>848162</v>
       </c>
     </row>
-    <row r="18" spans="1:83" s="24" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -15428,7 +16038,7 @@
         <v>16062043</v>
       </c>
     </row>
-    <row r="19" spans="1:83" s="16" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -15551,25 +16161,25 @@
       <c r="CD19" s="17"/>
       <c r="CE19" s="17"/>
     </row>
-    <row r="20" spans="1:83" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="20" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-    </row>
-    <row r="22" spans="1:83" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:83" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -15601,7 +16211,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -15616,8 +16226,8 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -15627,7 +16237,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -15641,17 +16251,17 @@
       <c r="L30" s="37"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -15684,15 +16294,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.375" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.375" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="60" customFormat="1" ht="21.1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -15709,58 +16319,58 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:30" s="61" customFormat="1" ht="16.3" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:30" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:30" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:30" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:30" s="62" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:30" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
         <v>2013</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-    </row>
-    <row r="5" spans="1:30" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+    </row>
+    <row r="5" spans="1:30" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -15775,22 +16385,22 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -15809,22 +16419,22 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:30" s="63" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -15843,27 +16453,27 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="1:30" s="63" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:30" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>2013</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="1:30" s="63" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:30" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
@@ -15901,7 +16511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -15942,7 +16552,7 @@
         <v>546437</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -15983,7 +16593,7 @@
         <v>3440676</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -16024,7 +16634,7 @@
         <v>1266891</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="63" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -16065,7 +16675,7 @@
         <v>149282</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -16111,7 +16721,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -16152,7 +16762,7 @@
         <v>136192</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -16193,7 +16803,7 @@
         <v>5821821</v>
       </c>
     </row>
-    <row r="17" spans="1:82" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:82" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -16234,7 +16844,7 @@
         <v>873622</v>
       </c>
     </row>
-    <row r="18" spans="1:82" s="63" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -16287,7 +16897,7 @@
         <v>16525061</v>
       </c>
     </row>
-    <row r="19" spans="1:82" s="66" customFormat="1" ht="28.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:82" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -16409,26 +17019,26 @@
       <c r="CC19" s="65"/>
       <c r="CD19" s="65"/>
     </row>
-    <row r="20" spans="1:82" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:82" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+    <row r="20" spans="1:82" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:82" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
       <c r="N21" s="63"/>
     </row>
-    <row r="22" spans="1:82" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:82" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -16445,7 +17055,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:82" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:82" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -16460,7 +17070,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -16475,8 +17085,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="67"/>
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
@@ -16488,7 +17098,7 @@
       <c r="L29" s="67"/>
       <c r="M29" s="67"/>
     </row>
-    <row r="30" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
       <c r="D30" s="73"/>
@@ -16502,17 +17112,17 @@
       <c r="L30" s="73"/>
       <c r="M30" s="73"/>
     </row>
-    <row r="31" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Respaldo_Susy\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11DA051-E6FD-4E4F-BA73-7CF50EDDF569}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen Gral 08-22" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen Gral 08-23" sheetId="1" r:id="rId1"/>
     <sheet name="2000" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="2001" sheetId="8" state="hidden" r:id="rId3"/>
     <sheet name="2008" sheetId="15" r:id="rId4"/>
@@ -32,7 +33,7 @@
     <sheet name="2022" sheetId="29" r:id="rId18"/>
     <sheet name="2023" sheetId="30" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -203,22 +204,22 @@
     <t>2008-2023</t>
   </si>
   <si>
-    <t>Var ene 2023 respecto a dic 2022</t>
+    <t>Por división económica 2008 - 2023</t>
   </si>
   <si>
-    <t>Por división económica 2008 - 2023</t>
+    <t>Var feb 2023 respecto a dic 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -764,17 +765,17 @@
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="2"/>
+    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 2 3" xfId="11"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal_INDICA18" xfId="5"/>
-    <cellStyle name="Normal_INDICA8" xfId="6"/>
-    <cellStyle name="Normal_Trab_Comer_Jal" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal_INDICA18" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal_INDICA8" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal_Trab_Comer_Jal" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Porcentaje" xfId="10" builtinId="5"/>
-    <cellStyle name="Porcentual 2" xfId="8"/>
-    <cellStyle name="Porcentual 3" xfId="9"/>
+    <cellStyle name="Porcentual 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Porcentual 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -865,6 +866,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -900,6 +918,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1075,25 +1110,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="18" width="8.77734375" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" customWidth="1"/>
-    <col min="20" max="33" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="20" max="33" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" s="46" customFormat="1" ht="20.25">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -1103,7 +1138,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
@@ -1140,7 +1175,7 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1212,7 @@
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>34</v>
       </c>
@@ -1214,7 +1249,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:33" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="1" customFormat="1" ht="26.45" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1249,7 +1284,7 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -1280,9 +1315,9 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -1311,7 +1346,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="96" t="s">
         <v>4</v>
       </c>
@@ -1364,13 +1399,13 @@
         <v>2023</v>
       </c>
       <c r="R8" s="92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="97"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
@@ -1418,14 +1453,14 @@
         <v>17</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:33" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="54" t="s">
         <v>19</v>
       </c>
@@ -1475,17 +1510,17 @@
         <v>759035</v>
       </c>
       <c r="Q10" s="39">
-        <v>799308</v>
+        <v>812350</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">Q10-P10</f>
-        <v>40273</v>
+        <v>53315</v>
       </c>
       <c r="S10" s="77"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="10" customFormat="1">
       <c r="A11" s="54" t="s">
         <v>1</v>
       </c>
@@ -1535,17 +1570,17 @@
         <v>4445136</v>
       </c>
       <c r="Q11" s="39">
-        <v>4402904</v>
+        <v>4427139</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>-42232</v>
+        <v>-17997</v>
       </c>
       <c r="S11" s="77"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="10" customFormat="1">
       <c r="A12" s="71" t="s">
         <v>33</v>
       </c>
@@ -1595,17 +1630,17 @@
         <v>1680166</v>
       </c>
       <c r="Q12" s="39">
-        <v>1719840</v>
+        <v>1745979</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>39674</v>
+        <v>65813</v>
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="10" customFormat="1" ht="22.5">
       <c r="A13" s="54" t="s">
         <v>22</v>
       </c>
@@ -1655,17 +1690,17 @@
         <v>151051</v>
       </c>
       <c r="Q13" s="39">
-        <v>150555</v>
+        <v>151028</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>-496</v>
+        <v>-23</v>
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14" s="54" t="s">
         <v>21</v>
       </c>
@@ -1715,14 +1750,14 @@
         <v>5897021</v>
       </c>
       <c r="Q14" s="39">
-        <v>5959166</v>
+        <v>6008820</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>62145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="54" t="s">
         <v>20</v>
       </c>
@@ -1772,17 +1807,17 @@
         <v>131177</v>
       </c>
       <c r="Q15" s="39">
-        <v>131369</v>
+        <v>131880</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>703</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="54" t="s">
         <v>2</v>
       </c>
@@ -1832,17 +1867,17 @@
         <v>6876545</v>
       </c>
       <c r="Q16" s="39">
-        <v>6889733</v>
+        <v>6943465</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>13188</v>
+        <v>66920</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:21" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="54" t="s">
         <v>23</v>
       </c>
@@ -1892,17 +1927,17 @@
         <v>1432765</v>
       </c>
       <c r="Q17" s="90">
-        <v>1431720</v>
+        <v>1439808</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="1">Q17-P17</f>
-        <v>-1045</v>
+        <v>7043</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="22.5">
       <c r="A18" s="56" t="s">
         <v>3</v>
       </c>
@@ -1968,16 +2003,16 @@
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21484595</v>
+        <v>21660469</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>111699</v>
+        <v>287573</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2000,7 +2035,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="18" customHeight="1">
       <c r="A20" s="95" t="s">
         <v>25</v>
       </c>
@@ -2022,7 +2057,7 @@
       <c r="Q20" s="95"/>
       <c r="R20" s="95"/>
     </row>
-    <row r="21" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="9.75" customHeight="1">
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
@@ -2041,7 +2076,7 @@
       <c r="Q21" s="79"/>
       <c r="R21" s="79"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2070,7 +2105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2080,15 +2115,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.88671875" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -2105,7 +2140,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -2122,7 +2157,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -2139,7 +2174,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2014</v>
       </c>
@@ -2156,7 +2191,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2171,7 +2206,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -2198,7 +2233,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -2225,7 +2260,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -2244,7 +2279,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -2283,7 +2318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -2324,7 +2359,7 @@
         <v>576888</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -2365,7 +2400,7 @@
         <v>3543646</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +2441,7 @@
         <v>1402760</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -2447,7 +2482,7 @@
         <v>147415</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -2493,7 +2528,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -2534,7 +2569,7 @@
         <v>128171</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -2575,7 +2610,7 @@
         <v>6018112</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -2616,7 +2651,7 @@
         <v>920137</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -2669,7 +2704,7 @@
         <v>17239587</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -2784,8 +2819,8 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -2802,7 +2837,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2819,7 +2854,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2834,7 +2869,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -2849,8 +2884,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -2873,22 +2908,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.88671875" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -2905,7 +2940,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -2922,7 +2957,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -2939,7 +2974,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2015</v>
       </c>
@@ -2956,7 +2991,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2971,7 +3006,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -2998,7 +3033,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -3025,7 +3060,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -3044,7 +3079,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -3083,7 +3118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -3124,7 +3159,7 @@
         <v>613496</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -3165,7 +3200,7 @@
         <v>3663462</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -3206,7 +3241,7 @@
         <v>1444096</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -3247,7 +3282,7 @@
         <v>146817</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -3293,7 +3328,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -3334,7 +3369,7 @@
         <v>122314</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +3410,7 @@
         <v>6191641</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -3416,7 +3451,7 @@
         <v>970856</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -3469,7 +3504,7 @@
         <v>17882161</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -3584,8 +3619,8 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -3602,7 +3637,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -3619,7 +3654,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -3634,7 +3669,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -3649,8 +3684,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -3667,22 +3702,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.88671875" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -3699,7 +3734,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -3716,7 +3751,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -3733,7 +3768,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2016</v>
       </c>
@@ -3750,7 +3785,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3765,7 +3800,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -3792,7 +3827,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -3819,7 +3854,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -3838,7 +3873,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -3877,7 +3912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -3918,7 +3953,7 @@
         <v>655624</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -3959,7 +3994,7 @@
         <v>3811152</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -4000,7 +4035,7 @@
         <v>1490951</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -4041,7 +4076,7 @@
         <v>143941</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -4087,7 +4122,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -4128,7 +4163,7 @@
         <v>120835</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -4169,7 +4204,7 @@
         <v>6418911</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -4210,7 +4245,7 @@
         <v>1024297</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -4263,7 +4298,7 @@
         <v>18616624</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -4378,8 +4413,8 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -4396,7 +4431,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -4413,7 +4448,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -4428,7 +4463,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -4443,8 +4478,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -4461,22 +4496,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.88671875" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -4493,7 +4528,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -4510,7 +4545,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -4527,7 +4562,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2017</v>
       </c>
@@ -4544,7 +4579,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4559,7 +4594,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -4586,7 +4621,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -4613,7 +4648,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -4632,7 +4667,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -4671,7 +4706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -4712,7 +4747,7 @@
         <v>705240</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -4753,7 +4788,7 @@
         <v>3924758</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -4794,7 +4829,7 @@
         <v>1577452</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -4835,7 +4870,7 @@
         <v>144868</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -4881,7 +4916,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -4922,7 +4957,7 @@
         <v>127031</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -4963,7 +4998,7 @@
         <v>6644969</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -5004,7 +5039,7 @@
         <v>1092588</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -5057,7 +5092,7 @@
         <v>19418455</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -5172,8 +5207,8 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -5190,7 +5225,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -5207,7 +5242,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -5222,7 +5257,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -5237,8 +5272,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -5255,22 +5290,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.88671875" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -5287,7 +5322,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -5304,7 +5339,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -5321,7 +5356,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2018</v>
       </c>
@@ -5338,7 +5373,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -5353,7 +5388,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -5380,7 +5415,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -5407,7 +5442,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -5426,7 +5461,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -5465,7 +5500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -5506,7 +5541,7 @@
         <v>736854</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -5547,7 +5582,7 @@
         <v>4046072</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -5588,7 +5623,7 @@
         <v>1587298</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -5629,7 +5664,7 @@
         <v>145917</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -5675,7 +5710,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -5716,7 +5751,7 @@
         <v>127936</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -5757,7 +5792,7 @@
         <v>6855708</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -5798,7 +5833,7 @@
         <v>1150983</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -5851,7 +5886,7 @@
         <v>20079365</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -5966,11 +6001,11 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -5987,7 +6022,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6004,7 +6039,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6019,7 +6054,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -6034,8 +6069,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -6052,22 +6087,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.88671875" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -6084,7 +6119,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -6101,7 +6136,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -6118,7 +6153,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2019</v>
       </c>
@@ -6135,7 +6170,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -6150,7 +6185,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -6177,7 +6212,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -6204,7 +6239,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -6223,7 +6258,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -6262,7 +6297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -6303,7 +6338,7 @@
         <v>747527</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -6344,7 +6379,7 @@
         <v>4143292</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -6385,7 +6420,7 @@
         <v>1574128</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -6426,7 +6461,7 @@
         <v>146299</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -6472,7 +6507,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -6513,7 +6548,7 @@
         <v>128449</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -6554,7 +6589,7 @@
         <v>7015581</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -6595,7 +6630,7 @@
         <v>1215181</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -6648,7 +6683,7 @@
         <v>20421442</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -6763,11 +6798,11 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -6784,7 +6819,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6801,7 +6836,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6816,12 +6851,12 @@
       <c r="L23" s="84"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:75">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -6836,42 +6871,42 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:75" ht="12.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:75" ht="12.75" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:75">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:75">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:75">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -6892,22 +6927,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.88671875" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -6924,7 +6959,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -6941,7 +6976,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -6958,7 +6993,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2020</v>
       </c>
@@ -6975,7 +7010,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -6990,7 +7025,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -7017,7 +7052,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -7044,7 +7079,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -7063,7 +7098,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -7102,7 +7137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -7143,7 +7178,7 @@
         <v>757997</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -7184,7 +7219,7 @@
         <v>4040863</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -7225,7 +7260,7 @@
         <v>1487563</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -7266,7 +7301,7 @@
         <v>146801</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -7312,7 +7347,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -7353,7 +7388,7 @@
         <v>119946</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -7394,7 +7429,7 @@
         <v>6568520</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -7435,7 +7470,7 @@
         <v>1213211</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -7488,7 +7523,7 @@
         <v>19773732</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -7603,11 +7638,11 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -7624,7 +7659,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -7641,7 +7676,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -7656,12 +7691,12 @@
       <c r="L23" s="84"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:75">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -7676,42 +7711,42 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:75" ht="12.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:75" ht="12.75" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:75">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:75">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:75">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -7733,22 +7768,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.88671875" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -7765,7 +7800,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -7782,7 +7817,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -7799,7 +7834,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2021</v>
       </c>
@@ -7816,7 +7851,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -7831,7 +7866,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -7858,7 +7893,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -7885,7 +7920,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -7904,7 +7939,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -7943,7 +7978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -7984,7 +8019,7 @@
         <v>766413</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -8025,7 +8060,7 @@
         <v>4290123</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -8066,7 +8101,7 @@
         <v>1591867</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -8107,7 +8142,7 @@
         <v>148204</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -8153,7 +8188,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -8194,7 +8229,7 @@
         <v>129632</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -8235,7 +8270,7 @@
         <v>6634858</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -8276,7 +8311,7 @@
         <v>1346231</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -8329,7 +8364,7 @@
         <v>20620148</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -8444,11 +8479,11 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -8465,7 +8500,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -8482,7 +8517,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -8497,12 +8532,12 @@
       <c r="L23" s="84"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:75">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -8517,42 +8552,42 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:75" ht="12.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:75" ht="12.75" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:75">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:75">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:75">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -8574,22 +8609,22 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.88671875" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -8606,7 +8641,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -8623,7 +8658,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -8640,7 +8675,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2022</v>
       </c>
@@ -8657,7 +8692,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -8672,7 +8707,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -8699,7 +8734,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -8726,7 +8761,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -8745,7 +8780,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -8784,7 +8819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -8825,7 +8860,7 @@
         <v>759035</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="63" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -8866,7 +8901,7 @@
         <v>4445136</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="63" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -8907,7 +8942,7 @@
         <v>1680166</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -8948,7 +8983,7 @@
         <v>151051</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -8994,7 +9029,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -9035,7 +9070,7 @@
         <v>131177</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -9076,7 +9111,7 @@
         <v>6876545</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -9117,7 +9152,7 @@
         <v>1432765</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="63" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -9170,7 +9205,7 @@
         <v>21372896</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -9285,11 +9320,11 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -9306,7 +9341,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -9323,7 +9358,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -9338,12 +9373,12 @@
       <c r="L23" s="84"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:75">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -9358,42 +9393,42 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:75" ht="12.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:75" ht="12.75" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:75">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:75">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:75">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -9415,22 +9450,23 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.88671875" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -9447,7 +9483,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -9464,7 +9500,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -9481,7 +9517,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2023</v>
       </c>
@@ -9498,7 +9534,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -9513,7 +9549,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -9540,7 +9576,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -9567,7 +9603,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -9586,7 +9622,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -9624,15 +9660,20 @@
       <c r="M9" s="50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="39">
         <v>799308</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="39">
+        <v>812350</v>
+      </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
@@ -9643,15 +9684,20 @@
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
-    </row>
-    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:23" s="63" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="39">
         <v>4402904</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="39">
+        <v>4427139</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -9662,15 +9708,20 @@
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
-    </row>
-    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:23" s="63" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="39">
         <v>1719840</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="39">
+        <v>1745979</v>
+      </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -9681,15 +9732,20 @@
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
-    </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="39">
         <v>150555</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="39">
+        <v>151028</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -9700,15 +9756,20 @@
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="39">
         <v>5959166</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="39">
+        <v>6008820</v>
+      </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -9719,20 +9780,22 @@
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="39">
         <v>131369</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="39">
+        <v>131880</v>
+      </c>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -9743,15 +9806,20 @@
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
-    </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="39">
         <v>6889733</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="39">
+        <v>6943465</v>
+      </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -9762,15 +9830,20 @@
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
-    </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="39">
         <v>1431720</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="39">
+        <v>1439808</v>
+      </c>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
@@ -9781,8 +9854,11 @@
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
-    </row>
-    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:75" s="63" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -9792,50 +9868,50 @@
       </c>
       <c r="C18" s="28">
         <f t="shared" si="0"/>
+        <v>21660469</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="28">
+      <c r="E18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="28">
+      <c r="F18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="28">
+      <c r="G18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="28">
+      <c r="H18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="28">
+      <c r="I18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="28">
+      <c r="J18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="28">
+      <c r="K18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="28">
+      <c r="L18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="28">
+      <c r="M18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -9845,11 +9921,11 @@
       </c>
       <c r="C19" s="75">
         <f>+(C18-B18)/B18*100</f>
+        <v>0.81860514475604507</v>
+      </c>
+      <c r="D19" s="75">
+        <f>+(D18-C18)/C18*100</f>
         <v>-100</v>
-      </c>
-      <c r="D19" s="75" t="e">
-        <f>+(D18-C18)/C18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="E19" s="75" t="e">
         <f>+(E18-D18)/D18*100</f>
@@ -9950,11 +10026,11 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -9971,7 +10047,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -9988,7 +10064,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -10003,12 +10079,12 @@
       <c r="L23" s="84"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:75">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -10023,42 +10099,42 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:75" ht="12.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:75" ht="12.75" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:75">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:75">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:75">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -10080,7 +10156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10090,13 +10166,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="13" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="13" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" s="46" customFormat="1" ht="20.25">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -10110,7 +10186,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:35" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="3" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -10127,7 +10203,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -10144,7 +10220,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:35" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2000</v>
       </c>
@@ -10161,7 +10237,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -10173,7 +10249,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="99" t="s">
         <v>29</v>
       </c>
@@ -10212,7 +10288,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
@@ -10251,7 +10327,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" s="6" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="6" customFormat="1" ht="12.2" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -10270,7 +10346,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:35" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="6" customFormat="1" ht="11.25">
       <c r="A9" s="96"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
@@ -10309,7 +10385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -10350,7 +10426,7 @@
         <v>415074</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>20</v>
       </c>
@@ -10391,7 +10467,7 @@
         <v>70220</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>21</v>
       </c>
@@ -10432,7 +10508,7 @@
         <v>4324170</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>0</v>
       </c>
@@ -10473,7 +10549,7 @@
         <v>894257</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="29" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="29" customFormat="1" ht="22.5">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -10514,7 +10590,7 @@
         <v>143785</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="41" t="s">
         <v>1</v>
       </c>
@@ -10555,7 +10631,7 @@
         <v>2328312</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>23</v>
       </c>
@@ -10596,7 +10672,7 @@
         <v>657323</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>2</v>
       </c>
@@ -10637,7 +10713,7 @@
         <v>3604619</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="6" customFormat="1" ht="11.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -10690,7 +10766,7 @@
         <v>12437760</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -10740,7 +10816,7 @@
         <v>-2.6589992388190691</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="6.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="21"/>
       <c r="D20" s="2"/>
@@ -10754,7 +10830,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -10771,7 +10847,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -10786,7 +10862,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -10801,15 +10877,15 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:13" ht="8.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="8.4499999999999993" customHeight="1">
       <c r="A24" s="15"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="18"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -10819,7 +10895,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -10856,7 +10932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10866,14 +10942,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="42" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="42" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:51" s="46" customFormat="1" ht="20.25">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -10887,7 +10963,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:51" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="3" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -10942,7 +11018,7 @@
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="1:51" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -10997,7 +11073,7 @@
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
     </row>
-    <row r="4" spans="1:51" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2001</v>
       </c>
@@ -11052,7 +11128,7 @@
       <c r="AX4" s="8"/>
       <c r="AY4" s="8"/>
     </row>
-    <row r="5" spans="1:51" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -11093,7 +11169,7 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="99" t="s">
         <v>29</v>
       </c>
@@ -11132,7 +11208,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
@@ -11171,7 +11247,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:51" s="6" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" s="6" customFormat="1" ht="12.2" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -11190,7 +11266,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:51" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" s="6" customFormat="1" ht="11.25">
       <c r="A9" s="96"/>
       <c r="B9" s="48" t="s">
         <v>6</v>
@@ -11229,7 +11305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -11270,7 +11346,7 @@
         <v>425046</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>20</v>
       </c>
@@ -11311,7 +11387,7 @@
         <v>65848</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>21</v>
       </c>
@@ -11352,7 +11428,7 @@
         <v>3907977</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>0</v>
       </c>
@@ -11393,7 +11469,7 @@
         <v>868267</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="29" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" s="29" customFormat="1" ht="22.5">
       <c r="A14" s="40" t="s">
         <v>22</v>
       </c>
@@ -11434,7 +11510,7 @@
         <v>147613</v>
       </c>
     </row>
-    <row r="15" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="41" t="s">
         <v>1</v>
       </c>
@@ -11475,7 +11551,7 @@
         <v>2407640</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>23</v>
       </c>
@@ -11516,7 +11592,7 @@
         <v>663441</v>
       </c>
     </row>
-    <row r="17" spans="1:42" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>2</v>
       </c>
@@ -11557,7 +11633,7 @@
         <v>3685113</v>
       </c>
     </row>
-    <row r="18" spans="1:42" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" s="6" customFormat="1" ht="11.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -11610,7 +11686,7 @@
         <v>12170945</v>
       </c>
     </row>
-    <row r="19" spans="1:42" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -11692,7 +11768,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="21"/>
       <c r="D20" s="2"/>
@@ -11735,7 +11811,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -11752,7 +11828,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -11767,7 +11843,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" spans="1:42" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -11782,15 +11858,15 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="24" spans="1:42" ht="8.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="8.4499999999999993" customHeight="1">
       <c r="A24" s="15"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42">
       <c r="A25" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -11800,7 +11876,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -11837,7 +11913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11847,14 +11923,14 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="13" width="8.33203125" customWidth="1"/>
-    <col min="14" max="24" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="24" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -11868,7 +11944,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -11896,7 +11972,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -11924,7 +12000,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2008</v>
       </c>
@@ -11952,7 +12028,7 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -11978,7 +12054,7 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -12013,7 +12089,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -12048,7 +12124,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="1" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -12067,7 +12143,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -12106,7 +12182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -12147,7 +12223,7 @@
         <v>458308</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="31" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -12188,7 +12264,7 @@
         <v>2924150</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="31" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -12229,7 +12305,7 @@
         <v>1099436</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="31" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="31" customFormat="1" ht="22.5">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -12270,7 +12346,7 @@
         <v>171728</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -12316,7 +12392,7 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -12357,7 +12433,7 @@
         <v>94703</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="31" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -12398,7 +12474,7 @@
         <v>5046744</v>
       </c>
     </row>
-    <row r="17" spans="1:107" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:107" s="31" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -12439,7 +12515,7 @@
         <v>765127</v>
       </c>
     </row>
-    <row r="18" spans="1:107" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:107" s="1" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -12492,7 +12568,7 @@
         <v>14178117</v>
       </c>
     </row>
-    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -12639,8 +12715,8 @@
       <c r="DB19" s="17"/>
       <c r="DC19" s="17"/>
     </row>
-    <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:107" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:107" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -12657,7 +12733,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:107" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:107" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -12674,7 +12750,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:107" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:107" s="23" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -12689,7 +12765,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:107" ht="12.75" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -12704,9 +12780,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:107" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:107" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:107" ht="12.75" customHeight="1">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -12720,17 +12796,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:107" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:107" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -12754,7 +12830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12764,14 +12840,14 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="13" width="8.33203125" customWidth="1"/>
-    <col min="14" max="24" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="24" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -12785,7 +12861,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -12813,7 +12889,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -12841,7 +12917,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2009</v>
       </c>
@@ -12869,7 +12945,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12895,7 +12971,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -12930,7 +13006,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -12965,7 +13041,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -12984,7 +13060,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -13023,7 +13099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -13064,7 +13140,7 @@
         <v>464568</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="30" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -13105,7 +13181,7 @@
         <v>2905074</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="30" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -13146,7 +13222,7 @@
         <v>1042576</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -13187,7 +13263,7 @@
         <v>129759</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -13233,7 +13309,7 @@
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -13274,7 +13350,7 @@
         <v>103655</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -13315,7 +13391,7 @@
         <v>5109194</v>
       </c>
     </row>
-    <row r="17" spans="1:107" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:107" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -13356,7 +13432,7 @@
         <v>747184</v>
       </c>
     </row>
-    <row r="18" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:107" s="24" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -13409,7 +13485,7 @@
         <v>14006404</v>
       </c>
     </row>
-    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:107" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -13556,8 +13632,8 @@
       <c r="DB19" s="17"/>
       <c r="DC19" s="17"/>
     </row>
-    <row r="20" spans="1:107" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:107" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:107" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:107" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -13574,7 +13650,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:107" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:107" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -13592,7 +13668,7 @@
       <c r="M22" s="22"/>
       <c r="N22" s="27"/>
     </row>
-    <row r="23" spans="1:107" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:107" s="23" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -13607,7 +13683,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:107" ht="12.75" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -13622,9 +13698,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:107" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:107" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:107" ht="12.75" customHeight="1">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -13638,17 +13714,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:107" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:107" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -13672,7 +13748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13682,14 +13758,14 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="13" width="8.33203125" customWidth="1"/>
-    <col min="14" max="20" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="20" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -13703,7 +13779,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -13727,7 +13803,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -13751,7 +13827,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2010</v>
       </c>
@@ -13775,7 +13851,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -13797,7 +13873,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -13832,7 +13908,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -13867,7 +13943,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -13886,7 +13962,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -13925,7 +14001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -13966,7 +14042,7 @@
         <v>481216</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="30" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -14007,7 +14083,7 @@
         <v>3042080</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="30" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -14048,7 +14124,7 @@
         <v>1128106</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -14089,7 +14165,7 @@
         <v>143946</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -14135,7 +14211,7 @@
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -14176,7 +14252,7 @@
         <v>104706</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -14217,7 +14293,7 @@
         <v>5287823</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -14258,7 +14334,7 @@
         <v>772019</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" s="24" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -14311,7 +14387,7 @@
         <v>14738783</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -14453,8 +14529,8 @@
       <c r="CX19" s="17"/>
       <c r="CY19" s="17"/>
     </row>
-    <row r="20" spans="1:103" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:103" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:103" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -14471,7 +14547,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:103" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -14488,7 +14564,7 @@
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:103" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:103" s="6" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -14503,7 +14579,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" ht="12.75" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -14518,9 +14594,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:103" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:103" ht="12.75" customHeight="1">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -14534,17 +14610,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:103" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:103" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -14567,7 +14643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14577,13 +14653,13 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="13" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="13" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -14597,7 +14673,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
@@ -14614,7 +14690,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -14631,7 +14707,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2011</v>
       </c>
@@ -14648,7 +14724,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -14663,7 +14739,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -14698,7 +14774,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -14733,7 +14809,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -14752,7 +14828,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -14791,7 +14867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -14832,7 +14908,7 @@
         <v>513080</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="30" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -14873,7 +14949,7 @@
         <v>3188378</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="30" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -14914,7 +14990,7 @@
         <v>1183722</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -14955,7 +15031,7 @@
         <v>148490</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -15001,7 +15077,7 @@
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -15042,7 +15118,7 @@
         <v>117450</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -15083,7 +15159,7 @@
         <v>5444181</v>
       </c>
     </row>
-    <row r="17" spans="1:95" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:95" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -15124,7 +15200,7 @@
         <v>817879</v>
       </c>
     </row>
-    <row r="18" spans="1:95" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95" s="24" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -15177,7 +15253,7 @@
         <v>15350335</v>
       </c>
     </row>
-    <row r="19" spans="1:95" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:95" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -15312,8 +15388,8 @@
       <c r="CP19" s="17"/>
       <c r="CQ19" s="17"/>
     </row>
-    <row r="20" spans="1:95" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:95" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:95" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:95" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -15330,7 +15406,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:95" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:95" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -15347,7 +15423,7 @@
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:95" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:95" s="6" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -15362,7 +15438,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:95" ht="12.75" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -15377,9 +15453,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:95" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:95" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:95" ht="12.75" customHeight="1">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -15393,17 +15469,17 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:95" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:95" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -15426,7 +15502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15436,15 +15512,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="12" width="8.33203125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="12" width="8.28515625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="20.25">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -15458,7 +15534,7 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -15475,7 +15551,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -15492,7 +15568,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2012</v>
       </c>
@@ -15509,7 +15585,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -15524,7 +15600,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -15559,7 +15635,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -15594,7 +15670,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="24" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -15613,7 +15689,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -15652,7 +15728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -15693,7 +15769,7 @@
         <v>538558</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="30" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -15734,7 +15810,7 @@
         <v>3349750</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="30" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -15775,7 +15851,7 @@
         <v>1241453</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="30" customFormat="1" ht="22.5">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -15816,7 +15892,7 @@
         <v>150911</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -15862,7 +15938,7 @@
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -15903,7 +15979,7 @@
         <v>132729</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -15944,7 +16020,7 @@
         <v>5666232</v>
       </c>
     </row>
-    <row r="17" spans="1:83" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -15985,7 +16061,7 @@
         <v>848162</v>
       </c>
     </row>
-    <row r="18" spans="1:83" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" s="24" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -16038,7 +16114,7 @@
         <v>16062043</v>
       </c>
     </row>
-    <row r="19" spans="1:83" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -16161,8 +16237,8 @@
       <c r="CD19" s="17"/>
       <c r="CE19" s="17"/>
     </row>
-    <row r="20" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:83" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -16179,7 +16255,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:83" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -16196,7 +16272,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:83" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:83" s="6" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -16211,7 +16287,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="25"/>
     </row>
-    <row r="27" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" ht="12.75" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -16226,8 +16302,8 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:83" ht="12.75" customHeight="1">
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -16237,7 +16313,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" ht="12.75" customHeight="1">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -16251,17 +16327,17 @@
       <c r="L30" s="37"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:83" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:83" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -16284,7 +16360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -16294,15 +16370,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.88671875" style="67"/>
+    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="60" customFormat="1" ht="20.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -16319,7 +16395,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:30" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="61" customFormat="1" ht="16.5">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -16336,7 +16412,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:30" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="62" customFormat="1" ht="14.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -16353,7 +16429,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:30" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="62" customFormat="1" ht="14.25">
       <c r="A4" s="101">
         <v>2013</v>
       </c>
@@ -16370,7 +16446,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:30" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="62" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -16385,7 +16461,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -16419,7 +16495,7 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -16453,7 +16529,7 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="1:30" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="63" customFormat="1" ht="13.7" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -16472,7 +16548,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:30" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -16511,7 +16587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -16552,7 +16628,7 @@
         <v>546437</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="63" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -16593,7 +16669,7 @@
         <v>3440676</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="63" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -16634,7 +16710,7 @@
         <v>1266891</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="63" customFormat="1" ht="22.5">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -16675,7 +16751,7 @@
         <v>149282</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -16721,7 +16797,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -16762,7 +16838,7 @@
         <v>136192</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -16803,7 +16879,7 @@
         <v>5821821</v>
       </c>
     </row>
-    <row r="17" spans="1:82" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -16844,7 +16920,7 @@
         <v>873622</v>
       </c>
     </row>
-    <row r="18" spans="1:82" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82" s="63" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -16897,7 +16973,7 @@
         <v>16525061</v>
       </c>
     </row>
-    <row r="19" spans="1:82" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" s="66" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -17019,8 +17095,8 @@
       <c r="CC19" s="65"/>
       <c r="CD19" s="65"/>
     </row>
-    <row r="20" spans="1:82" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:82" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:82" ht="30.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -17038,7 +17114,7 @@
       <c r="M21" s="95"/>
       <c r="N21" s="63"/>
     </row>
-    <row r="22" spans="1:82" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:82" ht="12.2" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -17055,7 +17131,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:82" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82" s="71" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -17070,7 +17146,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:82" ht="12.75" customHeight="1">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -17085,8 +17161,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:82" ht="12.75" customHeight="1">
       <c r="D29" s="67"/>
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
@@ -17098,7 +17174,7 @@
       <c r="L29" s="67"/>
       <c r="M29" s="67"/>
     </row>
-    <row r="30" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:82" ht="12.75" customHeight="1">
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
       <c r="D30" s="73"/>
@@ -17112,17 +17188,17 @@
       <c r="L30" s="73"/>
       <c r="M30" s="73"/>
     </row>
-    <row r="31" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:82" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:82" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>

--- a/Tabulados/TAnacional.xlsx
+++ b/Tabulados/TAnacional.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11DA051-E6FD-4E4F-BA73-7CF50EDDF569}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" tabRatio="848"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen Gral 08-23" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen Gral 08-22" sheetId="1" r:id="rId1"/>
     <sheet name="2000" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="2001" sheetId="8" state="hidden" r:id="rId3"/>
     <sheet name="2008" sheetId="15" r:id="rId4"/>
@@ -33,7 +32,7 @@
     <sheet name="2022" sheetId="29" r:id="rId18"/>
     <sheet name="2023" sheetId="30" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -207,19 +206,19 @@
     <t>Por división económica 2008 - 2023</t>
   </si>
   <si>
-    <t>Var feb 2023 respecto a dic 2022</t>
+    <t>Var mar 2023 respecto a dic 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -765,17 +764,17 @@
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Millares 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal_INDICA18" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal_INDICA8" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal_Trab_Comer_Jal" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 3" xfId="11"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal_INDICA18" xfId="5"/>
+    <cellStyle name="Normal_INDICA8" xfId="6"/>
+    <cellStyle name="Normal_Trab_Comer_Jal" xfId="7"/>
     <cellStyle name="Porcentaje" xfId="10" builtinId="5"/>
-    <cellStyle name="Porcentual 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Porcentual 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Porcentual 2" xfId="8"/>
+    <cellStyle name="Porcentual 3" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -866,23 +865,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -918,23 +900,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1110,25 +1075,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
-    <col min="20" max="33" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="20" max="33" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="46" customFormat="1" ht="20.25">
+    <row r="1" spans="1:33" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
@@ -1138,7 +1103,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
@@ -1175,7 +1140,7 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1177,7 @@
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>34</v>
       </c>
@@ -1249,7 +1214,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:33" s="1" customFormat="1" ht="26.45" customHeight="1">
+    <row r="5" spans="1:33" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1284,7 +1249,7 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>29</v>
       </c>
@@ -1315,7 +1280,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:33" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="s">
         <v>35</v>
       </c>
@@ -1346,7 +1311,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row r="8" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>4</v>
       </c>
@@ -1405,7 +1370,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row r="9" spans="1:33" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="97"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
@@ -1453,14 +1418,14 @@
         <v>17</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:33" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="10" spans="1:33" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>19</v>
       </c>
@@ -1510,17 +1475,17 @@
         <v>759035</v>
       </c>
       <c r="Q10" s="39">
-        <v>812350</v>
+        <v>816628</v>
       </c>
       <c r="R10" s="39">
         <f t="shared" ref="R10:R16" si="0">Q10-P10</f>
-        <v>53315</v>
+        <v>57593</v>
       </c>
       <c r="S10" s="77"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:33" s="10" customFormat="1">
+    <row r="11" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>1</v>
       </c>
@@ -1570,17 +1535,17 @@
         <v>4445136</v>
       </c>
       <c r="Q11" s="39">
-        <v>4427139</v>
+        <v>4453069</v>
       </c>
       <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>-17997</v>
+        <v>7933</v>
       </c>
       <c r="S11" s="77"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:33" s="10" customFormat="1">
+    <row r="12" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="71" t="s">
         <v>33</v>
       </c>
@@ -1630,17 +1595,17 @@
         <v>1680166</v>
       </c>
       <c r="Q12" s="39">
-        <v>1745979</v>
+        <v>1762109</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="0"/>
-        <v>65813</v>
+        <v>81943</v>
       </c>
       <c r="S12" s="77"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:33" s="10" customFormat="1" ht="22.5">
+    <row r="13" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>22</v>
       </c>
@@ -1690,17 +1655,17 @@
         <v>151051</v>
       </c>
       <c r="Q13" s="39">
-        <v>151028</v>
+        <v>151828</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>777</v>
       </c>
       <c r="S13" s="77"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>21</v>
       </c>
@@ -1750,14 +1715,14 @@
         <v>5897021</v>
       </c>
       <c r="Q14" s="39">
-        <v>6008820</v>
+        <v>6039891</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="0"/>
-        <v>111799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1">
+        <v>142870</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>20</v>
       </c>
@@ -1807,17 +1772,17 @@
         <v>131177</v>
       </c>
       <c r="Q15" s="39">
-        <v>131880</v>
+        <v>132085</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="0"/>
-        <v>703</v>
+        <v>908</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:33" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>2</v>
       </c>
@@ -1867,17 +1832,17 @@
         <v>6876545</v>
       </c>
       <c r="Q16" s="39">
-        <v>6943465</v>
+        <v>6986862</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="0"/>
-        <v>66920</v>
+        <v>110317</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:21" s="10" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:21" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>23</v>
       </c>
@@ -1927,17 +1892,17 @@
         <v>1432765</v>
       </c>
       <c r="Q17" s="90">
-        <v>1439808</v>
+        <v>1453808</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" ref="R17" si="1">Q17-P17</f>
-        <v>7043</v>
+        <v>21043</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="22.5">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>3</v>
       </c>
@@ -2003,16 +1968,16 @@
       </c>
       <c r="Q18" s="57">
         <f>SUM(Q10:Q17)</f>
-        <v>21660469</v>
+        <v>21796280</v>
       </c>
       <c r="R18" s="57">
         <f>SUM(R10:R17)</f>
-        <v>287573</v>
+        <v>423384</v>
       </c>
       <c r="S18" s="83"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" ht="7.5" customHeight="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2035,7 +2000,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="18" customHeight="1">
+    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="95" t="s">
         <v>25</v>
       </c>
@@ -2057,7 +2022,7 @@
       <c r="Q20" s="95"/>
       <c r="R20" s="95"/>
     </row>
-    <row r="21" spans="1:21" ht="9.75" customHeight="1">
+    <row r="21" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
@@ -2076,7 +2041,7 @@
       <c r="Q21" s="79"/>
       <c r="R21" s="79"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2105,7 +2070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2115,15 +2080,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -2140,7 +2105,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -2157,7 +2122,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +2139,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>2014</v>
       </c>
@@ -2191,7 +2156,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2206,7 +2171,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -2233,7 +2198,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -2260,7 +2225,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -2279,7 +2244,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -2318,7 +2283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -2359,7 +2324,7 @@
         <v>576888</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -2400,7 +2365,7 @@
         <v>3543646</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -2441,7 +2406,7 @@
         <v>1402760</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -2482,7 +2447,7 @@
         <v>147415</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -2528,7 +2493,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -2569,7 +2534,7 @@
         <v>128171</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -2610,7 +2575,7 @@
         <v>6018112</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -2651,7 +2616,7 @@
         <v>920137</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -2704,7 +2669,7 @@
         <v>17239587</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -2819,8 +2784,8 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -2837,7 +2802,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.2" customHeight="1">
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2854,7 +2819,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2869,7 +2834,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -2884,8 +2849,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -2908,22 +2873,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -2940,7 +2905,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -2957,7 +2922,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +2939,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>2015</v>
       </c>
@@ -2991,7 +2956,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3006,7 +2971,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -3033,7 +2998,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -3060,7 +3025,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -3079,7 +3044,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -3118,7 +3083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -3159,7 +3124,7 @@
         <v>613496</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -3200,7 +3165,7 @@
         <v>3663462</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3206,7 @@
         <v>1444096</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -3282,7 +3247,7 @@
         <v>146817</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -3328,7 +3293,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -3369,7 +3334,7 @@
         <v>122314</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -3410,7 +3375,7 @@
         <v>6191641</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -3451,7 +3416,7 @@
         <v>970856</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -3504,7 +3469,7 @@
         <v>17882161</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -3619,8 +3584,8 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -3637,7 +3602,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.2" customHeight="1">
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -3654,7 +3619,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -3669,7 +3634,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -3684,8 +3649,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -3702,22 +3667,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -3734,7 +3699,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -3751,7 +3716,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -3768,7 +3733,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>2016</v>
       </c>
@@ -3785,7 +3750,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3800,7 +3765,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -3827,7 +3792,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -3854,7 +3819,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -3873,7 +3838,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -3912,7 +3877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -3953,7 +3918,7 @@
         <v>655624</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -3994,7 +3959,7 @@
         <v>3811152</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -4035,7 +4000,7 @@
         <v>1490951</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -4076,7 +4041,7 @@
         <v>143941</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -4122,7 +4087,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -4163,7 +4128,7 @@
         <v>120835</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -4204,7 +4169,7 @@
         <v>6418911</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -4245,7 +4210,7 @@
         <v>1024297</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -4298,7 +4263,7 @@
         <v>18616624</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -4413,8 +4378,8 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -4431,7 +4396,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.2" customHeight="1">
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -4448,7 +4413,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -4463,7 +4428,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -4478,8 +4443,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -4496,22 +4461,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -4528,7 +4493,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -4545,7 +4510,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -4562,7 +4527,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>2017</v>
       </c>
@@ -4579,7 +4544,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4594,7 +4559,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -4621,7 +4586,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -4648,7 +4613,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -4667,7 +4632,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -4706,7 +4671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -4747,7 +4712,7 @@
         <v>705240</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -4788,7 +4753,7 @@
         <v>3924758</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -4829,7 +4794,7 @@
         <v>1577452</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -4870,7 +4835,7 @@
         <v>144868</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -4916,7 +4881,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -4957,7 +4922,7 @@
         <v>127031</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -4998,7 +4963,7 @@
         <v>6644969</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -5039,7 +5004,7 @@
         <v>1092588</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -5092,7 +5057,7 @@
         <v>19418455</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -5207,8 +5172,8 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1"/>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -5225,7 +5190,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.2" customHeight="1">
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -5242,7 +5207,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -5257,7 +5222,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -5272,8 +5237,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -5290,22 +5255,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -5322,7 +5287,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -5339,7 +5304,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -5356,7 +5321,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>2018</v>
       </c>
@@ -5373,7 +5338,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -5388,7 +5353,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -5415,7 +5380,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -5442,7 +5407,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -5461,7 +5426,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -5500,7 +5465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -5541,7 +5506,7 @@
         <v>736854</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -5582,7 +5547,7 @@
         <v>4046072</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -5623,7 +5588,7 @@
         <v>1587298</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -5664,7 +5629,7 @@
         <v>145917</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -5710,7 +5675,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -5751,7 +5716,7 @@
         <v>127936</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -5792,7 +5757,7 @@
         <v>6855708</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -5833,7 +5798,7 @@
         <v>1150983</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -5886,7 +5851,7 @@
         <v>20079365</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -6001,11 +5966,11 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -6022,7 +5987,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.2" customHeight="1">
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6039,7 +6004,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6054,7 +6019,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -6069,8 +6034,8 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -6087,22 +6052,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -6119,7 +6084,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -6136,7 +6101,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -6153,7 +6118,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>2019</v>
       </c>
@@ -6170,7 +6135,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -6185,7 +6150,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -6212,7 +6177,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -6239,7 +6204,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -6258,7 +6223,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -6297,7 +6262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -6338,7 +6303,7 @@
         <v>747527</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -6379,7 +6344,7 @@
         <v>4143292</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -6420,7 +6385,7 @@
         <v>1574128</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -6461,7 +6426,7 @@
         <v>146299</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -6507,7 +6472,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -6548,7 +6513,7 @@
         <v>128449</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -6589,7 +6554,7 @@
         <v>7015581</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -6630,7 +6595,7 @@
         <v>1215181</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -6683,7 +6648,7 @@
         <v>20421442</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -6798,11 +6763,11 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -6819,7 +6784,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.2" customHeight="1">
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -6836,7 +6801,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6851,12 +6816,12 @@
       <c r="L23" s="84"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="26" spans="1:75">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -6871,42 +6836,42 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1">
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1">
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:75">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:75">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:75">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -6927,22 +6892,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -6959,7 +6924,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -6976,7 +6941,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -6993,7 +6958,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>2020</v>
       </c>
@@ -7010,7 +6975,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -7025,7 +6990,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -7052,7 +7017,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -7079,7 +7044,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -7098,7 +7063,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -7137,7 +7102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -7178,7 +7143,7 @@
         <v>757997</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -7219,7 +7184,7 @@
         <v>4040863</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -7260,7 +7225,7 @@
         <v>1487563</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -7301,7 +7266,7 @@
         <v>146801</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -7347,7 +7312,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -7388,7 +7353,7 @@
         <v>119946</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -7429,7 +7394,7 @@
         <v>6568520</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -7470,7 +7435,7 @@
         <v>1213211</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -7523,7 +7488,7 @@
         <v>19773732</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -7638,11 +7603,11 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -7659,7 +7624,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.2" customHeight="1">
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -7676,7 +7641,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -7691,12 +7656,12 @@
       <c r="L23" s="84"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="26" spans="1:75">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -7711,42 +7676,42 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1">
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1">
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:75">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:75">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:75">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -7768,22 +7733,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -7800,7 +7765,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -7817,7 +7782,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -7834,7 +7799,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>2021</v>
       </c>
@@ -7851,7 +7816,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -7866,7 +7831,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -7893,7 +7858,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -7920,7 +7885,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -7939,7 +7904,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
     </row>
-    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:23" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>6</v>
@@ -7978,7 +7943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
@@ -8019,7 +7984,7 @@
         <v>766413</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="63" customFormat="1">
+    <row r="11" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
@@ -8060,7 +8025,7 @@
         <v>4290123</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="63" customFormat="1">
+    <row r="12" spans="1:23" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -8101,7 +8066,7 @@
         <v>1591867</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="63" customFormat="1" ht="22.5">
+    <row r="13" spans="1:23" s="63" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>22</v>
       </c>
@@ -8142,7 +8107,7 @@
         <v>148204</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
@@ -8188,7 +8153,7 @@
       <c r="Q14" s="63"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
@@ -8229,7 +8194,7 @@
         <v>129632</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -8270,7 +8235,7 @@
         <v>6634858</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -8311,7 +8276,7 @@
         <v>1346231</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="63" customFormat="1">
+    <row r="18" spans="1:75" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
@@ -8364,7 +8329,7 @@
         <v>20620148</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1">
+    <row r="19" spans="1:75" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
@@ -8479,11 +8444,11 @@
       <c r="BV19" s="65"/>
       <c r="BW19" s="65"/>
     </row>
-    <row r="20" spans="1:75" ht="10.5" customHeight="1">
+    <row r="20" spans="1:75" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:75" ht="30.75" customHeight="1">
+    <row r="21" spans="1:75" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -8500,7 +8465,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:75" ht="12.2" customHeight="1">
+    <row r="22" spans="1:75" ht="12.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -8517,7 +8482,7 @@
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1">
+    <row r="23" spans="1:75" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -8532,12 +8497,12 @@
       <c r="L23" s="84"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="26" spans="1:75">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:75" ht="12.75" customHeight="1">
+    <row r="27" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -8552,42 +8517,42 @@
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="1:75" ht="12.75" customHeight="1">
+    <row r="28" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:75" ht="12.75" customHeight="1">
+    <row r="29" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:75">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:75">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:75">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -8609,22 +8574,22 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="67" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="67" customWidth="1"/>
-    <col min="4" max="13" width="8.28515625" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.85546875" style="67"/>
+    <col min="1" max="1" width="30.21875" style="67" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="67" customWidth="1"/>
+    <col min="4" max="13" width="8.33203125" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="9.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="60" customFormat="1" ht="20.25">
+    <row r="1" spans="1:23" s="60" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
@@ -8641,7 +8606,7 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.5">
+    <row r="2" spans="1:23" s="61" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>28</v>
       </c>
@@ -8658,7 +8623,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="3" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
@@ -8675,7 +8640,7 @@
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" ht="14.25">
+    <row r="4" spans="1:23" s="62" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>2022</v>
       </c>
@@ -8692,7 +8657,7 @@
       <c r="L4" s="101"/>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -8707,7 +8672,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>32</v>
       </c>
@@ -8734,7 +8699,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:23" s="63" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
@@ -8761,7 +8726,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.7" customHeight="1">
+    <row r="8" spans="1:23" s="63" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
@@ -8780,7 +8745,7 @@
       <c r="L8